--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(RSI&KDJ)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(RSI&KDJ)cn.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="530" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="530" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="模型四 (1)PE副本" sheetId="14" r:id="rId1"/>
@@ -648,7 +648,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -714,6 +714,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -723,7 +726,7 @@
               <c:f>'模型四 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -789,6 +792,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>4244668.8663569177</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4415397.7453730423</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -831,7 +837,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -897,6 +903,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -906,7 +915,7 @@
               <c:f>'模型四 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -972,6 +981,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>4297670.0194356609</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4356915.6669407403</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1014,7 +1026,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1080,6 +1092,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1089,7 +1104,7 @@
               <c:f>'模型四 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1155,6 +1170,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>53001.153078743257</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-58482.078432301991</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1176,11 +1194,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="254319616"/>
-        <c:axId val="254813696"/>
+        <c:axId val="400407552"/>
+        <c:axId val="402948864"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="254319616"/>
+        <c:axId val="400407552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1223,14 +1241,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="254813696"/>
+        <c:crossAx val="402948864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="254813696"/>
+        <c:axId val="402948864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1281,7 +1299,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="254319616"/>
+        <c:crossAx val="400407552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1437,6 +1455,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1471,7 +1490,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1537,6 +1556,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>153462.94180681123</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>170728.87901612459</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1551,8 +1573,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="34121984"/>
-        <c:axId val="34120448"/>
+        <c:axId val="682460672"/>
+        <c:axId val="682355712"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1577,7 +1599,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1643,6 +1665,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1652,7 +1677,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1718,6 +1743,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.77100002765655518</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.75099998712539673</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1734,11 +1762,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="34117120"/>
-        <c:axId val="34118656"/>
+        <c:axId val="682350848"/>
+        <c:axId val="682352640"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="34117120"/>
+        <c:axId val="682350848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1781,14 +1809,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34118656"/>
+        <c:crossAx val="682352640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="34118656"/>
+        <c:axId val="682352640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1839,12 +1867,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34117120"/>
+        <c:crossAx val="682350848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="34120448"/>
+        <c:axId val="682355712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1881,12 +1909,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34121984"/>
+        <c:crossAx val="682460672"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="34121984"/>
+        <c:axId val="682460672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1895,7 +1923,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="34120448"/>
+        <c:crossAx val="682355712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2074,7 +2102,7 @@
               <c:f>'模型四 (3)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2140,6 +2168,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2149,7 +2180,7 @@
               <c:f>'模型四 (3)PE副本成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2215,6 +2246,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>11885188.111577189</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12352482.451603269</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2257,7 +2291,7 @@
               <c:f>'模型四 (3)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2323,6 +2357,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2332,7 +2369,7 @@
               <c:f>'模型四 (3)PE副本成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2398,6 +2435,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>12486638.838606769</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12630024.911561659</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2440,7 +2480,7 @@
               <c:f>'模型四 (3)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2506,6 +2546,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2515,7 +2558,7 @@
               <c:f>'模型四 (3)PE副本成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2581,6 +2624,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>601450.72702958062</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>277542.4599583894</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2602,11 +2648,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="34179712"/>
-        <c:axId val="34185600"/>
+        <c:axId val="682724352"/>
+        <c:axId val="682812544"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="34179712"/>
+        <c:axId val="682724352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2649,14 +2695,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34185600"/>
+        <c:crossAx val="682812544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="34185600"/>
+        <c:axId val="682812544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2707,7 +2753,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34179712"/>
+        <c:crossAx val="682724352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2863,6 +2909,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2897,7 +2944,7 @@
               <c:f>'模型四 (3)PE副本成交量'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2963,6 +3010,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>337749.47190853907</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>467294.34002607979</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2977,8 +3027,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="34207616"/>
-        <c:axId val="34206080"/>
+        <c:axId val="683057920"/>
+        <c:axId val="683031552"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3003,7 +3053,7 @@
               <c:f>'模型四 (3)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3069,6 +3119,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3078,7 +3131,7 @@
               <c:f>'模型四 (3)PE副本成交量'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3144,6 +3197,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.77100002765655518</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.75099998712539673</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3160,11 +3216,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="34202752"/>
-        <c:axId val="34204288"/>
+        <c:axId val="683008768"/>
+        <c:axId val="683011072"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="34202752"/>
+        <c:axId val="683008768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3207,14 +3263,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34204288"/>
+        <c:crossAx val="683011072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="34204288"/>
+        <c:axId val="683011072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3265,12 +3321,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34202752"/>
+        <c:crossAx val="683008768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="34206080"/>
+        <c:axId val="683031552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3307,12 +3363,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34207616"/>
+        <c:crossAx val="683057920"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="34207616"/>
+        <c:axId val="683057920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3321,7 +3377,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="34206080"/>
+        <c:crossAx val="683031552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3500,7 +3556,7 @@
               <c:f>'模型四 (3)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3566,6 +3622,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3575,7 +3634,7 @@
               <c:f>'模型四 (3)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3641,6 +3700,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>35663710.814917281</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>36786147.71431727</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3683,7 +3745,7 @@
               <c:f>'模型四 (3)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3749,6 +3811,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3758,7 +3823,7 @@
               <c:f>'模型四 (3)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3824,6 +3889,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>36734968.051809333</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>36904485.59505818</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3866,7 +3934,7 @@
               <c:f>'模型四 (3)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3932,6 +4000,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3941,7 +4012,7 @@
               <c:f>'模型四 (3)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4007,6 +4078,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>1071257.236892052</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>118337.88074091077</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4028,11 +4102,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="35260672"/>
-        <c:axId val="35266560"/>
+        <c:axId val="683347328"/>
+        <c:axId val="683398656"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="35260672"/>
+        <c:axId val="683347328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4075,14 +4149,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35266560"/>
+        <c:crossAx val="683398656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="35266560"/>
+        <c:axId val="683398656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4133,7 +4207,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35260672"/>
+        <c:crossAx val="683347328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4289,6 +4363,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4323,7 +4398,7 @@
               <c:f>'模型四 (3)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4389,6 +4464,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>956547.91831386578</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1122436.8993999888</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4403,8 +4481,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="35284480"/>
-        <c:axId val="35282944"/>
+        <c:axId val="482152448"/>
+        <c:axId val="728593536"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4429,7 +4507,7 @@
               <c:f>'模型四 (3)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4495,6 +4573,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4504,7 +4585,7 @@
               <c:f>'模型四 (3)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4570,6 +4651,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.77100002765655518</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.75099998712539673</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4586,11 +4670,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="35279616"/>
-        <c:axId val="35281152"/>
+        <c:axId val="684111360"/>
+        <c:axId val="684113280"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="35279616"/>
+        <c:axId val="684111360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4633,14 +4717,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35281152"/>
+        <c:crossAx val="684113280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="35281152"/>
+        <c:axId val="684113280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4691,12 +4775,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35279616"/>
+        <c:crossAx val="684111360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="35282944"/>
+        <c:axId val="728593536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4733,12 +4817,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35284480"/>
+        <c:crossAx val="482152448"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="35284480"/>
+        <c:axId val="482152448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4747,7 +4831,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="35282944"/>
+        <c:crossAx val="728593536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4874,6 +4958,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4908,7 +4993,7 @@
               <c:f>'模型四 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4974,6 +5059,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>153462.94180681123</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>170728.87901612459</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4988,8 +5076,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="271764480"/>
-        <c:axId val="271762944"/>
+        <c:axId val="513364352"/>
+        <c:axId val="513361792"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5014,7 +5102,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5080,6 +5168,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5089,7 +5180,7 @@
               <c:f>'模型四 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5155,6 +5246,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.77100002765655518</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.75099998712539673</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5171,11 +5265,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="265324416"/>
-        <c:axId val="265325952"/>
+        <c:axId val="483649792"/>
+        <c:axId val="513360256"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="265324416"/>
+        <c:axId val="483649792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5218,14 +5312,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="265325952"/>
+        <c:crossAx val="513360256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="265325952"/>
+        <c:axId val="513360256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5276,12 +5370,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="265324416"/>
+        <c:crossAx val="483649792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="271762944"/>
+        <c:axId val="513361792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5318,12 +5412,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="271764480"/>
+        <c:crossAx val="513364352"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="271764480"/>
+        <c:axId val="513364352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5332,7 +5426,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="271762944"/>
+        <c:crossAx val="513361792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5511,7 +5605,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5577,6 +5671,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5586,7 +5683,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5652,6 +5749,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>5649161.7729154676</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5811354.2079807855</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5694,7 +5794,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5760,6 +5860,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5769,7 +5872,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5835,6 +5938,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>5673901.6841965364</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5688910.9032006897</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5877,7 +5983,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5943,6 +6049,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5952,7 +6061,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6018,6 +6127,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>24739.911281068809</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-122443.30478009582</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6039,11 +6151,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="349252608"/>
-        <c:axId val="349570560"/>
+        <c:axId val="513545728"/>
+        <c:axId val="513566592"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="349252608"/>
+        <c:axId val="513545728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6086,14 +6198,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="349570560"/>
+        <c:crossAx val="513566592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="349570560"/>
+        <c:axId val="513566592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6144,7 +6256,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="349252608"/>
+        <c:crossAx val="513545728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6300,6 +6412,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6343,7 +6456,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6409,6 +6522,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>145789.79471647067</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>162192.43506531834</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6423,8 +6539,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="33893760"/>
-        <c:axId val="33892224"/>
+        <c:axId val="514939136"/>
+        <c:axId val="514937600"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6449,7 +6565,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6515,6 +6631,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6524,7 +6643,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6590,6 +6709,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.77100002765655518</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.75099998712539673</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6606,11 +6728,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="33888896"/>
-        <c:axId val="33890688"/>
+        <c:axId val="514916736"/>
+        <c:axId val="514919424"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="33888896"/>
+        <c:axId val="514916736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6653,14 +6775,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="33890688"/>
+        <c:crossAx val="514919424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="33890688"/>
+        <c:axId val="514919424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6711,12 +6833,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="33888896"/>
+        <c:crossAx val="514916736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="33892224"/>
+        <c:axId val="514937600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6753,12 +6875,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="33893760"/>
+        <c:crossAx val="514939136"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="33893760"/>
+        <c:axId val="514939136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6767,7 +6889,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="33892224"/>
+        <c:crossAx val="514937600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6946,7 +7068,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7012,6 +7134,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7021,7 +7146,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7087,6 +7212,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>48364087.72191865</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>49430402.776348636</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7129,7 +7257,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7195,6 +7323,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7204,7 +7335,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7270,6 +7401,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>49491428.45459871</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>49273916.609507725</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7312,7 +7446,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7378,6 +7512,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7387,7 +7524,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7453,6 +7590,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>1127340.73268006</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-156486.16684091091</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7474,11 +7614,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="33906688"/>
-        <c:axId val="33908224"/>
+        <c:axId val="601952640"/>
+        <c:axId val="601954560"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="33906688"/>
+        <c:axId val="601952640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7521,14 +7661,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="33908224"/>
+        <c:crossAx val="601954560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="33908224"/>
+        <c:axId val="601954560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7579,7 +7719,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="33906688"/>
+        <c:crossAx val="601952640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7735,6 +7875,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7778,7 +7919,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7844,6 +7985,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>908720.52239817241</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1066315.0544299893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7858,8 +8002,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="33938816"/>
-        <c:axId val="33937280"/>
+        <c:axId val="601974656"/>
+        <c:axId val="601973120"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7884,7 +8028,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7950,6 +8094,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7959,7 +8106,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -8025,6 +8172,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.77100002765655518</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.75099998712539673</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8041,11 +8191,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="33921664"/>
-        <c:axId val="33935744"/>
+        <c:axId val="601965312"/>
+        <c:axId val="601966848"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="33921664"/>
+        <c:axId val="601965312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8088,14 +8238,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="33935744"/>
+        <c:crossAx val="601966848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="33935744"/>
+        <c:axId val="601966848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8146,12 +8296,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="33921664"/>
+        <c:crossAx val="601965312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="33937280"/>
+        <c:axId val="601973120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8188,12 +8338,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="33938816"/>
+        <c:crossAx val="601974656"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="33938816"/>
+        <c:axId val="601974656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8202,7 +8352,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="33937280"/>
+        <c:crossAx val="601973120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8381,7 +8531,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8447,6 +8597,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8456,7 +8609,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8522,6 +8675,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>2092635.7129204471</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2154448.6984049096</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8564,7 +8720,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8630,6 +8786,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8639,7 +8798,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8705,6 +8864,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>2183212.8253780124</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2188392.42120045</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8747,7 +8909,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8813,6 +8975,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8822,7 +8987,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8888,6 +9053,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>90577.112457565265</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>33943.722795540467</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8909,11 +9077,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="34057600"/>
-        <c:axId val="34063488"/>
+        <c:axId val="602030080"/>
+        <c:axId val="602031616"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="34057600"/>
+        <c:axId val="602030080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8956,14 +9124,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34063488"/>
+        <c:crossAx val="602031616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="34063488"/>
+        <c:axId val="602031616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9014,7 +9182,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34057600"/>
+        <c:crossAx val="602030080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9170,6 +9338,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9204,7 +9373,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9270,6 +9439,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>44676.987106889028</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>61812.985484462457</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9284,8 +9456,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="34081408"/>
-        <c:axId val="34079872"/>
+        <c:axId val="632909824"/>
+        <c:axId val="602105344"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9310,7 +9482,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9376,6 +9548,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9385,7 +9560,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -9451,6 +9626,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.77100002765655518</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.75099998712539673</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9467,11 +9645,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="34076544"/>
-        <c:axId val="34078080"/>
+        <c:axId val="602100864"/>
+        <c:axId val="602103808"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="34076544"/>
+        <c:axId val="602100864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9514,14 +9692,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34078080"/>
+        <c:crossAx val="602103808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="34078080"/>
+        <c:axId val="602103808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9572,12 +9750,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34076544"/>
+        <c:crossAx val="602100864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="34079872"/>
+        <c:axId val="602105344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9614,12 +9792,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34081408"/>
+        <c:crossAx val="632909824"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="34081408"/>
+        <c:axId val="632909824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9628,7 +9806,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="34079872"/>
+        <c:crossAx val="602105344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9807,7 +9985,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9873,6 +10051,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9882,7 +10063,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9948,6 +10129,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>4304464.5446080463</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4475193.4236241709</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9990,7 +10174,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10056,6 +10240,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10065,7 +10252,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10131,6 +10318,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>4355880.2086214861</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4413615.8611832699</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10173,7 +10363,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10239,6 +10429,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10248,7 +10441,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10314,6 +10507,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>51415.664013439789</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-61577.562440901063</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10335,11 +10531,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="34098176"/>
-        <c:axId val="34104064"/>
+        <c:axId val="681215872"/>
+        <c:axId val="682340352"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="34098176"/>
+        <c:axId val="681215872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10382,14 +10578,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34104064"/>
+        <c:crossAx val="682340352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="34104064"/>
+        <c:axId val="682340352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10440,7 +10636,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34098176"/>
+        <c:crossAx val="681215872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11292,7 +11488,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG24"/>
+  <dimension ref="A1:AG25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12377,6 +12573,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="25" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="32">
+        <v>45044</v>
+      </c>
+      <c r="B25" s="31">
+        <v>0.75099998712539673</v>
+      </c>
+      <c r="C25" s="31">
+        <v>23.579999919999999</v>
+      </c>
+      <c r="D25" s="29">
+        <v>30.154382097569265</v>
+      </c>
+      <c r="E25" s="29">
+        <v>170728.87901612459</v>
+      </c>
+      <c r="F25" s="30">
+        <v>227335.39539677446</v>
+      </c>
+      <c r="G25" s="30">
+        <v>5801485.6746106083</v>
+      </c>
+      <c r="H25" s="30">
+        <v>4356915.6669407403</v>
+      </c>
+      <c r="I25" s="30">
+        <v>4415397.7453730423</v>
+      </c>
+      <c r="J25" s="30">
+        <v>4356915.6669407403</v>
+      </c>
+      <c r="K25" s="30">
+        <v>-58482.078432301991</v>
+      </c>
+      <c r="L25" s="29">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -12393,7 +12627,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH24"/>
+  <dimension ref="A1:AH25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13723,6 +13957,56 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="25" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="15">
+        <v>45044</v>
+      </c>
+      <c r="B25" s="31">
+        <v>0.75099998712539673</v>
+      </c>
+      <c r="C25" s="16">
+        <v>23.579999919999999</v>
+      </c>
+      <c r="D25" s="17">
+        <v>30.154382097569265</v>
+      </c>
+      <c r="E25" s="17">
+        <v>162192.43506531834</v>
+      </c>
+      <c r="F25" s="18">
+        <v>215968.62562693571</v>
+      </c>
+      <c r="G25" s="18">
+        <v>7575114.514949779</v>
+      </c>
+      <c r="H25" s="18">
+        <v>5688910.9032006897</v>
+      </c>
+      <c r="I25" s="18">
+        <v>5811354.2079807855</v>
+      </c>
+      <c r="J25" s="18">
+        <v>5688910.9032006897</v>
+      </c>
+      <c r="K25" s="18">
+        <v>-122443.30478009582</v>
+      </c>
+      <c r="L25" s="17">
+        <v>0</v>
+      </c>
+      <c r="M25" s="22">
+        <v>1.6235825800310466E-2</v>
+      </c>
+      <c r="N25" s="22">
+        <v>3.3549798769067905E-2</v>
+      </c>
+      <c r="O25" s="22">
+        <v>48.393213658495924</v>
+      </c>
+      <c r="P25" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -13739,7 +14023,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:AH24"/>
+  <dimension ref="A1:AH25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15069,6 +15353,56 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="25" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="15">
+        <v>45044</v>
+      </c>
+      <c r="B25" s="31">
+        <v>0.75099998712539673</v>
+      </c>
+      <c r="C25" s="16">
+        <v>23.579999919999999</v>
+      </c>
+      <c r="D25" s="17">
+        <v>30.154382097569265</v>
+      </c>
+      <c r="E25" s="17">
+        <v>1066315.0544299893</v>
+      </c>
+      <c r="F25" s="18">
+        <v>1419860.2832358552</v>
+      </c>
+      <c r="G25" s="18">
+        <v>65611075.172069624</v>
+      </c>
+      <c r="H25" s="18">
+        <v>49273916.609507725</v>
+      </c>
+      <c r="I25" s="18">
+        <v>49430402.776348636</v>
+      </c>
+      <c r="J25" s="18">
+        <v>49273916.609507725</v>
+      </c>
+      <c r="K25" s="18">
+        <v>-156486.16684091091</v>
+      </c>
+      <c r="L25" s="17">
+        <v>0</v>
+      </c>
+      <c r="M25" s="22">
+        <v>1.6235825800310466E-2</v>
+      </c>
+      <c r="N25" s="22">
+        <v>3.3549798769067905E-2</v>
+      </c>
+      <c r="O25" s="22">
+        <v>48.393213658495924</v>
+      </c>
+      <c r="P25" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -15085,7 +15419,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AJ24"/>
+  <dimension ref="A1:AJ25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16559,6 +16893,62 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="25" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="15">
+        <v>45044</v>
+      </c>
+      <c r="B25" s="31">
+        <v>0.75099998712539673</v>
+      </c>
+      <c r="C25" s="16">
+        <v>23.579999919999999</v>
+      </c>
+      <c r="D25" s="17">
+        <v>30.154382097569265</v>
+      </c>
+      <c r="E25" s="17">
+        <v>1925900</v>
+      </c>
+      <c r="F25" s="17">
+        <v>4625994.8803013396</v>
+      </c>
+      <c r="G25" s="17">
+        <v>61812.985484462457</v>
+      </c>
+      <c r="H25" s="18">
+        <v>82307.571962902526</v>
+      </c>
+      <c r="I25" s="18">
+        <v>2913971.3165335217</v>
+      </c>
+      <c r="J25" s="18">
+        <v>2188392.42120045</v>
+      </c>
+      <c r="K25" s="18">
+        <v>2154448.6984049096</v>
+      </c>
+      <c r="L25" s="18">
+        <v>2188392.42120045</v>
+      </c>
+      <c r="M25" s="18">
+        <v>33943.722795540467</v>
+      </c>
+      <c r="N25" s="17">
+        <v>0</v>
+      </c>
+      <c r="O25" s="22">
+        <v>1.6235825800310466E-2</v>
+      </c>
+      <c r="P25" s="22">
+        <v>3.3549798769067905E-2</v>
+      </c>
+      <c r="Q25" s="22">
+        <v>48.393213658495924</v>
+      </c>
+      <c r="R25" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="J2">
@@ -16575,7 +16965,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AJ24"/>
+  <dimension ref="A1:AJ25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17990,6 +18380,59 @@
         <v>1</v>
       </c>
     </row>
+    <row r="25" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="15">
+        <v>45044</v>
+      </c>
+      <c r="B25" s="31">
+        <v>0.75099998712539673</v>
+      </c>
+      <c r="C25" s="16">
+        <v>23.579999919999999</v>
+      </c>
+      <c r="D25" s="17">
+        <v>30.154382097569265</v>
+      </c>
+      <c r="E25" s="17">
+        <v>170728.87901612459</v>
+      </c>
+      <c r="F25" s="18">
+        <v>227335.39539677446</v>
+      </c>
+      <c r="G25" s="18">
+        <v>5876985.2687711362</v>
+      </c>
+      <c r="H25" s="18">
+        <v>4413615.8611832699</v>
+      </c>
+      <c r="I25" s="18">
+        <v>4475193.4236241709</v>
+      </c>
+      <c r="J25" s="18">
+        <v>4413615.8611832699</v>
+      </c>
+      <c r="K25" s="18">
+        <v>-61577.562440901063</v>
+      </c>
+      <c r="L25" s="17">
+        <v>0</v>
+      </c>
+      <c r="M25" s="21">
+        <v>51.666694813303359</v>
+      </c>
+      <c r="N25" s="21">
+        <v>44.636172502112707</v>
+      </c>
+      <c r="O25" s="21">
+        <v>37.449899885039635</v>
+      </c>
+      <c r="P25" s="21">
+        <v>59.008717736258845</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -18006,7 +18449,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AJ24"/>
+  <dimension ref="A1:AJ25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19232,6 +19675,50 @@
         <v>0</v>
       </c>
     </row>
+    <row r="25" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="15">
+        <v>45044</v>
+      </c>
+      <c r="B25" s="31">
+        <v>0.75099998712539673</v>
+      </c>
+      <c r="C25" s="16">
+        <v>23.579999919999999</v>
+      </c>
+      <c r="D25" s="17">
+        <v>30.154382097569265</v>
+      </c>
+      <c r="E25" s="17">
+        <v>1925900</v>
+      </c>
+      <c r="F25" s="17">
+        <v>4625994.8803013396</v>
+      </c>
+      <c r="G25" s="17">
+        <v>467294.34002607979</v>
+      </c>
+      <c r="H25" s="18">
+        <v>622229.49139419128</v>
+      </c>
+      <c r="I25" s="18">
+        <v>16817610.024076853</v>
+      </c>
+      <c r="J25" s="18">
+        <v>12630024.911561659</v>
+      </c>
+      <c r="K25" s="18">
+        <v>12352482.451603269</v>
+      </c>
+      <c r="L25" s="18">
+        <v>12630024.911561659</v>
+      </c>
+      <c r="M25" s="18">
+        <v>277542.4599583894</v>
+      </c>
+      <c r="N25" s="17">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="J2">
@@ -19248,7 +19735,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AG24"/>
+  <dimension ref="A1:AG25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -20333,6 +20820,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="25" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="15">
+        <v>45044</v>
+      </c>
+      <c r="B25" s="31">
+        <v>0.75099998712539673</v>
+      </c>
+      <c r="C25" s="16">
+        <v>23.579999919999999</v>
+      </c>
+      <c r="D25" s="17">
+        <v>30.154382097569265</v>
+      </c>
+      <c r="E25" s="17">
+        <v>1122436.8993999888</v>
+      </c>
+      <c r="F25" s="18">
+        <v>1494589.771827216</v>
+      </c>
+      <c r="G25" s="18">
+        <v>49140461.02226647</v>
+      </c>
+      <c r="H25" s="18">
+        <v>36904485.59505818</v>
+      </c>
+      <c r="I25" s="18">
+        <v>36786147.71431727</v>
+      </c>
+      <c r="J25" s="18">
+        <v>36904485.59505818</v>
+      </c>
+      <c r="K25" s="18">
+        <v>118337.88074091077</v>
+      </c>
+      <c r="L25" s="17">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(RSI&KDJ)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(RSI&KDJ)cn.xlsx
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="29">
   <si>
     <t>in practice</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -122,10 +122,6 @@
   </si>
   <si>
     <t>回收资金</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -648,7 +644,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -717,6 +713,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -726,7 +728,7 @@
               <c:f>'模型四 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -795,6 +797,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>4415397.7453730423</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4701076.0336823575</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4913912.8232615339</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -837,7 +845,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -906,6 +914,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -915,7 +929,7 @@
               <c:f>'模型四 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -984,6 +998,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>4356915.6669407403</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4462748.14001079</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4892523.8597752657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1026,7 +1046,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1095,6 +1115,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1104,7 +1130,7 @@
               <c:f>'模型四 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1173,6 +1199,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>-58482.078432301991</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-238327.89367156755</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-21388.963486268185</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1194,11 +1226,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="400407552"/>
-        <c:axId val="402948864"/>
+        <c:axId val="496152576"/>
+        <c:axId val="496154112"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="400407552"/>
+        <c:axId val="496152576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1241,14 +1273,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="402948864"/>
+        <c:crossAx val="496154112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="402948864"/>
+        <c:axId val="496154112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1299,7 +1331,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="400407552"/>
+        <c:crossAx val="496152576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1490,7 +1522,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1559,6 +1591,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>170728.87901612459</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>285678.28830931569</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>212836.78957917634</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1573,8 +1611,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="682460672"/>
-        <c:axId val="682355712"/>
+        <c:axId val="625588096"/>
+        <c:axId val="625586176"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1599,7 +1637,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1668,6 +1706,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1677,7 +1721,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1746,6 +1790,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0.75099998712539673</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.72000002861022949</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.75499999523162842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1762,11 +1812,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="682350848"/>
-        <c:axId val="682352640"/>
+        <c:axId val="625050368"/>
+        <c:axId val="625051904"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="682350848"/>
+        <c:axId val="625050368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1809,14 +1859,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="682352640"/>
+        <c:crossAx val="625051904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="682352640"/>
+        <c:axId val="625051904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1867,12 +1917,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="682350848"/>
+        <c:crossAx val="625050368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="682355712"/>
+        <c:axId val="625586176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1909,12 +1959,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="682460672"/>
+        <c:crossAx val="625588096"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="682460672"/>
+        <c:axId val="625588096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1923,7 +1973,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="682355712"/>
+        <c:crossAx val="625586176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2102,7 +2152,7 @@
               <c:f>'模型四 (3)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2171,6 +2221,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2180,7 +2236,7 @@
               <c:f>'模型四 (3)PE副本成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2249,6 +2305,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>12352482.451603269</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>13220712.491976377</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14028202.028995395</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2291,7 +2353,7 @@
               <c:f>'模型四 (3)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2360,6 +2422,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2369,7 +2437,7 @@
               <c:f>'模型四 (3)PE副本成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2438,6 +2506,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>12630024.911561659</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>12976909.738864124</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14415220.650412597</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2480,7 +2554,7 @@
               <c:f>'模型四 (3)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2549,6 +2623,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2558,7 +2638,7 @@
               <c:f>'模型四 (3)PE副本成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2627,6 +2707,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>277542.4599583894</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-243802.7531122528</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>387018.62141720206</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2648,11 +2734,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="682724352"/>
-        <c:axId val="682812544"/>
+        <c:axId val="493068672"/>
+        <c:axId val="493070208"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="682724352"/>
+        <c:axId val="493068672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2695,14 +2781,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="682812544"/>
+        <c:crossAx val="493070208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="682812544"/>
+        <c:axId val="493070208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2753,7 +2839,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="682724352"/>
+        <c:crossAx val="493068672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2944,7 +3030,7 @@
               <c:f>'模型四 (3)PE副本成交量'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3013,6 +3099,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>467294.34002607979</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>868230.04037310823</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>807489.53701901867</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3027,8 +3119,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="683057920"/>
-        <c:axId val="683031552"/>
+        <c:axId val="493175552"/>
+        <c:axId val="493161472"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3053,7 +3145,7 @@
               <c:f>'模型四 (3)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3122,6 +3214,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3131,7 +3229,7 @@
               <c:f>'模型四 (3)PE副本成交量'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3200,6 +3298,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0.75099998712539673</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.72000002861022949</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.75499999523162842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3216,11 +3320,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="683008768"/>
-        <c:axId val="683011072"/>
+        <c:axId val="493158400"/>
+        <c:axId val="493159936"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="683008768"/>
+        <c:axId val="493158400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3263,14 +3367,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="683011072"/>
+        <c:crossAx val="493159936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="683011072"/>
+        <c:axId val="493159936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3321,12 +3425,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="683008768"/>
+        <c:crossAx val="493158400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="683031552"/>
+        <c:axId val="493161472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3363,12 +3467,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="683057920"/>
+        <c:crossAx val="493175552"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="683057920"/>
+        <c:axId val="493175552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3377,7 +3481,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="683031552"/>
+        <c:crossAx val="493161472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3556,7 +3660,7 @@
               <c:f>'模型四 (3)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3625,6 +3729,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3634,7 +3744,7 @@
               <c:f>'模型四 (3)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3703,6 +3813,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>36786147.71431727</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>39215649.959529325</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>40777975.387659408</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3745,7 +3861,7 @@
               <c:f>'模型四 (3)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3814,6 +3930,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3823,7 +3945,7 @@
               <c:f>'模型四 (3)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3892,6 +4014,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>36904485.59505818</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>37810635.587163784</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>41210976.197097443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3934,7 +4062,7 @@
               <c:f>'模型四 (3)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4003,6 +4131,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4012,7 +4146,7 @@
               <c:f>'模型四 (3)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4081,6 +4215,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>118337.88074091077</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1405014.3723655418</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>433000.80943803489</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4102,11 +4242,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="683347328"/>
-        <c:axId val="683398656"/>
+        <c:axId val="496115712"/>
+        <c:axId val="496117248"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="683347328"/>
+        <c:axId val="496115712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4149,14 +4289,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="683398656"/>
+        <c:crossAx val="496117248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="683398656"/>
+        <c:axId val="496117248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4207,7 +4347,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="683347328"/>
+        <c:crossAx val="496115712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4398,7 +4538,7 @@
               <c:f>'模型四 (3)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4467,6 +4607,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>1122436.8993999888</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2429502.2452120553</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1562325.4281300842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4481,8 +4627,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="482152448"/>
-        <c:axId val="728593536"/>
+        <c:axId val="496148864"/>
+        <c:axId val="496147072"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4507,7 +4653,7 @@
               <c:f>'模型四 (3)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4576,6 +4722,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4585,7 +4737,7 @@
               <c:f>'模型四 (3)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4654,6 +4806,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0.75099998712539673</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.72000002861022949</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.75499999523162842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4670,11 +4828,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="684111360"/>
-        <c:axId val="684113280"/>
+        <c:axId val="496135552"/>
+        <c:axId val="496145536"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="684111360"/>
+        <c:axId val="496135552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4717,14 +4875,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="684113280"/>
+        <c:crossAx val="496145536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="684113280"/>
+        <c:axId val="496145536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4775,12 +4933,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="684111360"/>
+        <c:crossAx val="496135552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="728593536"/>
+        <c:axId val="496147072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4817,12 +4975,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="482152448"/>
+        <c:crossAx val="496148864"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="482152448"/>
+        <c:axId val="496148864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4831,7 +4989,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="728593536"/>
+        <c:crossAx val="496147072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4993,7 +5151,7 @@
               <c:f>'模型四 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5062,6 +5220,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>170728.87901612459</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>285678.28830931569</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>212836.78957917634</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5076,8 +5240,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="513364352"/>
-        <c:axId val="513361792"/>
+        <c:axId val="500011008"/>
+        <c:axId val="499992064"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5102,7 +5266,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5171,6 +5335,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5180,7 +5350,7 @@
               <c:f>'模型四 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5249,6 +5419,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0.75099998712539673</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.72000002861022949</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.75499999523162842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5265,11 +5441,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="483649792"/>
-        <c:axId val="513360256"/>
+        <c:axId val="499987584"/>
+        <c:axId val="499989504"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="483649792"/>
+        <c:axId val="499987584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5312,14 +5488,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="513360256"/>
+        <c:crossAx val="499989504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="513360256"/>
+        <c:axId val="499989504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5370,12 +5546,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="483649792"/>
+        <c:crossAx val="499987584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="513361792"/>
+        <c:axId val="499992064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5412,12 +5588,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="513364352"/>
+        <c:crossAx val="500011008"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="513364352"/>
+        <c:axId val="500011008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5426,7 +5602,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="513361792"/>
+        <c:crossAx val="499992064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5605,7 +5781,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5674,6 +5850,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5683,7 +5865,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5752,6 +5934,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>5811354.2079807855</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6082748.5818746351</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6284943.531974853</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5794,7 +5982,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5863,6 +6051,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5872,7 +6066,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5941,6 +6135,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>5688910.9032006897</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5725477.0413834555</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6205993.5156186232</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5983,7 +6183,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6052,6 +6252,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6061,7 +6267,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6130,6 +6336,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>-122443.30478009582</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-357271.54049117956</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-78950.016356229782</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6151,11 +6363,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="513545728"/>
-        <c:axId val="513566592"/>
+        <c:axId val="551725696"/>
+        <c:axId val="551739776"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="513545728"/>
+        <c:axId val="551725696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6198,14 +6410,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="513566592"/>
+        <c:crossAx val="551739776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="513566592"/>
+        <c:axId val="551739776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6256,7 +6468,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="513545728"/>
+        <c:crossAx val="551725696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6456,7 +6668,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6525,6 +6737,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>162192.43506531834</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>271394.3738938499</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>202194.95010021751</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6539,8 +6757,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="514939136"/>
-        <c:axId val="514937600"/>
+        <c:axId val="557106304"/>
+        <c:axId val="557100416"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6565,7 +6783,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6634,6 +6852,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6643,7 +6867,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6712,6 +6936,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0.75099998712539673</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.72000002861022949</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.75499999523162842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6728,11 +6958,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="514916736"/>
-        <c:axId val="514919424"/>
+        <c:axId val="557097344"/>
+        <c:axId val="557098880"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="514916736"/>
+        <c:axId val="557097344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6775,14 +7005,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="514919424"/>
+        <c:crossAx val="557098880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="514919424"/>
+        <c:axId val="557098880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6833,12 +7063,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="514916736"/>
+        <c:crossAx val="557097344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="514937600"/>
+        <c:axId val="557100416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6875,12 +7105,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="514939136"/>
+        <c:crossAx val="557106304"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="514939136"/>
+        <c:axId val="557106304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6889,7 +7119,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="514937600"/>
+        <c:crossAx val="557100416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7068,7 +7298,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7137,6 +7367,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7146,7 +7382,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7215,6 +7451,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>49430402.776348636</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>51738429.909300089</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>53222639.06602367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7257,7 +7499,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7326,6 +7568,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7335,7 +7583,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7404,6 +7652,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>49273916.609507725</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>49548003.133989498</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>53440793.3836805</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7446,7 +7700,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7515,6 +7769,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7524,7 +7784,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7593,6 +7853,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>-156486.16684091091</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-2190426.7753105909</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>218154.31765682995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7614,11 +7880,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="601952640"/>
-        <c:axId val="601954560"/>
+        <c:axId val="557131648"/>
+        <c:axId val="557158400"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="601952640"/>
+        <c:axId val="557131648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7661,14 +7927,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="601954560"/>
+        <c:crossAx val="557158400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="601954560"/>
+        <c:axId val="557158400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7719,7 +7985,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="601952640"/>
+        <c:crossAx val="557131648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7919,7 +8185,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7988,6 +8254,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>1066315.0544299893</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2308027.1329514524</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1484209.1567235799</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8002,8 +8274,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="601974656"/>
-        <c:axId val="601973120"/>
+        <c:axId val="557974656"/>
+        <c:axId val="557480960"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8028,7 +8300,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8097,6 +8369,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8106,7 +8384,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -8175,6 +8453,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0.75099998712539673</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.72000002861022949</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.75499999523162842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8191,11 +8475,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="601965312"/>
-        <c:axId val="601966848"/>
+        <c:axId val="557469056"/>
+        <c:axId val="557479040"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="601965312"/>
+        <c:axId val="557469056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8238,14 +8522,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="601966848"/>
+        <c:crossAx val="557479040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="601966848"/>
+        <c:axId val="557479040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8296,12 +8580,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="601965312"/>
+        <c:crossAx val="557469056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="601973120"/>
+        <c:axId val="557480960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8338,12 +8622,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="601974656"/>
+        <c:crossAx val="557974656"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="601974656"/>
+        <c:axId val="557974656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8352,7 +8636,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="601973120"/>
+        <c:crossAx val="557480960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8531,7 +8815,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8600,6 +8884,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8609,7 +8899,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8678,6 +8968,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>2154448.6984049096</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2269296.849315023</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2376110.3387055136</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8720,7 +9016,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8789,6 +9085,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8798,7 +9100,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8867,6 +9169,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>2188392.42120045</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2212907.5821836372</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2427292.8610672029</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8909,7 +9217,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8978,6 +9286,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8987,7 +9301,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9056,6 +9370,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>33943.722795540467</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-56389.267131385859</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>51182.522361689247</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9077,11 +9397,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="602030080"/>
-        <c:axId val="602031616"/>
+        <c:axId val="563157632"/>
+        <c:axId val="563213056"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="602030080"/>
+        <c:axId val="563157632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9124,14 +9444,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="602031616"/>
+        <c:crossAx val="563213056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="602031616"/>
+        <c:axId val="563213056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9182,7 +9502,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="602030080"/>
+        <c:crossAx val="563157632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9373,7 +9693,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9442,6 +9762,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>61812.985484462457</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>114848.15091011366</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>106813.48939049043</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9456,8 +9782,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="632909824"/>
-        <c:axId val="602105344"/>
+        <c:axId val="591996416"/>
+        <c:axId val="586266112"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9482,7 +9808,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9551,6 +9877,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9560,7 +9892,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -9629,6 +9961,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0.75099998712539673</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.72000002861022949</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.75499999523162842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9645,11 +9983,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="602100864"/>
-        <c:axId val="602103808"/>
+        <c:axId val="584087808"/>
+        <c:axId val="586264576"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="602100864"/>
+        <c:axId val="584087808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9692,14 +10030,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="602103808"/>
+        <c:crossAx val="586264576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="602103808"/>
+        <c:axId val="586264576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9750,12 +10088,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="602100864"/>
+        <c:crossAx val="584087808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="602105344"/>
+        <c:axId val="586266112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9792,12 +10130,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="632909824"/>
+        <c:crossAx val="591996416"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="632909824"/>
+        <c:axId val="591996416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9806,7 +10144,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="602105344"/>
+        <c:crossAx val="586266112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9985,7 +10323,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10054,6 +10392,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10063,7 +10407,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10132,6 +10476,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>4475193.4236241709</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4760871.7119334862</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4973708.5015126625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10174,7 +10524,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10243,6 +10593,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10252,7 +10608,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10321,6 +10677,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>4413615.8611832699</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4517107.849966431</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4949526.0530064544</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10363,7 +10725,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10432,6 +10794,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10441,7 +10809,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10510,6 +10878,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>-61577.562440901063</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-243763.86196705513</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-24182.448506208137</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10531,11 +10905,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="681215872"/>
-        <c:axId val="682340352"/>
+        <c:axId val="619906560"/>
+        <c:axId val="619913984"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="681215872"/>
+        <c:axId val="619906560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10578,14 +10952,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="682340352"/>
+        <c:crossAx val="619913984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="682340352"/>
+        <c:axId val="619913984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10636,7 +11010,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="681215872"/>
+        <c:crossAx val="619906560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11488,7 +11862,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG25"/>
+  <dimension ref="A1:AG27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11625,28 +11999,28 @@
       </c>
       <c r="M3" s="27"/>
       <c r="P3" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="46" t="s">
+      <c r="R3" s="46" t="s">
         <v>14</v>
-      </c>
-      <c r="R3" s="46" t="s">
-        <v>15</v>
       </c>
       <c r="S3" s="46" t="s">
         <v>10</v>
       </c>
       <c r="T3" s="46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U3" s="47" t="s">
         <v>12</v>
       </c>
       <c r="V3" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="W3" s="46" t="s">
         <v>17</v>
-      </c>
-      <c r="W3" s="46" t="s">
-        <v>18</v>
       </c>
       <c r="Y3" s="42">
         <v>44561</v>
@@ -12608,6 +12982,82 @@
         <v>-58482.078432301991</v>
       </c>
       <c r="L25" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="32">
+        <v>45077</v>
+      </c>
+      <c r="B26" s="31">
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="C26" s="31">
+        <v>21.329999919999999</v>
+      </c>
+      <c r="D26" s="29">
+        <v>29.834329246495866</v>
+      </c>
+      <c r="E26" s="29">
+        <v>285678.28830931569</v>
+      </c>
+      <c r="F26" s="30">
+        <v>396775.38466316788</v>
+      </c>
+      <c r="G26" s="30">
+        <v>6198261.0592737757</v>
+      </c>
+      <c r="H26" s="30">
+        <v>4462748.14001079</v>
+      </c>
+      <c r="I26" s="30">
+        <v>4701076.0336823575</v>
+      </c>
+      <c r="J26" s="30">
+        <v>4462748.14001079</v>
+      </c>
+      <c r="K26" s="30">
+        <v>-238327.89367156755</v>
+      </c>
+      <c r="L26" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="32">
+        <v>45107</v>
+      </c>
+      <c r="B27" s="31">
+        <v>0.75499999523162842</v>
+      </c>
+      <c r="C27" s="31">
+        <v>22.200000760000002</v>
+      </c>
+      <c r="D27" s="29">
+        <v>29.540486543586262</v>
+      </c>
+      <c r="E27" s="29">
+        <v>212836.78957917634</v>
+      </c>
+      <c r="F27" s="30">
+        <v>281903.03433562221</v>
+      </c>
+      <c r="G27" s="30">
+        <v>6480164.0936093982</v>
+      </c>
+      <c r="H27" s="30">
+        <v>4892523.8597752657</v>
+      </c>
+      <c r="I27" s="30">
+        <v>4913912.8232615339</v>
+      </c>
+      <c r="J27" s="30">
+        <v>4892523.8597752657</v>
+      </c>
+      <c r="K27" s="30">
+        <v>-21388.963486268185</v>
+      </c>
+      <c r="L27" s="29">
         <v>0</v>
       </c>
     </row>
@@ -12627,7 +13077,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH25"/>
+  <dimension ref="A1:AH27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12704,16 +13154,16 @@
         <v>12</v>
       </c>
       <c r="M1" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="44" t="s">
+      <c r="O1" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="48" t="s">
+      <c r="P1" s="11" t="s">
         <v>21</v>
-      </c>
-      <c r="P1" s="11" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -12775,28 +13225,28 @@
       </c>
       <c r="M3" s="21"/>
       <c r="Q3" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="46" t="s">
+      <c r="S3" s="46" t="s">
         <v>14</v>
-      </c>
-      <c r="S3" s="46" t="s">
-        <v>15</v>
       </c>
       <c r="T3" s="46" t="s">
         <v>10</v>
       </c>
       <c r="U3" s="46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="V3" s="47" t="s">
         <v>12</v>
       </c>
       <c r="W3" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="X3" s="46" t="s">
         <v>17</v>
-      </c>
-      <c r="X3" s="46" t="s">
-        <v>18</v>
       </c>
       <c r="Z3" s="42">
         <v>44561</v>
@@ -14004,6 +14454,106 @@
         <v>48.393213658495924</v>
       </c>
       <c r="P25" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="15">
+        <v>45077</v>
+      </c>
+      <c r="B26" s="31">
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="C26" s="16">
+        <v>21.329999919999999</v>
+      </c>
+      <c r="D26" s="17">
+        <v>29.834329246495866</v>
+      </c>
+      <c r="E26" s="17">
+        <v>271394.3738938499</v>
+      </c>
+      <c r="F26" s="18">
+        <v>376936.61543000949</v>
+      </c>
+      <c r="G26" s="18">
+        <v>7952051.1303797886</v>
+      </c>
+      <c r="H26" s="18">
+        <v>5725477.0413834555</v>
+      </c>
+      <c r="I26" s="18">
+        <v>6082748.5818746351</v>
+      </c>
+      <c r="J26" s="18">
+        <v>5725477.0413834555</v>
+      </c>
+      <c r="K26" s="18">
+        <v>-357271.54049117956</v>
+      </c>
+      <c r="L26" s="17">
+        <v>0</v>
+      </c>
+      <c r="M26" s="22">
+        <v>1.6235825800310466E-2</v>
+      </c>
+      <c r="N26" s="22">
+        <v>3.3549798769067905E-2</v>
+      </c>
+      <c r="O26" s="22">
+        <v>48.393213658495924</v>
+      </c>
+      <c r="P26" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="15">
+        <v>45107</v>
+      </c>
+      <c r="B27" s="31">
+        <v>0.75499999523162842</v>
+      </c>
+      <c r="C27" s="16">
+        <v>22.200000760000002</v>
+      </c>
+      <c r="D27" s="17">
+        <v>29.540486543586262</v>
+      </c>
+      <c r="E27" s="17">
+        <v>202194.95010021751</v>
+      </c>
+      <c r="F27" s="18">
+        <v>267807.88261884107</v>
+      </c>
+      <c r="G27" s="18">
+        <v>8219859.0129986294</v>
+      </c>
+      <c r="H27" s="18">
+        <v>6205993.5156186232</v>
+      </c>
+      <c r="I27" s="18">
+        <v>6284943.531974853</v>
+      </c>
+      <c r="J27" s="18">
+        <v>6205993.5156186232</v>
+      </c>
+      <c r="K27" s="18">
+        <v>-78950.016356229782</v>
+      </c>
+      <c r="L27" s="17">
+        <v>0</v>
+      </c>
+      <c r="M27" s="22">
+        <v>1.127487902799338E-2</v>
+      </c>
+      <c r="N27" s="22">
+        <v>3.124291452704148E-2</v>
+      </c>
+      <c r="O27" s="22">
+        <v>36.087795260697291</v>
+      </c>
+      <c r="P27" s="1">
         <v>0.95</v>
       </c>
     </row>
@@ -14023,7 +14573,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:AH25"/>
+  <dimension ref="A1:AH27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14100,16 +14650,16 @@
         <v>12</v>
       </c>
       <c r="M1" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="44" t="s">
+      <c r="O1" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="48" t="s">
+      <c r="P1" s="11" t="s">
         <v>21</v>
-      </c>
-      <c r="P1" s="11" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -14171,28 +14721,28 @@
       </c>
       <c r="M3" s="21"/>
       <c r="Q3" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="46" t="s">
+      <c r="S3" s="46" t="s">
         <v>14</v>
-      </c>
-      <c r="S3" s="46" t="s">
-        <v>15</v>
       </c>
       <c r="T3" s="46" t="s">
         <v>10</v>
       </c>
       <c r="U3" s="46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="V3" s="47" t="s">
         <v>12</v>
       </c>
       <c r="W3" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="X3" s="46" t="s">
         <v>17</v>
-      </c>
-      <c r="X3" s="46" t="s">
-        <v>18</v>
       </c>
       <c r="Z3" s="42">
         <v>44561</v>
@@ -15400,6 +15950,106 @@
         <v>48.393213658495924</v>
       </c>
       <c r="P25" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="15">
+        <v>45077</v>
+      </c>
+      <c r="B26" s="31">
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="C26" s="16">
+        <v>21.329999919999999</v>
+      </c>
+      <c r="D26" s="17">
+        <v>29.834329246495866</v>
+      </c>
+      <c r="E26" s="17">
+        <v>2308027.1329514524</v>
+      </c>
+      <c r="F26" s="18">
+        <v>3205593.1128315246</v>
+      </c>
+      <c r="G26" s="18">
+        <v>68816668.284901142</v>
+      </c>
+      <c r="H26" s="18">
+        <v>49548003.133989498</v>
+      </c>
+      <c r="I26" s="18">
+        <v>51738429.909300089</v>
+      </c>
+      <c r="J26" s="18">
+        <v>49548003.133989498</v>
+      </c>
+      <c r="K26" s="18">
+        <v>-2190426.7753105909</v>
+      </c>
+      <c r="L26" s="17">
+        <v>0</v>
+      </c>
+      <c r="M26" s="22">
+        <v>1.6235825800310466E-2</v>
+      </c>
+      <c r="N26" s="22">
+        <v>3.3549798769067905E-2</v>
+      </c>
+      <c r="O26" s="22">
+        <v>48.393213658495924</v>
+      </c>
+      <c r="P26" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="15">
+        <v>45107</v>
+      </c>
+      <c r="B27" s="31">
+        <v>0.75499999523162842</v>
+      </c>
+      <c r="C27" s="16">
+        <v>22.200000760000002</v>
+      </c>
+      <c r="D27" s="17">
+        <v>29.540486543586262</v>
+      </c>
+      <c r="E27" s="17">
+        <v>1484209.1567235799</v>
+      </c>
+      <c r="F27" s="18">
+        <v>1965839.9550959407</v>
+      </c>
+      <c r="G27" s="18">
+        <v>70782508.239997089</v>
+      </c>
+      <c r="H27" s="18">
+        <v>53440793.3836805</v>
+      </c>
+      <c r="I27" s="18">
+        <v>53222639.06602367</v>
+      </c>
+      <c r="J27" s="18">
+        <v>53440793.3836805</v>
+      </c>
+      <c r="K27" s="18">
+        <v>218154.31765682995</v>
+      </c>
+      <c r="L27" s="17">
+        <v>0</v>
+      </c>
+      <c r="M27" s="22">
+        <v>1.127487902799338E-2</v>
+      </c>
+      <c r="N27" s="22">
+        <v>3.124291452704148E-2</v>
+      </c>
+      <c r="O27" s="22">
+        <v>36.087795260697291</v>
+      </c>
+      <c r="P27" s="1">
         <v>0.95</v>
       </c>
     </row>
@@ -15419,7 +16069,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AJ25"/>
+  <dimension ref="A1:AJ27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15460,7 +16110,7 @@
   <sheetData>
     <row r="1" spans="1:36" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>2</v>
@@ -15472,10 +16122,10 @@
         <v>4</v>
       </c>
       <c r="E1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>23</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>24</v>
       </c>
       <c r="G1" s="40" t="s">
         <v>5</v>
@@ -15502,16 +16152,16 @@
         <v>12</v>
       </c>
       <c r="O1" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="44" t="s">
+      <c r="Q1" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="48" t="s">
+      <c r="R1" s="11" t="s">
         <v>21</v>
-      </c>
-      <c r="R1" s="11" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -15588,25 +16238,25 @@
         <v>1</v>
       </c>
       <c r="T3" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="U3" s="46" t="s">
         <v>14</v>
-      </c>
-      <c r="U3" s="46" t="s">
-        <v>15</v>
       </c>
       <c r="V3" s="46" t="s">
         <v>10</v>
       </c>
       <c r="W3" s="46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="X3" s="47" t="s">
         <v>12</v>
       </c>
       <c r="Y3" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z3" s="46" t="s">
         <v>17</v>
-      </c>
-      <c r="Z3" s="46" t="s">
-        <v>18</v>
       </c>
       <c r="AB3" s="42">
         <v>44561</v>
@@ -16946,6 +17596,118 @@
         <v>48.393213658495924</v>
       </c>
       <c r="R25" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="15">
+        <v>45077</v>
+      </c>
+      <c r="B26" s="31">
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="C26" s="16">
+        <v>21.329999919999999</v>
+      </c>
+      <c r="D26" s="17">
+        <v>29.834329246495866</v>
+      </c>
+      <c r="E26" s="17">
+        <v>1602700</v>
+      </c>
+      <c r="F26" s="17">
+        <v>4484713.805488782</v>
+      </c>
+      <c r="G26" s="17">
+        <v>114848.15091011366</v>
+      </c>
+      <c r="H26" s="18">
+        <v>159511.31437008103</v>
+      </c>
+      <c r="I26" s="18">
+        <v>3073482.6309036026</v>
+      </c>
+      <c r="J26" s="18">
+        <v>2212907.5821836372</v>
+      </c>
+      <c r="K26" s="18">
+        <v>2269296.849315023</v>
+      </c>
+      <c r="L26" s="18">
+        <v>2212907.5821836372</v>
+      </c>
+      <c r="M26" s="18">
+        <v>-56389.267131385859</v>
+      </c>
+      <c r="N26" s="17">
+        <v>0</v>
+      </c>
+      <c r="O26" s="22">
+        <v>1.6235825800310466E-2</v>
+      </c>
+      <c r="P26" s="22">
+        <v>3.3549798769067905E-2</v>
+      </c>
+      <c r="Q26" s="22">
+        <v>48.393213658495924</v>
+      </c>
+      <c r="R26" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="15">
+        <v>45107</v>
+      </c>
+      <c r="B27" s="31">
+        <v>0.75499999523162842</v>
+      </c>
+      <c r="C27" s="16">
+        <v>22.200000760000002</v>
+      </c>
+      <c r="D27" s="17">
+        <v>29.540486543586262</v>
+      </c>
+      <c r="E27" s="17">
+        <v>2280700</v>
+      </c>
+      <c r="F27" s="17">
+        <v>4412683.3111552252</v>
+      </c>
+      <c r="G27" s="17">
+        <v>106813.48939049043</v>
+      </c>
+      <c r="H27" s="18">
+        <v>141474.82127827147</v>
+      </c>
+      <c r="I27" s="18">
+        <v>3214957.4521818738</v>
+      </c>
+      <c r="J27" s="18">
+        <v>2427292.8610672029</v>
+      </c>
+      <c r="K27" s="18">
+        <v>2376110.3387055136</v>
+      </c>
+      <c r="L27" s="18">
+        <v>2427292.8610672029</v>
+      </c>
+      <c r="M27" s="18">
+        <v>51182.522361689247</v>
+      </c>
+      <c r="N27" s="17">
+        <v>0</v>
+      </c>
+      <c r="O27" s="22">
+        <v>1.127487902799338E-2</v>
+      </c>
+      <c r="P27" s="22">
+        <v>3.124291452704148E-2</v>
+      </c>
+      <c r="Q27" s="22">
+        <v>36.087795260697291</v>
+      </c>
+      <c r="R27" s="1">
         <v>0.95</v>
       </c>
     </row>
@@ -16965,7 +17727,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AJ25"/>
+  <dimension ref="A1:AJ27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17006,7 +17768,7 @@
   <sheetData>
     <row r="1" spans="1:36" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>2</v>
@@ -17042,19 +17804,19 @@
         <v>12</v>
       </c>
       <c r="M1" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="48" t="s">
+      <c r="O1" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="48" t="s">
+      <c r="P1" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="48" t="s">
+      <c r="Q1" s="11" t="s">
         <v>28</v>
-      </c>
-      <c r="Q1" s="11" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -17132,28 +17894,28 @@
         <v>1</v>
       </c>
       <c r="S3" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="T3" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="T3" s="46" t="s">
+      <c r="U3" s="46" t="s">
         <v>14</v>
-      </c>
-      <c r="U3" s="46" t="s">
-        <v>15</v>
       </c>
       <c r="V3" s="46" t="s">
         <v>10</v>
       </c>
       <c r="W3" s="46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="X3" s="47" t="s">
         <v>12</v>
       </c>
       <c r="Y3" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z3" s="46" t="s">
         <v>17</v>
-      </c>
-      <c r="Z3" s="46" t="s">
-        <v>18</v>
       </c>
       <c r="AB3" s="42">
         <v>44561</v>
@@ -18430,6 +19192,112 @@
         <v>59.008717736258845</v>
       </c>
       <c r="Q25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="15">
+        <v>45077</v>
+      </c>
+      <c r="B26" s="31">
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="C26" s="16">
+        <v>21.329999919999999</v>
+      </c>
+      <c r="D26" s="17">
+        <v>29.834329246495866</v>
+      </c>
+      <c r="E26" s="17">
+        <v>285678.28830931569</v>
+      </c>
+      <c r="F26" s="18">
+        <v>396775.38466316788</v>
+      </c>
+      <c r="G26" s="18">
+        <v>6273760.6534343045</v>
+      </c>
+      <c r="H26" s="18">
+        <v>4517107.849966431</v>
+      </c>
+      <c r="I26" s="18">
+        <v>4760871.7119334862</v>
+      </c>
+      <c r="J26" s="18">
+        <v>4517107.849966431</v>
+      </c>
+      <c r="K26" s="18">
+        <v>-243763.86196705513</v>
+      </c>
+      <c r="L26" s="17">
+        <v>0</v>
+      </c>
+      <c r="M26" s="21">
+        <v>51.666694813303359</v>
+      </c>
+      <c r="N26" s="21">
+        <v>44.636172502112707</v>
+      </c>
+      <c r="O26" s="21">
+        <v>37.449899885039635</v>
+      </c>
+      <c r="P26" s="21">
+        <v>59.008717736258845</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="15">
+        <v>45107</v>
+      </c>
+      <c r="B27" s="31">
+        <v>0.75499999523162842</v>
+      </c>
+      <c r="C27" s="16">
+        <v>22.200000760000002</v>
+      </c>
+      <c r="D27" s="17">
+        <v>29.540486543586262</v>
+      </c>
+      <c r="E27" s="17">
+        <v>212836.78957917634</v>
+      </c>
+      <c r="F27" s="18">
+        <v>281903.03433562221</v>
+      </c>
+      <c r="G27" s="18">
+        <v>6555663.6877699271</v>
+      </c>
+      <c r="H27" s="18">
+        <v>4949526.0530064544</v>
+      </c>
+      <c r="I27" s="18">
+        <v>4973708.5015126625</v>
+      </c>
+      <c r="J27" s="18">
+        <v>4949526.0530064544</v>
+      </c>
+      <c r="K27" s="18">
+        <v>-24182.448506208137</v>
+      </c>
+      <c r="L27" s="17">
+        <v>0</v>
+      </c>
+      <c r="M27" s="21">
+        <v>31.818216710700341</v>
+      </c>
+      <c r="N27" s="21">
+        <v>41.331767099766601</v>
+      </c>
+      <c r="O27" s="21">
+        <v>40.66355393645086</v>
+      </c>
+      <c r="P27" s="21">
+        <v>42.668193426398076</v>
+      </c>
+      <c r="Q27" s="1">
         <v>1</v>
       </c>
     </row>
@@ -18449,7 +19317,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AJ25"/>
+  <dimension ref="A1:AJ27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18490,7 +19358,7 @@
   <sheetData>
     <row r="1" spans="1:36" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>2</v>
@@ -18502,10 +19370,10 @@
         <v>4</v>
       </c>
       <c r="E1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>23</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>24</v>
       </c>
       <c r="G1" s="40" t="s">
         <v>5</v>
@@ -18601,28 +19469,28 @@
       </c>
       <c r="O3" s="7"/>
       <c r="S3" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="T3" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="T3" s="46" t="s">
+      <c r="U3" s="46" t="s">
         <v>14</v>
-      </c>
-      <c r="U3" s="46" t="s">
-        <v>15</v>
       </c>
       <c r="V3" s="46" t="s">
         <v>10</v>
       </c>
       <c r="W3" s="46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="X3" s="47" t="s">
         <v>12</v>
       </c>
       <c r="Y3" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z3" s="46" t="s">
         <v>17</v>
-      </c>
-      <c r="Z3" s="46" t="s">
-        <v>18</v>
       </c>
       <c r="AB3" s="42">
         <v>44561</v>
@@ -19716,6 +20584,94 @@
         <v>277542.4599583894</v>
       </c>
       <c r="N25" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="15">
+        <v>45077</v>
+      </c>
+      <c r="B26" s="31">
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="C26" s="16">
+        <v>21.329999919999999</v>
+      </c>
+      <c r="D26" s="17">
+        <v>29.834329246495866</v>
+      </c>
+      <c r="E26" s="17">
+        <v>1602700</v>
+      </c>
+      <c r="F26" s="17">
+        <v>4484713.805488782</v>
+      </c>
+      <c r="G26" s="17">
+        <v>868230.04037310823</v>
+      </c>
+      <c r="H26" s="18">
+        <v>1205875.0081565937</v>
+      </c>
+      <c r="I26" s="18">
+        <v>18023485.032233447</v>
+      </c>
+      <c r="J26" s="18">
+        <v>12976909.738864124</v>
+      </c>
+      <c r="K26" s="18">
+        <v>13220712.491976377</v>
+      </c>
+      <c r="L26" s="18">
+        <v>12976909.738864124</v>
+      </c>
+      <c r="M26" s="18">
+        <v>-243802.7531122528</v>
+      </c>
+      <c r="N26" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="15">
+        <v>45107</v>
+      </c>
+      <c r="B27" s="31">
+        <v>0.75499999523162842</v>
+      </c>
+      <c r="C27" s="16">
+        <v>22.200000760000002</v>
+      </c>
+      <c r="D27" s="17">
+        <v>29.540486543586262</v>
+      </c>
+      <c r="E27" s="17">
+        <v>2280700</v>
+      </c>
+      <c r="F27" s="17">
+        <v>4412683.3111552252</v>
+      </c>
+      <c r="G27" s="17">
+        <v>807489.53701901867</v>
+      </c>
+      <c r="H27" s="18">
+        <v>1069522.5723429136</v>
+      </c>
+      <c r="I27" s="18">
+        <v>19093007.60457636</v>
+      </c>
+      <c r="J27" s="18">
+        <v>14415220.650412597</v>
+      </c>
+      <c r="K27" s="18">
+        <v>14028202.028995395</v>
+      </c>
+      <c r="L27" s="18">
+        <v>14415220.650412597</v>
+      </c>
+      <c r="M27" s="18">
+        <v>387018.62141720206</v>
+      </c>
+      <c r="N27" s="17">
         <v>0</v>
       </c>
     </row>
@@ -19735,7 +20691,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AG25"/>
+  <dimension ref="A1:AG27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19776,7 +20732,7 @@
   <sheetData>
     <row r="1" spans="1:33" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>2</v>
@@ -19872,28 +20828,28 @@
       </c>
       <c r="M3" s="7"/>
       <c r="P3" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="46" t="s">
+      <c r="R3" s="46" t="s">
         <v>14</v>
-      </c>
-      <c r="R3" s="46" t="s">
-        <v>15</v>
       </c>
       <c r="S3" s="46" t="s">
         <v>10</v>
       </c>
       <c r="T3" s="46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U3" s="47" t="s">
         <v>12</v>
       </c>
       <c r="V3" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="W3" s="46" t="s">
         <v>17</v>
-      </c>
-      <c r="W3" s="46" t="s">
-        <v>18</v>
       </c>
       <c r="Y3" s="42">
         <v>44561</v>
@@ -20855,6 +21811,82 @@
         <v>118337.88074091077</v>
       </c>
       <c r="L25" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="15">
+        <v>45077</v>
+      </c>
+      <c r="B26" s="31">
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="C26" s="16">
+        <v>21.329999919999999</v>
+      </c>
+      <c r="D26" s="17">
+        <v>29.834329246495866</v>
+      </c>
+      <c r="E26" s="17">
+        <v>2429502.2452120553</v>
+      </c>
+      <c r="F26" s="18">
+        <v>3374308.5398226576</v>
+      </c>
+      <c r="G26" s="18">
+        <v>52514769.56208913</v>
+      </c>
+      <c r="H26" s="18">
+        <v>37810635.587163784</v>
+      </c>
+      <c r="I26" s="18">
+        <v>39215649.959529325</v>
+      </c>
+      <c r="J26" s="18">
+        <v>37810635.587163784</v>
+      </c>
+      <c r="K26" s="18">
+        <v>-1405014.3723655418</v>
+      </c>
+      <c r="L26" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="15">
+        <v>45107</v>
+      </c>
+      <c r="B27" s="31">
+        <v>0.75499999523162842</v>
+      </c>
+      <c r="C27" s="16">
+        <v>22.200000760000002</v>
+      </c>
+      <c r="D27" s="17">
+        <v>29.540486543586262</v>
+      </c>
+      <c r="E27" s="17">
+        <v>1562325.4281300842</v>
+      </c>
+      <c r="F27" s="18">
+        <v>2069305.2158904641</v>
+      </c>
+      <c r="G27" s="18">
+        <v>54584074.777979597</v>
+      </c>
+      <c r="H27" s="18">
+        <v>41210976.197097443</v>
+      </c>
+      <c r="I27" s="18">
+        <v>40777975.387659408</v>
+      </c>
+      <c r="J27" s="18">
+        <v>41210976.197097443</v>
+      </c>
+      <c r="K27" s="18">
+        <v>433000.80943803489</v>
+      </c>
+      <c r="L27" s="17">
         <v>0</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(RSI&KDJ)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(RSI&KDJ)cn.xlsx
@@ -644,7 +644,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -719,6 +719,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -728,7 +731,7 @@
               <c:f>'模型四 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -803,6 +806,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>4913912.8232615339</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5099420.2574212886</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -845,7 +851,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -920,6 +926,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -929,7 +938,7 @@
               <c:f>'模型四 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1004,6 +1013,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>4892523.8597752657</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5116912.1641673045</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1046,7 +1058,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1121,6 +1133,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1130,7 +1145,7 @@
               <c:f>'模型四 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1205,6 +1220,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>-21388.963486268185</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>17491.906746015884</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1226,11 +1244,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="496152576"/>
-        <c:axId val="496154112"/>
+        <c:axId val="396548352"/>
+        <c:axId val="396759040"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="496152576"/>
+        <c:axId val="396548352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1273,14 +1291,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496154112"/>
+        <c:crossAx val="396759040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="496154112"/>
+        <c:axId val="396759040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1331,7 +1349,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496152576"/>
+        <c:crossAx val="396548352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1522,7 +1540,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1597,6 +1615,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>212836.78957917634</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>185507.43415975483</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1611,8 +1632,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="625588096"/>
-        <c:axId val="625586176"/>
+        <c:axId val="396758016"/>
+        <c:axId val="396756480"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1637,7 +1658,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1712,6 +1733,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1721,7 +1745,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1796,6 +1820,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.75499999523162842</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.76099997758865356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1812,11 +1839,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="625050368"/>
-        <c:axId val="625051904"/>
+        <c:axId val="396536064"/>
+        <c:axId val="396754944"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="625050368"/>
+        <c:axId val="396536064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1859,14 +1886,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="625051904"/>
+        <c:crossAx val="396754944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="625051904"/>
+        <c:axId val="396754944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1917,12 +1944,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="625050368"/>
+        <c:crossAx val="396536064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="625586176"/>
+        <c:axId val="396756480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1959,12 +1986,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="625588096"/>
+        <c:crossAx val="396758016"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="625588096"/>
+        <c:axId val="396758016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1973,7 +2000,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="625586176"/>
+        <c:crossAx val="396756480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2152,7 +2179,7 @@
               <c:f>'模型四 (3)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2227,6 +2254,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2236,7 +2266,7 @@
               <c:f>'模型四 (3)PE副本成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2311,6 +2341,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>14028202.028995395</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>14648769.151263818</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2353,7 +2386,7 @@
               <c:f>'模型四 (3)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2428,6 +2461,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2437,7 +2473,7 @@
               <c:f>'模型四 (3)PE副本成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2512,6 +2548,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>14415220.650412597</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>15150345.481451025</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2554,7 +2593,7 @@
               <c:f>'模型四 (3)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2629,6 +2668,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2638,7 +2680,7 @@
               <c:f>'模型四 (3)PE副本成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2713,6 +2755,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>387018.62141720206</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>501576.33018720709</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2734,11 +2779,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="493068672"/>
-        <c:axId val="493070208"/>
+        <c:axId val="397740288"/>
+        <c:axId val="397742080"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="493068672"/>
+        <c:axId val="397740288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2781,14 +2826,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493070208"/>
+        <c:crossAx val="397742080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="493070208"/>
+        <c:axId val="397742080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2839,7 +2884,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493068672"/>
+        <c:crossAx val="397740288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3030,7 +3075,7 @@
               <c:f>'模型四 (3)PE副本成交量'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3105,6 +3150,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>807489.53701901867</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>620567.12226842251</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3119,8 +3167,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="493175552"/>
-        <c:axId val="493161472"/>
+        <c:axId val="397765248"/>
+        <c:axId val="397763712"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3145,7 +3193,7 @@
               <c:f>'模型四 (3)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3220,6 +3268,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3229,7 +3280,7 @@
               <c:f>'模型四 (3)PE副本成交量'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3304,6 +3355,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.75499999523162842</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.76099997758865356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3320,11 +3374,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="493158400"/>
-        <c:axId val="493159936"/>
+        <c:axId val="397756288"/>
+        <c:axId val="397757824"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="493158400"/>
+        <c:axId val="397756288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3367,14 +3421,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493159936"/>
+        <c:crossAx val="397757824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="493159936"/>
+        <c:axId val="397757824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3425,12 +3479,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493158400"/>
+        <c:crossAx val="397756288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="493161472"/>
+        <c:axId val="397763712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3467,12 +3521,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493175552"/>
+        <c:crossAx val="397765248"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="493175552"/>
+        <c:axId val="397765248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3481,7 +3535,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="493161472"/>
+        <c:crossAx val="397763712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3660,7 +3714,7 @@
               <c:f>'模型四 (3)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3735,6 +3789,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3744,7 +3801,7 @@
               <c:f>'模型四 (3)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3819,6 +3876,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>40777975.387659408</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42049261.872481778</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3861,7 +3921,7 @@
               <c:f>'模型四 (3)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3936,6 +3996,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3945,7 +4008,7 @@
               <c:f>'模型四 (3)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4020,6 +4083,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>41210976.197097443</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42809766.167562231</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4062,7 +4128,7 @@
               <c:f>'模型四 (3)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4137,6 +4203,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4146,7 +4215,7 @@
               <c:f>'模型四 (3)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4221,6 +4290,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>433000.80943803489</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>760504.29508045316</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4242,11 +4314,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="496115712"/>
-        <c:axId val="496117248"/>
+        <c:axId val="556288256"/>
+        <c:axId val="556290048"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="496115712"/>
+        <c:axId val="556288256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4289,14 +4361,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496117248"/>
+        <c:crossAx val="556290048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="496117248"/>
+        <c:axId val="556290048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4347,7 +4419,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496115712"/>
+        <c:crossAx val="556288256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4538,7 +4610,7 @@
               <c:f>'模型四 (3)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4613,6 +4685,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>1562325.4281300842</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1271286.4848223685</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4627,8 +4702,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="496148864"/>
-        <c:axId val="496147072"/>
+        <c:axId val="561126016"/>
+        <c:axId val="561124480"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4653,7 +4728,7 @@
               <c:f>'模型四 (3)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4728,6 +4803,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4737,7 +4815,7 @@
               <c:f>'模型四 (3)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4812,6 +4890,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.75499999523162842</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.76099997758865356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4828,11 +4909,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="496135552"/>
-        <c:axId val="496145536"/>
+        <c:axId val="556308352"/>
+        <c:axId val="556309888"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="496135552"/>
+        <c:axId val="556308352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4875,14 +4956,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496145536"/>
+        <c:crossAx val="556309888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="496145536"/>
+        <c:axId val="556309888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4933,12 +5014,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496135552"/>
+        <c:crossAx val="556308352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="496147072"/>
+        <c:axId val="561124480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4975,12 +5056,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496148864"/>
+        <c:crossAx val="561126016"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="496148864"/>
+        <c:axId val="561126016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4989,7 +5070,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="496147072"/>
+        <c:crossAx val="561124480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5151,7 +5232,7 @@
               <c:f>'模型四 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5226,6 +5307,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>212836.78957917634</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>185507.43415975483</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5240,8 +5324,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="500011008"/>
-        <c:axId val="499992064"/>
+        <c:axId val="396803072"/>
+        <c:axId val="396801536"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5266,7 +5350,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5341,6 +5425,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5350,7 +5437,7 @@
               <c:f>'模型四 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5425,6 +5512,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.75499999523162842</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.76099997758865356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5441,11 +5531,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="499987584"/>
-        <c:axId val="499989504"/>
+        <c:axId val="396795904"/>
+        <c:axId val="396797440"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="499987584"/>
+        <c:axId val="396795904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5488,14 +5578,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="499989504"/>
+        <c:crossAx val="396797440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="499989504"/>
+        <c:axId val="396797440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5546,12 +5636,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="499987584"/>
+        <c:crossAx val="396795904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="499992064"/>
+        <c:axId val="396801536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5588,12 +5678,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="500011008"/>
+        <c:crossAx val="396803072"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="500011008"/>
+        <c:axId val="396803072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5602,7 +5692,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="499992064"/>
+        <c:crossAx val="396801536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5781,7 +5871,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5856,6 +5946,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5865,7 +5958,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5940,6 +6033,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>6284943.531974853</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6461175.5944266198</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5982,7 +6078,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6057,6 +6153,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6066,7 +6165,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6141,6 +6240,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>6205993.5156186232</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6431544.5871256161</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6183,7 +6285,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6258,6 +6360,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6267,7 +6372,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6342,6 +6447,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>-78950.016356229782</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-29631.007301003672</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6363,11 +6471,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="551725696"/>
-        <c:axId val="551739776"/>
+        <c:axId val="509554048"/>
+        <c:axId val="564037120"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="551725696"/>
+        <c:axId val="509554048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6410,14 +6518,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="551739776"/>
+        <c:crossAx val="564037120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="551739776"/>
+        <c:axId val="564037120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6468,7 +6576,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="551725696"/>
+        <c:crossAx val="509554048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6668,7 +6776,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6743,6 +6851,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>202194.95010021751</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>176232.06245176709</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6757,8 +6868,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="557106304"/>
-        <c:axId val="557100416"/>
+        <c:axId val="564082944"/>
+        <c:axId val="564081408"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6783,7 +6894,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6858,6 +6969,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6867,7 +6981,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6942,6 +7056,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.75499999523162842</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.76099997758865356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6958,11 +7075,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="557097344"/>
-        <c:axId val="557098880"/>
+        <c:axId val="564061312"/>
+        <c:axId val="564062848"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="557097344"/>
+        <c:axId val="564061312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7005,14 +7122,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="557098880"/>
+        <c:crossAx val="564062848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="557098880"/>
+        <c:axId val="564062848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7063,12 +7180,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="557097344"/>
+        <c:crossAx val="564061312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="557100416"/>
+        <c:axId val="564081408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7105,12 +7222,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="557106304"/>
+        <c:crossAx val="564082944"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="557106304"/>
+        <c:axId val="564082944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7119,7 +7236,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="557100416"/>
+        <c:crossAx val="564081408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7298,7 +7415,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7373,6 +7490,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7382,7 +7502,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7457,6 +7577,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>53222639.06602367</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>54430361.226604924</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7499,7 +7622,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7574,6 +7697,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7583,7 +7709,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7658,6 +7784,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>53440793.3836805</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>55073209.344887719</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7700,7 +7829,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7775,6 +7904,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7784,7 +7916,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7859,6 +7991,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>218154.31765682995</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>642848.11828279495</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7880,11 +8015,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="557131648"/>
-        <c:axId val="557158400"/>
+        <c:axId val="564205824"/>
+        <c:axId val="564237056"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="557131648"/>
+        <c:axId val="564205824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7927,14 +8062,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="557158400"/>
+        <c:crossAx val="564237056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="557158400"/>
+        <c:axId val="564237056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7985,7 +8120,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="557131648"/>
+        <c:crossAx val="564205824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8185,7 +8320,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8260,6 +8395,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>1484209.1567235799</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1207722.16058125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8274,8 +8412,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="557974656"/>
-        <c:axId val="557480960"/>
+        <c:axId val="564394624"/>
+        <c:axId val="564391936"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8300,7 +8438,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8375,6 +8513,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8384,7 +8525,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -8459,6 +8600,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.75499999523162842</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.76099997758865356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8475,11 +8619,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="557469056"/>
-        <c:axId val="557479040"/>
+        <c:axId val="564355456"/>
+        <c:axId val="564357376"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="557469056"/>
+        <c:axId val="564355456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8522,14 +8666,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="557479040"/>
+        <c:crossAx val="564357376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="557479040"/>
+        <c:axId val="564357376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8580,12 +8724,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="557469056"/>
+        <c:crossAx val="564355456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="557480960"/>
+        <c:axId val="564391936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8622,12 +8766,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="557974656"/>
+        <c:crossAx val="564394624"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="557974656"/>
+        <c:axId val="564394624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8636,7 +8780,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="557480960"/>
+        <c:crossAx val="564391936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8815,7 +8959,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8890,6 +9034,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8899,7 +9046,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8974,6 +9121,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>2376110.3387055136</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2458198.0150055774</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9016,7 +9166,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9091,6 +9241,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9100,7 +9253,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9175,6 +9328,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>2427292.8610672029</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2528670.2253589444</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9217,7 +9373,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9292,6 +9448,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9301,7 +9460,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9376,6 +9535,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>51182.522361689247</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>70472.210353367031</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9397,11 +9559,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="563157632"/>
-        <c:axId val="563213056"/>
+        <c:axId val="565367168"/>
+        <c:axId val="565593984"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="563157632"/>
+        <c:axId val="565367168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9444,14 +9606,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="563213056"/>
+        <c:crossAx val="565593984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="563213056"/>
+        <c:axId val="565593984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9502,7 +9664,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="563157632"/>
+        <c:crossAx val="565367168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9693,7 +9855,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9768,6 +9930,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>106813.48939049043</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>82087.676300063496</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9782,8 +9947,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="591996416"/>
-        <c:axId val="586266112"/>
+        <c:axId val="614049280"/>
+        <c:axId val="607023104"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9808,7 +9973,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9883,6 +10048,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9892,7 +10060,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -9967,6 +10135,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.75499999523162842</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.76099997758865356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9983,11 +10154,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="584087808"/>
-        <c:axId val="586264576"/>
+        <c:axId val="580093056"/>
+        <c:axId val="581297664"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="584087808"/>
+        <c:axId val="580093056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10030,14 +10201,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="586264576"/>
+        <c:crossAx val="581297664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="586264576"/>
+        <c:axId val="581297664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10088,12 +10259,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="584087808"/>
+        <c:crossAx val="580093056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="586266112"/>
+        <c:axId val="607023104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10130,12 +10301,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="591996416"/>
+        <c:crossAx val="614049280"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="591996416"/>
+        <c:axId val="614049280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10144,7 +10315,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="586266112"/>
+        <c:crossAx val="607023104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10323,7 +10494,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10398,6 +10569,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10407,7 +10581,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10482,6 +10656,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>4973708.5015126625</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5159215.9356724173</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10524,7 +10701,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10599,6 +10776,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10608,7 +10788,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10683,6 +10863,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>4949526.0530064544</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5174367.3536314191</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10725,7 +10908,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10800,6 +10983,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10809,7 +10995,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10884,6 +11070,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>-24182.448506208137</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>15151.417959001847</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10905,11 +11094,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="619906560"/>
-        <c:axId val="619913984"/>
+        <c:axId val="614272384"/>
+        <c:axId val="396521856"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="619906560"/>
+        <c:axId val="614272384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10952,14 +11141,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="619913984"/>
+        <c:crossAx val="396521856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="619913984"/>
+        <c:axId val="396521856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11010,7 +11199,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="619906560"/>
+        <c:crossAx val="614272384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11862,7 +12051,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG27"/>
+  <dimension ref="A1:AG28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13061,6 +13250,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="28" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="32">
+        <v>45138</v>
+      </c>
+      <c r="B28" s="31">
+        <v>0.76099997758865356</v>
+      </c>
+      <c r="C28" s="31">
+        <v>22.409999849999998</v>
+      </c>
+      <c r="D28" s="29">
+        <v>29.263021620154856</v>
+      </c>
+      <c r="E28" s="29">
+        <v>185507.43415975483</v>
+      </c>
+      <c r="F28" s="30">
+        <v>243767.98899201537</v>
+      </c>
+      <c r="G28" s="30">
+        <v>6723932.0826014131</v>
+      </c>
+      <c r="H28" s="30">
+        <v>5116912.1641673045</v>
+      </c>
+      <c r="I28" s="30">
+        <v>5099420.2574212886</v>
+      </c>
+      <c r="J28" s="30">
+        <v>5116912.1641673045</v>
+      </c>
+      <c r="K28" s="30">
+        <v>17491.906746015884</v>
+      </c>
+      <c r="L28" s="29">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -13077,7 +13304,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH27"/>
+  <dimension ref="A1:AH28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14557,6 +14784,56 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="28" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="15">
+        <v>45138</v>
+      </c>
+      <c r="B28" s="31">
+        <v>0.76099997758865356</v>
+      </c>
+      <c r="C28" s="16">
+        <v>22.409999849999998</v>
+      </c>
+      <c r="D28" s="17">
+        <v>29.263021620154856</v>
+      </c>
+      <c r="E28" s="17">
+        <v>176232.06245176709</v>
+      </c>
+      <c r="F28" s="18">
+        <v>231579.58954241459</v>
+      </c>
+      <c r="G28" s="18">
+        <v>8451438.6025410444</v>
+      </c>
+      <c r="H28" s="18">
+        <v>6431544.5871256161</v>
+      </c>
+      <c r="I28" s="18">
+        <v>6461175.5944266198</v>
+      </c>
+      <c r="J28" s="18">
+        <v>6431544.5871256161</v>
+      </c>
+      <c r="K28" s="18">
+        <v>-29631.007301003672</v>
+      </c>
+      <c r="L28" s="17">
+        <v>0</v>
+      </c>
+      <c r="M28" s="22">
+        <v>1.522906029356097E-2</v>
+      </c>
+      <c r="N28" s="22">
+        <v>3.1869089876101056E-2</v>
+      </c>
+      <c r="O28" s="22">
+        <v>47.786304387002254</v>
+      </c>
+      <c r="P28" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -14573,7 +14850,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:AH27"/>
+  <dimension ref="A1:AH28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16053,6 +16330,56 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="28" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="15">
+        <v>45138</v>
+      </c>
+      <c r="B28" s="31">
+        <v>0.76099997758865356</v>
+      </c>
+      <c r="C28" s="16">
+        <v>22.409999849999998</v>
+      </c>
+      <c r="D28" s="17">
+        <v>29.263021620154856</v>
+      </c>
+      <c r="E28" s="17">
+        <v>1207722.16058125</v>
+      </c>
+      <c r="F28" s="18">
+        <v>1587019.9686576929</v>
+      </c>
+      <c r="G28" s="18">
+        <v>72369528.208654776</v>
+      </c>
+      <c r="H28" s="18">
+        <v>55073209.344887719</v>
+      </c>
+      <c r="I28" s="18">
+        <v>54430361.226604924</v>
+      </c>
+      <c r="J28" s="18">
+        <v>55073209.344887719</v>
+      </c>
+      <c r="K28" s="18">
+        <v>642848.11828279495</v>
+      </c>
+      <c r="L28" s="17">
+        <v>0</v>
+      </c>
+      <c r="M28" s="22">
+        <v>1.522906029356097E-2</v>
+      </c>
+      <c r="N28" s="22">
+        <v>3.1869089876101056E-2</v>
+      </c>
+      <c r="O28" s="22">
+        <v>47.786304387002254</v>
+      </c>
+      <c r="P28" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -16069,7 +16396,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AJ27"/>
+  <dimension ref="A1:AJ28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17711,6 +18038,62 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="28" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="15">
+        <v>45138</v>
+      </c>
+      <c r="B28" s="31">
+        <v>0.76099997758865356</v>
+      </c>
+      <c r="C28" s="16">
+        <v>22.409999849999998</v>
+      </c>
+      <c r="D28" s="17">
+        <v>29.263021620154856</v>
+      </c>
+      <c r="E28" s="17">
+        <v>2111506</v>
+      </c>
+      <c r="F28" s="17">
+        <v>4325606.2786714146</v>
+      </c>
+      <c r="G28" s="17">
+        <v>82087.676300063496</v>
+      </c>
+      <c r="H28" s="18">
+        <v>107868.17177074174</v>
+      </c>
+      <c r="I28" s="18">
+        <v>3322825.6239526155</v>
+      </c>
+      <c r="J28" s="18">
+        <v>2528670.2253589444</v>
+      </c>
+      <c r="K28" s="18">
+        <v>2458198.0150055774</v>
+      </c>
+      <c r="L28" s="18">
+        <v>2528670.2253589444</v>
+      </c>
+      <c r="M28" s="18">
+        <v>70472.210353367031</v>
+      </c>
+      <c r="N28" s="17">
+        <v>0</v>
+      </c>
+      <c r="O28" s="22">
+        <v>1.522906029356097E-2</v>
+      </c>
+      <c r="P28" s="22">
+        <v>3.1869089876101056E-2</v>
+      </c>
+      <c r="Q28" s="22">
+        <v>47.786304387002254</v>
+      </c>
+      <c r="R28" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="J2">
@@ -17727,7 +18110,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AJ27"/>
+  <dimension ref="A1:AJ28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19301,6 +19684,59 @@
         <v>1</v>
       </c>
     </row>
+    <row r="28" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="15">
+        <v>45138</v>
+      </c>
+      <c r="B28" s="31">
+        <v>0.76099997758865356</v>
+      </c>
+      <c r="C28" s="16">
+        <v>22.409999849999998</v>
+      </c>
+      <c r="D28" s="17">
+        <v>29.263021620154856</v>
+      </c>
+      <c r="E28" s="17">
+        <v>185507.43415975483</v>
+      </c>
+      <c r="F28" s="18">
+        <v>243767.98899201537</v>
+      </c>
+      <c r="G28" s="18">
+        <v>6799431.676761942</v>
+      </c>
+      <c r="H28" s="18">
+        <v>5174367.3536314191</v>
+      </c>
+      <c r="I28" s="18">
+        <v>5159215.9356724173</v>
+      </c>
+      <c r="J28" s="18">
+        <v>5174367.3536314191</v>
+      </c>
+      <c r="K28" s="18">
+        <v>15151.417959001847</v>
+      </c>
+      <c r="L28" s="17">
+        <v>0</v>
+      </c>
+      <c r="M28" s="21">
+        <v>58.333337096251995</v>
+      </c>
+      <c r="N28" s="21">
+        <v>46.998957098595064</v>
+      </c>
+      <c r="O28" s="21">
+        <v>42.775354990498926</v>
+      </c>
+      <c r="P28" s="21">
+        <v>55.446161314787332</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -19317,7 +19753,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AJ27"/>
+  <dimension ref="A1:AJ28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -20675,6 +21111,50 @@
         <v>0</v>
       </c>
     </row>
+    <row r="28" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="15">
+        <v>45138</v>
+      </c>
+      <c r="B28" s="31">
+        <v>0.76099997758865356</v>
+      </c>
+      <c r="C28" s="16">
+        <v>22.409999849999998</v>
+      </c>
+      <c r="D28" s="17">
+        <v>29.263021620154856</v>
+      </c>
+      <c r="E28" s="17">
+        <v>2111506</v>
+      </c>
+      <c r="F28" s="17">
+        <v>4325606.2786714146</v>
+      </c>
+      <c r="G28" s="17">
+        <v>620567.12226842251</v>
+      </c>
+      <c r="H28" s="18">
+        <v>815462.73396063119</v>
+      </c>
+      <c r="I28" s="18">
+        <v>19908470.338536993</v>
+      </c>
+      <c r="J28" s="18">
+        <v>15150345.481451025</v>
+      </c>
+      <c r="K28" s="18">
+        <v>14648769.151263818</v>
+      </c>
+      <c r="L28" s="18">
+        <v>15150345.481451025</v>
+      </c>
+      <c r="M28" s="18">
+        <v>501576.33018720709</v>
+      </c>
+      <c r="N28" s="17">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="J2">
@@ -20691,7 +21171,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AG27"/>
+  <dimension ref="A1:AG28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -21890,6 +22370,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="28" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="15">
+        <v>45138</v>
+      </c>
+      <c r="B28" s="31">
+        <v>0.76099997758865356</v>
+      </c>
+      <c r="C28" s="16">
+        <v>22.409999849999998</v>
+      </c>
+      <c r="D28" s="17">
+        <v>29.263021620154856</v>
+      </c>
+      <c r="E28" s="17">
+        <v>1271286.4848223685</v>
+      </c>
+      <c r="F28" s="18">
+        <v>1670547.3354291506</v>
+      </c>
+      <c r="G28" s="18">
+        <v>56254622.113408744</v>
+      </c>
+      <c r="H28" s="18">
+        <v>42809766.167562231</v>
+      </c>
+      <c r="I28" s="18">
+        <v>42049261.872481778</v>
+      </c>
+      <c r="J28" s="18">
+        <v>42809766.167562231</v>
+      </c>
+      <c r="K28" s="18">
+        <v>760504.29508045316</v>
+      </c>
+      <c r="L28" s="17">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(RSI&KDJ)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(RSI&KDJ)cn.xlsx
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="30">
   <si>
     <t>in practice</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -142,6 +142,10 @@
   </si>
   <si>
     <t>年化收益率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -644,7 +648,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -722,6 +726,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -731,7 +738,7 @@
               <c:f>'模型四 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -809,6 +816,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>5099420.2574212886</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5355510.8810719606</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -851,7 +861,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -929,6 +939,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -938,7 +951,7 @@
               <c:f>'模型四 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1016,6 +1029,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>5116912.1641673045</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5056978.0408539018</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1058,7 +1074,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1136,6 +1152,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1145,7 +1164,7 @@
               <c:f>'模型四 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1223,6 +1242,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>17491.906746015884</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-298532.84021805879</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1244,11 +1266,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="396548352"/>
-        <c:axId val="396759040"/>
+        <c:axId val="461147136"/>
+        <c:axId val="461161216"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="396548352"/>
+        <c:axId val="461147136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1291,14 +1313,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396759040"/>
+        <c:crossAx val="461161216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="396759040"/>
+        <c:axId val="461161216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1349,7 +1371,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396548352"/>
+        <c:crossAx val="461147136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1540,7 +1562,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1618,6 +1640,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>185507.43415975483</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>256090.62365067154</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1632,8 +1657,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="396758016"/>
-        <c:axId val="396756480"/>
+        <c:axId val="466907904"/>
+        <c:axId val="466906112"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1658,7 +1683,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1736,6 +1761,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1745,7 +1773,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1823,6 +1851,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0.76099997758865356</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.71399998664855957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1839,11 +1870,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="396536064"/>
-        <c:axId val="396754944"/>
+        <c:axId val="466903040"/>
+        <c:axId val="466904576"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="396536064"/>
+        <c:axId val="466903040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1886,14 +1917,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396754944"/>
+        <c:crossAx val="466904576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="396754944"/>
+        <c:axId val="466904576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1944,12 +1975,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396536064"/>
+        <c:crossAx val="466903040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="396756480"/>
+        <c:axId val="466906112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1986,12 +2017,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396758016"/>
+        <c:crossAx val="466907904"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="396758016"/>
+        <c:axId val="466907904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2000,7 +2031,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="396756480"/>
+        <c:crossAx val="466906112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2179,7 +2210,7 @@
               <c:f>'模型四 (3)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2257,6 +2288,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2266,7 +2300,7 @@
               <c:f>'模型四 (3)PE副本成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2344,6 +2378,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>14648769.151263818</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>16190993.554936489</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2386,7 +2423,7 @@
               <c:f>'模型四 (3)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2464,6 +2501,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2473,7 +2513,7 @@
               <c:f>'模型四 (3)PE副本成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2551,6 +2591,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>15150345.481451025</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>15756871.95958133</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2593,7 +2636,7 @@
               <c:f>'模型四 (3)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2671,6 +2714,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2680,7 +2726,7 @@
               <c:f>'模型四 (3)PE副本成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2758,6 +2804,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>501576.33018720709</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-434121.59535515867</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2779,11 +2828,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="397740288"/>
-        <c:axId val="397742080"/>
+        <c:axId val="479580160"/>
+        <c:axId val="479581696"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="397740288"/>
+        <c:axId val="479580160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2826,14 +2875,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="397742080"/>
+        <c:crossAx val="479581696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="397742080"/>
+        <c:axId val="479581696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2884,7 +2933,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="397740288"/>
+        <c:crossAx val="479580160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3075,7 +3124,7 @@
               <c:f>'模型四 (3)PE副本成交量'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3153,6 +3202,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>620567.12226842251</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1542224.4036726714</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3167,8 +3219,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="397765248"/>
-        <c:axId val="397763712"/>
+        <c:axId val="489992576"/>
+        <c:axId val="489990784"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3193,7 +3245,7 @@
               <c:f>'模型四 (3)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3271,6 +3323,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3280,7 +3335,7 @@
               <c:f>'模型四 (3)PE副本成交量'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3358,6 +3413,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0.76099997758865356</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.71399998664855957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3374,11 +3432,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="397756288"/>
-        <c:axId val="397757824"/>
+        <c:axId val="489987456"/>
+        <c:axId val="489989248"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="397756288"/>
+        <c:axId val="489987456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3421,14 +3479,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="397757824"/>
+        <c:crossAx val="489989248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="397757824"/>
+        <c:axId val="489989248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3479,12 +3537,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="397756288"/>
+        <c:crossAx val="489987456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="397763712"/>
+        <c:axId val="489990784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3521,12 +3579,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="397765248"/>
+        <c:crossAx val="489992576"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="397765248"/>
+        <c:axId val="489992576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3535,7 +3593,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="397763712"/>
+        <c:crossAx val="489990784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3714,7 +3772,7 @@
               <c:f>'模型四 (3)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3792,6 +3850,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3801,7 +3862,7 @@
               <c:f>'模型四 (3)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3879,6 +3940,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>42049261.872481778</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44111277.578125395</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3921,7 +3985,7 @@
               <c:f>'模型四 (3)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3999,6 +4063,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4008,7 +4075,7 @@
               <c:f>'模型四 (3)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4086,6 +4153,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>42809766.167562231</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42227815.143537216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4128,7 +4198,7 @@
               <c:f>'模型四 (3)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4206,6 +4276,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4215,7 +4288,7 @@
               <c:f>'模型四 (3)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4293,6 +4366,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>760504.29508045316</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1883462.434588179</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4314,11 +4390,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="556288256"/>
-        <c:axId val="556290048"/>
+        <c:axId val="494813184"/>
+        <c:axId val="494814720"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="556288256"/>
+        <c:axId val="494813184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4361,14 +4437,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="556290048"/>
+        <c:crossAx val="494814720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="556290048"/>
+        <c:axId val="494814720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4419,7 +4495,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="556288256"/>
+        <c:crossAx val="494813184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4610,7 +4686,7 @@
               <c:f>'模型四 (3)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4688,6 +4764,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>1271286.4848223685</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2062015.7056436134</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4702,8 +4781,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="561126016"/>
-        <c:axId val="561124480"/>
+        <c:axId val="494834048"/>
+        <c:axId val="494832256"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4728,7 +4807,7 @@
               <c:f>'模型四 (3)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4806,6 +4885,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4815,7 +4897,7 @@
               <c:f>'模型四 (3)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4893,6 +4975,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0.76099997758865356</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.71399998664855957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4909,11 +4994,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="556308352"/>
-        <c:axId val="556309888"/>
+        <c:axId val="494828928"/>
+        <c:axId val="494830720"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="556308352"/>
+        <c:axId val="494828928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4956,14 +5041,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="556309888"/>
+        <c:crossAx val="494830720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="556309888"/>
+        <c:axId val="494830720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5014,12 +5099,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="556308352"/>
+        <c:crossAx val="494828928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="561124480"/>
+        <c:axId val="494832256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5056,12 +5141,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="561126016"/>
+        <c:crossAx val="494834048"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="561126016"/>
+        <c:axId val="494834048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5070,7 +5155,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="561124480"/>
+        <c:crossAx val="494832256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5232,7 +5317,7 @@
               <c:f>'模型四 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5310,6 +5395,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>185507.43415975483</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>256090.62365067154</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5324,8 +5412,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="396803072"/>
-        <c:axId val="396801536"/>
+        <c:axId val="466881536"/>
+        <c:axId val="466880000"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5350,7 +5438,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5428,6 +5516,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5437,7 +5528,7 @@
               <c:f>'模型四 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5515,6 +5606,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0.76099997758865356</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.71399998664855957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5531,11 +5625,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="396795904"/>
-        <c:axId val="396797440"/>
+        <c:axId val="466564992"/>
+        <c:axId val="466569472"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="396795904"/>
+        <c:axId val="466564992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5578,14 +5672,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396797440"/>
+        <c:crossAx val="466569472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="396797440"/>
+        <c:axId val="466569472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5636,12 +5730,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396795904"/>
+        <c:crossAx val="466564992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="396801536"/>
+        <c:axId val="466880000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5678,12 +5772,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396803072"/>
+        <c:crossAx val="466881536"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="396803072"/>
+        <c:axId val="466881536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5692,7 +5786,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="396801536"/>
+        <c:crossAx val="466880000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5871,7 +5965,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5949,6 +6043,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5958,7 +6055,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6036,6 +6133,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>6461175.5944266198</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6704461.6868947577</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6078,7 +6178,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6156,6 +6256,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6165,7 +6268,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6243,6 +6346,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>6431544.5871256161</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6277613.1418435639</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6285,7 +6391,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6363,6 +6469,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6372,7 +6481,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6450,6 +6559,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>-29631.007301003672</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-426848.5450511938</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6471,11 +6583,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="509554048"/>
-        <c:axId val="564037120"/>
+        <c:axId val="490164224"/>
+        <c:axId val="490165760"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="509554048"/>
+        <c:axId val="490164224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6518,14 +6630,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="564037120"/>
+        <c:crossAx val="490165760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="564037120"/>
+        <c:axId val="490165760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6576,7 +6688,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="509554048"/>
+        <c:crossAx val="490164224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6776,7 +6888,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6854,6 +6966,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>176232.06245176709</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>243286.09246813794</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6868,8 +6983,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="564082944"/>
-        <c:axId val="564081408"/>
+        <c:axId val="577992960"/>
+        <c:axId val="577991040"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6894,7 +7009,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6972,6 +7087,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6981,7 +7099,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -7059,6 +7177,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0.76099997758865356</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.71399998664855957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7075,11 +7196,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="564061312"/>
-        <c:axId val="564062848"/>
+        <c:axId val="575349504"/>
+        <c:axId val="575351040"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="564061312"/>
+        <c:axId val="575349504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7122,14 +7243,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="564062848"/>
+        <c:crossAx val="575351040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="564062848"/>
+        <c:axId val="575351040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7180,12 +7301,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="564061312"/>
+        <c:crossAx val="575349504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="564081408"/>
+        <c:axId val="577991040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7222,12 +7343,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="564082944"/>
+        <c:crossAx val="577992960"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="564082944"/>
+        <c:axId val="577992960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7236,7 +7357,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="564081408"/>
+        <c:crossAx val="577991040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7415,7 +7536,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7493,6 +7614,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7502,7 +7626,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7580,6 +7704,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>54430361.226604924</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>56389276.146966353</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7622,7 +7749,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7700,6 +7827,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7709,7 +7839,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7787,6 +7917,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>55073209.344887719</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>53630757.095103495</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7829,7 +7962,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7907,6 +8040,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7916,7 +8052,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7994,6 +8130,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>642848.11828279495</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-2758519.0518628582</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8015,11 +8154,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="564205824"/>
-        <c:axId val="564237056"/>
+        <c:axId val="578038784"/>
+        <c:axId val="578233088"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="564205824"/>
+        <c:axId val="578038784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8062,14 +8201,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="564237056"/>
+        <c:crossAx val="578233088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="564237056"/>
+        <c:axId val="578233088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8120,7 +8259,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="564205824"/>
+        <c:crossAx val="578038784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8320,7 +8459,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8398,6 +8537,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>1207722.16058125</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1958914.9203614327</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8412,8 +8554,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="564394624"/>
-        <c:axId val="564391936"/>
+        <c:axId val="578473344"/>
+        <c:axId val="578471424"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8438,7 +8580,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8516,6 +8658,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8525,7 +8670,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -8603,6 +8748,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0.76099997758865356</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.71399998664855957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8619,11 +8767,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="564355456"/>
-        <c:axId val="564357376"/>
+        <c:axId val="578316544"/>
+        <c:axId val="578469888"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="564355456"/>
+        <c:axId val="578316544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8666,14 +8814,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="564357376"/>
+        <c:crossAx val="578469888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="564357376"/>
+        <c:axId val="578469888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8724,12 +8872,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="564355456"/>
+        <c:crossAx val="578316544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="564391936"/>
+        <c:axId val="578471424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8766,12 +8914,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="564394624"/>
+        <c:crossAx val="578473344"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="564394624"/>
+        <c:axId val="578473344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8780,7 +8928,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="564391936"/>
+        <c:crossAx val="578471424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8959,7 +9107,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9037,6 +9185,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9046,7 +9197,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9124,6 +9275,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>2458198.0150055774</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2662201.1165040508</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9166,7 +9320,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9244,6 +9398,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9253,7 +9410,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9331,6 +9488,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>2528670.2253589444</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2576500.552636133</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9373,7 +9533,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9451,6 +9611,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9460,7 +9623,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9538,6 +9701,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>70472.210353367031</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-85700.56386791775</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9559,11 +9725,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="565367168"/>
-        <c:axId val="565593984"/>
+        <c:axId val="594630912"/>
+        <c:axId val="618632320"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="565367168"/>
+        <c:axId val="594630912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9606,14 +9772,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="565593984"/>
+        <c:crossAx val="618632320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="565593984"/>
+        <c:axId val="618632320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9664,7 +9830,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="565367168"/>
+        <c:crossAx val="594630912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9855,7 +10021,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9933,6 +10099,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>82087.676300063496</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>204003.10149847361</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9947,8 +10116,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="614049280"/>
-        <c:axId val="607023104"/>
+        <c:axId val="461120640"/>
+        <c:axId val="461110656"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9973,7 +10142,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10051,6 +10220,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10060,7 +10232,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -10138,6 +10310,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0.76099997758865356</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.71399998664855957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10154,11 +10329,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="580093056"/>
-        <c:axId val="581297664"/>
+        <c:axId val="461107584"/>
+        <c:axId val="461109120"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="580093056"/>
+        <c:axId val="461107584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10201,14 +10376,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="581297664"/>
+        <c:crossAx val="461109120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="581297664"/>
+        <c:axId val="461109120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10259,12 +10434,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="580093056"/>
+        <c:crossAx val="461107584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="607023104"/>
+        <c:axId val="461110656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10301,12 +10476,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="614049280"/>
+        <c:crossAx val="461120640"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="614049280"/>
+        <c:axId val="461120640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10315,7 +10490,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="607023104"/>
+        <c:crossAx val="461110656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10494,7 +10669,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10572,6 +10747,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10581,7 +10759,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10659,6 +10837,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>5159215.9356724173</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5415306.5593230892</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10701,7 +10882,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10779,6 +10960,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10788,7 +10972,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10866,6 +11050,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>5174367.3536314191</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5110884.7500764914</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10908,7 +11095,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10986,6 +11173,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10995,7 +11185,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11073,6 +11263,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>15151.417959001847</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-304421.80924659781</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11094,11 +11287,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="614272384"/>
-        <c:axId val="396521856"/>
+        <c:axId val="465822080"/>
+        <c:axId val="465823616"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="614272384"/>
+        <c:axId val="465822080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11141,14 +11334,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396521856"/>
+        <c:crossAx val="465823616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="396521856"/>
+        <c:axId val="465823616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11199,7 +11392,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="614272384"/>
+        <c:crossAx val="465822080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12051,7 +12244,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG28"/>
+  <dimension ref="A1:AG29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13288,6 +13481,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="29" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="32">
+        <v>45169</v>
+      </c>
+      <c r="B29" s="31">
+        <v>0.71399998664855957</v>
+      </c>
+      <c r="C29" s="31">
+        <v>20.899999619999999</v>
+      </c>
+      <c r="D29" s="29">
+        <v>28.951898109092557</v>
+      </c>
+      <c r="E29" s="29">
+        <v>256090.62365067154</v>
+      </c>
+      <c r="F29" s="30">
+        <v>358670.347954394</v>
+      </c>
+      <c r="G29" s="30">
+        <v>7082602.4305558074</v>
+      </c>
+      <c r="H29" s="30">
+        <v>5056978.0408539018</v>
+      </c>
+      <c r="I29" s="30">
+        <v>5355510.8810719606</v>
+      </c>
+      <c r="J29" s="30">
+        <v>5056978.0408539018</v>
+      </c>
+      <c r="K29" s="30">
+        <v>-298532.84021805879</v>
+      </c>
+      <c r="L29" s="29">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -13304,7 +13535,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH28"/>
+  <dimension ref="A1:AH29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13345,7 +13576,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>2</v>
@@ -13381,16 +13612,16 @@
         <v>12</v>
       </c>
       <c r="M1" s="44" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N1" s="44" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O1" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -14831,6 +15062,56 @@
         <v>47.786304387002254</v>
       </c>
       <c r="P28" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="15">
+        <v>45169</v>
+      </c>
+      <c r="B29" s="31">
+        <v>0.71399998664855957</v>
+      </c>
+      <c r="C29" s="16">
+        <v>20.899999619999999</v>
+      </c>
+      <c r="D29" s="17">
+        <v>28.951898109092557</v>
+      </c>
+      <c r="E29" s="17">
+        <v>243286.09246813794</v>
+      </c>
+      <c r="F29" s="18">
+        <v>340736.83055667428</v>
+      </c>
+      <c r="G29" s="18">
+        <v>8792175.4330977183</v>
+      </c>
+      <c r="H29" s="18">
+        <v>6277613.1418435639</v>
+      </c>
+      <c r="I29" s="18">
+        <v>6704461.6868947577</v>
+      </c>
+      <c r="J29" s="18">
+        <v>6277613.1418435639</v>
+      </c>
+      <c r="K29" s="18">
+        <v>-426848.5450511938</v>
+      </c>
+      <c r="L29" s="17">
+        <v>0</v>
+      </c>
+      <c r="M29" s="22">
+        <v>1.3690880637471666E-2</v>
+      </c>
+      <c r="N29" s="22">
+        <v>2.7557571956255068E-2</v>
+      </c>
+      <c r="O29" s="22">
+        <v>49.681012025314104</v>
+      </c>
+      <c r="P29" s="1">
         <v>0.95</v>
       </c>
     </row>
@@ -14850,7 +15131,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:AH28"/>
+  <dimension ref="A1:AH29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14927,16 +15208,16 @@
         <v>12</v>
       </c>
       <c r="M1" s="44" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N1" s="44" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O1" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -16377,6 +16658,56 @@
         <v>47.786304387002254</v>
       </c>
       <c r="P28" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="15">
+        <v>45169</v>
+      </c>
+      <c r="B29" s="31">
+        <v>0.71399998664855957</v>
+      </c>
+      <c r="C29" s="16">
+        <v>20.899999619999999</v>
+      </c>
+      <c r="D29" s="17">
+        <v>28.951898109092557</v>
+      </c>
+      <c r="E29" s="17">
+        <v>1958914.9203614327</v>
+      </c>
+      <c r="F29" s="18">
+        <v>2743578.3711374733</v>
+      </c>
+      <c r="G29" s="18">
+        <v>75113106.579792246</v>
+      </c>
+      <c r="H29" s="18">
+        <v>53630757.095103495</v>
+      </c>
+      <c r="I29" s="18">
+        <v>56389276.146966353</v>
+      </c>
+      <c r="J29" s="18">
+        <v>53630757.095103495</v>
+      </c>
+      <c r="K29" s="18">
+        <v>-2758519.0518628582</v>
+      </c>
+      <c r="L29" s="17">
+        <v>0</v>
+      </c>
+      <c r="M29" s="22">
+        <v>1.3690880637471666E-2</v>
+      </c>
+      <c r="N29" s="22">
+        <v>2.7557571956255068E-2</v>
+      </c>
+      <c r="O29" s="22">
+        <v>49.681012025314104</v>
+      </c>
+      <c r="P29" s="1">
         <v>0.95</v>
       </c>
     </row>
@@ -16396,7 +16727,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AJ28"/>
+  <dimension ref="A1:AJ29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16437,7 +16768,7 @@
   <sheetData>
     <row r="1" spans="1:36" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>2</v>
@@ -16449,10 +16780,10 @@
         <v>4</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G1" s="40" t="s">
         <v>5</v>
@@ -16479,16 +16810,16 @@
         <v>12</v>
       </c>
       <c r="O1" s="44" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P1" s="44" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q1" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R1" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -18091,6 +18422,62 @@
         <v>47.786304387002254</v>
       </c>
       <c r="R28" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="15">
+        <v>45169</v>
+      </c>
+      <c r="B29" s="31">
+        <v>0.71399998664855957</v>
+      </c>
+      <c r="C29" s="16">
+        <v>20.899999619999999</v>
+      </c>
+      <c r="D29" s="17">
+        <v>28.951898109092557</v>
+      </c>
+      <c r="E29" s="17">
+        <v>3152600</v>
+      </c>
+      <c r="F29" s="17">
+        <v>4215152.2814262221</v>
+      </c>
+      <c r="G29" s="17">
+        <v>204003.10149847361</v>
+      </c>
+      <c r="H29" s="18">
+        <v>285718.63489247754</v>
+      </c>
+      <c r="I29" s="18">
+        <v>3608544.2588450932</v>
+      </c>
+      <c r="J29" s="18">
+        <v>2576500.552636133</v>
+      </c>
+      <c r="K29" s="18">
+        <v>2662201.1165040508</v>
+      </c>
+      <c r="L29" s="18">
+        <v>2576500.552636133</v>
+      </c>
+      <c r="M29" s="18">
+        <v>-85700.56386791775</v>
+      </c>
+      <c r="N29" s="17">
+        <v>0</v>
+      </c>
+      <c r="O29" s="22">
+        <v>1.3690880637471666E-2</v>
+      </c>
+      <c r="P29" s="22">
+        <v>2.7557571956255068E-2</v>
+      </c>
+      <c r="Q29" s="22">
+        <v>49.681012025314104</v>
+      </c>
+      <c r="R29" s="1">
         <v>0.95</v>
       </c>
     </row>
@@ -18110,7 +18497,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AJ28"/>
+  <dimension ref="A1:AJ29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18187,19 +18574,19 @@
         <v>12</v>
       </c>
       <c r="M1" s="48" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N1" s="48" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O1" s="48" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P1" s="48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q1" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -19734,6 +20121,59 @@
         <v>55.446161314787332</v>
       </c>
       <c r="Q28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="15">
+        <v>45169</v>
+      </c>
+      <c r="B29" s="31">
+        <v>0.71399998664855957</v>
+      </c>
+      <c r="C29" s="16">
+        <v>20.899999619999999</v>
+      </c>
+      <c r="D29" s="17">
+        <v>28.951898109092557</v>
+      </c>
+      <c r="E29" s="17">
+        <v>256090.62365067154</v>
+      </c>
+      <c r="F29" s="18">
+        <v>358670.347954394</v>
+      </c>
+      <c r="G29" s="18">
+        <v>7158102.0247163363</v>
+      </c>
+      <c r="H29" s="18">
+        <v>5110884.7500764914</v>
+      </c>
+      <c r="I29" s="18">
+        <v>5415306.5593230892</v>
+      </c>
+      <c r="J29" s="18">
+        <v>5110884.7500764914</v>
+      </c>
+      <c r="K29" s="18">
+        <v>-304421.80924659781</v>
+      </c>
+      <c r="L29" s="17">
+        <v>0</v>
+      </c>
+      <c r="M29" s="21">
+        <v>61.111087458471879</v>
+      </c>
+      <c r="N29" s="21">
+        <v>51.703000551887335</v>
+      </c>
+      <c r="O29" s="21">
+        <v>45.751236844295057</v>
+      </c>
+      <c r="P29" s="21">
+        <v>63.606527967071898</v>
+      </c>
+      <c r="Q29" s="1">
         <v>1</v>
       </c>
     </row>
@@ -19753,7 +20193,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AJ28"/>
+  <dimension ref="A1:AJ29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19806,10 +20246,10 @@
         <v>4</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G1" s="40" t="s">
         <v>5</v>
@@ -21152,6 +21592,50 @@
         <v>501576.33018720709</v>
       </c>
       <c r="N28" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="15">
+        <v>45169</v>
+      </c>
+      <c r="B29" s="31">
+        <v>0.71399998664855957</v>
+      </c>
+      <c r="C29" s="16">
+        <v>20.899999619999999</v>
+      </c>
+      <c r="D29" s="17">
+        <v>28.951898109092557</v>
+      </c>
+      <c r="E29" s="17">
+        <v>3152600</v>
+      </c>
+      <c r="F29" s="17">
+        <v>4215152.2814262221</v>
+      </c>
+      <c r="G29" s="17">
+        <v>1542224.4036726714</v>
+      </c>
+      <c r="H29" s="18">
+        <v>2159978.196794806</v>
+      </c>
+      <c r="I29" s="18">
+        <v>22068448.535331801</v>
+      </c>
+      <c r="J29" s="18">
+        <v>15756871.95958133</v>
+      </c>
+      <c r="K29" s="18">
+        <v>16190993.554936489</v>
+      </c>
+      <c r="L29" s="18">
+        <v>15756871.95958133</v>
+      </c>
+      <c r="M29" s="18">
+        <v>-434121.59535515867</v>
+      </c>
+      <c r="N29" s="17">
         <v>0</v>
       </c>
     </row>
@@ -21171,7 +21655,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AG28"/>
+  <dimension ref="A1:AG29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -22408,6 +22892,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="29" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="15">
+        <v>45169</v>
+      </c>
+      <c r="B29" s="31">
+        <v>0.71399998664855957</v>
+      </c>
+      <c r="C29" s="16">
+        <v>20.899999619999999</v>
+      </c>
+      <c r="D29" s="17">
+        <v>28.951898109092557</v>
+      </c>
+      <c r="E29" s="17">
+        <v>2062015.7056436134</v>
+      </c>
+      <c r="F29" s="18">
+        <v>2887977.2327762875</v>
+      </c>
+      <c r="G29" s="18">
+        <v>59142599.346185029</v>
+      </c>
+      <c r="H29" s="18">
+        <v>42227815.143537216</v>
+      </c>
+      <c r="I29" s="18">
+        <v>44111277.578125395</v>
+      </c>
+      <c r="J29" s="18">
+        <v>42227815.143537216</v>
+      </c>
+      <c r="K29" s="18">
+        <v>-1883462.434588179</v>
+      </c>
+      <c r="L29" s="17">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(RSI&KDJ)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(RSI&KDJ)cn.xlsx
@@ -145,10 +145,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>SMA之MAX</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -162,6 +158,10 @@
   </si>
   <si>
     <t>标志</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -648,7 +648,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -729,6 +729,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -738,7 +741,7 @@
               <c:f>'模型四 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -819,6 +822,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>5355510.8810719606</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5703941.5221370691</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -861,7 +867,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -942,6 +948,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -951,7 +960,7 @@
               <c:f>'模型四 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1032,6 +1041,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>5056978.0408539018</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5200013.3228820767</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1074,7 +1086,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1155,6 +1167,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1164,7 +1179,7 @@
               <c:f>'模型四 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1245,6 +1260,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>-298532.84021805879</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-503928.19925499242</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1266,11 +1284,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="461147136"/>
-        <c:axId val="461161216"/>
+        <c:axId val="451762816"/>
+        <c:axId val="451780992"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="461147136"/>
+        <c:axId val="451762816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1313,14 +1331,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461161216"/>
+        <c:crossAx val="451780992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="461161216"/>
+        <c:axId val="451780992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1371,7 +1389,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461147136"/>
+        <c:crossAx val="451762816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1562,7 +1580,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1643,6 +1661,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>256090.62365067154</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>348430.64106510871</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1657,8 +1678,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="466907904"/>
-        <c:axId val="466906112"/>
+        <c:axId val="451790336"/>
+        <c:axId val="451788800"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1683,7 +1704,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1764,6 +1785,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1773,7 +1797,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1854,6 +1878,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0.71399998664855957</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.68500000238418579</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1870,11 +1897,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="466903040"/>
-        <c:axId val="466904576"/>
+        <c:axId val="451785472"/>
+        <c:axId val="451787008"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="466903040"/>
+        <c:axId val="451785472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1917,14 +1944,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466904576"/>
+        <c:crossAx val="451787008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="466904576"/>
+        <c:axId val="451787008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1975,12 +2002,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466903040"/>
+        <c:crossAx val="451785472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="466906112"/>
+        <c:axId val="451788800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2017,12 +2044,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466907904"/>
+        <c:crossAx val="451790336"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="466907904"/>
+        <c:axId val="451790336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2031,7 +2058,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="466906112"/>
+        <c:crossAx val="451788800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2210,7 +2237,7 @@
               <c:f>'模型四 (3)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2291,6 +2318,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2300,7 +2330,7 @@
               <c:f>'模型四 (3)PE副本成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2381,6 +2411,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>16190993.554936489</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>17479910.712730724</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2423,7 +2456,7 @@
               <c:f>'模型四 (3)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2504,6 +2537,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2513,7 +2549,7 @@
               <c:f>'模型四 (3)PE副本成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2594,6 +2630,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>15756871.95958133</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>16405804.4571118</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2636,7 +2675,7 @@
               <c:f>'模型四 (3)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2717,6 +2756,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2726,7 +2768,7 @@
               <c:f>'模型四 (3)PE副本成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2807,6 +2849,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>-434121.59535515867</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1074106.2556189243</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2828,11 +2873,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="479580160"/>
-        <c:axId val="479581696"/>
+        <c:axId val="452412160"/>
+        <c:axId val="452413696"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="479580160"/>
+        <c:axId val="452412160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2875,14 +2920,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="479581696"/>
+        <c:crossAx val="452413696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="479581696"/>
+        <c:axId val="452413696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2933,7 +2978,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="479580160"/>
+        <c:crossAx val="452412160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3124,7 +3169,7 @@
               <c:f>'模型四 (3)PE副本成交量'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3205,6 +3250,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>1542224.4036726714</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1288917.1577942353</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3219,8 +3267,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="489992576"/>
-        <c:axId val="489990784"/>
+        <c:axId val="452449408"/>
+        <c:axId val="452443520"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3245,7 +3293,7 @@
               <c:f>'模型四 (3)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3326,6 +3374,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3335,7 +3386,7 @@
               <c:f>'模型四 (3)PE副本成交量'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3416,6 +3467,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0.71399998664855957</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.68500000238418579</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3432,11 +3486,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="489987456"/>
-        <c:axId val="489989248"/>
+        <c:axId val="452440448"/>
+        <c:axId val="452441984"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="489987456"/>
+        <c:axId val="452440448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3479,14 +3533,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489989248"/>
+        <c:crossAx val="452441984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="489989248"/>
+        <c:axId val="452441984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3537,12 +3591,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489987456"/>
+        <c:crossAx val="452440448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="489990784"/>
+        <c:axId val="452443520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3579,12 +3633,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489992576"/>
+        <c:crossAx val="452449408"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="489992576"/>
+        <c:axId val="452449408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3593,7 +3647,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="489990784"/>
+        <c:crossAx val="452443520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3772,7 +3826,7 @@
               <c:f>'模型四 (3)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3853,6 +3907,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3862,7 +3919,7 @@
               <c:f>'模型四 (3)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3943,6 +4000,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>44111277.578125395</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>47383749.750043429</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3985,7 +4045,7 @@
               <c:f>'模型四 (3)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4066,6 +4126,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4075,7 +4138,7 @@
               <c:f>'模型四 (3)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4156,6 +4219,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>42227815.143537216</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43785152.865061723</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4198,7 +4264,7 @@
               <c:f>'模型四 (3)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4279,6 +4345,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4288,7 +4357,7 @@
               <c:f>'模型四 (3)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4369,6 +4438,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>-1883462.434588179</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-3598596.8849817067</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4390,11 +4462,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="494813184"/>
-        <c:axId val="494814720"/>
+        <c:axId val="554386176"/>
+        <c:axId val="554387712"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="494813184"/>
+        <c:axId val="554386176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4437,14 +4509,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494814720"/>
+        <c:crossAx val="554387712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="494814720"/>
+        <c:axId val="554387712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4495,7 +4567,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494813184"/>
+        <c:crossAx val="554386176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4686,7 +4758,7 @@
               <c:f>'模型四 (3)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4767,6 +4839,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>2062015.7056436134</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3272472.1719180341</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4781,8 +4856,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="494834048"/>
-        <c:axId val="494832256"/>
+        <c:axId val="554427520"/>
+        <c:axId val="554417536"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4807,7 +4882,7 @@
               <c:f>'模型四 (3)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4888,6 +4963,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4897,7 +4975,7 @@
               <c:f>'模型四 (3)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4978,6 +5056,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0.71399998664855957</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.68500000238418579</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4994,11 +5075,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="494828928"/>
-        <c:axId val="494830720"/>
+        <c:axId val="554414464"/>
+        <c:axId val="554416000"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="494828928"/>
+        <c:axId val="554414464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5041,14 +5122,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494830720"/>
+        <c:crossAx val="554416000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="494830720"/>
+        <c:axId val="554416000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5099,12 +5180,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494828928"/>
+        <c:crossAx val="554414464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="494832256"/>
+        <c:axId val="554417536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5141,12 +5222,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494834048"/>
+        <c:crossAx val="554427520"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="494834048"/>
+        <c:axId val="554427520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5155,7 +5236,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="494832256"/>
+        <c:crossAx val="554417536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5317,7 +5398,7 @@
               <c:f>'模型四 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5398,6 +5479,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>256090.62365067154</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>348430.64106510871</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5412,8 +5496,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="466881536"/>
-        <c:axId val="466880000"/>
+        <c:axId val="557810048"/>
+        <c:axId val="557804160"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5438,7 +5522,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5519,6 +5603,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5528,7 +5615,7 @@
               <c:f>'模型四 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5609,6 +5696,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0.71399998664855957</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.68500000238418579</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5625,11 +5715,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="466564992"/>
-        <c:axId val="466569472"/>
+        <c:axId val="557799680"/>
+        <c:axId val="557802624"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="466564992"/>
+        <c:axId val="557799680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5672,14 +5762,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466569472"/>
+        <c:crossAx val="557802624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="466569472"/>
+        <c:axId val="557802624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5730,12 +5820,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466564992"/>
+        <c:crossAx val="557799680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="466880000"/>
+        <c:axId val="557804160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5772,12 +5862,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466881536"/>
+        <c:crossAx val="557810048"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="466881536"/>
+        <c:axId val="557810048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5786,7 +5876,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="466880000"/>
+        <c:crossAx val="557804160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5965,7 +6055,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6046,6 +6136,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6055,7 +6148,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6136,6 +6229,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>6704461.6868947577</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7035470.7959066108</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6178,7 +6274,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6259,6 +6355,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6268,7 +6367,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6349,6 +6448,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>6277613.1418435639</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6353649.30164597</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6391,7 +6493,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6472,6 +6574,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6481,7 +6586,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6562,6 +6667,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>-426848.5450511938</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-681821.49426064081</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6583,11 +6691,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="490164224"/>
-        <c:axId val="490165760"/>
+        <c:axId val="557829120"/>
+        <c:axId val="557847296"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="490164224"/>
+        <c:axId val="557829120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6630,14 +6738,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490165760"/>
+        <c:crossAx val="557847296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="490165760"/>
+        <c:axId val="557847296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6688,7 +6796,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490164224"/>
+        <c:crossAx val="557829120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6888,7 +6996,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6969,6 +7077,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>243286.09246813794</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>331009.10901185323</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6983,8 +7094,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="577992960"/>
-        <c:axId val="577991040"/>
+        <c:axId val="558385792"/>
+        <c:axId val="558383872"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7009,7 +7120,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7090,6 +7201,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7099,7 +7213,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -7180,6 +7294,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0.71399998664855957</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.68500000238418579</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7196,11 +7313,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="575349504"/>
-        <c:axId val="575351040"/>
+        <c:axId val="557925120"/>
+        <c:axId val="557927040"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="575349504"/>
+        <c:axId val="557925120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7243,14 +7360,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="575351040"/>
+        <c:crossAx val="557927040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="575351040"/>
+        <c:axId val="557927040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7301,12 +7418,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="575349504"/>
+        <c:crossAx val="557925120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="577991040"/>
+        <c:axId val="558383872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7343,12 +7460,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="577992960"/>
+        <c:crossAx val="558385792"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="577992960"/>
+        <c:axId val="558385792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7357,7 +7474,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="577991040"/>
+        <c:crossAx val="558383872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7536,7 +7653,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7617,6 +7734,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7626,7 +7746,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7707,6 +7827,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>56389276.146966353</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>59498124.710288487</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7749,7 +7872,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7830,6 +7953,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7839,7 +7965,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7920,6 +8046,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>53630757.095103495</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>54561326.749563418</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7962,7 +8091,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8043,6 +8172,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8052,7 +8184,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8133,6 +8265,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>-2758519.0518628582</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-4936797.960725069</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8154,11 +8289,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="578038784"/>
-        <c:axId val="578233088"/>
+        <c:axId val="558505344"/>
+        <c:axId val="558576768"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="578038784"/>
+        <c:axId val="558505344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8201,14 +8336,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="578233088"/>
+        <c:crossAx val="558576768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="578233088"/>
+        <c:axId val="558576768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8259,7 +8394,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="578038784"/>
+        <c:crossAx val="558505344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8459,7 +8594,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8540,6 +8675,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>1958914.9203614327</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3108848.5633221325</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8554,8 +8692,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="578473344"/>
-        <c:axId val="578471424"/>
+        <c:axId val="559246720"/>
+        <c:axId val="559244800"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8580,7 +8718,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8661,6 +8799,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8670,7 +8811,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -8751,6 +8892,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0.71399998664855957</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.68500000238418579</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8767,11 +8911,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="578316544"/>
-        <c:axId val="578469888"/>
+        <c:axId val="559171840"/>
+        <c:axId val="559243264"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="578316544"/>
+        <c:axId val="559171840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8814,14 +8958,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="578469888"/>
+        <c:crossAx val="559243264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="578469888"/>
+        <c:axId val="559243264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8872,12 +9016,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="578316544"/>
+        <c:crossAx val="559171840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="578471424"/>
+        <c:axId val="559244800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8914,12 +9058,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="578473344"/>
+        <c:crossAx val="559246720"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="578473344"/>
+        <c:axId val="559246720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8928,7 +9072,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="578471424"/>
+        <c:crossAx val="559244800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9107,7 +9251,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9188,6 +9332,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9197,7 +9344,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9278,6 +9425,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>2662201.1165040508</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2832697.1202882249</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9320,7 +9470,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9401,6 +9551,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9410,7 +9563,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9491,6 +9644,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>2576500.552636133</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2642348.829696503</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9533,7 +9689,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9614,6 +9770,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9623,7 +9782,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9704,6 +9863,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>-85700.56386791775</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-190348.29059172189</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9725,11 +9887,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="594630912"/>
-        <c:axId val="618632320"/>
+        <c:axId val="564308224"/>
+        <c:axId val="572479360"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="594630912"/>
+        <c:axId val="564308224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9772,14 +9934,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="618632320"/>
+        <c:crossAx val="572479360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="618632320"/>
+        <c:axId val="572479360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9830,7 +9992,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="594630912"/>
+        <c:crossAx val="564308224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10021,7 +10183,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10102,6 +10264,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>204003.10149847361</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>170496.00378417413</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10116,8 +10281,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="461120640"/>
-        <c:axId val="461110656"/>
+        <c:axId val="446621568"/>
+        <c:axId val="446620032"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -10142,7 +10307,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10223,6 +10388,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10232,7 +10400,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -10313,6 +10481,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0.71399998664855957</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.68500000238418579</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10329,11 +10500,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="461107584"/>
-        <c:axId val="461109120"/>
+        <c:axId val="446047360"/>
+        <c:axId val="446048896"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="461107584"/>
+        <c:axId val="446047360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10376,14 +10547,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461109120"/>
+        <c:crossAx val="446048896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="461109120"/>
+        <c:axId val="446048896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10434,12 +10605,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461107584"/>
+        <c:crossAx val="446047360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="461110656"/>
+        <c:axId val="446620032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10476,12 +10647,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461120640"/>
+        <c:crossAx val="446621568"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="461120640"/>
+        <c:axId val="446621568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10490,7 +10661,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="461110656"/>
+        <c:crossAx val="446620032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10669,7 +10840,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10750,6 +10921,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10759,7 +10933,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10840,6 +11014,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>5415306.5593230892</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5763737.2003881978</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10882,7 +11059,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10963,6 +11140,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10972,7 +11152,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11053,6 +11233,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>5110884.7500764914</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5251730.5450620446</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11095,7 +11278,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11176,6 +11359,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11185,7 +11371,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11266,6 +11452,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>-304421.80924659781</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-512006.65532615315</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11287,11 +11476,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="465822080"/>
-        <c:axId val="465823616"/>
+        <c:axId val="449033344"/>
+        <c:axId val="449034880"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="465822080"/>
+        <c:axId val="449033344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11334,14 +11523,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="465823616"/>
+        <c:crossAx val="449034880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="465823616"/>
+        <c:axId val="449034880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11392,7 +11581,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="465822080"/>
+        <c:crossAx val="449033344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12244,7 +12433,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG29"/>
+  <dimension ref="A1:AG30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13519,6 +13708,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="30" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="32">
+        <v>45197</v>
+      </c>
+      <c r="B30" s="31">
+        <v>0.68500000238418579</v>
+      </c>
+      <c r="C30" s="31">
+        <v>19.25</v>
+      </c>
+      <c r="D30" s="29">
+        <v>28.642033266404177</v>
+      </c>
+      <c r="E30" s="29">
+        <v>348430.64106510871</v>
+      </c>
+      <c r="F30" s="30">
+        <v>508657.86839762604</v>
+      </c>
+      <c r="G30" s="30">
+        <v>7591260.2989534335</v>
+      </c>
+      <c r="H30" s="30">
+        <v>5200013.3228820767</v>
+      </c>
+      <c r="I30" s="30">
+        <v>5703941.5221370691</v>
+      </c>
+      <c r="J30" s="30">
+        <v>5200013.3228820767</v>
+      </c>
+      <c r="K30" s="30">
+        <v>-503928.19925499242</v>
+      </c>
+      <c r="L30" s="29">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -13535,7 +13762,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH29"/>
+  <dimension ref="A1:AH30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13576,7 +13803,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>2</v>
@@ -13612,16 +13839,16 @@
         <v>12</v>
       </c>
       <c r="M1" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="44" t="s">
+      <c r="O1" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="48" t="s">
+      <c r="P1" s="11" t="s">
         <v>21</v>
-      </c>
-      <c r="P1" s="11" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -15112,6 +15339,56 @@
         <v>49.681012025314104</v>
       </c>
       <c r="P29" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="15">
+        <v>45197</v>
+      </c>
+      <c r="B30" s="31">
+        <v>0.68500000238418579</v>
+      </c>
+      <c r="C30" s="16">
+        <v>19.25</v>
+      </c>
+      <c r="D30" s="17">
+        <v>28.642033266404177</v>
+      </c>
+      <c r="E30" s="17">
+        <v>331009.10901185323</v>
+      </c>
+      <c r="F30" s="18">
+        <v>483224.97497774469</v>
+      </c>
+      <c r="G30" s="18">
+        <v>9275400.408075463</v>
+      </c>
+      <c r="H30" s="18">
+        <v>6353649.30164597</v>
+      </c>
+      <c r="I30" s="18">
+        <v>7035470.7959066108</v>
+      </c>
+      <c r="J30" s="18">
+        <v>6353649.30164597</v>
+      </c>
+      <c r="K30" s="18">
+        <v>-681821.49426064081</v>
+      </c>
+      <c r="L30" s="17">
+        <v>0</v>
+      </c>
+      <c r="M30" s="22">
+        <v>1.1409067197893056E-2</v>
+      </c>
+      <c r="N30" s="22">
+        <v>3.0797975120228221E-2</v>
+      </c>
+      <c r="O30" s="22">
+        <v>37.04486140194178</v>
+      </c>
+      <c r="P30" s="1">
         <v>0.95</v>
       </c>
     </row>
@@ -15131,7 +15408,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:AH29"/>
+  <dimension ref="A1:AH30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15172,7 +15449,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>2</v>
@@ -15208,16 +15485,16 @@
         <v>12</v>
       </c>
       <c r="M1" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="44" t="s">
+      <c r="O1" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="48" t="s">
+      <c r="P1" s="11" t="s">
         <v>21</v>
-      </c>
-      <c r="P1" s="11" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -16708,6 +16985,56 @@
         <v>49.681012025314104</v>
       </c>
       <c r="P29" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="15">
+        <v>45197</v>
+      </c>
+      <c r="B30" s="31">
+        <v>0.68500000238418579</v>
+      </c>
+      <c r="C30" s="16">
+        <v>19.25</v>
+      </c>
+      <c r="D30" s="17">
+        <v>28.642033266404177</v>
+      </c>
+      <c r="E30" s="17">
+        <v>3108848.5633221325</v>
+      </c>
+      <c r="F30" s="18">
+        <v>4538465.0401483048</v>
+      </c>
+      <c r="G30" s="18">
+        <v>79651571.619940549</v>
+      </c>
+      <c r="H30" s="18">
+        <v>54561326.749563418</v>
+      </c>
+      <c r="I30" s="18">
+        <v>59498124.710288487</v>
+      </c>
+      <c r="J30" s="18">
+        <v>54561326.749563418</v>
+      </c>
+      <c r="K30" s="18">
+        <v>-4936797.960725069</v>
+      </c>
+      <c r="L30" s="17">
+        <v>0</v>
+      </c>
+      <c r="M30" s="22">
+        <v>1.1409067197893056E-2</v>
+      </c>
+      <c r="N30" s="22">
+        <v>3.0797975120228221E-2</v>
+      </c>
+      <c r="O30" s="22">
+        <v>37.04486140194178</v>
+      </c>
+      <c r="P30" s="1">
         <v>0.95</v>
       </c>
     </row>
@@ -16727,7 +17054,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AJ29"/>
+  <dimension ref="A1:AJ30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16768,7 +17095,7 @@
   <sheetData>
     <row r="1" spans="1:36" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>2</v>
@@ -16810,16 +17137,16 @@
         <v>12</v>
       </c>
       <c r="O1" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="44" t="s">
+      <c r="Q1" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="48" t="s">
+      <c r="R1" s="11" t="s">
         <v>21</v>
-      </c>
-      <c r="R1" s="11" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -18478,6 +18805,62 @@
         <v>49.681012025314104</v>
       </c>
       <c r="R29" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="15">
+        <v>45197</v>
+      </c>
+      <c r="B30" s="31">
+        <v>0.68500000238418579</v>
+      </c>
+      <c r="C30" s="16">
+        <v>19.25</v>
+      </c>
+      <c r="D30" s="17">
+        <v>28.642033266404177</v>
+      </c>
+      <c r="E30" s="17">
+        <v>1644900</v>
+      </c>
+      <c r="F30" s="17">
+        <v>4176288.16796875</v>
+      </c>
+      <c r="G30" s="17">
+        <v>170496.00378417413</v>
+      </c>
+      <c r="H30" s="18">
+        <v>248899.27473102484</v>
+      </c>
+      <c r="I30" s="18">
+        <v>3857443.5335761178</v>
+      </c>
+      <c r="J30" s="18">
+        <v>2642348.829696503</v>
+      </c>
+      <c r="K30" s="18">
+        <v>2832697.1202882249</v>
+      </c>
+      <c r="L30" s="18">
+        <v>2642348.829696503</v>
+      </c>
+      <c r="M30" s="18">
+        <v>-190348.29059172189</v>
+      </c>
+      <c r="N30" s="17">
+        <v>0</v>
+      </c>
+      <c r="O30" s="22">
+        <v>1.1409067197893056E-2</v>
+      </c>
+      <c r="P30" s="22">
+        <v>3.0797975120228221E-2</v>
+      </c>
+      <c r="Q30" s="22">
+        <v>37.04486140194178</v>
+      </c>
+      <c r="R30" s="1">
         <v>0.95</v>
       </c>
     </row>
@@ -18497,7 +18880,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AJ29"/>
+  <dimension ref="A1:AJ30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -20177,6 +20560,59 @@
         <v>1</v>
       </c>
     </row>
+    <row r="30" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="15">
+        <v>45197</v>
+      </c>
+      <c r="B30" s="31">
+        <v>0.68500000238418579</v>
+      </c>
+      <c r="C30" s="16">
+        <v>19.25</v>
+      </c>
+      <c r="D30" s="17">
+        <v>28.642033266404177</v>
+      </c>
+      <c r="E30" s="17">
+        <v>348430.64106510871</v>
+      </c>
+      <c r="F30" s="18">
+        <v>508657.86839762604</v>
+      </c>
+      <c r="G30" s="18">
+        <v>7666759.8931139624</v>
+      </c>
+      <c r="H30" s="18">
+        <v>5251730.5450620446</v>
+      </c>
+      <c r="I30" s="18">
+        <v>5763737.2003881978</v>
+      </c>
+      <c r="J30" s="18">
+        <v>5251730.5450620446</v>
+      </c>
+      <c r="K30" s="18">
+        <v>-512006.65532615315</v>
+      </c>
+      <c r="L30" s="17">
+        <v>0</v>
+      </c>
+      <c r="M30" s="21">
+        <v>21.951223057979316</v>
+      </c>
+      <c r="N30" s="21">
+        <v>41.785741387251328</v>
+      </c>
+      <c r="O30" s="21">
+        <v>44.429405025280481</v>
+      </c>
+      <c r="P30" s="21">
+        <v>36.498414111193014</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -20193,7 +20629,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AJ29"/>
+  <dimension ref="A1:AJ30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -20234,7 +20670,7 @@
   <sheetData>
     <row r="1" spans="1:36" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>2</v>
@@ -21636,6 +22072,50 @@
         <v>-434121.59535515867</v>
       </c>
       <c r="N29" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="15">
+        <v>45197</v>
+      </c>
+      <c r="B30" s="31">
+        <v>0.68500000238418579</v>
+      </c>
+      <c r="C30" s="16">
+        <v>19.25</v>
+      </c>
+      <c r="D30" s="17">
+        <v>28.642033266404177</v>
+      </c>
+      <c r="E30" s="17">
+        <v>1644900</v>
+      </c>
+      <c r="F30" s="17">
+        <v>4176288.16796875</v>
+      </c>
+      <c r="G30" s="17">
+        <v>1288917.1577942353</v>
+      </c>
+      <c r="H30" s="18">
+        <v>1881630.8807417192</v>
+      </c>
+      <c r="I30" s="18">
+        <v>23950079.41607352</v>
+      </c>
+      <c r="J30" s="18">
+        <v>16405804.4571118</v>
+      </c>
+      <c r="K30" s="18">
+        <v>17479910.712730724</v>
+      </c>
+      <c r="L30" s="18">
+        <v>16405804.4571118</v>
+      </c>
+      <c r="M30" s="18">
+        <v>-1074106.2556189243</v>
+      </c>
+      <c r="N30" s="17">
         <v>0</v>
       </c>
     </row>
@@ -21655,7 +22135,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AG29"/>
+  <dimension ref="A1:AG30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -22930,6 +23410,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="30" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="15">
+        <v>45197</v>
+      </c>
+      <c r="B30" s="31">
+        <v>0.68500000238418579</v>
+      </c>
+      <c r="C30" s="16">
+        <v>19.25</v>
+      </c>
+      <c r="D30" s="17">
+        <v>28.642033266404177</v>
+      </c>
+      <c r="E30" s="17">
+        <v>3272472.1719180341</v>
+      </c>
+      <c r="F30" s="18">
+        <v>4777331.6212087413</v>
+      </c>
+      <c r="G30" s="18">
+        <v>63919930.967393771</v>
+      </c>
+      <c r="H30" s="18">
+        <v>43785152.865061723</v>
+      </c>
+      <c r="I30" s="18">
+        <v>47383749.750043429</v>
+      </c>
+      <c r="J30" s="18">
+        <v>43785152.865061723</v>
+      </c>
+      <c r="K30" s="18">
+        <v>-3598596.8849817067</v>
+      </c>
+      <c r="L30" s="17">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(RSI&KDJ)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(RSI&KDJ)cn.xlsx
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="29">
   <si>
     <t>in practice</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -158,10 +158,6 @@
   </si>
   <si>
     <t>标志</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -648,7 +644,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -732,6 +728,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -741,7 +740,7 @@
               <c:f>'模型四 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -825,6 +824,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>5703941.5221370691</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6068134.445580963</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -867,7 +869,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -951,6 +953,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -960,7 +965,7 @@
               <c:f>'模型四 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1044,6 +1049,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>5200013.3228820767</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5397198.4075353509</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1086,7 +1094,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1170,6 +1178,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1179,7 +1190,7 @@
               <c:f>'模型四 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1263,6 +1274,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>-503928.19925499242</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-670936.03804561216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1284,11 +1298,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="451762816"/>
-        <c:axId val="451780992"/>
+        <c:axId val="481277056"/>
+        <c:axId val="481278592"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="451762816"/>
+        <c:axId val="481277056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1331,14 +1345,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451780992"/>
+        <c:crossAx val="481278592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="451780992"/>
+        <c:axId val="481278592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1389,7 +1403,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451762816"/>
+        <c:crossAx val="481277056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1580,7 +1594,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1664,6 +1678,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>348430.64106510871</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>364192.92344389425</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1678,8 +1695,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="451790336"/>
-        <c:axId val="451788800"/>
+        <c:axId val="494473984"/>
+        <c:axId val="666704128"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1704,7 +1721,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1788,6 +1805,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1797,7 +1817,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1881,6 +1901,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0.68500000238418579</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.66299998760223389</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1897,11 +1920,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="451785472"/>
-        <c:axId val="451787008"/>
+        <c:axId val="608184192"/>
+        <c:axId val="657982208"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="451785472"/>
+        <c:axId val="608184192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1944,14 +1967,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451787008"/>
+        <c:crossAx val="657982208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="451787008"/>
+        <c:axId val="657982208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2002,12 +2025,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451785472"/>
+        <c:crossAx val="608184192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="451788800"/>
+        <c:axId val="666704128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2044,12 +2067,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451790336"/>
+        <c:crossAx val="494473984"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="451790336"/>
+        <c:axId val="494473984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2058,7 +2081,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="451788800"/>
+        <c:crossAx val="666704128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2237,7 +2260,7 @@
               <c:f>'模型四 (3)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2321,6 +2344,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2330,7 +2356,7 @@
               <c:f>'模型四 (3)PE副本成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2414,6 +2440,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>17479910.712730724</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>20242802.166406341</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2456,7 +2485,7 @@
               <c:f>'模型四 (3)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2540,6 +2569,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2549,7 +2581,7 @@
               <c:f>'模型四 (3)PE副本成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2633,6 +2665,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>16405804.4571118</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>18641793.809604876</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2675,7 +2710,7 @@
               <c:f>'模型四 (3)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2759,6 +2794,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2768,7 +2806,7 @@
               <c:f>'模型四 (3)PE副本成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2852,6 +2890,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>-1074106.2556189243</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1601008.3568014652</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2873,11 +2914,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="452412160"/>
-        <c:axId val="452413696"/>
+        <c:axId val="496025600"/>
+        <c:axId val="496027136"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="452412160"/>
+        <c:axId val="496025600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2920,14 +2961,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="452413696"/>
+        <c:crossAx val="496027136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="452413696"/>
+        <c:axId val="496027136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2978,7 +3019,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="452412160"/>
+        <c:crossAx val="496025600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3169,7 +3210,7 @@
               <c:f>'模型四 (3)PE副本成交量'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3253,6 +3294,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>1288917.1577942353</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2762891.4536756147</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3267,8 +3311,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="452449408"/>
-        <c:axId val="452443520"/>
+        <c:axId val="496132480"/>
+        <c:axId val="496130688"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3293,7 +3337,7 @@
               <c:f>'模型四 (3)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3377,6 +3421,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3386,7 +3433,7 @@
               <c:f>'模型四 (3)PE副本成交量'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3470,6 +3517,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0.68500000238418579</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.66299998760223389</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3486,11 +3536,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="452440448"/>
-        <c:axId val="452441984"/>
+        <c:axId val="496119168"/>
+        <c:axId val="496129152"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="452440448"/>
+        <c:axId val="496119168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3533,14 +3583,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="452441984"/>
+        <c:crossAx val="496129152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="452441984"/>
+        <c:axId val="496129152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3591,12 +3641,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="452440448"/>
+        <c:crossAx val="496119168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="452443520"/>
+        <c:axId val="496130688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3633,12 +3683,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="452449408"/>
+        <c:crossAx val="496132480"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="452449408"/>
+        <c:axId val="496132480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3647,7 +3697,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="452443520"/>
+        <c:crossAx val="496130688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3826,7 +3876,7 @@
               <c:f>'模型四 (3)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3910,6 +3960,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3919,7 +3972,7 @@
               <c:f>'模型四 (3)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4003,6 +4056,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>47383749.750043429</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>50880774.503711924</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4045,7 +4101,7 @@
               <c:f>'模型四 (3)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4129,6 +4185,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4138,7 +4197,7 @@
               <c:f>'模型四 (3)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4222,6 +4281,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>43785152.865061723</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45875938.192586206</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4264,7 +4326,7 @@
               <c:f>'模型四 (3)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4348,6 +4410,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4357,7 +4422,7 @@
               <c:f>'模型四 (3)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4441,6 +4506,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>-3598596.8849817067</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-5004836.3111257181</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4462,11 +4530,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="554386176"/>
-        <c:axId val="554387712"/>
+        <c:axId val="496160768"/>
+        <c:axId val="496162304"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="554386176"/>
+        <c:axId val="496160768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4509,14 +4577,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="554387712"/>
+        <c:crossAx val="496162304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="554387712"/>
+        <c:axId val="496162304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4567,7 +4635,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="554386176"/>
+        <c:crossAx val="496160768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4758,7 +4826,7 @@
               <c:f>'模型四 (3)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4842,6 +4910,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>3272472.1719180341</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3497024.7536684927</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4856,8 +4927,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="554427520"/>
-        <c:axId val="554417536"/>
+        <c:axId val="496189824"/>
+        <c:axId val="496188032"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4882,7 +4953,7 @@
               <c:f>'模型四 (3)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4966,6 +5037,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4975,7 +5049,7 @@
               <c:f>'模型四 (3)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5059,6 +5133,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0.68500000238418579</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.66299998760223389</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5075,11 +5152,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="554414464"/>
-        <c:axId val="554416000"/>
+        <c:axId val="496184704"/>
+        <c:axId val="496186496"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="554414464"/>
+        <c:axId val="496184704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5122,14 +5199,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="554416000"/>
+        <c:crossAx val="496186496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="554416000"/>
+        <c:axId val="496186496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5180,12 +5257,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="554414464"/>
+        <c:crossAx val="496184704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="554417536"/>
+        <c:axId val="496188032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5222,12 +5299,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="554427520"/>
+        <c:crossAx val="496189824"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="554427520"/>
+        <c:axId val="496189824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5236,7 +5313,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="554417536"/>
+        <c:crossAx val="496188032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5398,7 +5475,7 @@
               <c:f>'模型四 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5482,6 +5559,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>348430.64106510871</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>364192.92344389425</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5496,8 +5576,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="557810048"/>
-        <c:axId val="557804160"/>
+        <c:axId val="587277440"/>
+        <c:axId val="587242880"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5522,7 +5602,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5606,6 +5686,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5615,7 +5698,7 @@
               <c:f>'模型四 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5699,6 +5782,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0.68500000238418579</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.66299998760223389</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5715,11 +5801,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="557799680"/>
-        <c:axId val="557802624"/>
+        <c:axId val="587239424"/>
+        <c:axId val="587240960"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="557799680"/>
+        <c:axId val="587239424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5762,14 +5848,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="557802624"/>
+        <c:crossAx val="587240960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="557802624"/>
+        <c:axId val="587240960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5820,12 +5906,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="557799680"/>
+        <c:crossAx val="587239424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="557804160"/>
+        <c:axId val="587242880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5862,12 +5948,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="557810048"/>
+        <c:crossAx val="587277440"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="557810048"/>
+        <c:axId val="587277440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5876,7 +5962,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="557804160"/>
+        <c:crossAx val="587242880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6055,7 +6141,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6139,6 +6225,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6148,7 +6237,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6232,6 +6321,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>7035470.7959066108</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7381454.0731783099</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6274,7 +6366,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6358,6 +6450,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6367,7 +6462,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6451,6 +6546,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>6353649.30164597</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6495573.6328314869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6493,7 +6591,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6577,6 +6675,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6586,7 +6687,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6670,6 +6771,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>-681821.49426064081</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-885880.44034682307</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6691,11 +6795,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="557829120"/>
-        <c:axId val="557847296"/>
+        <c:axId val="587314688"/>
+        <c:axId val="587317632"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="557829120"/>
+        <c:axId val="587314688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6738,14 +6842,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="557847296"/>
+        <c:crossAx val="587317632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="557847296"/>
+        <c:axId val="587317632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6796,7 +6900,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="557829120"/>
+        <c:crossAx val="587314688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6996,7 +7100,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7080,6 +7184,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>331009.10901185323</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>345983.27727169951</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7094,8 +7201,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="558385792"/>
-        <c:axId val="558383872"/>
+        <c:axId val="594791424"/>
+        <c:axId val="594789888"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7120,7 +7227,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7204,6 +7311,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7213,7 +7323,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -7297,6 +7407,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0.68500000238418579</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.66299998760223389</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7313,11 +7426,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="557925120"/>
-        <c:axId val="557927040"/>
+        <c:axId val="594777600"/>
+        <c:axId val="594779520"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="557925120"/>
+        <c:axId val="594777600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7360,14 +7473,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="557927040"/>
+        <c:crossAx val="594779520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="557927040"/>
+        <c:axId val="594779520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7418,12 +7531,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="557925120"/>
+        <c:crossAx val="594777600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="558383872"/>
+        <c:axId val="594789888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7460,12 +7573,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="558385792"/>
+        <c:crossAx val="594791424"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="558385792"/>
+        <c:axId val="594791424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7474,7 +7587,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="558383872"/>
+        <c:crossAx val="594789888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7653,7 +7766,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7737,6 +7850,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7746,7 +7862,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7830,6 +7946,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>59498124.710288487</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>62820298.226273552</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7872,7 +7991,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7956,6 +8075,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7965,7 +8087,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8049,6 +8171,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>54561326.749563418</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>56131164.512504093</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8091,7 +8216,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8175,6 +8300,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8184,7 +8312,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8268,6 +8396,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>-4936797.960725069</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-6689133.7137694582</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8289,11 +8420,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="558505344"/>
-        <c:axId val="558576768"/>
+        <c:axId val="594858752"/>
+        <c:axId val="594860672"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="558505344"/>
+        <c:axId val="594858752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8336,14 +8467,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="558576768"/>
+        <c:crossAx val="594860672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="558576768"/>
+        <c:axId val="594860672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8394,7 +8525,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="558505344"/>
+        <c:crossAx val="594858752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8594,7 +8725,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8678,6 +8809,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>3108848.5633221325</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3322173.5159850679</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8692,8 +8826,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="559246720"/>
-        <c:axId val="559244800"/>
+        <c:axId val="595170816"/>
+        <c:axId val="595151488"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8718,7 +8852,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8802,6 +8936,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8811,7 +8948,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -8895,6 +9032,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0.68500000238418579</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.66299998760223389</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8911,11 +9051,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="559171840"/>
-        <c:axId val="559243264"/>
+        <c:axId val="595123584"/>
+        <c:axId val="595149952"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="559171840"/>
+        <c:axId val="595123584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8958,14 +9098,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="559243264"/>
+        <c:crossAx val="595149952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="559243264"/>
+        <c:axId val="595149952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9016,12 +9156,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="559171840"/>
+        <c:crossAx val="595123584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="559244800"/>
+        <c:axId val="595151488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9058,12 +9198,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="559246720"/>
+        <c:crossAx val="595170816"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="559246720"/>
+        <c:axId val="595170816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9072,7 +9212,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="559244800"/>
+        <c:crossAx val="595151488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9251,7 +9391,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9335,6 +9475,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9344,7 +9487,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9428,6 +9571,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>2832697.1202882249</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3198168.2049832903</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9470,7 +9616,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9554,6 +9700,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9563,7 +9712,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9647,6 +9796,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>2642348.829696503</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2922956.0996323489</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9689,7 +9841,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9773,6 +9925,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9782,7 +9937,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9866,6 +10021,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>-190348.29059172189</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-275212.10535094142</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9887,11 +10045,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="564308224"/>
-        <c:axId val="572479360"/>
+        <c:axId val="601439232"/>
+        <c:axId val="602596096"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="564308224"/>
+        <c:axId val="601439232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9934,14 +10092,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="572479360"/>
+        <c:crossAx val="602596096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="572479360"/>
+        <c:axId val="602596096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9992,7 +10150,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="564308224"/>
+        <c:crossAx val="601439232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10183,7 +10341,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10267,6 +10425,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>170496.00378417413</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>365471.08469506545</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10281,8 +10442,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="446621568"/>
-        <c:axId val="446620032"/>
+        <c:axId val="602703360"/>
+        <c:axId val="602701824"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -10307,7 +10468,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10391,6 +10552,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10400,7 +10564,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -10484,6 +10648,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0.68500000238418579</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.66299998760223389</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10500,11 +10667,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="446047360"/>
-        <c:axId val="446048896"/>
+        <c:axId val="602698112"/>
+        <c:axId val="602699648"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="446047360"/>
+        <c:axId val="602698112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10547,14 +10714,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="446048896"/>
+        <c:crossAx val="602699648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="446048896"/>
+        <c:axId val="602699648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10605,12 +10772,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="446047360"/>
+        <c:crossAx val="602698112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="446620032"/>
+        <c:axId val="602701824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10647,12 +10814,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="446621568"/>
+        <c:crossAx val="602703360"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="446621568"/>
+        <c:axId val="602703360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10661,7 +10828,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="446620032"/>
+        <c:crossAx val="602701824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10840,7 +11007,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10924,6 +11091,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10933,7 +11103,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11017,6 +11187,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>5763737.2003881978</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6127930.1238320917</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11059,7 +11232,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11143,6 +11316,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11152,7 +11328,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11236,6 +11412,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>5251730.5450620446</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5447254.6375277555</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11278,7 +11457,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11362,6 +11541,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11371,7 +11553,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11455,6 +11637,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>-512006.65532615315</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-680675.48630433623</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11476,11 +11661,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="449033344"/>
-        <c:axId val="449034880"/>
+        <c:axId val="605931392"/>
+        <c:axId val="607396224"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="449033344"/>
+        <c:axId val="605931392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11523,14 +11708,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="449034880"/>
+        <c:crossAx val="607396224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="449034880"/>
+        <c:axId val="607396224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11581,7 +11766,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="449033344"/>
+        <c:crossAx val="605931392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12433,7 +12618,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG30"/>
+  <dimension ref="A1:AG31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13746,6 +13931,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="31" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="32">
+        <v>45230</v>
+      </c>
+      <c r="B31" s="31">
+        <v>0.66299998760223389</v>
+      </c>
+      <c r="C31" s="31">
+        <v>18.770000459999999</v>
+      </c>
+      <c r="D31" s="29">
+        <v>28.372122106405978</v>
+      </c>
+      <c r="E31" s="29">
+        <v>364192.92344389425</v>
+      </c>
+      <c r="F31" s="30">
+        <v>549310.60370153643</v>
+      </c>
+      <c r="G31" s="30">
+        <v>8140570.9026549701</v>
+      </c>
+      <c r="H31" s="30">
+        <v>5397198.4075353509</v>
+      </c>
+      <c r="I31" s="30">
+        <v>6068134.445580963</v>
+      </c>
+      <c r="J31" s="30">
+        <v>5397198.4075353509</v>
+      </c>
+      <c r="K31" s="30">
+        <v>-670936.03804561216</v>
+      </c>
+      <c r="L31" s="29">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -13762,7 +13985,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH30"/>
+  <dimension ref="A1:AH31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15130,13 +15353,13 @@
         <v>0</v>
       </c>
       <c r="M25" s="22">
-        <v>1.6235825800310466E-2</v>
+        <v>1.3529854833592056E-2</v>
       </c>
       <c r="N25" s="22">
-        <v>3.3549798769067905E-2</v>
+        <v>3.129150572941633E-2</v>
       </c>
       <c r="O25" s="22">
-        <v>48.393213658495924</v>
+        <v>43.238107333623745</v>
       </c>
       <c r="P25" s="1">
         <v>0.95</v>
@@ -15180,13 +15403,13 @@
         <v>0</v>
       </c>
       <c r="M26" s="22">
-        <v>1.6235825800310466E-2</v>
+        <v>1.127487902799338E-2</v>
       </c>
       <c r="N26" s="22">
-        <v>3.3549798769067905E-2</v>
+        <v>3.124291452704148E-2</v>
       </c>
       <c r="O26" s="22">
-        <v>48.393213658495924</v>
+        <v>36.087795260697291</v>
       </c>
       <c r="P26" s="1">
         <v>0.95</v>
@@ -15230,13 +15453,13 @@
         <v>0</v>
       </c>
       <c r="M27" s="22">
-        <v>1.127487902799338E-2</v>
+        <v>1.522906029356097E-2</v>
       </c>
       <c r="N27" s="22">
-        <v>3.124291452704148E-2</v>
+        <v>3.1869089876101056E-2</v>
       </c>
       <c r="O27" s="22">
-        <v>36.087795260697291</v>
+        <v>47.786304387002254</v>
       </c>
       <c r="P27" s="1">
         <v>0.95</v>
@@ -15280,13 +15503,13 @@
         <v>0</v>
       </c>
       <c r="M28" s="22">
-        <v>1.522906029356097E-2</v>
+        <v>1.3690880637471666E-2</v>
       </c>
       <c r="N28" s="22">
-        <v>3.1869089876101056E-2</v>
+        <v>2.7557571956255068E-2</v>
       </c>
       <c r="O28" s="22">
-        <v>47.786304387002254</v>
+        <v>49.681012025314104</v>
       </c>
       <c r="P28" s="1">
         <v>0.95</v>
@@ -15330,13 +15553,13 @@
         <v>0</v>
       </c>
       <c r="M29" s="22">
-        <v>1.3690880637471666E-2</v>
+        <v>1.1409067197893056E-2</v>
       </c>
       <c r="N29" s="22">
-        <v>2.7557571956255068E-2</v>
+        <v>3.0797975120228221E-2</v>
       </c>
       <c r="O29" s="22">
-        <v>49.681012025314104</v>
+        <v>37.04486140194178</v>
       </c>
       <c r="P29" s="1">
         <v>0.95</v>
@@ -15380,15 +15603,65 @@
         <v>0</v>
       </c>
       <c r="M30" s="22">
-        <v>1.1409067197893056E-2</v>
+        <v>9.5075559982442139E-3</v>
       </c>
       <c r="N30" s="22">
-        <v>3.0797975120228221E-2</v>
+        <v>3.0498309977585816E-2</v>
       </c>
       <c r="O30" s="22">
-        <v>37.04486140194178</v>
+        <v>31.174042119814576</v>
       </c>
       <c r="P30" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="15">
+        <v>45230</v>
+      </c>
+      <c r="B31" s="31">
+        <v>0.66299998760223389</v>
+      </c>
+      <c r="C31" s="16">
+        <v>18.770000459999999</v>
+      </c>
+      <c r="D31" s="17">
+        <v>28.372122106405978</v>
+      </c>
+      <c r="E31" s="17">
+        <v>345983.27727169951</v>
+      </c>
+      <c r="F31" s="18">
+        <v>521845.07351645955</v>
+      </c>
+      <c r="G31" s="18">
+        <v>9797245.4815919232</v>
+      </c>
+      <c r="H31" s="18">
+        <v>6495573.6328314869</v>
+      </c>
+      <c r="I31" s="18">
+        <v>7381454.0731783099</v>
+      </c>
+      <c r="J31" s="18">
+        <v>6495573.6328314869</v>
+      </c>
+      <c r="K31" s="18">
+        <v>-885880.44034682307</v>
+      </c>
+      <c r="L31" s="17">
+        <v>0</v>
+      </c>
+      <c r="M31" s="22">
+        <v>9.5075559982442139E-3</v>
+      </c>
+      <c r="N31" s="22">
+        <v>3.0498309977585816E-2</v>
+      </c>
+      <c r="O31" s="22">
+        <v>31.174042119814576</v>
+      </c>
+      <c r="P31" s="1">
         <v>0.95</v>
       </c>
     </row>
@@ -15408,7 +15681,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:AH30"/>
+  <dimension ref="A1:AH31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15449,7 +15722,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>2</v>
@@ -16776,13 +17049,13 @@
         <v>0</v>
       </c>
       <c r="M25" s="22">
-        <v>1.6235825800310466E-2</v>
+        <v>1.3529854833592056E-2</v>
       </c>
       <c r="N25" s="22">
-        <v>3.3549798769067905E-2</v>
+        <v>3.129150572941633E-2</v>
       </c>
       <c r="O25" s="22">
-        <v>48.393213658495924</v>
+        <v>43.238107333623745</v>
       </c>
       <c r="P25" s="1">
         <v>0.95</v>
@@ -16826,13 +17099,13 @@
         <v>0</v>
       </c>
       <c r="M26" s="22">
-        <v>1.6235825800310466E-2</v>
+        <v>1.127487902799338E-2</v>
       </c>
       <c r="N26" s="22">
-        <v>3.3549798769067905E-2</v>
+        <v>3.124291452704148E-2</v>
       </c>
       <c r="O26" s="22">
-        <v>48.393213658495924</v>
+        <v>36.087795260697291</v>
       </c>
       <c r="P26" s="1">
         <v>0.95</v>
@@ -16876,13 +17149,13 @@
         <v>0</v>
       </c>
       <c r="M27" s="22">
-        <v>1.127487902799338E-2</v>
+        <v>1.522906029356097E-2</v>
       </c>
       <c r="N27" s="22">
-        <v>3.124291452704148E-2</v>
+        <v>3.1869089876101056E-2</v>
       </c>
       <c r="O27" s="22">
-        <v>36.087795260697291</v>
+        <v>47.786304387002254</v>
       </c>
       <c r="P27" s="1">
         <v>0.95</v>
@@ -16926,13 +17199,13 @@
         <v>0</v>
       </c>
       <c r="M28" s="22">
-        <v>1.522906029356097E-2</v>
+        <v>1.3690880637471666E-2</v>
       </c>
       <c r="N28" s="22">
-        <v>3.1869089876101056E-2</v>
+        <v>2.7557571956255068E-2</v>
       </c>
       <c r="O28" s="22">
-        <v>47.786304387002254</v>
+        <v>49.681012025314104</v>
       </c>
       <c r="P28" s="1">
         <v>0.95</v>
@@ -16976,13 +17249,13 @@
         <v>0</v>
       </c>
       <c r="M29" s="22">
-        <v>1.3690880637471666E-2</v>
+        <v>1.1409067197893056E-2</v>
       </c>
       <c r="N29" s="22">
-        <v>2.7557571956255068E-2</v>
+        <v>3.0797975120228221E-2</v>
       </c>
       <c r="O29" s="22">
-        <v>49.681012025314104</v>
+        <v>37.04486140194178</v>
       </c>
       <c r="P29" s="1">
         <v>0.95</v>
@@ -17026,15 +17299,65 @@
         <v>0</v>
       </c>
       <c r="M30" s="22">
-        <v>1.1409067197893056E-2</v>
+        <v>9.5075559982442139E-3</v>
       </c>
       <c r="N30" s="22">
-        <v>3.0797975120228221E-2</v>
+        <v>3.0498309977585816E-2</v>
       </c>
       <c r="O30" s="22">
-        <v>37.04486140194178</v>
+        <v>31.174042119814576</v>
       </c>
       <c r="P30" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="15">
+        <v>45230</v>
+      </c>
+      <c r="B31" s="31">
+        <v>0.66299998760223389</v>
+      </c>
+      <c r="C31" s="16">
+        <v>18.770000459999999</v>
+      </c>
+      <c r="D31" s="17">
+        <v>28.372122106405978</v>
+      </c>
+      <c r="E31" s="17">
+        <v>3322173.5159850679</v>
+      </c>
+      <c r="F31" s="18">
+        <v>5010819.8764827158</v>
+      </c>
+      <c r="G31" s="18">
+        <v>84662391.496423259</v>
+      </c>
+      <c r="H31" s="18">
+        <v>56131164.512504093</v>
+      </c>
+      <c r="I31" s="18">
+        <v>62820298.226273552</v>
+      </c>
+      <c r="J31" s="18">
+        <v>56131164.512504093</v>
+      </c>
+      <c r="K31" s="18">
+        <v>-6689133.7137694582</v>
+      </c>
+      <c r="L31" s="17">
+        <v>0</v>
+      </c>
+      <c r="M31" s="22">
+        <v>9.5075559982442139E-3</v>
+      </c>
+      <c r="N31" s="22">
+        <v>3.0498309977585816E-2</v>
+      </c>
+      <c r="O31" s="22">
+        <v>31.174042119814576</v>
+      </c>
+      <c r="P31" s="1">
         <v>0.95</v>
       </c>
     </row>
@@ -17054,7 +17377,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AJ30"/>
+  <dimension ref="A1:AJ31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17107,10 +17430,10 @@
         <v>4</v>
       </c>
       <c r="E1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>23</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>24</v>
       </c>
       <c r="G1" s="40" t="s">
         <v>5</v>
@@ -18572,13 +18895,13 @@
         <v>0</v>
       </c>
       <c r="O25" s="22">
-        <v>1.6235825800310466E-2</v>
+        <v>1.3529854833592056E-2</v>
       </c>
       <c r="P25" s="22">
-        <v>3.3549798769067905E-2</v>
+        <v>3.129150572941633E-2</v>
       </c>
       <c r="Q25" s="22">
-        <v>48.393213658495924</v>
+        <v>43.238107333623745</v>
       </c>
       <c r="R25" s="1">
         <v>0.95</v>
@@ -18628,13 +18951,13 @@
         <v>0</v>
       </c>
       <c r="O26" s="22">
-        <v>1.6235825800310466E-2</v>
+        <v>1.127487902799338E-2</v>
       </c>
       <c r="P26" s="22">
-        <v>3.3549798769067905E-2</v>
+        <v>3.124291452704148E-2</v>
       </c>
       <c r="Q26" s="22">
-        <v>48.393213658495924</v>
+        <v>36.087795260697291</v>
       </c>
       <c r="R26" s="1">
         <v>0.95</v>
@@ -18684,13 +19007,13 @@
         <v>0</v>
       </c>
       <c r="O27" s="22">
-        <v>1.127487902799338E-2</v>
+        <v>1.522906029356097E-2</v>
       </c>
       <c r="P27" s="22">
-        <v>3.124291452704148E-2</v>
+        <v>3.1869089876101056E-2</v>
       </c>
       <c r="Q27" s="22">
-        <v>36.087795260697291</v>
+        <v>47.786304387002254</v>
       </c>
       <c r="R27" s="1">
         <v>0.95</v>
@@ -18740,13 +19063,13 @@
         <v>0</v>
       </c>
       <c r="O28" s="22">
-        <v>1.522906029356097E-2</v>
+        <v>1.3690880637471666E-2</v>
       </c>
       <c r="P28" s="22">
-        <v>3.1869089876101056E-2</v>
+        <v>2.7557571956255068E-2</v>
       </c>
       <c r="Q28" s="22">
-        <v>47.786304387002254</v>
+        <v>49.681012025314104</v>
       </c>
       <c r="R28" s="1">
         <v>0.95</v>
@@ -18796,13 +19119,13 @@
         <v>0</v>
       </c>
       <c r="O29" s="22">
-        <v>1.3690880637471666E-2</v>
+        <v>1.1409067197893056E-2</v>
       </c>
       <c r="P29" s="22">
-        <v>2.7557571956255068E-2</v>
+        <v>3.0797975120228221E-2</v>
       </c>
       <c r="Q29" s="22">
-        <v>49.681012025314104</v>
+        <v>37.04486140194178</v>
       </c>
       <c r="R29" s="1">
         <v>0.95</v>
@@ -18852,15 +19175,71 @@
         <v>0</v>
       </c>
       <c r="O30" s="22">
-        <v>1.1409067197893056E-2</v>
+        <v>9.5075559982442139E-3</v>
       </c>
       <c r="P30" s="22">
-        <v>3.0797975120228221E-2</v>
+        <v>3.0498309977585816E-2</v>
       </c>
       <c r="Q30" s="22">
-        <v>37.04486140194178</v>
+        <v>31.174042119814576</v>
       </c>
       <c r="R30" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="15">
+        <v>45230</v>
+      </c>
+      <c r="B31" s="31">
+        <v>0.66299998760223389</v>
+      </c>
+      <c r="C31" s="16">
+        <v>18.770000459999999</v>
+      </c>
+      <c r="D31" s="17">
+        <v>28.372122106405978</v>
+      </c>
+      <c r="E31" s="17">
+        <v>3279702</v>
+      </c>
+      <c r="F31" s="17">
+        <v>4151158.042563708</v>
+      </c>
+      <c r="G31" s="17">
+        <v>365471.08469506545</v>
+      </c>
+      <c r="H31" s="18">
+        <v>551238.44876197714</v>
+      </c>
+      <c r="I31" s="18">
+        <v>4408681.9823380951</v>
+      </c>
+      <c r="J31" s="18">
+        <v>2922956.0996323489</v>
+      </c>
+      <c r="K31" s="18">
+        <v>3198168.2049832903</v>
+      </c>
+      <c r="L31" s="18">
+        <v>2922956.0996323489</v>
+      </c>
+      <c r="M31" s="18">
+        <v>-275212.10535094142</v>
+      </c>
+      <c r="N31" s="17">
+        <v>0</v>
+      </c>
+      <c r="O31" s="22">
+        <v>9.5075559982442139E-3</v>
+      </c>
+      <c r="P31" s="22">
+        <v>3.0498309977585816E-2</v>
+      </c>
+      <c r="Q31" s="22">
+        <v>31.174042119814576</v>
+      </c>
+      <c r="R31" s="1">
         <v>0.95</v>
       </c>
     </row>
@@ -18880,7 +19259,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AJ30"/>
+  <dimension ref="A1:AJ31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18957,19 +19336,19 @@
         <v>12</v>
       </c>
       <c r="M1" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="48" t="s">
+      <c r="O1" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="48" t="s">
+      <c r="P1" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="48" t="s">
+      <c r="Q1" s="11" t="s">
         <v>28</v>
-      </c>
-      <c r="Q1" s="11" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -20333,16 +20712,16 @@
         <v>0</v>
       </c>
       <c r="M25" s="21">
-        <v>51.666694813303359</v>
+        <v>48.993281878673784</v>
       </c>
       <c r="N25" s="21">
-        <v>44.636172502112707</v>
+        <v>46.088542294299735</v>
       </c>
       <c r="O25" s="21">
-        <v>37.449899885039635</v>
+        <v>40.329447354792997</v>
       </c>
       <c r="P25" s="21">
-        <v>59.008717736258845</v>
+        <v>57.606732173313205</v>
       </c>
       <c r="Q25" s="1">
         <v>1</v>
@@ -20386,16 +20765,16 @@
         <v>0</v>
       </c>
       <c r="M26" s="21">
-        <v>51.666694813303359</v>
+        <v>31.818216710700341</v>
       </c>
       <c r="N26" s="21">
-        <v>44.636172502112707</v>
+        <v>41.331767099766601</v>
       </c>
       <c r="O26" s="21">
-        <v>37.449899885039635</v>
+        <v>40.66355393645086</v>
       </c>
       <c r="P26" s="21">
-        <v>59.008717736258845</v>
+        <v>42.668193426398076</v>
       </c>
       <c r="Q26" s="1">
         <v>1</v>
@@ -20439,16 +20818,16 @@
         <v>0</v>
       </c>
       <c r="M27" s="21">
-        <v>31.818216710700341</v>
+        <v>58.333337096251995</v>
       </c>
       <c r="N27" s="21">
-        <v>41.331767099766601</v>
+        <v>46.998957098595064</v>
       </c>
       <c r="O27" s="21">
-        <v>40.66355393645086</v>
+        <v>42.775354990498926</v>
       </c>
       <c r="P27" s="21">
-        <v>42.668193426398076</v>
+        <v>55.446161314787332</v>
       </c>
       <c r="Q27" s="1">
         <v>1</v>
@@ -20492,16 +20871,16 @@
         <v>0</v>
       </c>
       <c r="M28" s="21">
-        <v>58.333337096251995</v>
+        <v>61.111087458471879</v>
       </c>
       <c r="N28" s="21">
-        <v>46.998957098595064</v>
+        <v>51.703000551887335</v>
       </c>
       <c r="O28" s="21">
-        <v>42.775354990498926</v>
+        <v>45.751236844295057</v>
       </c>
       <c r="P28" s="21">
-        <v>55.446161314787332</v>
+        <v>63.606527967071898</v>
       </c>
       <c r="Q28" s="1">
         <v>1</v>
@@ -20545,16 +20924,16 @@
         <v>0</v>
       </c>
       <c r="M29" s="21">
-        <v>61.111087458471879</v>
+        <v>21.951223057979316</v>
       </c>
       <c r="N29" s="21">
-        <v>51.703000551887335</v>
+        <v>41.785741387251328</v>
       </c>
       <c r="O29" s="21">
-        <v>45.751236844295057</v>
+        <v>44.429405025280481</v>
       </c>
       <c r="P29" s="21">
-        <v>63.606527967071898</v>
+        <v>36.498414111193014</v>
       </c>
       <c r="Q29" s="1">
         <v>1</v>
@@ -20598,18 +20977,71 @@
         <v>0</v>
       </c>
       <c r="M30" s="21">
-        <v>21.951223057979316</v>
+        <v>7.4074008664308382</v>
       </c>
       <c r="N30" s="21">
-        <v>41.785741387251328</v>
+        <v>30.326294546977831</v>
       </c>
       <c r="O30" s="21">
-        <v>44.429405025280481</v>
+        <v>39.728368199179599</v>
       </c>
       <c r="P30" s="21">
-        <v>36.498414111193014</v>
+        <v>11.522147242574292</v>
       </c>
       <c r="Q30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="15">
+        <v>45230</v>
+      </c>
+      <c r="B31" s="31">
+        <v>0.66299998760223389</v>
+      </c>
+      <c r="C31" s="16">
+        <v>18.770000459999999</v>
+      </c>
+      <c r="D31" s="17">
+        <v>28.372122106405978</v>
+      </c>
+      <c r="E31" s="17">
+        <v>364192.92344389425</v>
+      </c>
+      <c r="F31" s="18">
+        <v>549310.60370153643</v>
+      </c>
+      <c r="G31" s="18">
+        <v>8216070.4968154989</v>
+      </c>
+      <c r="H31" s="18">
+        <v>5447254.6375277555</v>
+      </c>
+      <c r="I31" s="18">
+        <v>6127930.1238320917</v>
+      </c>
+      <c r="J31" s="18">
+        <v>5447254.6375277555</v>
+      </c>
+      <c r="K31" s="18">
+        <v>-680675.48630433623</v>
+      </c>
+      <c r="L31" s="17">
+        <v>0</v>
+      </c>
+      <c r="M31" s="21">
+        <v>7.4074008664308382</v>
+      </c>
+      <c r="N31" s="21">
+        <v>30.326294546977831</v>
+      </c>
+      <c r="O31" s="21">
+        <v>39.728368199179599</v>
+      </c>
+      <c r="P31" s="21">
+        <v>11.522147242574292</v>
+      </c>
+      <c r="Q31" s="1">
         <v>1</v>
       </c>
     </row>
@@ -20629,7 +21061,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AJ30"/>
+  <dimension ref="A1:AJ31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -20670,7 +21102,7 @@
   <sheetData>
     <row r="1" spans="1:36" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>2</v>
@@ -20682,10 +21114,10 @@
         <v>4</v>
       </c>
       <c r="E1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>23</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>24</v>
       </c>
       <c r="G1" s="40" t="s">
         <v>5</v>
@@ -22116,6 +22548,50 @@
         <v>-1074106.2556189243</v>
       </c>
       <c r="N30" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="15">
+        <v>45230</v>
+      </c>
+      <c r="B31" s="31">
+        <v>0.66299998760223389</v>
+      </c>
+      <c r="C31" s="16">
+        <v>18.770000459999999</v>
+      </c>
+      <c r="D31" s="17">
+        <v>28.372122106405978</v>
+      </c>
+      <c r="E31" s="17">
+        <v>3279702</v>
+      </c>
+      <c r="F31" s="17">
+        <v>4151158.042563708</v>
+      </c>
+      <c r="G31" s="17">
+        <v>2762891.4536756147</v>
+      </c>
+      <c r="H31" s="18">
+        <v>4167257.1724589658</v>
+      </c>
+      <c r="I31" s="18">
+        <v>28117336.588532485</v>
+      </c>
+      <c r="J31" s="18">
+        <v>18641793.809604876</v>
+      </c>
+      <c r="K31" s="18">
+        <v>20242802.166406341</v>
+      </c>
+      <c r="L31" s="18">
+        <v>18641793.809604876</v>
+      </c>
+      <c r="M31" s="18">
+        <v>-1601008.3568014652</v>
+      </c>
+      <c r="N31" s="17">
         <v>0</v>
       </c>
     </row>
@@ -22135,7 +22611,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AG30"/>
+  <dimension ref="A1:AG31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -23448,6 +23924,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="31" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="15">
+        <v>45230</v>
+      </c>
+      <c r="B31" s="31">
+        <v>0.66299998760223389</v>
+      </c>
+      <c r="C31" s="16">
+        <v>18.770000459999999</v>
+      </c>
+      <c r="D31" s="17">
+        <v>28.372122106405978</v>
+      </c>
+      <c r="E31" s="17">
+        <v>3497024.7536684927</v>
+      </c>
+      <c r="F31" s="18">
+        <v>5274547.2384028593</v>
+      </c>
+      <c r="G31" s="18">
+        <v>69194478.205796629</v>
+      </c>
+      <c r="H31" s="18">
+        <v>45875938.192586206</v>
+      </c>
+      <c r="I31" s="18">
+        <v>50880774.503711924</v>
+      </c>
+      <c r="J31" s="18">
+        <v>45875938.192586206</v>
+      </c>
+      <c r="K31" s="18">
+        <v>-5004836.3111257181</v>
+      </c>
+      <c r="L31" s="17">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(RSI&KDJ)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(RSI&KDJ)cn.xlsx
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="32">
   <si>
     <t>in practice</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -161,11 +161,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>成交量</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>成交均量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>深创100ETF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -644,7 +656,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -731,6 +743,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -740,7 +758,7 @@
               <c:f>'模型四 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -827,6 +845,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>6068134.445580963</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6471218.9630682301</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6865089.2319875453</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -869,7 +893,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -956,6 +980,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -965,7 +995,7 @@
               <c:f>'模型四 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1052,6 +1082,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>5397198.4075353509</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5702596.3614385333</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6043907.7728215661</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1094,7 +1130,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1181,6 +1217,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1190,7 +1232,7 @@
               <c:f>'模型四 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1277,6 +1319,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>-670936.03804561216</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-768622.60162969679</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-821181.45916597918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1298,11 +1346,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="481277056"/>
-        <c:axId val="481278592"/>
+        <c:axId val="465702912"/>
+        <c:axId val="465704448"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="481277056"/>
+        <c:axId val="465702912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1345,14 +1393,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="481278592"/>
+        <c:crossAx val="465704448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="481278592"/>
+        <c:axId val="465704448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1403,7 +1451,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="481277056"/>
+        <c:crossAx val="465702912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1594,7 +1642,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1681,6 +1729,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>364192.92344389425</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>403084.51748726668</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>393870.26891931542</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1695,8 +1749,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="494473984"/>
-        <c:axId val="666704128"/>
+        <c:axId val="439498240"/>
+        <c:axId val="439496704"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1721,7 +1775,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1808,6 +1862,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1817,7 +1877,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1904,6 +1964,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0.66299998760223389</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.65100002288818359</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.64499998092651367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1920,11 +1986,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="608184192"/>
-        <c:axId val="657982208"/>
+        <c:axId val="439485184"/>
+        <c:axId val="439486720"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="608184192"/>
+        <c:axId val="439485184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1967,14 +2033,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="657982208"/>
+        <c:crossAx val="439486720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="657982208"/>
+        <c:axId val="439486720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2025,12 +2091,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="608184192"/>
+        <c:crossAx val="439485184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="666704128"/>
+        <c:axId val="439496704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2067,12 +2133,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494473984"/>
+        <c:crossAx val="439498240"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="494473984"/>
+        <c:axId val="439498240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2081,7 +2147,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="666704128"/>
+        <c:crossAx val="439496704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2260,7 +2326,7 @@
               <c:f>'模型四 (3)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2347,6 +2413,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2356,7 +2428,7 @@
               <c:f>'模型四 (3)PE副本成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2443,6 +2515,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>20242802.166406341</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>23640257.499347821</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>28974836.962735176</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2485,7 +2563,7 @@
               <c:f>'模型四 (3)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2572,6 +2650,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2581,7 +2665,7 @@
               <c:f>'模型四 (3)PE副本成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2668,6 +2752,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>18641793.809604876</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>21701842.095630888</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>26836403.189369608</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2710,7 +2800,7 @@
               <c:f>'模型四 (3)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2797,6 +2887,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2806,7 +2902,7 @@
               <c:f>'模型四 (3)PE副本成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2893,6 +2989,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>-1601008.3568014652</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1938415.403716933</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-2138433.7733655684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2914,11 +3016,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="496025600"/>
-        <c:axId val="496027136"/>
+        <c:axId val="490345216"/>
+        <c:axId val="490346752"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="496025600"/>
+        <c:axId val="490345216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2961,14 +3063,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496027136"/>
+        <c:crossAx val="490346752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="496027136"/>
+        <c:axId val="490346752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3019,7 +3121,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496025600"/>
+        <c:crossAx val="490345216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3210,7 +3312,7 @@
               <c:f>'模型四 (3)PE副本成交量'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3297,6 +3399,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>2762891.4536756147</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3397455.3329414804</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5334579.4633873561</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3311,8 +3419,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="496132480"/>
-        <c:axId val="496130688"/>
+        <c:axId val="490816640"/>
+        <c:axId val="490814848"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3337,7 +3445,7 @@
               <c:f>'模型四 (3)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3424,6 +3532,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3433,7 +3547,7 @@
               <c:f>'模型四 (3)PE副本成交量'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3520,6 +3634,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0.66299998760223389</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.65100002288818359</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.64499998092651367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3536,11 +3656,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="496119168"/>
-        <c:axId val="496129152"/>
+        <c:axId val="490811776"/>
+        <c:axId val="490813312"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="496119168"/>
+        <c:axId val="490811776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3583,14 +3703,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496129152"/>
+        <c:crossAx val="490813312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="496129152"/>
+        <c:axId val="490813312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3641,12 +3761,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496119168"/>
+        <c:crossAx val="490811776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="496130688"/>
+        <c:axId val="490814848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3683,12 +3803,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496132480"/>
+        <c:crossAx val="490816640"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="496132480"/>
+        <c:axId val="490816640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3697,7 +3817,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="496130688"/>
+        <c:crossAx val="490814848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3876,7 +3996,7 @@
               <c:f>'模型四 (3)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3963,6 +4083,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3972,7 +4098,7 @@
               <c:f>'模型四 (3)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4059,6 +4185,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>50880774.503711924</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>54952660.666307978</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>58885726.822578892</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4101,7 +4233,7 @@
               <c:f>'模型四 (3)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4188,6 +4320,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4197,7 +4335,7 @@
               <c:f>'模型四 (3)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4284,6 +4422,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45875938.192586206</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>49117493.058305584</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>52597860.275958352</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4326,7 +4470,7 @@
               <c:f>'模型四 (3)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4413,6 +4557,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4422,7 +4572,7 @@
               <c:f>'模型四 (3)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4509,6 +4659,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>-5004836.3111257181</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-5835167.6080023944</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-6287866.5466205403</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4530,11 +4686,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="496160768"/>
-        <c:axId val="496162304"/>
+        <c:axId val="490853120"/>
+        <c:axId val="490854656"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="496160768"/>
+        <c:axId val="490853120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4577,14 +4733,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496162304"/>
+        <c:crossAx val="490854656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="496162304"/>
+        <c:axId val="490854656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4635,7 +4791,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496160768"/>
+        <c:crossAx val="490853120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4826,7 +4982,7 @@
               <c:f>'模型四 (3)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4913,6 +5069,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>3497024.7536684927</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4071886.1625960553</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3933066.1562709101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4927,8 +5089,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="496189824"/>
-        <c:axId val="496188032"/>
+        <c:axId val="490939520"/>
+        <c:axId val="490933632"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4953,7 +5115,7 @@
               <c:f>'模型四 (3)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5040,6 +5202,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5049,7 +5217,7 @@
               <c:f>'模型四 (3)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5136,6 +5304,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0.66299998760223389</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.65100002288818359</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.64499998092651367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5152,11 +5326,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="496184704"/>
-        <c:axId val="496186496"/>
+        <c:axId val="490930560"/>
+        <c:axId val="490932096"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="496184704"/>
+        <c:axId val="490930560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5199,14 +5373,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496186496"/>
+        <c:crossAx val="490932096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="496186496"/>
+        <c:axId val="490932096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5257,12 +5431,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496184704"/>
+        <c:crossAx val="490930560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="496188032"/>
+        <c:axId val="490933632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5299,12 +5473,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496189824"/>
+        <c:crossAx val="490939520"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="496189824"/>
+        <c:axId val="490939520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5313,7 +5487,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="496188032"/>
+        <c:crossAx val="490933632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5475,7 +5649,7 @@
               <c:f>'模型四 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5562,6 +5736,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>364192.92344389425</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>403084.51748726668</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>393870.26891931542</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5576,8 +5756,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="587277440"/>
-        <c:axId val="587242880"/>
+        <c:axId val="465729792"/>
+        <c:axId val="465728256"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5602,7 +5782,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5689,6 +5869,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5698,7 +5884,7 @@
               <c:f>'模型四 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5785,6 +5971,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0.66299998760223389</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.65100002288818359</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.64499998092651367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5801,11 +5993,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="587239424"/>
-        <c:axId val="587240960"/>
+        <c:axId val="465724544"/>
+        <c:axId val="465726080"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="587239424"/>
+        <c:axId val="465724544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5848,14 +6040,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="587240960"/>
+        <c:crossAx val="465726080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="587240960"/>
+        <c:axId val="465726080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5906,12 +6098,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="587239424"/>
+        <c:crossAx val="465724544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="587242880"/>
+        <c:axId val="465728256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5948,12 +6140,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="587277440"/>
+        <c:crossAx val="465729792"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="587277440"/>
+        <c:axId val="465729792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5962,7 +6154,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="587242880"/>
+        <c:crossAx val="465728256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6141,7 +6333,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6228,6 +6420,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6237,7 +6435,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6324,6 +6522,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>7381454.0731783099</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7764384.3647912135</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8138561.1202645628</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6366,7 +6570,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6453,6 +6657,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6462,7 +6672,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6549,6 +6759,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>6495573.6328314869</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6760937.3243703991</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7072800.859843432</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6591,7 +6807,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6678,6 +6894,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6687,7 +6909,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6774,6 +6996,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>-885880.44034682307</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1003447.0404208144</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-1065760.2604211308</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6795,11 +7023,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="587314688"/>
-        <c:axId val="587317632"/>
+        <c:axId val="491375232"/>
+        <c:axId val="491381120"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="587314688"/>
+        <c:axId val="491375232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6842,14 +7070,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="587317632"/>
+        <c:crossAx val="491381120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="587317632"/>
+        <c:axId val="491381120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6900,7 +7128,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="587314688"/>
+        <c:crossAx val="491375232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7100,7 +7328,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7187,6 +7415,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>345983.27727169951</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>382930.29161290335</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>374176.75547334965</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7201,8 +7435,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="594791424"/>
-        <c:axId val="594789888"/>
+        <c:axId val="519150976"/>
+        <c:axId val="519149056"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7227,7 +7461,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7314,6 +7548,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7323,7 +7563,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -7410,6 +7650,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0.66299998760223389</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.65100002288818359</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.64499998092651367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7426,11 +7672,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="594777600"/>
-        <c:axId val="594779520"/>
+        <c:axId val="519124864"/>
+        <c:axId val="519147520"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="594777600"/>
+        <c:axId val="519124864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7473,14 +7719,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="594779520"/>
+        <c:crossAx val="519147520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="594779520"/>
+        <c:axId val="519147520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7531,12 +7777,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="594777600"/>
+        <c:crossAx val="519124864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="594789888"/>
+        <c:axId val="519149056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7573,12 +7819,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="594791424"/>
+        <c:crossAx val="519150976"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="594791424"/>
+        <c:axId val="519150976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7587,7 +7833,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="594789888"/>
+        <c:crossAx val="519149056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7766,7 +8012,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7853,6 +8099,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7862,7 +8114,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7949,6 +8201,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>62820298.226273552</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>66688590.080739804</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>70425002.929197162</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7991,7 +8249,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8078,6 +8336,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8087,7 +8351,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8174,6 +8438,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>56131164.512504093</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>58983510.656406157</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>62176292.895735525</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8216,7 +8486,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8303,6 +8573,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8312,7 +8588,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8399,6 +8675,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>-6689133.7137694582</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-7705079.4243336469</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-8248710.0334616378</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8420,11 +8702,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="594858752"/>
-        <c:axId val="594860672"/>
+        <c:axId val="524554624"/>
+        <c:axId val="524556928"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="594858752"/>
+        <c:axId val="524554624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8467,14 +8749,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="594860672"/>
+        <c:crossAx val="524556928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="594860672"/>
+        <c:axId val="524556928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8525,7 +8807,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="594858752"/>
+        <c:crossAx val="524554624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8725,7 +9007,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8812,6 +9094,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>3322173.5159850679</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3868291.8544662525</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3736412.8484573644</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8826,8 +9114,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="595170816"/>
-        <c:axId val="595151488"/>
+        <c:axId val="560621440"/>
+        <c:axId val="524770688"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8852,7 +9140,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8939,6 +9227,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8948,7 +9242,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -9035,6 +9329,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0.66299998760223389</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.65100002288818359</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.64499998092651367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9051,11 +9351,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="595123584"/>
-        <c:axId val="595149952"/>
+        <c:axId val="524765056"/>
+        <c:axId val="524769152"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="595123584"/>
+        <c:axId val="524765056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9098,14 +9398,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="595149952"/>
+        <c:crossAx val="524769152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="595149952"/>
+        <c:axId val="524769152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9156,12 +9456,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="595123584"/>
+        <c:crossAx val="524765056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="595151488"/>
+        <c:axId val="524770688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9198,12 +9498,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="595170816"/>
+        <c:crossAx val="560621440"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="595170816"/>
+        <c:axId val="560621440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9212,7 +9512,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="595151488"/>
+        <c:crossAx val="524770688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9391,7 +9691,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9478,6 +9778,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9487,7 +9793,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9574,6 +9880,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>3198168.2049832903</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3647578.4357331442</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4353228.5039913449</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9616,7 +9928,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9703,6 +10015,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9712,7 +10030,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9799,6 +10117,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>2922956.0996323489</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3319462.3021586766</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3994518.0349285752</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9841,7 +10165,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9928,6 +10252,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9937,7 +10267,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10024,6 +10354,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>-275212.10535094142</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-328116.13357446762</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-358710.46906276979</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10045,11 +10381,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="601439232"/>
-        <c:axId val="602596096"/>
+        <c:axId val="573855232"/>
+        <c:axId val="573857152"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="601439232"/>
+        <c:axId val="573855232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10092,14 +10428,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="602596096"/>
+        <c:crossAx val="573857152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="602596096"/>
+        <c:axId val="573857152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10150,7 +10486,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="601439232"/>
+        <c:crossAx val="573855232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10341,7 +10677,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10428,6 +10764,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>365471.08469506545</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>449410.23074985406</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>705650.06825820089</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10442,8 +10784,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="602703360"/>
-        <c:axId val="602701824"/>
+        <c:axId val="597001344"/>
+        <c:axId val="576318848"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -10468,7 +10810,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10555,6 +10897,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10564,7 +10912,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -10651,6 +10999,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0.66299998760223389</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.65100002288818359</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.64499998092651367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10667,11 +11021,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="602698112"/>
-        <c:axId val="602699648"/>
+        <c:axId val="574925440"/>
+        <c:axId val="576315776"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="602698112"/>
+        <c:axId val="574925440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10714,14 +11068,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="602699648"/>
+        <c:crossAx val="576315776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="602699648"/>
+        <c:axId val="576315776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10772,12 +11126,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="602698112"/>
+        <c:crossAx val="574925440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="602701824"/>
+        <c:axId val="576318848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10814,12 +11168,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="602703360"/>
+        <c:crossAx val="597001344"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="602703360"/>
+        <c:axId val="597001344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10828,7 +11182,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="602701824"/>
+        <c:crossAx val="576318848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11007,7 +11361,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11094,6 +11448,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11103,7 +11463,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11190,6 +11550,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>6127930.1238320917</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6531014.6413193587</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6924884.9102386739</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11232,7 +11598,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11319,6 +11685,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11328,7 +11700,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11415,6 +11787,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>5447254.6375277555</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5751746.598965087</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6092605.0096150665</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11457,7 +11835,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11544,6 +11922,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11553,7 +11937,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11640,6 +12024,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>-680675.48630433623</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-779268.04235427175</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-832279.90062360745</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11661,11 +12051,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="605931392"/>
-        <c:axId val="607396224"/>
+        <c:axId val="599321216"/>
+        <c:axId val="599900928"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="605931392"/>
+        <c:axId val="599321216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11708,14 +12098,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="607396224"/>
+        <c:crossAx val="599900928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="607396224"/>
+        <c:axId val="599900928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11766,7 +12156,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="605931392"/>
+        <c:crossAx val="599321216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12618,7 +13008,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG31"/>
+  <dimension ref="A1:AG33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13969,6 +14359,82 @@
         <v>0</v>
       </c>
     </row>
+    <row r="32" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="32">
+        <v>45260</v>
+      </c>
+      <c r="B32" s="31">
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="C32" s="31">
+        <v>17.93000031</v>
+      </c>
+      <c r="D32" s="29">
+        <v>28.031817636002071</v>
+      </c>
+      <c r="E32" s="29">
+        <v>403084.51748726668</v>
+      </c>
+      <c r="F32" s="30">
+        <v>619177.42444764997</v>
+      </c>
+      <c r="G32" s="30">
+        <v>8759748.3271026202</v>
+      </c>
+      <c r="H32" s="30">
+        <v>5702596.3614385333</v>
+      </c>
+      <c r="I32" s="30">
+        <v>6471218.9630682301</v>
+      </c>
+      <c r="J32" s="30">
+        <v>5702596.3614385333</v>
+      </c>
+      <c r="K32" s="30">
+        <v>-768622.60162969679</v>
+      </c>
+      <c r="L32" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="32">
+        <v>45289</v>
+      </c>
+      <c r="B33" s="31">
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="C33" s="31">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D33" s="29">
+        <v>27.695688446862572</v>
+      </c>
+      <c r="E33" s="29">
+        <v>393870.26891931542</v>
+      </c>
+      <c r="F33" s="30">
+        <v>610651.59777762846</v>
+      </c>
+      <c r="G33" s="30">
+        <v>9370399.9248802494</v>
+      </c>
+      <c r="H33" s="30">
+        <v>6043907.7728215661</v>
+      </c>
+      <c r="I33" s="30">
+        <v>6865089.2319875453</v>
+      </c>
+      <c r="J33" s="30">
+        <v>6043907.7728215661</v>
+      </c>
+      <c r="K33" s="30">
+        <v>-821181.45916597918</v>
+      </c>
+      <c r="L33" s="29">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -13985,7 +14451,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH31"/>
+  <dimension ref="A1:AH33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15653,15 +16119,115 @@
         <v>0</v>
       </c>
       <c r="M31" s="22">
-        <v>9.5075559982442139E-3</v>
+        <v>7.9229633318701771E-3</v>
       </c>
       <c r="N31" s="22">
-        <v>3.0498309977585816E-2</v>
+        <v>2.9081927444980161E-2</v>
       </c>
       <c r="O31" s="22">
-        <v>31.174042119814576</v>
+        <v>27.24359775279531</v>
       </c>
       <c r="P31" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="15">
+        <v>45260</v>
+      </c>
+      <c r="B32" s="31">
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="C32" s="16">
+        <v>17.93000031</v>
+      </c>
+      <c r="D32" s="17">
+        <v>28.031817636002071</v>
+      </c>
+      <c r="E32" s="17">
+        <v>382930.29161290335</v>
+      </c>
+      <c r="F32" s="18">
+        <v>588218.55322526745</v>
+      </c>
+      <c r="G32" s="18">
+        <v>10385464.034817191</v>
+      </c>
+      <c r="H32" s="18">
+        <v>6760937.3243703991</v>
+      </c>
+      <c r="I32" s="18">
+        <v>7764384.3647912135</v>
+      </c>
+      <c r="J32" s="18">
+        <v>6760937.3243703991</v>
+      </c>
+      <c r="K32" s="18">
+        <v>-1003447.0404208144</v>
+      </c>
+      <c r="L32" s="17">
+        <v>0</v>
+      </c>
+      <c r="M32" s="22">
+        <v>6.6024694432251473E-3</v>
+      </c>
+      <c r="N32" s="22">
+        <v>2.6234933656491849E-2</v>
+      </c>
+      <c r="O32" s="22">
+        <v>25.166709127893537</v>
+      </c>
+      <c r="P32" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="15">
+        <v>45289</v>
+      </c>
+      <c r="B33" s="31">
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="C33" s="16">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D33" s="17">
+        <v>27.695688446862572</v>
+      </c>
+      <c r="E33" s="17">
+        <v>374176.75547334965</v>
+      </c>
+      <c r="F33" s="18">
+        <v>580119.01788874704</v>
+      </c>
+      <c r="G33" s="18">
+        <v>10965583.052705938</v>
+      </c>
+      <c r="H33" s="18">
+        <v>7072800.859843432</v>
+      </c>
+      <c r="I33" s="18">
+        <v>8138561.1202645628</v>
+      </c>
+      <c r="J33" s="18">
+        <v>7072800.859843432</v>
+      </c>
+      <c r="K33" s="18">
+        <v>-1065760.2604211308</v>
+      </c>
+      <c r="L33" s="17">
+        <v>0</v>
+      </c>
+      <c r="M33" s="22">
+        <v>6.6024694432251473E-3</v>
+      </c>
+      <c r="N33" s="22">
+        <v>2.6234933656491849E-2</v>
+      </c>
+      <c r="O33" s="22">
+        <v>25.166709127893537</v>
+      </c>
+      <c r="P33" s="1">
         <v>0.95</v>
       </c>
     </row>
@@ -15681,7 +16247,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:AH31"/>
+  <dimension ref="A1:AH33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17349,15 +17915,115 @@
         <v>0</v>
       </c>
       <c r="M31" s="22">
-        <v>9.5075559982442139E-3</v>
+        <v>7.9229633318701771E-3</v>
       </c>
       <c r="N31" s="22">
-        <v>3.0498309977585816E-2</v>
+        <v>2.9081927444980161E-2</v>
       </c>
       <c r="O31" s="22">
-        <v>31.174042119814576</v>
+        <v>27.24359775279531</v>
       </c>
       <c r="P31" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="15">
+        <v>45260</v>
+      </c>
+      <c r="B32" s="31">
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="C32" s="16">
+        <v>17.93000031</v>
+      </c>
+      <c r="D32" s="17">
+        <v>28.031817636002071</v>
+      </c>
+      <c r="E32" s="17">
+        <v>3868291.8544662525</v>
+      </c>
+      <c r="F32" s="18">
+        <v>5942076.3724468779</v>
+      </c>
+      <c r="G32" s="18">
+        <v>90604467.868870139</v>
+      </c>
+      <c r="H32" s="18">
+        <v>58983510.656406157</v>
+      </c>
+      <c r="I32" s="18">
+        <v>66688590.080739804</v>
+      </c>
+      <c r="J32" s="18">
+        <v>58983510.656406157</v>
+      </c>
+      <c r="K32" s="18">
+        <v>-7705079.4243336469</v>
+      </c>
+      <c r="L32" s="17">
+        <v>0</v>
+      </c>
+      <c r="M32" s="22">
+        <v>6.6024694432251473E-3</v>
+      </c>
+      <c r="N32" s="22">
+        <v>2.6234933656491849E-2</v>
+      </c>
+      <c r="O32" s="22">
+        <v>25.166709127893537</v>
+      </c>
+      <c r="P32" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="15">
+        <v>45289</v>
+      </c>
+      <c r="B33" s="31">
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="C33" s="16">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D33" s="17">
+        <v>27.695688446862572</v>
+      </c>
+      <c r="E33" s="17">
+        <v>3736412.8484573644</v>
+      </c>
+      <c r="F33" s="18">
+        <v>5792888.3084464194</v>
+      </c>
+      <c r="G33" s="18">
+        <v>96397356.177316561</v>
+      </c>
+      <c r="H33" s="18">
+        <v>62176292.895735525</v>
+      </c>
+      <c r="I33" s="18">
+        <v>70425002.929197162</v>
+      </c>
+      <c r="J33" s="18">
+        <v>62176292.895735525</v>
+      </c>
+      <c r="K33" s="18">
+        <v>-8248710.0334616378</v>
+      </c>
+      <c r="L33" s="17">
+        <v>0</v>
+      </c>
+      <c r="M33" s="22">
+        <v>6.6024694432251473E-3</v>
+      </c>
+      <c r="N33" s="22">
+        <v>2.6234933656491849E-2</v>
+      </c>
+      <c r="O33" s="22">
+        <v>25.166709127893537</v>
+      </c>
+      <c r="P33" s="1">
         <v>0.95</v>
       </c>
     </row>
@@ -17377,7 +18043,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AJ31"/>
+  <dimension ref="A1:AJ33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17418,22 +18084,22 @@
   <sheetData>
     <row r="1" spans="1:36" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G1" s="40" t="s">
         <v>5</v>
@@ -19231,15 +19897,127 @@
         <v>0</v>
       </c>
       <c r="O31" s="22">
-        <v>9.5075559982442139E-3</v>
+        <v>7.9229633318701771E-3</v>
       </c>
       <c r="P31" s="22">
-        <v>3.0498309977585816E-2</v>
+        <v>2.9081927444980161E-2</v>
       </c>
       <c r="Q31" s="22">
-        <v>31.174042119814576</v>
+        <v>27.24359775279531</v>
       </c>
       <c r="R31" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="15">
+        <v>45260</v>
+      </c>
+      <c r="B32" s="31">
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="C32" s="16">
+        <v>17.93000031</v>
+      </c>
+      <c r="D32" s="17">
+        <v>28.031817636002071</v>
+      </c>
+      <c r="E32" s="17">
+        <v>3444800</v>
+      </c>
+      <c r="F32" s="17">
+        <v>4128629.2469860404</v>
+      </c>
+      <c r="G32" s="17">
+        <v>449410.23074985406</v>
+      </c>
+      <c r="H32" s="18">
+        <v>690338.2718114669</v>
+      </c>
+      <c r="I32" s="18">
+        <v>5099020.2541495617</v>
+      </c>
+      <c r="J32" s="18">
+        <v>3319462.3021586766</v>
+      </c>
+      <c r="K32" s="18">
+        <v>3647578.4357331442</v>
+      </c>
+      <c r="L32" s="18">
+        <v>3319462.3021586766</v>
+      </c>
+      <c r="M32" s="18">
+        <v>-328116.13357446762</v>
+      </c>
+      <c r="N32" s="17">
+        <v>0</v>
+      </c>
+      <c r="O32" s="22">
+        <v>6.6024694432251473E-3</v>
+      </c>
+      <c r="P32" s="22">
+        <v>2.6234933656491849E-2</v>
+      </c>
+      <c r="Q32" s="22">
+        <v>25.166709127893537</v>
+      </c>
+      <c r="R32" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="15">
+        <v>45289</v>
+      </c>
+      <c r="B33" s="31">
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="C33" s="16">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D33" s="17">
+        <v>27.695688446862572</v>
+      </c>
+      <c r="E33" s="17">
+        <v>5609700</v>
+      </c>
+      <c r="F33" s="17">
+        <v>4135906.376174428</v>
+      </c>
+      <c r="G33" s="17">
+        <v>705650.06825820089</v>
+      </c>
+      <c r="H33" s="18">
+        <v>1094031.1459305256</v>
+      </c>
+      <c r="I33" s="18">
+        <v>6193051.4000800876</v>
+      </c>
+      <c r="J33" s="18">
+        <v>3994518.0349285752</v>
+      </c>
+      <c r="K33" s="18">
+        <v>4353228.5039913449</v>
+      </c>
+      <c r="L33" s="18">
+        <v>3994518.0349285752</v>
+      </c>
+      <c r="M33" s="18">
+        <v>-358710.46906276979</v>
+      </c>
+      <c r="N33" s="17">
+        <v>0</v>
+      </c>
+      <c r="O33" s="22">
+        <v>6.6024694432251473E-3</v>
+      </c>
+      <c r="P33" s="22">
+        <v>2.6234933656491849E-2</v>
+      </c>
+      <c r="Q33" s="22">
+        <v>25.166709127893537</v>
+      </c>
+      <c r="R33" s="1">
         <v>0.95</v>
       </c>
     </row>
@@ -19259,7 +20037,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AJ31"/>
+  <dimension ref="A1:AJ33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19336,19 +20114,19 @@
         <v>12</v>
       </c>
       <c r="M1" s="48" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N1" s="48" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O1" s="48" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="P1" s="48" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q1" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -21030,18 +21808,124 @@
         <v>0</v>
       </c>
       <c r="M31" s="21">
-        <v>7.4074008664308382</v>
+        <v>16.766465783542337</v>
       </c>
       <c r="N31" s="21">
-        <v>30.326294546977831</v>
+        <v>25.806351625832665</v>
       </c>
       <c r="O31" s="21">
-        <v>39.728368199179599</v>
+        <v>35.087696008063951</v>
       </c>
       <c r="P31" s="21">
-        <v>11.522147242574292</v>
+        <v>7.2436628613700975</v>
       </c>
       <c r="Q31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="15">
+        <v>45260</v>
+      </c>
+      <c r="B32" s="31">
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="C32" s="16">
+        <v>17.93000031</v>
+      </c>
+      <c r="D32" s="17">
+        <v>28.031817636002071</v>
+      </c>
+      <c r="E32" s="17">
+        <v>403084.51748726668</v>
+      </c>
+      <c r="F32" s="18">
+        <v>619177.42444764997</v>
+      </c>
+      <c r="G32" s="18">
+        <v>8835247.921263149</v>
+      </c>
+      <c r="H32" s="18">
+        <v>5751746.598965087</v>
+      </c>
+      <c r="I32" s="18">
+        <v>6531014.6413193587</v>
+      </c>
+      <c r="J32" s="18">
+        <v>5751746.598965087</v>
+      </c>
+      <c r="K32" s="18">
+        <v>-779268.04235427175</v>
+      </c>
+      <c r="L32" s="17">
+        <v>0</v>
+      </c>
+      <c r="M32" s="21">
+        <v>10.457536880796289</v>
+      </c>
+      <c r="N32" s="21">
+        <v>20.690080044153873</v>
+      </c>
+      <c r="O32" s="21">
+        <v>30.288490686760593</v>
+      </c>
+      <c r="P32" s="21">
+        <v>1.4932587589404349</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="15">
+        <v>45289</v>
+      </c>
+      <c r="B33" s="31">
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="C33" s="16">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D33" s="17">
+        <v>27.695688446862572</v>
+      </c>
+      <c r="E33" s="17">
+        <v>393870.26891931542</v>
+      </c>
+      <c r="F33" s="18">
+        <v>610651.59777762846</v>
+      </c>
+      <c r="G33" s="18">
+        <v>9445899.5190407783</v>
+      </c>
+      <c r="H33" s="18">
+        <v>6092605.0096150665</v>
+      </c>
+      <c r="I33" s="18">
+        <v>6924884.9102386739</v>
+      </c>
+      <c r="J33" s="18">
+        <v>6092605.0096150665</v>
+      </c>
+      <c r="K33" s="18">
+        <v>-832279.90062360745</v>
+      </c>
+      <c r="L33" s="17">
+        <v>0</v>
+      </c>
+      <c r="M33" s="21">
+        <v>10.457536880796289</v>
+      </c>
+      <c r="N33" s="21">
+        <v>20.690080044153873</v>
+      </c>
+      <c r="O33" s="21">
+        <v>30.288490686760593</v>
+      </c>
+      <c r="P33" s="21">
+        <v>1.4932587589404349</v>
+      </c>
+      <c r="Q33" s="1">
         <v>1</v>
       </c>
     </row>
@@ -21061,7 +21945,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AJ31"/>
+  <dimension ref="A1:AJ33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -21102,7 +21986,7 @@
   <sheetData>
     <row r="1" spans="1:36" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>2</v>
@@ -21114,10 +21998,10 @@
         <v>4</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G1" s="40" t="s">
         <v>5</v>
@@ -22592,6 +23476,94 @@
         <v>-1601008.3568014652</v>
       </c>
       <c r="N31" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="15">
+        <v>45260</v>
+      </c>
+      <c r="B32" s="31">
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="C32" s="16">
+        <v>17.93000031</v>
+      </c>
+      <c r="D32" s="17">
+        <v>28.031817636002071</v>
+      </c>
+      <c r="E32" s="17">
+        <v>3444800</v>
+      </c>
+      <c r="F32" s="17">
+        <v>4128629.2469860404</v>
+      </c>
+      <c r="G32" s="17">
+        <v>3397455.3329414804</v>
+      </c>
+      <c r="H32" s="18">
+        <v>5218825.2127374057</v>
+      </c>
+      <c r="I32" s="18">
+        <v>33336161.801269889</v>
+      </c>
+      <c r="J32" s="18">
+        <v>21701842.095630888</v>
+      </c>
+      <c r="K32" s="18">
+        <v>23640257.499347821</v>
+      </c>
+      <c r="L32" s="18">
+        <v>21701842.095630888</v>
+      </c>
+      <c r="M32" s="18">
+        <v>-1938415.403716933</v>
+      </c>
+      <c r="N32" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="15">
+        <v>45289</v>
+      </c>
+      <c r="B33" s="31">
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="C33" s="16">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D33" s="17">
+        <v>27.695688446862572</v>
+      </c>
+      <c r="E33" s="17">
+        <v>5609700</v>
+      </c>
+      <c r="F33" s="17">
+        <v>4135906.376174428</v>
+      </c>
+      <c r="G33" s="17">
+        <v>5334579.4633873561</v>
+      </c>
+      <c r="H33" s="18">
+        <v>8270666.0792833995</v>
+      </c>
+      <c r="I33" s="18">
+        <v>41606827.88055329</v>
+      </c>
+      <c r="J33" s="18">
+        <v>26836403.189369608</v>
+      </c>
+      <c r="K33" s="18">
+        <v>28974836.962735176</v>
+      </c>
+      <c r="L33" s="18">
+        <v>26836403.189369608</v>
+      </c>
+      <c r="M33" s="18">
+        <v>-2138433.7733655684</v>
+      </c>
+      <c r="N33" s="17">
         <v>0</v>
       </c>
     </row>
@@ -22611,7 +23583,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AG31"/>
+  <dimension ref="A1:AG33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -23962,6 +24934,82 @@
         <v>0</v>
       </c>
     </row>
+    <row r="32" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="15">
+        <v>45260</v>
+      </c>
+      <c r="B32" s="31">
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="C32" s="16">
+        <v>17.93000031</v>
+      </c>
+      <c r="D32" s="17">
+        <v>28.031817636002071</v>
+      </c>
+      <c r="E32" s="17">
+        <v>4071886.1625960553</v>
+      </c>
+      <c r="F32" s="18">
+        <v>6254817.2341546081</v>
+      </c>
+      <c r="G32" s="18">
+        <v>75449295.439951241</v>
+      </c>
+      <c r="H32" s="18">
+        <v>49117493.058305584</v>
+      </c>
+      <c r="I32" s="18">
+        <v>54952660.666307978</v>
+      </c>
+      <c r="J32" s="18">
+        <v>49117493.058305584</v>
+      </c>
+      <c r="K32" s="18">
+        <v>-5835167.6080023944</v>
+      </c>
+      <c r="L32" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="15">
+        <v>45289</v>
+      </c>
+      <c r="B33" s="31">
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="C33" s="16">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D33" s="17">
+        <v>27.695688446862572</v>
+      </c>
+      <c r="E33" s="17">
+        <v>3933066.1562709101</v>
+      </c>
+      <c r="F33" s="18">
+        <v>6097777.1667857049</v>
+      </c>
+      <c r="G33" s="18">
+        <v>81547072.606736943</v>
+      </c>
+      <c r="H33" s="18">
+        <v>52597860.275958352</v>
+      </c>
+      <c r="I33" s="18">
+        <v>58885726.822578892</v>
+      </c>
+      <c r="J33" s="18">
+        <v>52597860.275958352</v>
+      </c>
+      <c r="K33" s="18">
+        <v>-6287866.5466205403</v>
+      </c>
+      <c r="L33" s="17">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(RSI&KDJ)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(RSI&KDJ)cn.xlsx
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="33">
   <si>
     <t>in practice</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -178,6 +178,10 @@
   </si>
   <si>
     <t>PE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE均值</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -656,7 +660,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -749,6 +753,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -758,7 +765,7 @@
               <c:f>'模型四 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -851,6 +858,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>6865089.2319875453</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7429784.6436091401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -893,7 +903,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -986,6 +996,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -995,7 +1008,7 @@
               <c:f>'模型四 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1088,6 +1101,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>6043907.7728215661</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5821489.671180008</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1130,7 +1146,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1223,6 +1239,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1232,7 +1251,7 @@
               <c:f>'模型四 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1325,6 +1344,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>-821181.45916597918</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1608294.9724291321</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1346,11 +1368,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="465702912"/>
-        <c:axId val="465704448"/>
+        <c:axId val="392713344"/>
+        <c:axId val="392714880"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="465702912"/>
+        <c:axId val="392713344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1393,14 +1415,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="465704448"/>
+        <c:crossAx val="392714880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="465704448"/>
+        <c:axId val="392714880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1451,7 +1473,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="465702912"/>
+        <c:crossAx val="392713344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1642,7 +1664,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1735,6 +1757,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>393870.26891931542</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>564695.41162159434</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1749,8 +1774,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="439498240"/>
-        <c:axId val="439496704"/>
+        <c:axId val="110000768"/>
+        <c:axId val="109999232"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1775,7 +1800,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1868,6 +1893,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1877,7 +1905,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1970,6 +1998,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0.64499998092651367</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.56099998950958252</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1986,11 +2017,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="439485184"/>
-        <c:axId val="439486720"/>
+        <c:axId val="109995904"/>
+        <c:axId val="109997440"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="439485184"/>
+        <c:axId val="109995904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2033,14 +2064,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439486720"/>
+        <c:crossAx val="109997440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="439486720"/>
+        <c:axId val="109997440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2091,12 +2122,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439485184"/>
+        <c:crossAx val="109995904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="439496704"/>
+        <c:axId val="109999232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2133,12 +2164,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439498240"/>
+        <c:crossAx val="110000768"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="439498240"/>
+        <c:axId val="110000768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2147,7 +2178,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="439496704"/>
+        <c:crossAx val="109999232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2326,7 +2357,7 @@
               <c:f>'模型四 (3)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2419,6 +2450,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2428,7 +2462,7 @@
               <c:f>'模型四 (3)PE副本成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2521,6 +2555,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>28974836.962735176</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>46303000.123897567</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2563,7 +2600,7 @@
               <c:f>'模型四 (3)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2656,6 +2693,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2665,7 +2705,7 @@
               <c:f>'模型四 (3)PE副本成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2758,6 +2798,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>26836403.189369608</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>40669593.16567979</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2800,7 +2843,7 @@
               <c:f>'模型四 (3)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2893,6 +2936,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2902,7 +2948,7 @@
               <c:f>'模型四 (3)PE副本成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2995,6 +3041,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>-2138433.7733655684</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-5633406.9582177773</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3016,11 +3065,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="490345216"/>
-        <c:axId val="490346752"/>
+        <c:axId val="370689920"/>
+        <c:axId val="370691456"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="490345216"/>
+        <c:axId val="370689920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3063,14 +3112,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490346752"/>
+        <c:crossAx val="370691456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="490346752"/>
+        <c:axId val="370691456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3121,7 +3170,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490345216"/>
+        <c:crossAx val="370689920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3312,7 +3361,7 @@
               <c:f>'模型四 (3)PE副本成交量'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3405,6 +3454,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>5334579.4633873561</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>17328163.161162388</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3419,8 +3471,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="490816640"/>
-        <c:axId val="490814848"/>
+        <c:axId val="390117632"/>
+        <c:axId val="390116096"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3445,7 +3497,7 @@
               <c:f>'模型四 (3)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3538,6 +3590,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3547,7 +3602,7 @@
               <c:f>'模型四 (3)PE副本成交量'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3640,6 +3695,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0.64499998092651367</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.56099998950958252</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3656,11 +3714,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="490811776"/>
-        <c:axId val="490813312"/>
+        <c:axId val="390112768"/>
+        <c:axId val="390114304"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="490811776"/>
+        <c:axId val="390112768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3703,14 +3761,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490813312"/>
+        <c:crossAx val="390114304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="490813312"/>
+        <c:axId val="390114304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3761,12 +3819,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490811776"/>
+        <c:crossAx val="390112768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="490814848"/>
+        <c:axId val="390116096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3803,12 +3861,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490816640"/>
+        <c:crossAx val="390117632"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="490816640"/>
+        <c:axId val="390117632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3817,7 +3875,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="490814848"/>
+        <c:crossAx val="390116096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3996,7 +4054,7 @@
               <c:f>'模型四 (3)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4089,6 +4147,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4098,7 +4159,7 @@
               <c:f>'模型四 (3)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4191,6 +4252,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>58885726.822578892</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>65637577.680846065</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4233,7 +4297,7 @@
               <c:f>'模型四 (3)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4326,6 +4390,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4335,7 +4402,7 @@
               <c:f>'模型四 (3)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4428,6 +4495,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>52597860.275958352</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>52499757.735183768</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4470,7 +4540,7 @@
               <c:f>'模型四 (3)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4563,6 +4633,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4572,7 +4645,7 @@
               <c:f>'模型四 (3)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4665,6 +4738,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>-6287866.5466205403</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-13137819.945662297</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4686,11 +4762,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="490853120"/>
-        <c:axId val="490854656"/>
+        <c:axId val="392513408"/>
+        <c:axId val="392514944"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="490853120"/>
+        <c:axId val="392513408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4733,14 +4809,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490854656"/>
+        <c:crossAx val="392514944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="490854656"/>
+        <c:axId val="392514944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4791,7 +4867,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490853120"/>
+        <c:crossAx val="392513408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4982,7 +5058,7 @@
               <c:f>'模型四 (3)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5075,6 +5151,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>3933066.1562709101</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6751850.8582671722</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5089,8 +5168,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="490939520"/>
-        <c:axId val="490933632"/>
+        <c:axId val="392554752"/>
+        <c:axId val="392553216"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5115,7 +5194,7 @@
               <c:f>'模型四 (3)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5208,6 +5287,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5217,7 +5299,7 @@
               <c:f>'模型四 (3)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5310,6 +5392,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0.64499998092651367</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.56099998950958252</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5326,11 +5411,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="490930560"/>
-        <c:axId val="490932096"/>
+        <c:axId val="392545792"/>
+        <c:axId val="392547328"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="490930560"/>
+        <c:axId val="392545792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5373,14 +5458,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490932096"/>
+        <c:crossAx val="392547328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="490932096"/>
+        <c:axId val="392547328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5431,12 +5516,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490930560"/>
+        <c:crossAx val="392545792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="490933632"/>
+        <c:axId val="392553216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5473,12 +5558,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490939520"/>
+        <c:crossAx val="392554752"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="490939520"/>
+        <c:axId val="392554752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5487,7 +5572,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="490933632"/>
+        <c:crossAx val="392553216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5649,7 +5734,7 @@
               <c:f>'模型四 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5742,6 +5827,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>393870.26891931542</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>564695.41162159434</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5756,8 +5844,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="465729792"/>
-        <c:axId val="465728256"/>
+        <c:axId val="490931328"/>
+        <c:axId val="490920960"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5782,7 +5870,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5875,6 +5963,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5884,7 +5975,7 @@
               <c:f>'模型四 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5977,6 +6068,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0.64499998092651367</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.56099998950958252</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5993,11 +6087,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="465724544"/>
-        <c:axId val="465726080"/>
+        <c:axId val="490911232"/>
+        <c:axId val="490919424"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="465724544"/>
+        <c:axId val="490911232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6040,14 +6134,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="465726080"/>
+        <c:crossAx val="490919424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="465726080"/>
+        <c:axId val="490919424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6098,12 +6192,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="465724544"/>
+        <c:crossAx val="490911232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="465728256"/>
+        <c:axId val="490920960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6140,12 +6234,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="465729792"/>
+        <c:crossAx val="490931328"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="465729792"/>
+        <c:axId val="490931328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6154,7 +6248,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="465728256"/>
+        <c:crossAx val="490920960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6333,7 +6427,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6426,6 +6520,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6435,7 +6532,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6528,6 +6625,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>8138561.1202645628</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8675021.761305077</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6570,7 +6670,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6663,6 +6763,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6672,7 +6775,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6765,6 +6868,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>7072800.859843432</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6688152.6185750011</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6807,7 +6913,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6900,6 +7006,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6909,7 +7018,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7002,6 +7111,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>-1065760.2604211308</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1986869.1427300759</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7023,11 +7135,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="491375232"/>
-        <c:axId val="491381120"/>
+        <c:axId val="491022976"/>
+        <c:axId val="491045248"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="491375232"/>
+        <c:axId val="491022976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7070,14 +7182,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491381120"/>
+        <c:crossAx val="491045248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="491381120"/>
+        <c:axId val="491045248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7128,7 +7240,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491375232"/>
+        <c:crossAx val="491022976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7328,7 +7440,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7421,6 +7533,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>374176.75547334965</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>536460.64104051457</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7435,8 +7550,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="519150976"/>
-        <c:axId val="519149056"/>
+        <c:axId val="503232000"/>
+        <c:axId val="503230464"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7461,7 +7576,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7554,6 +7669,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7563,7 +7681,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -7656,6 +7774,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0.64499998092651367</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.56099998950958252</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7672,11 +7793,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="519124864"/>
-        <c:axId val="519147520"/>
+        <c:axId val="503132544"/>
+        <c:axId val="503134464"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="519124864"/>
+        <c:axId val="503132544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7719,14 +7840,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="519147520"/>
+        <c:crossAx val="503134464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="519147520"/>
+        <c:axId val="503134464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7777,12 +7898,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="519124864"/>
+        <c:crossAx val="503132544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="519149056"/>
+        <c:axId val="503230464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7819,12 +7940,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="519150976"/>
+        <c:crossAx val="503232000"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="519150976"/>
+        <c:axId val="503232000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7833,7 +7954,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="519149056"/>
+        <c:crossAx val="503230464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8012,7 +8133,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8105,6 +8226,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8114,7 +8238,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8207,6 +8331,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>70425002.929197162</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>76839261.244550973</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8249,7 +8376,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8342,6 +8469,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8351,7 +8481,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8444,6 +8574,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>62176292.895735525</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>60493174.119579889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8486,7 +8619,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8579,6 +8712,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8588,7 +8724,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8681,6 +8817,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>-8248710.0334616378</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-16346087.124971084</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8702,11 +8841,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="524554624"/>
-        <c:axId val="524556928"/>
+        <c:axId val="504664832"/>
+        <c:axId val="504666368"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="524554624"/>
+        <c:axId val="504664832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8749,14 +8888,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="524556928"/>
+        <c:crossAx val="504666368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="524556928"/>
+        <c:axId val="504666368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8807,7 +8946,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="524554624"/>
+        <c:crossAx val="504664832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9007,7 +9146,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9100,6 +9239,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>3736412.8484573644</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6414258.3153538136</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9114,8 +9256,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="560621440"/>
-        <c:axId val="524770688"/>
+        <c:axId val="506465280"/>
+        <c:axId val="506462976"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9140,7 +9282,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9233,6 +9375,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9242,7 +9387,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -9335,6 +9480,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0.64499998092651367</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.56099998950958252</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9351,11 +9499,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="524765056"/>
-        <c:axId val="524769152"/>
+        <c:axId val="504847744"/>
+        <c:axId val="504980608"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="524765056"/>
+        <c:axId val="504847744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9398,14 +9546,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="524769152"/>
+        <c:crossAx val="504980608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="524769152"/>
+        <c:axId val="504980608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9456,12 +9604,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="524765056"/>
+        <c:crossAx val="504847744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="524770688"/>
+        <c:axId val="506462976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9498,12 +9646,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="560621440"/>
+        <c:crossAx val="506465280"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="560621440"/>
+        <c:axId val="506465280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9512,7 +9660,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="524770688"/>
+        <c:crossAx val="506462976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9691,7 +9839,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9784,6 +9932,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9793,7 +9944,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9886,6 +10037,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>4353228.5039913449</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6645371.6056894073</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9928,7 +10082,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10021,6 +10175,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10030,7 +10187,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10123,6 +10280,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>3994518.0349285752</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5766444.8721752977</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10165,7 +10325,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10258,6 +10418,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10267,7 +10430,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10360,6 +10523,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>-358710.46906276979</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-878926.73351410963</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10381,11 +10547,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="573855232"/>
-        <c:axId val="573857152"/>
+        <c:axId val="539772800"/>
+        <c:axId val="93069696"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="573855232"/>
+        <c:axId val="539772800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10428,14 +10594,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="573857152"/>
+        <c:crossAx val="93069696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="573857152"/>
+        <c:axId val="93069696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10486,7 +10652,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="573855232"/>
+        <c:crossAx val="539772800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10677,7 +10843,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10770,6 +10936,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>705650.06825820089</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2292143.1016980624</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10784,8 +10953,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="597001344"/>
-        <c:axId val="576318848"/>
+        <c:axId val="93879296"/>
+        <c:axId val="93877760"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -10810,7 +10979,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10903,6 +11072,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10912,7 +11084,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -11005,6 +11177,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0.64499998092651367</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.56099998950958252</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11021,11 +11196,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="574925440"/>
-        <c:axId val="576315776"/>
+        <c:axId val="93874432"/>
+        <c:axId val="93876224"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="574925440"/>
+        <c:axId val="93874432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11068,14 +11243,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="576315776"/>
+        <c:crossAx val="93876224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="576315776"/>
+        <c:axId val="93876224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11126,12 +11301,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="574925440"/>
+        <c:crossAx val="93874432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="576318848"/>
+        <c:axId val="93877760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11168,12 +11343,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="597001344"/>
+        <c:crossAx val="93879296"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="597001344"/>
+        <c:axId val="93879296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11182,7 +11357,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="576318848"/>
+        <c:crossAx val="93877760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11361,7 +11536,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11454,6 +11629,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11463,7 +11641,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11556,6 +11734,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>6924884.9102386739</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7489580.3218602687</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11598,7 +11779,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11691,6 +11872,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11700,7 +11884,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11793,6 +11977,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>6092605.0096150665</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5863844.9427120406</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11835,7 +12022,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11928,6 +12115,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11937,7 +12127,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12030,6 +12220,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>-832279.90062360745</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1625735.3791482281</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12051,11 +12244,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="599321216"/>
-        <c:axId val="599900928"/>
+        <c:axId val="93939968"/>
+        <c:axId val="109985792"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="599321216"/>
+        <c:axId val="93939968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12098,14 +12291,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="599900928"/>
+        <c:crossAx val="109985792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="599900928"/>
+        <c:axId val="109985792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12156,7 +12349,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="599321216"/>
+        <c:crossAx val="93939968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13008,7 +13201,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG33"/>
+  <dimension ref="A1:AG34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14435,6 +14628,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="34" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="32">
+        <v>45322</v>
+      </c>
+      <c r="B34" s="31">
+        <v>0.56099998950958252</v>
+      </c>
+      <c r="C34" s="31">
+        <v>15.380000109999999</v>
+      </c>
+      <c r="D34" s="29">
+        <v>27.336624370286405</v>
+      </c>
+      <c r="E34" s="29">
+        <v>564695.41162159434</v>
+      </c>
+      <c r="F34" s="30">
+        <v>1006587.2053139294</v>
+      </c>
+      <c r="G34" s="30">
+        <v>10376987.13019418</v>
+      </c>
+      <c r="H34" s="30">
+        <v>5821489.671180008</v>
+      </c>
+      <c r="I34" s="30">
+        <v>7429784.6436091401</v>
+      </c>
+      <c r="J34" s="30">
+        <v>5821489.671180008</v>
+      </c>
+      <c r="K34" s="30">
+        <v>-1608294.9724291321</v>
+      </c>
+      <c r="L34" s="29">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -14451,7 +14682,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH33"/>
+  <dimension ref="A1:AH34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16231,6 +16462,56 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="34" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="15">
+        <v>45322</v>
+      </c>
+      <c r="B34" s="31">
+        <v>0.56099998950958252</v>
+      </c>
+      <c r="C34" s="16">
+        <v>15.380000109999999</v>
+      </c>
+      <c r="D34" s="17">
+        <v>27.336624370286405</v>
+      </c>
+      <c r="E34" s="17">
+        <v>536460.64104051457</v>
+      </c>
+      <c r="F34" s="18">
+        <v>956257.84504823282</v>
+      </c>
+      <c r="G34" s="18">
+        <v>11921840.89775417</v>
+      </c>
+      <c r="H34" s="18">
+        <v>6688152.6185750011</v>
+      </c>
+      <c r="I34" s="18">
+        <v>8675021.761305077</v>
+      </c>
+      <c r="J34" s="18">
+        <v>6688152.6185750011</v>
+      </c>
+      <c r="K34" s="18">
+        <v>-1986869.1427300759</v>
+      </c>
+      <c r="L34" s="17">
+        <v>0</v>
+      </c>
+      <c r="M34" s="22">
+        <v>5.5020578693542902E-3</v>
+      </c>
+      <c r="N34" s="22">
+        <v>2.2862451707354861E-2</v>
+      </c>
+      <c r="O34" s="22">
+        <v>24.065913576470347</v>
+      </c>
+      <c r="P34" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -16247,7 +16528,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:AH33"/>
+  <dimension ref="A1:AH34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18027,6 +18308,56 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="34" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="15">
+        <v>45322</v>
+      </c>
+      <c r="B34" s="31">
+        <v>0.56099998950958252</v>
+      </c>
+      <c r="C34" s="16">
+        <v>15.380000109999999</v>
+      </c>
+      <c r="D34" s="17">
+        <v>27.336624370286405</v>
+      </c>
+      <c r="E34" s="17">
+        <v>6414258.3153538136</v>
+      </c>
+      <c r="F34" s="18">
+        <v>11433615.749192899</v>
+      </c>
+      <c r="G34" s="18">
+        <v>107830971.92650945</v>
+      </c>
+      <c r="H34" s="18">
+        <v>60493174.119579889</v>
+      </c>
+      <c r="I34" s="18">
+        <v>76839261.244550973</v>
+      </c>
+      <c r="J34" s="18">
+        <v>60493174.119579889</v>
+      </c>
+      <c r="K34" s="18">
+        <v>-16346087.124971084</v>
+      </c>
+      <c r="L34" s="17">
+        <v>0</v>
+      </c>
+      <c r="M34" s="22">
+        <v>5.5020578693542902E-3</v>
+      </c>
+      <c r="N34" s="22">
+        <v>2.2862451707354861E-2</v>
+      </c>
+      <c r="O34" s="22">
+        <v>24.065913576470347</v>
+      </c>
+      <c r="P34" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -18043,7 +18374,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AJ33"/>
+  <dimension ref="A1:AJ34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -20021,6 +20352,62 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="34" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="15">
+        <v>45322</v>
+      </c>
+      <c r="B34" s="31">
+        <v>0.56099998950958252</v>
+      </c>
+      <c r="C34" s="16">
+        <v>15.380000109999999</v>
+      </c>
+      <c r="D34" s="17">
+        <v>27.336624370286405</v>
+      </c>
+      <c r="E34" s="17">
+        <v>10787006</v>
+      </c>
+      <c r="F34" s="17">
+        <v>4203114.608389196</v>
+      </c>
+      <c r="G34" s="17">
+        <v>2292143.1016980624</v>
+      </c>
+      <c r="H34" s="18">
+        <v>4085816.6569696702</v>
+      </c>
+      <c r="I34" s="18">
+        <v>10278868.057049759</v>
+      </c>
+      <c r="J34" s="18">
+        <v>5766444.8721752977</v>
+      </c>
+      <c r="K34" s="18">
+        <v>6645371.6056894073</v>
+      </c>
+      <c r="L34" s="18">
+        <v>5766444.8721752977</v>
+      </c>
+      <c r="M34" s="18">
+        <v>-878926.73351410963</v>
+      </c>
+      <c r="N34" s="17">
+        <v>0</v>
+      </c>
+      <c r="O34" s="22">
+        <v>5.5020578693542902E-3</v>
+      </c>
+      <c r="P34" s="22">
+        <v>2.2862451707354861E-2</v>
+      </c>
+      <c r="Q34" s="22">
+        <v>24.065913576470347</v>
+      </c>
+      <c r="R34" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="J2">
@@ -20037,7 +20424,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AJ33"/>
+  <dimension ref="A1:AJ34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -20078,16 +20465,16 @@
   <sheetData>
     <row r="1" spans="1:36" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="E1" s="40" t="s">
         <v>5</v>
@@ -20114,19 +20501,19 @@
         <v>12</v>
       </c>
       <c r="M1" s="48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N1" s="48" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O1" s="48" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P1" s="48" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q1" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -21926,6 +22313,59 @@
         <v>1.4932587589404349</v>
       </c>
       <c r="Q33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="15">
+        <v>45322</v>
+      </c>
+      <c r="B34" s="31">
+        <v>0.56099998950958252</v>
+      </c>
+      <c r="C34" s="16">
+        <v>15.380000109999999</v>
+      </c>
+      <c r="D34" s="17">
+        <v>27.336624370286405</v>
+      </c>
+      <c r="E34" s="17">
+        <v>564695.41162159434</v>
+      </c>
+      <c r="F34" s="18">
+        <v>1006587.2053139294</v>
+      </c>
+      <c r="G34" s="18">
+        <v>10452486.724354707</v>
+      </c>
+      <c r="H34" s="18">
+        <v>5863844.9427120406</v>
+      </c>
+      <c r="I34" s="18">
+        <v>7489580.3218602687</v>
+      </c>
+      <c r="J34" s="18">
+        <v>5863844.9427120406</v>
+      </c>
+      <c r="K34" s="18">
+        <v>-1625735.3791482281</v>
+      </c>
+      <c r="L34" s="17">
+        <v>0</v>
+      </c>
+      <c r="M34" s="21">
+        <v>18.749994445931186</v>
+      </c>
+      <c r="N34" s="21">
+        <v>20.04338484474631</v>
+      </c>
+      <c r="O34" s="21">
+        <v>26.873455406089164</v>
+      </c>
+      <c r="P34" s="21">
+        <v>6.3832437220605982</v>
+      </c>
+      <c r="Q34" s="1">
         <v>1</v>
       </c>
     </row>
@@ -21945,7 +22385,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AJ33"/>
+  <dimension ref="A1:AJ34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -23567,6 +24007,50 @@
         <v>0</v>
       </c>
     </row>
+    <row r="34" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="15">
+        <v>45322</v>
+      </c>
+      <c r="B34" s="31">
+        <v>0.56099998950958252</v>
+      </c>
+      <c r="C34" s="16">
+        <v>15.380000109999999</v>
+      </c>
+      <c r="D34" s="17">
+        <v>27.336624370286405</v>
+      </c>
+      <c r="E34" s="17">
+        <v>10787006</v>
+      </c>
+      <c r="F34" s="17">
+        <v>4203114.608389196</v>
+      </c>
+      <c r="G34" s="17">
+        <v>17328163.161162388</v>
+      </c>
+      <c r="H34" s="18">
+        <v>30887991.952210907</v>
+      </c>
+      <c r="I34" s="18">
+        <v>72494819.832764193</v>
+      </c>
+      <c r="J34" s="18">
+        <v>40669593.16567979</v>
+      </c>
+      <c r="K34" s="18">
+        <v>46303000.123897567</v>
+      </c>
+      <c r="L34" s="18">
+        <v>40669593.16567979</v>
+      </c>
+      <c r="M34" s="18">
+        <v>-5633406.9582177773</v>
+      </c>
+      <c r="N34" s="17">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="J2">
@@ -23583,7 +24067,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AG33"/>
+  <dimension ref="A1:AG34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -25010,6 +25494,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="34" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="15">
+        <v>45322</v>
+      </c>
+      <c r="B34" s="31">
+        <v>0.56099998950958252</v>
+      </c>
+      <c r="C34" s="16">
+        <v>15.380000109999999</v>
+      </c>
+      <c r="D34" s="17">
+        <v>27.336624370286405</v>
+      </c>
+      <c r="E34" s="17">
+        <v>6751850.8582671722</v>
+      </c>
+      <c r="F34" s="18">
+        <v>12035384.99915042</v>
+      </c>
+      <c r="G34" s="18">
+        <v>93582457.605887368</v>
+      </c>
+      <c r="H34" s="18">
+        <v>52499757.735183768</v>
+      </c>
+      <c r="I34" s="18">
+        <v>65637577.680846065</v>
+      </c>
+      <c r="J34" s="18">
+        <v>52499757.735183768</v>
+      </c>
+      <c r="K34" s="18">
+        <v>-13137819.945662297</v>
+      </c>
+      <c r="L34" s="17">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(RSI&KDJ)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(RSI&KDJ)cn.xlsx
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="32">
   <si>
     <t>in practice</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -165,14 +165,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>成交量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>成交均量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>深创100ETF</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -181,7 +173,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>PE均值</t>
+    <t>成交量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成交均量</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -660,7 +656,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -756,6 +752,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -765,7 +764,7 @@
               <c:f>'模型四 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -861,6 +860,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>7429784.6436091401</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7795825.7760371994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -903,7 +905,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -999,6 +1001,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1008,7 +1013,7 @@
               <c:f>'模型四 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1104,6 +1109,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>5821489.671180008</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6986559.0402471395</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1146,7 +1154,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1242,6 +1250,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1251,7 +1262,7 @@
               <c:f>'模型四 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1347,6 +1358,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>-1608294.9724291321</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-809266.7357900599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1368,11 +1382,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="392713344"/>
-        <c:axId val="392714880"/>
+        <c:axId val="487406976"/>
+        <c:axId val="487434112"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="392713344"/>
+        <c:axId val="487406976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1415,14 +1429,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="392714880"/>
+        <c:crossAx val="487434112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="392714880"/>
+        <c:axId val="487434112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1473,7 +1487,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="392713344"/>
+        <c:crossAx val="487406976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1664,7 +1678,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1760,6 +1774,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>564695.41162159434</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>439249.35891367169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1774,8 +1791,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="110000768"/>
-        <c:axId val="109999232"/>
+        <c:axId val="422380288"/>
+        <c:axId val="422370304"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1800,7 +1817,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1896,6 +1913,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1905,7 +1925,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2001,6 +2021,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0.56099998950958252</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.6380000114440918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2017,11 +2040,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="109995904"/>
-        <c:axId val="109997440"/>
+        <c:axId val="422367232"/>
+        <c:axId val="422368768"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="109995904"/>
+        <c:axId val="422367232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2064,14 +2087,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="109997440"/>
+        <c:crossAx val="422368768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="109997440"/>
+        <c:axId val="422368768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2122,12 +2145,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="109995904"/>
+        <c:crossAx val="422367232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="109999232"/>
+        <c:axId val="422370304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2164,12 +2187,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="110000768"/>
+        <c:crossAx val="422380288"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="110000768"/>
+        <c:axId val="422380288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2178,7 +2201,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109999232"/>
+        <c:crossAx val="422370304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2357,7 +2380,7 @@
               <c:f>'模型四 (3)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2453,6 +2476,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2462,7 +2488,7 @@
               <c:f>'模型四 (3)PE副本成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2558,6 +2584,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>46303000.123897567</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>56727510.187086932</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2600,7 +2629,7 @@
               <c:f>'模型四 (3)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2696,6 +2725,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2705,7 +2737,7 @@
               <c:f>'模型四 (3)PE副本成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2801,6 +2833,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>40669593.16567979</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>56676205.946130291</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2843,7 +2878,7 @@
               <c:f>'模型四 (3)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2939,6 +2974,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2948,7 +2986,7 @@
               <c:f>'模型四 (3)PE副本成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3044,6 +3082,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>-5633406.9582177773</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-51304.240956641734</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3065,11 +3106,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="370689920"/>
-        <c:axId val="370691456"/>
+        <c:axId val="422420480"/>
+        <c:axId val="422422016"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="370689920"/>
+        <c:axId val="422420480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3112,14 +3153,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370691456"/>
+        <c:crossAx val="422422016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="370691456"/>
+        <c:axId val="422422016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3170,7 +3211,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370689920"/>
+        <c:crossAx val="422420480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3361,7 +3402,7 @@
               <c:f>'模型四 (3)PE副本成交量'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3457,6 +3498,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>17328163.161162388</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10424510.063189363</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3471,8 +3515,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="390117632"/>
-        <c:axId val="390116096"/>
+        <c:axId val="425349504"/>
+        <c:axId val="422439552"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3497,7 +3541,7 @@
               <c:f>'模型四 (3)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3593,6 +3637,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3602,7 +3649,7 @@
               <c:f>'模型四 (3)PE副本成交量'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3698,6 +3745,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0.56099998950958252</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.6380000114440918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3714,11 +3764,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="390112768"/>
-        <c:axId val="390114304"/>
+        <c:axId val="422436224"/>
+        <c:axId val="422438016"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="390112768"/>
+        <c:axId val="422436224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3761,14 +3811,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="390114304"/>
+        <c:crossAx val="422438016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="390114304"/>
+        <c:axId val="422438016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3819,12 +3869,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="390112768"/>
+        <c:crossAx val="422436224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="390116096"/>
+        <c:axId val="422439552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3861,12 +3911,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="390117632"/>
+        <c:crossAx val="425349504"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="390117632"/>
+        <c:axId val="425349504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3875,7 +3925,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="390116096"/>
+        <c:crossAx val="422439552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4054,7 +4104,7 @@
               <c:f>'模型四 (3)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4150,6 +4200,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4159,7 +4212,7 @@
               <c:f>'模型四 (3)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4255,6 +4308,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>65637577.680846065</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>69161256.270204231</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4297,7 +4353,7 @@
               <c:f>'模型四 (3)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4393,6 +4449,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4402,7 +4461,7 @@
               <c:f>'模型四 (3)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4498,6 +4557,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>52499757.735183768</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>63229287.61288055</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4540,7 +4602,7 @@
               <c:f>'模型四 (3)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4636,6 +4698,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4645,7 +4710,7 @@
               <c:f>'模型四 (3)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4741,6 +4806,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>-13137819.945662297</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-5931968.6573236808</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4762,11 +4830,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="392513408"/>
-        <c:axId val="392514944"/>
+        <c:axId val="425418752"/>
+        <c:axId val="425420288"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="392513408"/>
+        <c:axId val="425418752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4809,14 +4877,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="392514944"/>
+        <c:crossAx val="425420288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="392514944"/>
+        <c:axId val="425420288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4867,7 +4935,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="392513408"/>
+        <c:crossAx val="425418752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5058,7 +5126,7 @@
               <c:f>'模型四 (3)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5154,6 +5222,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>6751850.8582671722</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3523678.5893581696</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5168,8 +5239,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="392554752"/>
-        <c:axId val="392553216"/>
+        <c:axId val="425451904"/>
+        <c:axId val="425446016"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5194,7 +5265,7 @@
               <c:f>'模型四 (3)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5290,6 +5361,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5299,7 +5373,7 @@
               <c:f>'模型四 (3)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5395,6 +5469,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0.56099998950958252</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.6380000114440918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5411,11 +5488,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="392545792"/>
-        <c:axId val="392547328"/>
+        <c:axId val="425430400"/>
+        <c:axId val="425444480"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="392545792"/>
+        <c:axId val="425430400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5458,14 +5535,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="392547328"/>
+        <c:crossAx val="425444480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="392547328"/>
+        <c:axId val="425444480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5516,12 +5593,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="392545792"/>
+        <c:crossAx val="425430400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="392553216"/>
+        <c:axId val="425446016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5558,12 +5635,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="392554752"/>
+        <c:crossAx val="425451904"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="392554752"/>
+        <c:axId val="425451904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5572,7 +5649,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="392553216"/>
+        <c:crossAx val="425446016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5734,7 +5811,7 @@
               <c:f>'模型四 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5830,6 +5907,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>564695.41162159434</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>366041.13242805976</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5844,8 +5924,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="490931328"/>
-        <c:axId val="490920960"/>
+        <c:axId val="487464960"/>
+        <c:axId val="487458688"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5870,7 +5950,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5966,6 +6046,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5975,7 +6058,7 @@
               <c:f>'模型四 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6071,6 +6154,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0.56099998950958252</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.6380000114440918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6087,11 +6173,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="490911232"/>
-        <c:axId val="490919424"/>
+        <c:axId val="487454208"/>
+        <c:axId val="487456128"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="490911232"/>
+        <c:axId val="487454208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6134,14 +6220,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490919424"/>
+        <c:crossAx val="487456128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="490919424"/>
+        <c:axId val="487456128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6192,12 +6278,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490911232"/>
+        <c:crossAx val="487454208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="490920960"/>
+        <c:axId val="487458688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6234,12 +6320,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490931328"/>
+        <c:crossAx val="487464960"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="490931328"/>
+        <c:axId val="487464960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6248,7 +6334,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="490920960"/>
+        <c:crossAx val="487458688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6427,7 +6513,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6523,6 +6609,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6532,7 +6621,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6628,6 +6717,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>8675021.761305077</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9041062.8937331364</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6670,7 +6762,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6766,6 +6858,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6775,7 +6870,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6871,6 +6966,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>6688152.6185750011</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7972175.7616298608</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6913,7 +7011,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7009,6 +7107,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7018,7 +7119,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7114,6 +7215,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>-1986869.1427300759</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-1068887.1321032755</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7135,11 +7239,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="491022976"/>
-        <c:axId val="491045248"/>
+        <c:axId val="487500032"/>
+        <c:axId val="487505920"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="491022976"/>
+        <c:axId val="487500032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7182,14 +7286,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491045248"/>
+        <c:crossAx val="487505920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="491045248"/>
+        <c:axId val="487505920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7240,7 +7344,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491022976"/>
+        <c:crossAx val="487500032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7440,7 +7544,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7536,6 +7640,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>536460.64104051457</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>366041.13242805976</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7550,8 +7657,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="503232000"/>
-        <c:axId val="503230464"/>
+        <c:axId val="498877184"/>
+        <c:axId val="498870912"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7576,7 +7683,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7672,6 +7779,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7681,7 +7791,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -7777,6 +7887,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0.56099998950958252</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.6380000114440918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7793,11 +7906,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="503132544"/>
-        <c:axId val="503134464"/>
+        <c:axId val="497518848"/>
+        <c:axId val="498869376"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="503132544"/>
+        <c:axId val="497518848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7840,14 +7953,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="503134464"/>
+        <c:crossAx val="498869376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="503134464"/>
+        <c:axId val="498869376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7898,12 +8011,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="503132544"/>
+        <c:crossAx val="497518848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="503230464"/>
+        <c:axId val="498870912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7940,12 +8053,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="503232000"/>
+        <c:crossAx val="498877184"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="503232000"/>
+        <c:axId val="498877184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7954,7 +8067,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="503230464"/>
+        <c:crossAx val="498870912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8133,7 +8246,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8229,6 +8342,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8238,7 +8354,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8334,6 +8450,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>76839261.244550973</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>80362939.833909139</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8376,7 +8495,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8472,6 +8591,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8481,7 +8603,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8577,6 +8699,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>60493174.119579889</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>72319839.912498742</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8619,7 +8744,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8715,6 +8840,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8724,7 +8852,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8820,6 +8948,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>-16346087.124971084</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-8043099.9214103967</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8841,11 +8972,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="504664832"/>
-        <c:axId val="504666368"/>
+        <c:axId val="504185984"/>
+        <c:axId val="504187520"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="504664832"/>
+        <c:axId val="504185984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8888,14 +9019,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504666368"/>
+        <c:crossAx val="504187520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="504666368"/>
+        <c:axId val="504187520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8946,7 +9077,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504664832"/>
+        <c:crossAx val="504185984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9146,7 +9277,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9242,6 +9373,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>6414258.3153538136</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3523678.5893581696</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9256,8 +9390,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="506465280"/>
-        <c:axId val="506462976"/>
+        <c:axId val="504456704"/>
+        <c:axId val="504343936"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9282,7 +9416,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9378,6 +9512,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9387,7 +9524,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -9483,6 +9620,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0.56099998950958252</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.6380000114440918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9499,11 +9639,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="504847744"/>
-        <c:axId val="504980608"/>
+        <c:axId val="504340480"/>
+        <c:axId val="504342016"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="504847744"/>
+        <c:axId val="504340480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9546,14 +9686,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504980608"/>
+        <c:crossAx val="504342016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="504980608"/>
+        <c:axId val="504342016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9604,12 +9744,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504847744"/>
+        <c:crossAx val="504340480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="506462976"/>
+        <c:axId val="504343936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9646,12 +9786,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506465280"/>
+        <c:crossAx val="504456704"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="506465280"/>
+        <c:axId val="504456704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9660,7 +9800,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="506462976"/>
+        <c:crossAx val="504343936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9839,7 +9979,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9935,6 +10075,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9944,7 +10087,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10040,6 +10183,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>6645371.6056894073</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8096885.6651208382</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10082,7 +10228,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10178,6 +10324,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10187,7 +10336,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10283,6 +10432,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>5766444.8721752977</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8009431.9974614866</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10325,7 +10477,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10421,6 +10573,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10430,7 +10585,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10526,6 +10681,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>-878926.73351410963</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-87453.667659351602</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10547,11 +10705,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="539772800"/>
-        <c:axId val="93069696"/>
+        <c:axId val="504515584"/>
+        <c:axId val="504539008"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="539772800"/>
+        <c:axId val="504515584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10594,14 +10752,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93069696"/>
+        <c:crossAx val="504539008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="93069696"/>
+        <c:axId val="504539008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10652,7 +10810,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="539772800"/>
+        <c:crossAx val="504515584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10843,7 +11001,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10939,6 +11097,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>2292143.1016980624</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1451514.0594314304</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10953,8 +11114,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="93879296"/>
-        <c:axId val="93877760"/>
+        <c:axId val="529121664"/>
+        <c:axId val="528877440"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -10979,7 +11140,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11075,6 +11236,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11084,7 +11248,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -11180,6 +11344,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0.56099998950958252</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.6380000114440918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11196,11 +11363,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="93874432"/>
-        <c:axId val="93876224"/>
+        <c:axId val="528869632"/>
+        <c:axId val="528875904"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="93874432"/>
+        <c:axId val="528869632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11243,14 +11410,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93876224"/>
+        <c:crossAx val="528875904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="93876224"/>
+        <c:axId val="528875904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11301,12 +11468,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93874432"/>
+        <c:crossAx val="528869632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="93877760"/>
+        <c:axId val="528877440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11343,12 +11510,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93879296"/>
+        <c:crossAx val="529121664"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="93879296"/>
+        <c:axId val="529121664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11357,7 +11524,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93877760"/>
+        <c:crossAx val="528877440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11536,7 +11703,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11632,6 +11799,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11641,7 +11811,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11737,6 +11907,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>7489580.3218602687</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7928829.6807739399</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11779,7 +11952,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11875,6 +12048,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11884,7 +12060,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11980,6 +12156,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>5863844.9427120406</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7107936.0086711925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12022,7 +12201,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -12118,6 +12297,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12127,7 +12309,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12223,6 +12405,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>-1625735.3791482281</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-820893.67210274749</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12244,11 +12429,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="93939968"/>
-        <c:axId val="109985792"/>
+        <c:axId val="422343040"/>
+        <c:axId val="422344576"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="93939968"/>
+        <c:axId val="422343040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12291,14 +12476,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="109985792"/>
+        <c:crossAx val="422344576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="109985792"/>
+        <c:axId val="422344576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12349,7 +12534,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93939968"/>
+        <c:crossAx val="422343040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13201,7 +13386,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG34"/>
+  <dimension ref="A1:AG35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14666,6 +14851,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="35" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="32">
+        <v>45351</v>
+      </c>
+      <c r="B35" s="31">
+        <v>0.6380000114440918</v>
+      </c>
+      <c r="C35" s="31">
+        <v>17.479999540000001</v>
+      </c>
+      <c r="D35" s="29">
+        <v>27.106454812893954</v>
+      </c>
+      <c r="E35" s="29">
+        <v>366041.13242805976</v>
+      </c>
+      <c r="F35" s="30">
+        <v>573732.17219783086</v>
+      </c>
+      <c r="G35" s="30">
+        <v>10950719.30239201</v>
+      </c>
+      <c r="H35" s="30">
+        <v>6986559.0402471395</v>
+      </c>
+      <c r="I35" s="30">
+        <v>7795825.7760371994</v>
+      </c>
+      <c r="J35" s="30">
+        <v>6986559.0402471395</v>
+      </c>
+      <c r="K35" s="30">
+        <v>-809266.7357900599</v>
+      </c>
+      <c r="L35" s="29">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -14682,7 +14905,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH34"/>
+  <dimension ref="A1:AH35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16512,6 +16735,56 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="35" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="15">
+        <v>45351</v>
+      </c>
+      <c r="B35" s="31">
+        <v>0.6380000114440918</v>
+      </c>
+      <c r="C35" s="16">
+        <v>17.479999540000001</v>
+      </c>
+      <c r="D35" s="17">
+        <v>27.106454812893954</v>
+      </c>
+      <c r="E35" s="17">
+        <v>366041.13242805976</v>
+      </c>
+      <c r="F35" s="18">
+        <v>573732.17219783086</v>
+      </c>
+      <c r="G35" s="18">
+        <v>12495573.069952</v>
+      </c>
+      <c r="H35" s="18">
+        <v>7972175.7616298608</v>
+      </c>
+      <c r="I35" s="18">
+        <v>9041062.8937331364</v>
+      </c>
+      <c r="J35" s="18">
+        <v>7972175.7616298608</v>
+      </c>
+      <c r="K35" s="18">
+        <v>-1068887.1321032755</v>
+      </c>
+      <c r="L35" s="17">
+        <v>0</v>
+      </c>
+      <c r="M35" s="22">
+        <v>4.5850482244619087E-3</v>
+      </c>
+      <c r="N35" s="22">
+        <v>3.3052041658950905E-2</v>
+      </c>
+      <c r="O35" s="22">
+        <v>13.872208778425705</v>
+      </c>
+      <c r="P35" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -16528,7 +16801,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:AH34"/>
+  <dimension ref="A1:AH35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18358,6 +18631,56 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="35" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="15">
+        <v>45351</v>
+      </c>
+      <c r="B35" s="31">
+        <v>0.6380000114440918</v>
+      </c>
+      <c r="C35" s="16">
+        <v>17.479999540000001</v>
+      </c>
+      <c r="D35" s="17">
+        <v>27.106454812893954</v>
+      </c>
+      <c r="E35" s="17">
+        <v>3523678.5893581696</v>
+      </c>
+      <c r="F35" s="18">
+        <v>5523007.0942827109</v>
+      </c>
+      <c r="G35" s="18">
+        <v>113353979.02079217</v>
+      </c>
+      <c r="H35" s="18">
+        <v>72319839.912498742</v>
+      </c>
+      <c r="I35" s="18">
+        <v>80362939.833909139</v>
+      </c>
+      <c r="J35" s="18">
+        <v>72319839.912498742</v>
+      </c>
+      <c r="K35" s="18">
+        <v>-8043099.9214103967</v>
+      </c>
+      <c r="L35" s="17">
+        <v>0</v>
+      </c>
+      <c r="M35" s="22">
+        <v>4.5850482244619087E-3</v>
+      </c>
+      <c r="N35" s="22">
+        <v>3.3052041658950905E-2</v>
+      </c>
+      <c r="O35" s="22">
+        <v>13.872208778425705</v>
+      </c>
+      <c r="P35" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -18374,7 +18697,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AJ34"/>
+  <dimension ref="A1:AJ35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18418,19 +18741,19 @@
         <v>22</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G1" s="40" t="s">
         <v>5</v>
@@ -20406,6 +20729,62 @@
       </c>
       <c r="R34" s="1">
         <v>0.95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="15">
+        <v>45351</v>
+      </c>
+      <c r="B35" s="31">
+        <v>0.6380000114440918</v>
+      </c>
+      <c r="C35" s="16">
+        <v>17.479999540000001</v>
+      </c>
+      <c r="D35" s="17">
+        <v>27.106454812893954</v>
+      </c>
+      <c r="E35" s="17">
+        <v>12736000</v>
+      </c>
+      <c r="F35" s="17">
+        <v>4305005.2464849772</v>
+      </c>
+      <c r="G35" s="17">
+        <v>1451514.0594314304</v>
+      </c>
+      <c r="H35" s="18">
+        <v>2275100.3658228419</v>
+      </c>
+      <c r="I35" s="18">
+        <v>12553968.422872601</v>
+      </c>
+      <c r="J35" s="18">
+        <v>8009431.9974614866</v>
+      </c>
+      <c r="K35" s="18">
+        <v>8096885.6651208382</v>
+      </c>
+      <c r="L35" s="18">
+        <v>8009431.9974614866</v>
+      </c>
+      <c r="M35" s="18">
+        <v>-87453.667659351602</v>
+      </c>
+      <c r="N35" s="17">
+        <v>0</v>
+      </c>
+      <c r="O35" s="22">
+        <v>4.5850482244619087E-3</v>
+      </c>
+      <c r="P35" s="22">
+        <v>3.3052041658950905E-2</v>
+      </c>
+      <c r="Q35" s="22">
+        <v>13.872208778425705</v>
+      </c>
+      <c r="R35" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -20424,7 +20803,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AJ34"/>
+  <dimension ref="A1:AJ35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -20465,16 +20844,16 @@
   <sheetData>
     <row r="1" spans="1:36" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="E1" s="40" t="s">
         <v>5</v>
@@ -20501,19 +20880,19 @@
         <v>12</v>
       </c>
       <c r="M1" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="48" t="s">
+      <c r="O1" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="48" t="s">
+      <c r="P1" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="48" t="s">
+      <c r="Q1" s="11" t="s">
         <v>31</v>
-      </c>
-      <c r="Q1" s="11" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -22367,6 +22746,59 @@
       </c>
       <c r="Q34" s="1">
         <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="15">
+        <v>45351</v>
+      </c>
+      <c r="B35" s="31">
+        <v>0.6380000114440918</v>
+      </c>
+      <c r="C35" s="16">
+        <v>17.479999540000001</v>
+      </c>
+      <c r="D35" s="17">
+        <v>27.106454812893954</v>
+      </c>
+      <c r="E35" s="17">
+        <v>439249.35891367169</v>
+      </c>
+      <c r="F35" s="18">
+        <v>688478.60663739708</v>
+      </c>
+      <c r="G35" s="18">
+        <v>11140965.330992104</v>
+      </c>
+      <c r="H35" s="18">
+        <v>7107936.0086711925</v>
+      </c>
+      <c r="I35" s="18">
+        <v>7928829.6807739399</v>
+      </c>
+      <c r="J35" s="18">
+        <v>7107936.0086711925</v>
+      </c>
+      <c r="K35" s="18">
+        <v>-820893.67210274749</v>
+      </c>
+      <c r="L35" s="17">
+        <v>0</v>
+      </c>
+      <c r="M35" s="21">
+        <v>0.93022069523420603</v>
+      </c>
+      <c r="N35" s="21">
+        <v>13.672330128242274</v>
+      </c>
+      <c r="O35" s="21">
+        <v>22.473080313473535</v>
+      </c>
+      <c r="P35" s="21">
+        <v>-3.9291702422202448</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>
@@ -22385,7 +22817,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AJ34"/>
+  <dimension ref="A1:AJ35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -22429,19 +22861,19 @@
         <v>22</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G1" s="40" t="s">
         <v>5</v>
@@ -24048,6 +24480,50 @@
         <v>-5633406.9582177773</v>
       </c>
       <c r="N34" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="15">
+        <v>45351</v>
+      </c>
+      <c r="B35" s="31">
+        <v>0.6380000114440918</v>
+      </c>
+      <c r="C35" s="16">
+        <v>17.479999540000001</v>
+      </c>
+      <c r="D35" s="17">
+        <v>27.106454812893954</v>
+      </c>
+      <c r="E35" s="17">
+        <v>12736000</v>
+      </c>
+      <c r="F35" s="17">
+        <v>4305005.2464849772</v>
+      </c>
+      <c r="G35" s="17">
+        <v>10424510.063189363</v>
+      </c>
+      <c r="H35" s="18">
+        <v>16339357.17272768</v>
+      </c>
+      <c r="I35" s="18">
+        <v>88834177.005491868</v>
+      </c>
+      <c r="J35" s="18">
+        <v>56676205.946130291</v>
+      </c>
+      <c r="K35" s="18">
+        <v>56727510.187086932</v>
+      </c>
+      <c r="L35" s="18">
+        <v>56676205.946130291</v>
+      </c>
+      <c r="M35" s="18">
+        <v>-51304.240956641734</v>
+      </c>
+      <c r="N35" s="17">
         <v>0</v>
       </c>
     </row>
@@ -24067,7 +24543,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AG34"/>
+  <dimension ref="A1:AG35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -25532,6 +26008,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="35" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="15">
+        <v>45351</v>
+      </c>
+      <c r="B35" s="31">
+        <v>0.6380000114440918</v>
+      </c>
+      <c r="C35" s="16">
+        <v>17.479999540000001</v>
+      </c>
+      <c r="D35" s="17">
+        <v>27.106454812893954</v>
+      </c>
+      <c r="E35" s="17">
+        <v>3523678.5893581696</v>
+      </c>
+      <c r="F35" s="18">
+        <v>5523007.0942827109</v>
+      </c>
+      <c r="G35" s="18">
+        <v>99105464.700170085</v>
+      </c>
+      <c r="H35" s="18">
+        <v>63229287.61288055</v>
+      </c>
+      <c r="I35" s="18">
+        <v>69161256.270204231</v>
+      </c>
+      <c r="J35" s="18">
+        <v>63229287.61288055</v>
+      </c>
+      <c r="K35" s="18">
+        <v>-5931968.6573236808</v>
+      </c>
+      <c r="L35" s="17">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(RSI&KDJ)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(RSI&KDJ)cn.xlsx
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="33">
   <si>
     <t>in practice</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -145,6 +145,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>SMA之MAX</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -161,7 +165,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
+    <t>成交量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成交均量</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -173,11 +181,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>成交量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>成交均量</t>
+    <t>PE均值</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -656,7 +660,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -755,6 +759,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -764,7 +771,7 @@
               <c:f>'模型四 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -863,6 +870,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>7795825.7760371994</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8128674.1780120125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -905,7 +915,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1004,6 +1014,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1013,7 +1026,7 @@
               <c:f>'模型四 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1112,6 +1125,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>6986559.0402471395</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7407013.3741792245</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1154,7 +1170,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1253,6 +1269,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1262,7 +1281,7 @@
               <c:f>'模型四 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1361,6 +1380,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>-809266.7357900599</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-721660.80383278802</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1382,11 +1404,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="487406976"/>
-        <c:axId val="487434112"/>
+        <c:axId val="469776640"/>
+        <c:axId val="469779200"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="487406976"/>
+        <c:axId val="469776640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1429,14 +1451,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="487434112"/>
+        <c:crossAx val="469779200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="487434112"/>
+        <c:axId val="469779200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1487,7 +1509,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="487406976"/>
+        <c:crossAx val="469776640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1678,7 +1700,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1777,6 +1799,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>439249.35891367169</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>332848.40197481349</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1791,8 +1816,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="422380288"/>
-        <c:axId val="422370304"/>
+        <c:axId val="461750656"/>
+        <c:axId val="461748864"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1817,7 +1842,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1916,6 +1941,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1925,7 +1953,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2024,6 +2052,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0.6380000114440918</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.64600002765655518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2040,11 +2071,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="422367232"/>
-        <c:axId val="422368768"/>
+        <c:axId val="461729152"/>
+        <c:axId val="461747328"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="422367232"/>
+        <c:axId val="461729152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2087,14 +2118,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="422368768"/>
+        <c:crossAx val="461747328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="422368768"/>
+        <c:axId val="461747328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2145,12 +2176,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="422367232"/>
+        <c:crossAx val="461729152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="422370304"/>
+        <c:axId val="461748864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2187,12 +2218,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="422380288"/>
+        <c:crossAx val="461750656"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="422380288"/>
+        <c:axId val="461750656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2201,7 +2232,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="422370304"/>
+        <c:crossAx val="461748864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2380,7 +2411,7 @@
               <c:f>'模型四 (3)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2479,6 +2510,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2488,7 +2522,7 @@
               <c:f>'模型四 (3)PE副本成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2587,6 +2621,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>56727510.187086932</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>62630233.545065001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2629,7 +2666,7 @@
               <c:f>'模型四 (3)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2728,6 +2765,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2737,7 +2777,7 @@
               <c:f>'模型四 (3)PE副本成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2836,6 +2876,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>56676205.946130291</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>63289604.160373129</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2878,7 +2921,7 @@
               <c:f>'模型四 (3)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2977,6 +3020,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2986,7 +3032,7 @@
               <c:f>'模型四 (3)PE副本成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3085,6 +3131,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>-51304.240956641734</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>659370.6153081283</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3106,11 +3155,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="422420480"/>
-        <c:axId val="422422016"/>
+        <c:axId val="476392832"/>
+        <c:axId val="476394624"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="422420480"/>
+        <c:axId val="476392832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3153,14 +3202,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="422422016"/>
+        <c:crossAx val="476394624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="422422016"/>
+        <c:axId val="476394624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3211,7 +3260,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="422420480"/>
+        <c:crossAx val="476392832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3402,7 +3451,7 @@
               <c:f>'模型四 (3)PE副本成交量'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3501,6 +3550,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>10424510.063189363</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5902723.3579780655</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3515,8 +3567,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="425349504"/>
-        <c:axId val="422439552"/>
+        <c:axId val="476426240"/>
+        <c:axId val="476416256"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3541,7 +3593,7 @@
               <c:f>'模型四 (3)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3640,6 +3692,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3649,7 +3704,7 @@
               <c:f>'模型四 (3)PE副本成交量'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3748,6 +3803,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0.6380000114440918</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.64600002765655518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3764,11 +3822,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="422436224"/>
-        <c:axId val="422438016"/>
+        <c:axId val="476412928"/>
+        <c:axId val="476414720"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="422436224"/>
+        <c:axId val="476412928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3811,14 +3869,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="422438016"/>
+        <c:crossAx val="476414720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="422438016"/>
+        <c:axId val="476414720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3869,12 +3927,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="422436224"/>
+        <c:crossAx val="476412928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="422439552"/>
+        <c:axId val="476416256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3911,12 +3969,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="425349504"/>
+        <c:crossAx val="476426240"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="425349504"/>
+        <c:axId val="476426240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3925,7 +3983,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="422439552"/>
+        <c:crossAx val="476416256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4104,7 +4162,7 @@
               <c:f>'模型四 (3)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4203,6 +4261,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4212,7 +4273,7 @@
               <c:f>'模型四 (3)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4311,6 +4372,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>69161256.270204231</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>72216678.025062874</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4353,7 +4417,7 @@
               <c:f>'模型四 (3)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4452,6 +4516,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4461,7 +4528,7 @@
               <c:f>'模型四 (3)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4560,6 +4627,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>63229287.61288055</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>67077554.692084268</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4602,7 +4672,7 @@
               <c:f>'模型四 (3)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4701,6 +4771,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4710,7 +4783,7 @@
               <c:f>'模型四 (3)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4809,6 +4882,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>-5931968.6573236808</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-5139123.3329786062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4830,11 +4906,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="425418752"/>
-        <c:axId val="425420288"/>
+        <c:axId val="482954624"/>
+        <c:axId val="482960512"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="425418752"/>
+        <c:axId val="482954624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4877,14 +4953,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="425420288"/>
+        <c:crossAx val="482960512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="425420288"/>
+        <c:axId val="482960512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4935,7 +5011,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="425418752"/>
+        <c:crossAx val="482954624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5126,7 +5202,7 @@
               <c:f>'模型四 (3)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5225,6 +5301,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>3523678.5893581696</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3055421.7548586358</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5239,8 +5318,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="425451904"/>
-        <c:axId val="425446016"/>
+        <c:axId val="482988032"/>
+        <c:axId val="482982144"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5265,7 +5344,7 @@
               <c:f>'模型四 (3)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5364,6 +5443,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5373,7 +5455,7 @@
               <c:f>'模型四 (3)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5472,6 +5554,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0.6380000114440918</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.64600002765655518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5488,11 +5573,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="425430400"/>
-        <c:axId val="425444480"/>
+        <c:axId val="482974720"/>
+        <c:axId val="482980608"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="425430400"/>
+        <c:axId val="482974720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5535,14 +5620,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="425444480"/>
+        <c:crossAx val="482980608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="425444480"/>
+        <c:axId val="482980608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5593,12 +5678,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="425430400"/>
+        <c:crossAx val="482974720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="425446016"/>
+        <c:axId val="482982144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5635,12 +5720,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="425451904"/>
+        <c:crossAx val="482988032"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="425451904"/>
+        <c:axId val="482988032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5649,7 +5734,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="425446016"/>
+        <c:crossAx val="482982144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5811,7 +5896,7 @@
               <c:f>'模型四 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5910,6 +5995,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>366041.13242805976</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>332848.40197481349</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5924,8 +6012,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="487464960"/>
-        <c:axId val="487458688"/>
+        <c:axId val="484404224"/>
+        <c:axId val="469824640"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5950,7 +6038,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6049,6 +6137,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6058,7 +6149,7 @@
               <c:f>'模型四 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6157,6 +6248,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0.6380000114440918</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.64600002765655518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6173,11 +6267,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="487454208"/>
-        <c:axId val="487456128"/>
+        <c:axId val="469820160"/>
+        <c:axId val="469822464"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="487454208"/>
+        <c:axId val="469820160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6220,14 +6314,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="487456128"/>
+        <c:crossAx val="469822464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="487456128"/>
+        <c:axId val="469822464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6278,12 +6372,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="487454208"/>
+        <c:crossAx val="469820160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="487458688"/>
+        <c:axId val="469824640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6320,12 +6414,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="487464960"/>
+        <c:crossAx val="484404224"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="487464960"/>
+        <c:axId val="484404224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6334,7 +6428,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="487458688"/>
+        <c:crossAx val="469824640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6513,7 +6607,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6612,6 +6706,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6621,7 +6718,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6720,6 +6817,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>9041062.8937331364</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9706759.6976827625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6762,7 +6862,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6861,6 +6961,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6870,7 +6973,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6969,6 +7072,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>7972175.7616298608</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8737837.3527231254</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7011,7 +7117,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7110,6 +7216,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7119,7 +7228,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7218,6 +7327,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>-1068887.1321032755</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-968922.34495963715</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7239,11 +7351,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="487500032"/>
-        <c:axId val="487505920"/>
+        <c:axId val="523618176"/>
+        <c:axId val="523624448"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="487500032"/>
+        <c:axId val="523618176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7286,14 +7398,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="487505920"/>
+        <c:crossAx val="523624448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="487505920"/>
+        <c:axId val="523624448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7344,7 +7456,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="487500032"/>
+        <c:crossAx val="523618176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7544,7 +7656,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7643,6 +7755,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>366041.13242805976</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>665696.80394962698</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7657,8 +7772,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="498877184"/>
-        <c:axId val="498870912"/>
+        <c:axId val="523696384"/>
+        <c:axId val="523694848"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7683,7 +7798,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7782,6 +7897,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7791,7 +7909,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -7890,6 +8008,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0.6380000114440918</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.64600002765655518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7906,11 +8027,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="497518848"/>
-        <c:axId val="498869376"/>
+        <c:axId val="523670656"/>
+        <c:axId val="523672192"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="497518848"/>
+        <c:axId val="523670656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7953,14 +8074,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="498869376"/>
+        <c:crossAx val="523672192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="498869376"/>
+        <c:axId val="523672192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8011,12 +8132,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="497518848"/>
+        <c:crossAx val="523670656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="498870912"/>
+        <c:axId val="523694848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8053,12 +8174,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="498877184"/>
+        <c:crossAx val="523696384"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="498877184"/>
+        <c:axId val="523696384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8067,7 +8188,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="498870912"/>
+        <c:crossAx val="523694848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8246,7 +8367,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8345,6 +8466,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8354,7 +8478,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8453,6 +8577,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>80362939.833909139</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>86473783.34362641</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8495,7 +8622,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8594,6 +8721,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8603,7 +8733,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8702,6 +8832,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>72319839.912498742</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>79337517.092129588</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8744,7 +8877,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8843,6 +8976,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8852,7 +8988,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8951,6 +9087,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>-8043099.9214103967</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-7136266.2514968216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8972,11 +9111,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="504185984"/>
-        <c:axId val="504187520"/>
+        <c:axId val="524768768"/>
+        <c:axId val="524770304"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="504185984"/>
+        <c:axId val="524768768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9019,14 +9158,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504187520"/>
+        <c:crossAx val="524770304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="504187520"/>
+        <c:axId val="524770304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9077,7 +9216,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504185984"/>
+        <c:crossAx val="524768768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9277,7 +9416,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9376,6 +9515,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>3523678.5893581696</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6110843.5097172717</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9390,8 +9532,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="504456704"/>
-        <c:axId val="504343936"/>
+        <c:axId val="524908800"/>
+        <c:axId val="524907264"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9416,7 +9558,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9515,6 +9657,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9524,7 +9669,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -9623,6 +9768,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0.6380000114440918</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.64600002765655518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9639,11 +9787,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="504340480"/>
-        <c:axId val="504342016"/>
+        <c:axId val="524899840"/>
+        <c:axId val="524901376"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="504340480"/>
+        <c:axId val="524899840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9686,14 +9834,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504342016"/>
+        <c:crossAx val="524901376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="504342016"/>
+        <c:axId val="524901376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9744,12 +9892,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504340480"/>
+        <c:crossAx val="524899840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="504343936"/>
+        <c:axId val="524907264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9786,12 +9934,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504456704"/>
+        <c:crossAx val="524908800"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="504456704"/>
+        <c:axId val="524908800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9800,7 +9948,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="504343936"/>
+        <c:crossAx val="524907264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9979,7 +10127,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10078,6 +10226,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10087,7 +10238,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10186,6 +10337,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>8096885.6651208382</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9740682.043291945</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10228,7 +10382,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10327,6 +10481,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10336,7 +10493,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10435,6 +10592,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>8009431.9974614866</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9753660.3265463263</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10477,7 +10637,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10576,6 +10736,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10585,7 +10748,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10684,6 +10847,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>-87453.667659351602</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>12978.283254381269</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10705,11 +10871,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="504515584"/>
-        <c:axId val="504539008"/>
+        <c:axId val="525151232"/>
+        <c:axId val="525153408"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="504515584"/>
+        <c:axId val="525151232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10752,14 +10918,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504539008"/>
+        <c:crossAx val="525153408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="504539008"/>
+        <c:axId val="525153408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10810,7 +10976,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504515584"/>
+        <c:crossAx val="525151232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11001,7 +11167,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11100,6 +11266,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>1451514.0594314304</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1643796.3781711068</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11114,8 +11283,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="529121664"/>
-        <c:axId val="528877440"/>
+        <c:axId val="584874240"/>
+        <c:axId val="584872320"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -11140,7 +11309,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11239,6 +11408,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11248,7 +11420,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -11347,6 +11519,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0.6380000114440918</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.64600002765655518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11363,11 +11538,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="528869632"/>
-        <c:axId val="528875904"/>
+        <c:axId val="556900352"/>
+        <c:axId val="556902656"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="528869632"/>
+        <c:axId val="556900352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11410,14 +11585,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="528875904"/>
+        <c:crossAx val="556902656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="528875904"/>
+        <c:axId val="556902656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11468,12 +11643,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="528869632"/>
+        <c:crossAx val="556900352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="528877440"/>
+        <c:axId val="584872320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11510,12 +11685,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="529121664"/>
+        <c:crossAx val="584874240"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="529121664"/>
+        <c:axId val="584874240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11524,7 +11699,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="528877440"/>
+        <c:crossAx val="584872320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11703,7 +11878,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11802,6 +11977,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11811,7 +11989,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11910,6 +12088,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>7928829.6807739399</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8261678.082748753</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11952,7 +12133,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -12051,6 +12232,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12060,7 +12244,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12159,6 +12343,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>7107936.0086711925</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7529912.3139164355</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12201,7 +12388,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -12300,6 +12487,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12309,7 +12499,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12408,6 +12598,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>-820893.67210274749</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-731765.76883231755</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12429,11 +12622,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="422343040"/>
-        <c:axId val="422344576"/>
+        <c:axId val="461701120"/>
+        <c:axId val="461702656"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="422343040"/>
+        <c:axId val="461701120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12476,14 +12669,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="422344576"/>
+        <c:crossAx val="461702656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="422344576"/>
+        <c:axId val="461702656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12534,7 +12727,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="422343040"/>
+        <c:crossAx val="461701120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13386,7 +13579,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG35"/>
+  <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14889,6 +15082,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="36" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="32">
+        <v>45380</v>
+      </c>
+      <c r="B36" s="31">
+        <v>0.64600002765655518</v>
+      </c>
+      <c r="C36" s="31">
+        <v>17.659999849999998</v>
+      </c>
+      <c r="D36" s="29">
+        <v>26.839619570961851</v>
+      </c>
+      <c r="E36" s="29">
+        <v>332848.40197481349</v>
+      </c>
+      <c r="F36" s="30">
+        <v>515245.18223669764</v>
+      </c>
+      <c r="G36" s="30">
+        <v>11465964.484628707</v>
+      </c>
+      <c r="H36" s="30">
+        <v>7407013.3741792245</v>
+      </c>
+      <c r="I36" s="30">
+        <v>8128674.1780120125</v>
+      </c>
+      <c r="J36" s="30">
+        <v>7407013.3741792245</v>
+      </c>
+      <c r="K36" s="30">
+        <v>-721660.80383278802</v>
+      </c>
+      <c r="L36" s="29">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -14905,7 +15136,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH35"/>
+  <dimension ref="A1:AH36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14946,7 +15177,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>2</v>
@@ -14982,16 +15213,16 @@
         <v>12</v>
       </c>
       <c r="M1" s="44" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N1" s="44" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O1" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -16783,6 +17014,56 @@
       </c>
       <c r="P35" s="1">
         <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="15">
+        <v>45380</v>
+      </c>
+      <c r="B36" s="31">
+        <v>0.64600002765655518</v>
+      </c>
+      <c r="C36" s="16">
+        <v>17.659999849999998</v>
+      </c>
+      <c r="D36" s="17">
+        <v>26.839619570961851</v>
+      </c>
+      <c r="E36" s="17">
+        <v>665696.80394962698</v>
+      </c>
+      <c r="F36" s="18">
+        <v>1030490.3644733953</v>
+      </c>
+      <c r="G36" s="18">
+        <v>13526063.434425395</v>
+      </c>
+      <c r="H36" s="18">
+        <v>8737837.3527231254</v>
+      </c>
+      <c r="I36" s="18">
+        <v>9706759.6976827625</v>
+      </c>
+      <c r="J36" s="18">
+        <v>8737837.3527231254</v>
+      </c>
+      <c r="K36" s="18">
+        <v>-968922.34495963715</v>
+      </c>
+      <c r="L36" s="17">
+        <v>0</v>
+      </c>
+      <c r="M36" s="22">
+        <v>1.6654210509469802E-2</v>
+      </c>
+      <c r="N36" s="22">
+        <v>4.0376705038210635E-2</v>
+      </c>
+      <c r="O36" s="22">
+        <v>41.247076733252584</v>
+      </c>
+      <c r="P36" s="1">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -16801,7 +17082,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:AH35"/>
+  <dimension ref="A1:AH36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16878,16 +17159,16 @@
         <v>12</v>
       </c>
       <c r="M1" s="44" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N1" s="44" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O1" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -18679,6 +18960,56 @@
       </c>
       <c r="P35" s="1">
         <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="15">
+        <v>45380</v>
+      </c>
+      <c r="B36" s="31">
+        <v>0.64600002765655518</v>
+      </c>
+      <c r="C36" s="16">
+        <v>17.659999849999998</v>
+      </c>
+      <c r="D36" s="17">
+        <v>26.839619570961851</v>
+      </c>
+      <c r="E36" s="17">
+        <v>6110843.5097172717</v>
+      </c>
+      <c r="F36" s="18">
+        <v>9459509.6719811466</v>
+      </c>
+      <c r="G36" s="18">
+        <v>122813488.69277331</v>
+      </c>
+      <c r="H36" s="18">
+        <v>79337517.092129588</v>
+      </c>
+      <c r="I36" s="18">
+        <v>86473783.34362641</v>
+      </c>
+      <c r="J36" s="18">
+        <v>79337517.092129588</v>
+      </c>
+      <c r="K36" s="18">
+        <v>-7136266.2514968216</v>
+      </c>
+      <c r="L36" s="17">
+        <v>0</v>
+      </c>
+      <c r="M36" s="22">
+        <v>1.6654210509469802E-2</v>
+      </c>
+      <c r="N36" s="22">
+        <v>4.0376705038210635E-2</v>
+      </c>
+      <c r="O36" s="22">
+        <v>41.247076733252584</v>
+      </c>
+      <c r="P36" s="1">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -18697,7 +19028,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AJ35"/>
+  <dimension ref="A1:AJ36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18738,22 +19069,22 @@
   <sheetData>
     <row r="1" spans="1:36" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G1" s="40" t="s">
         <v>5</v>
@@ -18780,16 +19111,16 @@
         <v>12</v>
       </c>
       <c r="O1" s="44" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P1" s="44" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q1" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R1" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -20785,6 +21116,62 @@
       </c>
       <c r="R35" s="1">
         <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="15">
+        <v>45380</v>
+      </c>
+      <c r="B36" s="31">
+        <v>0.64600002765655518</v>
+      </c>
+      <c r="C36" s="16">
+        <v>17.659999849999998</v>
+      </c>
+      <c r="D36" s="17">
+        <v>26.839619570961851</v>
+      </c>
+      <c r="E36" s="17">
+        <v>8545319</v>
+      </c>
+      <c r="F36" s="17">
+        <v>4423306.3268190296</v>
+      </c>
+      <c r="G36" s="17">
+        <v>1643796.3781711068</v>
+      </c>
+      <c r="H36" s="18">
+        <v>2544576.3278589649</v>
+      </c>
+      <c r="I36" s="18">
+        <v>15098544.750731565</v>
+      </c>
+      <c r="J36" s="18">
+        <v>9753660.3265463263</v>
+      </c>
+      <c r="K36" s="18">
+        <v>9740682.043291945</v>
+      </c>
+      <c r="L36" s="18">
+        <v>9753660.3265463263</v>
+      </c>
+      <c r="M36" s="18">
+        <v>12978.283254381269</v>
+      </c>
+      <c r="N36" s="17">
+        <v>0</v>
+      </c>
+      <c r="O36" s="22">
+        <v>1.6654210509469802E-2</v>
+      </c>
+      <c r="P36" s="22">
+        <v>4.0376705038210635E-2</v>
+      </c>
+      <c r="Q36" s="22">
+        <v>41.247076733252584</v>
+      </c>
+      <c r="R36" s="1">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -20803,7 +21190,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AJ35"/>
+  <dimension ref="A1:AJ36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -20844,16 +21231,16 @@
   <sheetData>
     <row r="1" spans="1:36" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="E1" s="40" t="s">
         <v>5</v>
@@ -20880,19 +21267,19 @@
         <v>12</v>
       </c>
       <c r="M1" s="48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N1" s="48" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O1" s="48" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P1" s="48" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q1" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -22799,6 +23186,59 @@
       </c>
       <c r="Q35" s="1">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="15">
+        <v>45380</v>
+      </c>
+      <c r="B36" s="31">
+        <v>0.64600002765655518</v>
+      </c>
+      <c r="C36" s="16">
+        <v>17.659999849999998</v>
+      </c>
+      <c r="D36" s="17">
+        <v>26.839619570961851</v>
+      </c>
+      <c r="E36" s="17">
+        <v>332848.40197481349</v>
+      </c>
+      <c r="F36" s="18">
+        <v>515245.18223669764</v>
+      </c>
+      <c r="G36" s="18">
+        <v>11656210.513228802</v>
+      </c>
+      <c r="H36" s="18">
+        <v>7529912.3139164355</v>
+      </c>
+      <c r="I36" s="18">
+        <v>8261678.082748753</v>
+      </c>
+      <c r="J36" s="18">
+        <v>7529912.3139164355</v>
+      </c>
+      <c r="K36" s="18">
+        <v>-731765.76883231755</v>
+      </c>
+      <c r="L36" s="17">
+        <v>0</v>
+      </c>
+      <c r="M36" s="21">
+        <v>42.857146434852993</v>
+      </c>
+      <c r="N36" s="21">
+        <v>23.400602230445845</v>
+      </c>
+      <c r="O36" s="21">
+        <v>22.782254285797638</v>
+      </c>
+      <c r="P36" s="21">
+        <v>24.637298119742262</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -22817,7 +23257,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AJ35"/>
+  <dimension ref="A1:AJ36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -22858,22 +23298,22 @@
   <sheetData>
     <row r="1" spans="1:36" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G1" s="40" t="s">
         <v>5</v>
@@ -24524,6 +24964,50 @@
         <v>-51304.240956641734</v>
       </c>
       <c r="N35" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="15">
+        <v>45380</v>
+      </c>
+      <c r="B36" s="31">
+        <v>0.64600002765655518</v>
+      </c>
+      <c r="C36" s="16">
+        <v>17.659999849999998</v>
+      </c>
+      <c r="D36" s="17">
+        <v>26.839619570961851</v>
+      </c>
+      <c r="E36" s="17">
+        <v>8545319</v>
+      </c>
+      <c r="F36" s="17">
+        <v>4423306.3268190296</v>
+      </c>
+      <c r="G36" s="17">
+        <v>5902723.3579780655</v>
+      </c>
+      <c r="H36" s="18">
+        <v>9137342.2682208288</v>
+      </c>
+      <c r="I36" s="18">
+        <v>97971519.273712695</v>
+      </c>
+      <c r="J36" s="18">
+        <v>63289604.160373129</v>
+      </c>
+      <c r="K36" s="18">
+        <v>62630233.545065001</v>
+      </c>
+      <c r="L36" s="18">
+        <v>63289604.160373129</v>
+      </c>
+      <c r="M36" s="18">
+        <v>659370.6153081283</v>
+      </c>
+      <c r="N36" s="17">
         <v>0</v>
       </c>
     </row>
@@ -24543,7 +25027,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AG35"/>
+  <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -26046,6 +26530,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="36" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="15">
+        <v>45380</v>
+      </c>
+      <c r="B36" s="31">
+        <v>0.64600002765655518</v>
+      </c>
+      <c r="C36" s="16">
+        <v>17.659999849999998</v>
+      </c>
+      <c r="D36" s="17">
+        <v>26.839619570961851</v>
+      </c>
+      <c r="E36" s="17">
+        <v>3055421.7548586358</v>
+      </c>
+      <c r="F36" s="18">
+        <v>4729754.8359905733</v>
+      </c>
+      <c r="G36" s="18">
+        <v>103835219.53616066</v>
+      </c>
+      <c r="H36" s="18">
+        <v>67077554.692084268</v>
+      </c>
+      <c r="I36" s="18">
+        <v>72216678.025062874</v>
+      </c>
+      <c r="J36" s="18">
+        <v>67077554.692084268</v>
+      </c>
+      <c r="K36" s="18">
+        <v>-5139123.3329786062</v>
+      </c>
+      <c r="L36" s="17">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(RSI&KDJ)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(RSI&KDJ)cn.xlsx
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="32">
   <si>
     <t>in practice</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -165,14 +165,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>成交量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>成交均量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>深创100ETF</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -181,7 +173,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>PE均值</t>
+    <t>成交量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成交均量</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -660,7 +656,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -762,6 +758,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -771,7 +770,7 @@
               <c:f>'模型四 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -873,6 +872,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>8128674.1780120125</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8413009.3176757134</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -915,7 +917,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1017,6 +1019,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1026,7 +1031,7 @@
               <c:f>'模型四 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1128,6 +1133,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>7407013.3741792245</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7897735.2676850744</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1170,7 +1178,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1272,6 +1280,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1281,7 +1292,7 @@
               <c:f>'模型四 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1383,6 +1394,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-721660.80383278802</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-515274.04999063909</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1404,11 +1418,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="469776640"/>
-        <c:axId val="469779200"/>
+        <c:axId val="535484288"/>
+        <c:axId val="535485824"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="469776640"/>
+        <c:axId val="535484288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1451,14 +1465,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="469779200"/>
+        <c:crossAx val="535485824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="469779200"/>
+        <c:axId val="535485824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1509,7 +1523,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="469776640"/>
+        <c:crossAx val="535484288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1700,7 +1714,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1802,6 +1816,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>332848.40197481349</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>284335.13966370182</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1816,8 +1833,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="461750656"/>
-        <c:axId val="461748864"/>
+        <c:axId val="475455488"/>
+        <c:axId val="630906240"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1842,7 +1859,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1944,6 +1961,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1953,7 +1973,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2055,6 +2075,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0.64600002765655518</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.66399997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2071,11 +2094,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="461729152"/>
-        <c:axId val="461747328"/>
+        <c:axId val="628411008"/>
+        <c:axId val="628447872"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="461729152"/>
+        <c:axId val="628411008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2118,14 +2141,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461747328"/>
+        <c:crossAx val="628447872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="461747328"/>
+        <c:axId val="628447872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2176,12 +2199,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461729152"/>
+        <c:crossAx val="628411008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="461748864"/>
+        <c:axId val="630906240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2218,12 +2241,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461750656"/>
+        <c:crossAx val="475455488"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="461750656"/>
+        <c:axId val="475455488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2232,7 +2255,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="461748864"/>
+        <c:crossAx val="630906240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2411,7 +2434,7 @@
               <c:f>'模型四 (3)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2513,6 +2536,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2522,7 +2548,7 @@
               <c:f>'模型四 (3)PE副本成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2623,7 +2649,10 @@
                   <c:v>56727510.187086932</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>62630233.545065001</c:v>
+                  <c:v>62553510.082822546</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>65335450.897677243</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2666,7 +2695,7 @@
               <c:f>'模型四 (3)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2768,6 +2797,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2777,7 +2809,7 @@
               <c:f>'模型四 (3)PE副本成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2878,7 +2910,10 @@
                   <c:v>56676205.946130291</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>63289604.160373129</c:v>
+                  <c:v>63212880.698130675</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>67756165.875313297</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2921,7 +2956,7 @@
               <c:f>'模型四 (3)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3023,6 +3058,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3032,7 +3070,7 @@
               <c:f>'模型四 (3)PE副本成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3134,6 +3172,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>659370.6153081283</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2420714.9776360542</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3155,11 +3196,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="476392832"/>
-        <c:axId val="476394624"/>
+        <c:axId val="475732992"/>
+        <c:axId val="475734784"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="476392832"/>
+        <c:axId val="475732992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3202,14 +3243,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476394624"/>
+        <c:crossAx val="475734784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="476394624"/>
+        <c:axId val="475734784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3260,7 +3301,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476392832"/>
+        <c:crossAx val="475732992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3451,7 +3492,7 @@
               <c:f>'模型四 (3)PE副本成交量'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3552,7 +3593,10 @@
                   <c:v>10424510.063189363</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5902723.3579780655</c:v>
+                  <c:v>5825999.8957356149</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2781940.8148546959</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3567,8 +3611,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="476426240"/>
-        <c:axId val="476416256"/>
+        <c:axId val="477433216"/>
+        <c:axId val="477431680"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3593,7 +3637,7 @@
               <c:f>'模型四 (3)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3695,6 +3739,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3704,7 +3751,7 @@
               <c:f>'模型四 (3)PE副本成交量'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3806,6 +3853,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0.64600002765655518</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.66399997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3822,11 +3872,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="476412928"/>
-        <c:axId val="476414720"/>
+        <c:axId val="475753088"/>
+        <c:axId val="477430144"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="476412928"/>
+        <c:axId val="475753088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3869,14 +3919,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476414720"/>
+        <c:crossAx val="477430144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="476414720"/>
+        <c:axId val="477430144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3927,12 +3977,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476412928"/>
+        <c:crossAx val="475753088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="476416256"/>
+        <c:axId val="477431680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3969,12 +4019,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476426240"/>
+        <c:crossAx val="477433216"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="476426240"/>
+        <c:axId val="477433216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3983,7 +4033,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="476416256"/>
+        <c:crossAx val="477431680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4162,7 +4212,7 @@
               <c:f>'模型四 (3)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4264,6 +4314,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4273,7 +4326,7 @@
               <c:f>'模型四 (3)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4375,6 +4428,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>72216678.025062874</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>74629066.557660893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4417,7 +4473,7 @@
               <c:f>'模型四 (3)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4519,6 +4575,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4528,7 +4587,7 @@
               <c:f>'模型四 (3)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4630,6 +4689,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>67077554.692084268</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>71358971.680446684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4672,7 +4734,7 @@
               <c:f>'模型四 (3)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4774,6 +4836,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4783,7 +4848,7 @@
               <c:f>'模型四 (3)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4885,6 +4950,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-5139123.3329786062</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-3270094.8772142082</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4906,11 +4974,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="482954624"/>
-        <c:axId val="482960512"/>
+        <c:axId val="477494272"/>
+        <c:axId val="477561600"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="482954624"/>
+        <c:axId val="477494272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4953,14 +5021,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="482960512"/>
+        <c:crossAx val="477561600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="482960512"/>
+        <c:axId val="477561600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5011,7 +5079,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="482954624"/>
+        <c:crossAx val="477494272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5202,7 +5270,7 @@
               <c:f>'模型四 (3)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5304,6 +5372,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>3055421.7548586358</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2412388.5325980242</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5318,8 +5389,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="482988032"/>
-        <c:axId val="482982144"/>
+        <c:axId val="477584768"/>
+        <c:axId val="477583232"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5344,7 +5415,7 @@
               <c:f>'模型四 (3)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5446,6 +5517,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5455,7 +5529,7 @@
               <c:f>'模型四 (3)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5557,6 +5631,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0.64600002765655518</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.66399997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5573,11 +5650,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="482974720"/>
-        <c:axId val="482980608"/>
+        <c:axId val="477579904"/>
+        <c:axId val="477581696"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="482974720"/>
+        <c:axId val="477579904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5620,14 +5697,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="482980608"/>
+        <c:crossAx val="477581696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="482980608"/>
+        <c:axId val="477581696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5678,12 +5755,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="482974720"/>
+        <c:crossAx val="477579904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="482982144"/>
+        <c:axId val="477583232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5720,12 +5797,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="482988032"/>
+        <c:crossAx val="477584768"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="482988032"/>
+        <c:axId val="477584768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5734,7 +5811,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="482982144"/>
+        <c:crossAx val="477583232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5896,7 +5973,7 @@
               <c:f>'模型四 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5998,6 +6075,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>332848.40197481349</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>284335.13966370182</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6012,8 +6092,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="484404224"/>
-        <c:axId val="469824640"/>
+        <c:axId val="540329472"/>
+        <c:axId val="540327936"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6038,7 +6118,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6140,6 +6220,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6149,7 +6232,7 @@
               <c:f>'模型四 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6251,6 +6334,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0.64600002765655518</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.66399997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6267,11 +6353,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="469820160"/>
-        <c:axId val="469822464"/>
+        <c:axId val="540320128"/>
+        <c:axId val="540321664"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="469820160"/>
+        <c:axId val="540320128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6314,14 +6400,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="469822464"/>
+        <c:crossAx val="540321664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="469822464"/>
+        <c:axId val="540321664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6372,12 +6458,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="469820160"/>
+        <c:crossAx val="540320128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="469824640"/>
+        <c:axId val="540327936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6414,12 +6500,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484404224"/>
+        <c:crossAx val="540329472"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="484404224"/>
+        <c:axId val="540329472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6428,7 +6514,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="469824640"/>
+        <c:crossAx val="540327936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6607,7 +6693,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6709,6 +6795,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6718,7 +6807,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6820,6 +6909,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>9706759.6976827625</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9976878.0803632792</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6862,7 +6954,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6964,6 +7056,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6973,7 +7068,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7075,6 +7170,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>8737837.3527231254</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9251424.1613033079</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7117,7 +7215,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7219,6 +7317,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7228,7 +7329,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7330,6 +7431,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-968922.34495963715</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-725453.91905997135</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7351,11 +7455,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="523618176"/>
-        <c:axId val="523624448"/>
+        <c:axId val="541241344"/>
+        <c:axId val="541243264"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="523618176"/>
+        <c:axId val="541241344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7398,14 +7502,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="523624448"/>
+        <c:crossAx val="541243264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="523624448"/>
+        <c:axId val="541243264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7456,7 +7560,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="523618176"/>
+        <c:crossAx val="541241344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7656,7 +7760,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7758,6 +7862,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>665696.80394962698</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>270118.38268051669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7772,8 +7879,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="523696384"/>
-        <c:axId val="523694848"/>
+        <c:axId val="541480448"/>
+        <c:axId val="541478912"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7798,7 +7905,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7900,6 +8007,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7909,7 +8019,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -8011,6 +8121,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0.64600002765655518</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.66399997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8027,11 +8140,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="523670656"/>
-        <c:axId val="523672192"/>
+        <c:axId val="541409664"/>
+        <c:axId val="541411584"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="523670656"/>
+        <c:axId val="541409664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8074,14 +8187,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="523672192"/>
+        <c:crossAx val="541411584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="523672192"/>
+        <c:axId val="541411584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8132,12 +8245,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="523670656"/>
+        <c:crossAx val="541409664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="523694848"/>
+        <c:axId val="541478912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8174,12 +8287,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="523696384"/>
+        <c:crossAx val="541480448"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="523696384"/>
+        <c:axId val="541480448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8188,7 +8301,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="523694848"/>
+        <c:crossAx val="541478912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8367,7 +8480,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8469,6 +8582,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8478,7 +8594,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8580,6 +8696,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>86473783.34362641</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>88765552.449594527</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8622,7 +8741,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8724,6 +8843,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8733,7 +8855,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8835,6 +8957,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>79337517.092129588</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>83839922.494181752</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8877,7 +9002,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8979,6 +9104,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8988,7 +9116,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9090,6 +9218,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-7136266.2514968216</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-4925629.9554127753</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9111,11 +9242,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="524768768"/>
-        <c:axId val="524770304"/>
+        <c:axId val="541493504"/>
+        <c:axId val="541523968"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="524768768"/>
+        <c:axId val="541493504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9158,14 +9289,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="524770304"/>
+        <c:crossAx val="541523968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="524770304"/>
+        <c:axId val="541523968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9216,7 +9347,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="524768768"/>
+        <c:crossAx val="541493504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9416,7 +9547,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9518,6 +9649,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>6110843.5097172717</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2291769.1059681228</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9532,8 +9666,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="524908800"/>
-        <c:axId val="524907264"/>
+        <c:axId val="541841280"/>
+        <c:axId val="541826048"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9558,7 +9692,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9660,6 +9794,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9669,7 +9806,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -9771,6 +9908,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0.64600002765655518</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.66399997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9787,11 +9927,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="524899840"/>
-        <c:axId val="524901376"/>
+        <c:axId val="541711744"/>
+        <c:axId val="541824512"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="524899840"/>
+        <c:axId val="541711744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9834,14 +9974,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="524901376"/>
+        <c:crossAx val="541824512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="524901376"/>
+        <c:axId val="541824512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9892,12 +10032,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="524899840"/>
+        <c:crossAx val="541711744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="524907264"/>
+        <c:axId val="541826048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9934,12 +10074,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="524908800"/>
+        <c:crossAx val="541841280"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="524908800"/>
+        <c:axId val="541841280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9948,7 +10088,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="524907264"/>
+        <c:crossAx val="541826048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10127,7 +10267,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10229,6 +10369,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10238,7 +10381,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10339,7 +10482,10 @@
                   <c:v>8096885.6651208382</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>9740682.043291945</c:v>
+                  <c:v>9719316.0158320218</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>10087306.921088118</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10382,7 +10528,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10484,6 +10630,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10493,7 +10642,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10594,7 +10743,10 @@
                   <c:v>8009431.9974614866</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>9753660.3265463263</c:v>
+                  <c:v>9732294.2990864031</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>10371462.874255572</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10637,7 +10789,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10739,6 +10891,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10748,7 +10903,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10850,6 +11005,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>12978.283254381269</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>284155.95316745341</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10871,11 +11029,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="525151232"/>
-        <c:axId val="525153408"/>
+        <c:axId val="542091904"/>
+        <c:axId val="545807360"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="525151232"/>
+        <c:axId val="542091904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10918,14 +11076,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="525153408"/>
+        <c:crossAx val="545807360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="525153408"/>
+        <c:axId val="545807360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10976,7 +11134,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="525151232"/>
+        <c:crossAx val="542091904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11167,7 +11325,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11268,7 +11426,10 @@
                   <c:v>1451514.0594314304</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1643796.3781711068</c:v>
+                  <c:v>1622430.3507111836</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>367990.90525609581</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11283,8 +11444,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="584874240"/>
-        <c:axId val="584872320"/>
+        <c:axId val="602471808"/>
+        <c:axId val="558280064"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -11309,7 +11470,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11411,6 +11572,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11420,7 +11584,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -11522,6 +11686,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0.64600002765655518</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.66399997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11538,11 +11705,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="556900352"/>
-        <c:axId val="556902656"/>
+        <c:axId val="558276608"/>
+        <c:axId val="558278144"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="556900352"/>
+        <c:axId val="558276608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11585,14 +11752,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="556902656"/>
+        <c:crossAx val="558278144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="556902656"/>
+        <c:axId val="558278144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11643,12 +11810,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="556900352"/>
+        <c:crossAx val="558276608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="584872320"/>
+        <c:axId val="558280064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11685,12 +11852,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="584874240"/>
+        <c:crossAx val="602471808"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="584874240"/>
+        <c:axId val="602471808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11699,7 +11866,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="584872320"/>
+        <c:crossAx val="558280064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11878,7 +12045,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11980,6 +12147,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11989,7 +12159,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12091,6 +12261,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>8261678.082748753</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8546013.222412454</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12133,7 +12306,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -12235,6 +12408,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12244,7 +12420,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12346,6 +12522,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>7529912.3139164355</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8024058.6258675689</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12388,7 +12567,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -12490,6 +12669,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12499,7 +12681,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12601,6 +12783,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-731765.76883231755</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-521954.59654488508</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12622,11 +12807,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="461701120"/>
-        <c:axId val="461702656"/>
+        <c:axId val="627713536"/>
+        <c:axId val="627715072"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="461701120"/>
+        <c:axId val="627713536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12669,14 +12854,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461702656"/>
+        <c:crossAx val="627715072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="461702656"/>
+        <c:axId val="627715072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12727,7 +12912,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461701120"/>
+        <c:crossAx val="627713536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13579,7 +13764,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG36"/>
+  <dimension ref="A1:AG37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15120,6 +15305,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="37" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="32">
+        <v>45412</v>
+      </c>
+      <c r="B37" s="31">
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="C37" s="31">
+        <v>18.11000061</v>
+      </c>
+      <c r="D37" s="29">
+        <v>26.594314351352136</v>
+      </c>
+      <c r="E37" s="29">
+        <v>284335.13966370182</v>
+      </c>
+      <c r="F37" s="30">
+        <v>428215.58808091015</v>
+      </c>
+      <c r="G37" s="30">
+        <v>11894180.072709618</v>
+      </c>
+      <c r="H37" s="30">
+        <v>7897735.2676850744</v>
+      </c>
+      <c r="I37" s="30">
+        <v>8413009.3176757134</v>
+      </c>
+      <c r="J37" s="30">
+        <v>7897735.2676850744</v>
+      </c>
+      <c r="K37" s="30">
+        <v>-515274.04999063909</v>
+      </c>
+      <c r="L37" s="29">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -15136,7 +15359,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH36"/>
+  <dimension ref="A1:AH37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15177,7 +15400,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>2</v>
@@ -17064,6 +17287,56 @@
       </c>
       <c r="P36" s="1">
         <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="15">
+        <v>45412</v>
+      </c>
+      <c r="B37" s="31">
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="C37" s="16">
+        <v>18.11000061</v>
+      </c>
+      <c r="D37" s="17">
+        <v>26.594314351352136</v>
+      </c>
+      <c r="E37" s="17">
+        <v>270118.38268051669</v>
+      </c>
+      <c r="F37" s="18">
+        <v>406804.8086768646</v>
+      </c>
+      <c r="G37" s="18">
+        <v>13932868.24310226</v>
+      </c>
+      <c r="H37" s="18">
+        <v>9251424.1613033079</v>
+      </c>
+      <c r="I37" s="18">
+        <v>9976878.0803632792</v>
+      </c>
+      <c r="J37" s="18">
+        <v>9251424.1613033079</v>
+      </c>
+      <c r="K37" s="18">
+        <v>-725453.91905997135</v>
+      </c>
+      <c r="L37" s="17">
+        <v>0</v>
+      </c>
+      <c r="M37" s="22">
+        <v>1.5211844793302065E-2</v>
+      </c>
+      <c r="N37" s="22">
+        <v>3.4980590233919424E-2</v>
+      </c>
+      <c r="O37" s="22">
+        <v>43.48652979146042</v>
+      </c>
+      <c r="P37" s="1">
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>
@@ -17082,7 +17355,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:AH36"/>
+  <dimension ref="A1:AH37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19012,6 +19285,56 @@
         <v>2</v>
       </c>
     </row>
+    <row r="37" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="15">
+        <v>45412</v>
+      </c>
+      <c r="B37" s="31">
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="C37" s="16">
+        <v>18.11000061</v>
+      </c>
+      <c r="D37" s="17">
+        <v>26.594314351352136</v>
+      </c>
+      <c r="E37" s="17">
+        <v>2291769.1059681228</v>
+      </c>
+      <c r="F37" s="18">
+        <v>3451459.6283052494</v>
+      </c>
+      <c r="G37" s="18">
+        <v>126264948.32107857</v>
+      </c>
+      <c r="H37" s="18">
+        <v>83839922.494181752</v>
+      </c>
+      <c r="I37" s="18">
+        <v>88765552.449594527</v>
+      </c>
+      <c r="J37" s="18">
+        <v>83839922.494181752</v>
+      </c>
+      <c r="K37" s="18">
+        <v>-4925629.9554127753</v>
+      </c>
+      <c r="L37" s="17">
+        <v>0</v>
+      </c>
+      <c r="M37" s="22">
+        <v>1.5211844793302065E-2</v>
+      </c>
+      <c r="N37" s="22">
+        <v>3.4980590233919424E-2</v>
+      </c>
+      <c r="O37" s="22">
+        <v>43.48652979146042</v>
+      </c>
+      <c r="P37" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -19028,7 +19351,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AJ36"/>
+  <dimension ref="A1:AJ37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19069,22 +19392,22 @@
   <sheetData>
     <row r="1" spans="1:36" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G1" s="40" t="s">
         <v>5</v>
@@ -21126,10 +21449,10 @@
         <v>0.64600002765655518</v>
       </c>
       <c r="C36" s="16">
-        <v>17.659999849999998</v>
+        <v>17.700000760000002</v>
       </c>
       <c r="D36" s="17">
-        <v>26.839619570961851</v>
+        <v>26.839674744630816</v>
       </c>
       <c r="E36" s="17">
         <v>8545319</v>
@@ -21138,22 +21461,22 @@
         <v>4423306.3268190296</v>
       </c>
       <c r="G36" s="17">
-        <v>1643796.3781711068</v>
+        <v>1622430.3507111836</v>
       </c>
       <c r="H36" s="18">
-        <v>2544576.3278589649</v>
+        <v>2511501.9833617499</v>
       </c>
       <c r="I36" s="18">
-        <v>15098544.750731565</v>
+        <v>15065470.40623435</v>
       </c>
       <c r="J36" s="18">
-        <v>9753660.3265463263</v>
+        <v>9732294.2990864031</v>
       </c>
       <c r="K36" s="18">
-        <v>9740682.043291945</v>
+        <v>9719316.0158320218</v>
       </c>
       <c r="L36" s="18">
-        <v>9753660.3265463263</v>
+        <v>9732294.2990864031</v>
       </c>
       <c r="M36" s="18">
         <v>12978.283254381269</v>
@@ -21172,6 +21495,62 @@
       </c>
       <c r="R36" s="1">
         <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="15">
+        <v>45412</v>
+      </c>
+      <c r="B37" s="31">
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="C37" s="16">
+        <v>18.11000061</v>
+      </c>
+      <c r="D37" s="17">
+        <v>26.594314351352136</v>
+      </c>
+      <c r="E37" s="17">
+        <v>5195700</v>
+      </c>
+      <c r="F37" s="17">
+        <v>4505504.5858242754</v>
+      </c>
+      <c r="G37" s="17">
+        <v>367990.90525609581</v>
+      </c>
+      <c r="H37" s="18">
+        <v>554203.19165982469</v>
+      </c>
+      <c r="I37" s="18">
+        <v>15619673.597894175</v>
+      </c>
+      <c r="J37" s="18">
+        <v>10371462.874255572</v>
+      </c>
+      <c r="K37" s="18">
+        <v>10087306.921088118</v>
+      </c>
+      <c r="L37" s="18">
+        <v>10371462.874255572</v>
+      </c>
+      <c r="M37" s="18">
+        <v>284155.95316745341</v>
+      </c>
+      <c r="N37" s="17">
+        <v>0</v>
+      </c>
+      <c r="O37" s="22">
+        <v>1.5211844793302065E-2</v>
+      </c>
+      <c r="P37" s="22">
+        <v>3.4980590233919424E-2</v>
+      </c>
+      <c r="Q37" s="22">
+        <v>43.48652979146042</v>
+      </c>
+      <c r="R37" s="1">
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>
@@ -21190,7 +21569,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AJ36"/>
+  <dimension ref="A1:AJ37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -21231,16 +21610,16 @@
   <sheetData>
     <row r="1" spans="1:36" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="E1" s="40" t="s">
         <v>5</v>
@@ -21267,19 +21646,19 @@
         <v>12</v>
       </c>
       <c r="M1" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="48" t="s">
+      <c r="O1" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="48" t="s">
+      <c r="P1" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="48" t="s">
+      <c r="Q1" s="11" t="s">
         <v>31</v>
-      </c>
-      <c r="Q1" s="11" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -23238,6 +23617,59 @@
         <v>24.637298119742262</v>
       </c>
       <c r="Q36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="15">
+        <v>45412</v>
+      </c>
+      <c r="B37" s="31">
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="C37" s="16">
+        <v>18.11000061</v>
+      </c>
+      <c r="D37" s="17">
+        <v>26.594314351352136</v>
+      </c>
+      <c r="E37" s="17">
+        <v>284335.13966370182</v>
+      </c>
+      <c r="F37" s="18">
+        <v>428215.58808091015</v>
+      </c>
+      <c r="G37" s="18">
+        <v>12084426.101309713</v>
+      </c>
+      <c r="H37" s="18">
+        <v>8024058.6258675689</v>
+      </c>
+      <c r="I37" s="18">
+        <v>8546013.222412454</v>
+      </c>
+      <c r="J37" s="18">
+        <v>8024058.6258675689</v>
+      </c>
+      <c r="K37" s="18">
+        <v>-521954.59654488508</v>
+      </c>
+      <c r="L37" s="17">
+        <v>0</v>
+      </c>
+      <c r="M37" s="21">
+        <v>46.808513876214093</v>
+      </c>
+      <c r="N37" s="21">
+        <v>31.203239445701929</v>
+      </c>
+      <c r="O37" s="21">
+        <v>25.589249339099069</v>
+      </c>
+      <c r="P37" s="21">
+        <v>42.431219658907651</v>
+      </c>
+      <c r="Q37" s="1">
         <v>1</v>
       </c>
     </row>
@@ -23257,7 +23689,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AJ36"/>
+  <dimension ref="A1:AJ37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -23298,22 +23730,22 @@
   <sheetData>
     <row r="1" spans="1:36" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G1" s="40" t="s">
         <v>5</v>
@@ -24975,10 +25407,10 @@
         <v>0.64600002765655518</v>
       </c>
       <c r="C36" s="16">
-        <v>17.659999849999998</v>
+        <v>17.700000760000002</v>
       </c>
       <c r="D36" s="17">
-        <v>26.839619570961851</v>
+        <v>26.839674744630816</v>
       </c>
       <c r="E36" s="17">
         <v>8545319</v>
@@ -24987,27 +25419,71 @@
         <v>4423306.3268190296</v>
       </c>
       <c r="G36" s="17">
-        <v>5902723.3579780655</v>
+        <v>5825999.8957356149</v>
       </c>
       <c r="H36" s="18">
-        <v>9137342.2682208288</v>
+        <v>9018575.3038899209</v>
       </c>
       <c r="I36" s="18">
-        <v>97971519.273712695</v>
+        <v>97852752.309381783</v>
       </c>
       <c r="J36" s="18">
-        <v>63289604.160373129</v>
+        <v>63212880.698130675</v>
       </c>
       <c r="K36" s="18">
-        <v>62630233.545065001</v>
+        <v>62553510.082822546</v>
       </c>
       <c r="L36" s="18">
-        <v>63289604.160373129</v>
+        <v>63212880.698130675</v>
       </c>
       <c r="M36" s="18">
         <v>659370.6153081283</v>
       </c>
       <c r="N36" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="15">
+        <v>45412</v>
+      </c>
+      <c r="B37" s="31">
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="C37" s="16">
+        <v>18.11000061</v>
+      </c>
+      <c r="D37" s="17">
+        <v>26.594314351352136</v>
+      </c>
+      <c r="E37" s="17">
+        <v>5195700</v>
+      </c>
+      <c r="F37" s="17">
+        <v>4505504.5858242754</v>
+      </c>
+      <c r="G37" s="17">
+        <v>2781940.8148546959</v>
+      </c>
+      <c r="H37" s="18">
+        <v>4189670.061351785</v>
+      </c>
+      <c r="I37" s="18">
+        <v>102042422.37073357</v>
+      </c>
+      <c r="J37" s="18">
+        <v>67756165.875313297</v>
+      </c>
+      <c r="K37" s="18">
+        <v>65335450.897677243</v>
+      </c>
+      <c r="L37" s="18">
+        <v>67756165.875313297</v>
+      </c>
+      <c r="M37" s="18">
+        <v>2420714.9776360542</v>
+      </c>
+      <c r="N37" s="17">
         <v>0</v>
       </c>
     </row>
@@ -25027,7 +25503,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AG36"/>
+  <dimension ref="A1:AG37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -25068,7 +25544,7 @@
   <sheetData>
     <row r="1" spans="1:33" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>2</v>
@@ -26565,6 +27041,44 @@
         <v>-5139123.3329786062</v>
       </c>
       <c r="L36" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="15">
+        <v>45412</v>
+      </c>
+      <c r="B37" s="31">
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="C37" s="16">
+        <v>18.11000061</v>
+      </c>
+      <c r="D37" s="17">
+        <v>26.594314351352136</v>
+      </c>
+      <c r="E37" s="17">
+        <v>2412388.5325980242</v>
+      </c>
+      <c r="F37" s="18">
+        <v>3633115.398216052</v>
+      </c>
+      <c r="G37" s="18">
+        <v>107468334.93437672</v>
+      </c>
+      <c r="H37" s="18">
+        <v>71358971.680446684</v>
+      </c>
+      <c r="I37" s="18">
+        <v>74629066.557660893</v>
+      </c>
+      <c r="J37" s="18">
+        <v>71358971.680446684</v>
+      </c>
+      <c r="K37" s="18">
+        <v>-3270094.8772142082</v>
+      </c>
+      <c r="L37" s="17">
         <v>0</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(RSI&KDJ)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(RSI&KDJ)cn.xlsx
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="31">
   <si>
     <t>in practice</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -145,6 +145,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>深创100ETF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>SMA之MAX</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -161,27 +169,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>深创100ETF</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>成交量</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>成交均量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PE均值</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1422,11 +1414,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="501757824"/>
-        <c:axId val="501759360"/>
+        <c:axId val="709995904"/>
+        <c:axId val="710001792"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="501757824"/>
+        <c:axId val="709995904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1469,14 +1461,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501759360"/>
+        <c:crossAx val="710001792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="501759360"/>
+        <c:axId val="710001792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1527,7 +1519,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501757824"/>
+        <c:crossAx val="709995904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1813,10 +1805,10 @@
                   <c:v>393870.26905276586</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>564695.41176478763</c:v>
+                  <c:v>677634.49411774508</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>439249.35924513621</c:v>
+                  <c:v>366041.1327042802</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>329957.88035550242</c:v>
@@ -1837,8 +1829,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="501790208"/>
-        <c:axId val="501788672"/>
+        <c:axId val="509527552"/>
+        <c:axId val="509526016"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2098,11 +2090,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="501728000"/>
-        <c:axId val="501729536"/>
+        <c:axId val="509518592"/>
+        <c:axId val="509520128"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="501728000"/>
+        <c:axId val="509518592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2145,14 +2137,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501729536"/>
+        <c:crossAx val="509520128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="501729536"/>
+        <c:axId val="509520128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2203,12 +2195,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501728000"/>
+        <c:crossAx val="509518592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="501788672"/>
+        <c:axId val="509526016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2245,12 +2237,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501790208"/>
+        <c:crossAx val="509527552"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="501790208"/>
+        <c:axId val="509527552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2259,7 +2251,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="501788672"/>
+        <c:crossAx val="509526016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3200,11 +3192,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="504845056"/>
-        <c:axId val="504846592"/>
+        <c:axId val="509600512"/>
+        <c:axId val="509602048"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="504845056"/>
+        <c:axId val="509600512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3247,14 +3239,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504846592"/>
+        <c:crossAx val="509602048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="504846592"/>
+        <c:axId val="509602048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3305,7 +3297,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504845056"/>
+        <c:crossAx val="509600512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3615,8 +3607,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="504923264"/>
-        <c:axId val="504868224"/>
+        <c:axId val="511173760"/>
+        <c:axId val="511171968"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3876,11 +3868,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="504865152"/>
-        <c:axId val="504866688"/>
+        <c:axId val="511168896"/>
+        <c:axId val="511170432"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="504865152"/>
+        <c:axId val="511168896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3923,14 +3915,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504866688"/>
+        <c:crossAx val="511170432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="504866688"/>
+        <c:axId val="511170432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3981,12 +3973,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504865152"/>
+        <c:crossAx val="511168896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="504868224"/>
+        <c:axId val="511171968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4023,12 +4015,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504923264"/>
+        <c:crossAx val="511173760"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="504923264"/>
+        <c:axId val="511173760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4037,7 +4029,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="504868224"/>
+        <c:crossAx val="511171968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4978,11 +4970,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="505176448"/>
-        <c:axId val="505177984"/>
+        <c:axId val="511209856"/>
+        <c:axId val="511211392"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="505176448"/>
+        <c:axId val="511209856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5025,14 +5017,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="505177984"/>
+        <c:crossAx val="511211392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="505177984"/>
+        <c:axId val="511211392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5083,7 +5075,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="505176448"/>
+        <c:crossAx val="511209856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5393,8 +5385,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="505213696"/>
-        <c:axId val="505211904"/>
+        <c:axId val="511402752"/>
+        <c:axId val="511400960"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5654,11 +5646,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="505208832"/>
-        <c:axId val="505210368"/>
+        <c:axId val="511397888"/>
+        <c:axId val="511399424"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="505208832"/>
+        <c:axId val="511397888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5701,14 +5693,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="505210368"/>
+        <c:crossAx val="511399424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="505210368"/>
+        <c:axId val="511399424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5759,12 +5751,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="505208832"/>
+        <c:crossAx val="511397888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="505211904"/>
+        <c:axId val="511400960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5801,12 +5793,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="505213696"/>
+        <c:crossAx val="511402752"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="505213696"/>
+        <c:axId val="511402752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5815,7 +5807,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="505211904"/>
+        <c:crossAx val="511400960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6096,8 +6088,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="536361600"/>
-        <c:axId val="536359680"/>
+        <c:axId val="710136576"/>
+        <c:axId val="710126592"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6357,11 +6349,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="536355968"/>
-        <c:axId val="536357888"/>
+        <c:axId val="710106496"/>
+        <c:axId val="710124672"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="536355968"/>
+        <c:axId val="710106496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6404,14 +6396,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="536357888"/>
+        <c:crossAx val="710124672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="536357888"/>
+        <c:axId val="710124672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6462,12 +6454,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="536355968"/>
+        <c:crossAx val="710106496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="536359680"/>
+        <c:axId val="710126592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6504,12 +6496,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="536361600"/>
+        <c:crossAx val="710136576"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="536361600"/>
+        <c:axId val="710136576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6518,7 +6510,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="536359680"/>
+        <c:crossAx val="710126592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6906,16 +6898,16 @@
                   <c:v>8138561.0247232979</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>8675021.6658998467</c:v>
+                  <c:v>8703256.4364880864</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>9041062.798604127</c:v>
+                  <c:v>9435338.701896647</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>9700978.559315132</c:v>
+                  <c:v>9748798.6882343739</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>9971096.9423288945</c:v>
+                  <c:v>10018917.071248136</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7167,16 +7159,16 @@
                   <c:v>7072800.7878068425</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6688152.5560559547</c:v>
+                  <c:v>6716387.3266441943</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>7972175.6908059875</c:v>
+                  <c:v>8370326.9559438992</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8732056.2377725523</c:v>
+                  <c:v>8788744.2309180368</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>9245481.9634682313</c:v>
+                  <c:v>9303749.493506128</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7431,13 +7423,13 @@
                   <c:v>-1986869.109843892</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-1068887.1077981396</c:v>
+                  <c:v>-1065011.7459527478</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-968922.32154257968</c:v>
+                  <c:v>-960054.45731633715</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-725614.97886066325</c:v>
+                  <c:v>-715167.57774200849</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7459,11 +7451,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="536402944"/>
-        <c:axId val="536404736"/>
+        <c:axId val="710183552"/>
+        <c:axId val="710193536"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="536402944"/>
+        <c:axId val="710183552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7506,14 +7498,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="536404736"/>
+        <c:crossAx val="710193536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="536404736"/>
+        <c:axId val="710193536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7564,7 +7556,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="536402944"/>
+        <c:crossAx val="710183552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7859,13 +7851,13 @@
                   <c:v>374176.75560012757</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>536460.6411765482</c:v>
+                  <c:v>564695.41176478763</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>366041.1327042802</c:v>
+                  <c:v>732082.2654085604</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>659915.76071100484</c:v>
+                  <c:v>313459.98633772728</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>270118.38301376312</c:v>
@@ -7883,8 +7875,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="565990528"/>
-        <c:axId val="565972352"/>
+        <c:axId val="710292224"/>
+        <c:axId val="710274048"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8144,11 +8136,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="565968896"/>
-        <c:axId val="565970432"/>
+        <c:axId val="710263936"/>
+        <c:axId val="710265472"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="565968896"/>
+        <c:axId val="710263936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8191,14 +8183,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="565970432"/>
+        <c:crossAx val="710265472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="565970432"/>
+        <c:axId val="710265472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8249,12 +8241,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="565968896"/>
+        <c:crossAx val="710263936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="565972352"/>
+        <c:axId val="710274048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8291,12 +8283,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="565990528"/>
+        <c:crossAx val="710292224"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="565990528"/>
+        <c:axId val="710292224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8305,7 +8297,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="565972352"/>
+        <c:crossAx val="710274048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8693,16 +8685,16 @@
                   <c:v>70425002.030321524</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>76839260.348115087</c:v>
+                  <c:v>77176852.891156852</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>80362938.941461787</c:v>
+                  <c:v>84224210.077850267</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>86394353.85352093</c:v>
+                  <c:v>87089132.161078364</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>88686122.963730097</c:v>
+                  <c:v>89380901.271287531</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8954,16 +8946,16 @@
                   <c:v>62176292.161664203</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>60493173.483548306</c:v>
+                  <c:v>60830766.026590072</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>72319839.193157211</c:v>
+                  <c:v>76227446.575009555</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>79258087.766109943</c:v>
+                  <c:v>80048200.629234716</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>83758279.977971211</c:v>
+                  <c:v>84570408.30411078</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9218,13 +9210,13 @@
                   <c:v>-16346086.864566781</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-8043099.7483045757</c:v>
+                  <c:v>-7996763.5028407127</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-7136266.0874109864</c:v>
+                  <c:v>-7040931.5318436474</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-4927842.9857588857</c:v>
+                  <c:v>-4810492.9671767503</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9246,11 +9238,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="566178176"/>
-        <c:axId val="566180096"/>
+        <c:axId val="710417024"/>
+        <c:axId val="710419200"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="566178176"/>
+        <c:axId val="710417024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9293,14 +9285,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="566180096"/>
+        <c:crossAx val="710419200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="566180096"/>
+        <c:axId val="710419200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9351,7 +9343,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="566178176"/>
+        <c:crossAx val="710417024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9646,13 +9638,13 @@
                   <c:v>3736412.850356312</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6414258.3177935686</c:v>
+                  <c:v>6751850.8608353361</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3523678.5933467057</c:v>
+                  <c:v>7047357.1866934113</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>6031414.9120591385</c:v>
+                  <c:v>2864922.0832280908</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>2291769.1102091731</c:v>
@@ -9670,8 +9662,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="566797440"/>
-        <c:axId val="566778880"/>
+        <c:axId val="710628480"/>
+        <c:axId val="710565248"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9931,11 +9923,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="566266496"/>
-        <c:axId val="566776192"/>
+        <c:axId val="710561792"/>
+        <c:axId val="710563328"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="566266496"/>
+        <c:axId val="710561792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9978,14 +9970,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="566776192"/>
+        <c:crossAx val="710563328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="566776192"/>
+        <c:axId val="710563328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10036,12 +10028,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="566266496"/>
+        <c:crossAx val="710561792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="566778880"/>
+        <c:axId val="710565248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10078,12 +10070,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="566797440"/>
+        <c:crossAx val="710628480"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="566797440"/>
+        <c:axId val="710628480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10092,7 +10084,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="566778880"/>
+        <c:crossAx val="710565248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10480,16 +10472,16 @@
                   <c:v>4353228.4658365929</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6645371.5684065055</c:v>
+                  <c:v>6766010.6790680792</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8096885.6294809394</c:v>
+                  <c:v>9669038.8012169469</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>9719315.9816777222</c:v>
+                  <c:v>10439693.218510419</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>10087306.887614807</c:v>
+                  <c:v>10807684.124447504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10741,16 +10733,16 @@
                   <c:v>3994518.0027012783</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5766444.8450168921</c:v>
+                  <c:v>5887083.9556784667</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8009431.9682184579</c:v>
+                  <c:v>9598143.4542874508</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>9732294.2709622905</c:v>
+                  <c:v>10489151.009302735</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>10371462.846028805</c:v>
+                  <c:v>11149408.408900628</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11002,16 +10994,16 @@
                   <c:v>-358710.46313531464</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-878926.72338961344</c:v>
+                  <c:v>-878926.72338961251</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-87453.661262481473</c:v>
+                  <c:v>-70895.346929496154</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>12978.28928456828</c:v>
+                  <c:v>49457.790792316198</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>284155.95841399767</c:v>
+                  <c:v>341724.28445312381</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11033,11 +11025,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="567255808"/>
-        <c:axId val="567257344"/>
+        <c:axId val="711354624"/>
+        <c:axId val="711386240"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="567255808"/>
+        <c:axId val="711354624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11080,14 +11072,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="567257344"/>
+        <c:crossAx val="711386240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="567257344"/>
+        <c:axId val="711386240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11138,7 +11130,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="567255808"/>
+        <c:crossAx val="711354624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11424,13 +11416,13 @@
                   <c:v>705650.06861683156</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2292143.1025699121</c:v>
+                  <c:v>2412782.2132314867</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1451514.0610744336</c:v>
+                  <c:v>2903028.1221488672</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1622430.3521967828</c:v>
+                  <c:v>770654.41729347187</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>367990.90593708417</c:v>
@@ -11448,8 +11440,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="614482688"/>
-        <c:axId val="614476416"/>
+        <c:axId val="712365952"/>
+        <c:axId val="712364416"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -11709,11 +11701,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="613719040"/>
-        <c:axId val="614474496"/>
+        <c:axId val="712339840"/>
+        <c:axId val="712341760"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="613719040"/>
+        <c:axId val="712339840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11756,14 +11748,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="614474496"/>
+        <c:crossAx val="712341760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="614474496"/>
+        <c:axId val="712341760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11814,12 +11806,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="613719040"/>
+        <c:crossAx val="712339840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="614476416"/>
+        <c:axId val="712364416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11856,12 +11848,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="614482688"/>
+        <c:crossAx val="712365952"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="614482688"/>
+        <c:axId val="712365952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11870,7 +11862,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="614476416"/>
+        <c:crossAx val="712364416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12258,16 +12250,16 @@
                   <c:v>6924884.8052299339</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>7489580.2169947214</c:v>
+                  <c:v>7602519.2993476791</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>7928829.5762398578</c:v>
+                  <c:v>7968560.4320519594</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8258787.4565953603</c:v>
+                  <c:v>8298518.3124074619</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8543122.5966098476</c:v>
+                  <c:v>8582853.4524219502</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12519,16 +12511,16 @@
                   <c:v>6092604.9299462289</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5863844.8735618722</c:v>
+                  <c:v>5976783.9559148299</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>7107935.9303612858</c:v>
+                  <c:v>7163168.2335549518</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>7527021.7130052736</c:v>
+                  <c:v>7582946.5856551696</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8021087.4824880334</c:v>
+                  <c:v>8078570.6286743972</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12783,13 +12775,13 @@
                   <c:v>-1625735.3434328493</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-820893.64587857202</c:v>
+                  <c:v>-805392.1984970076</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-731765.7435900867</c:v>
+                  <c:v>-715571.72675229236</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-522035.11412181426</c:v>
+                  <c:v>-504282.82374755293</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12811,11 +12803,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="614659584"/>
-        <c:axId val="614678528"/>
+        <c:axId val="509490304"/>
+        <c:axId val="509491840"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="614659584"/>
+        <c:axId val="509490304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12858,14 +12850,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="614678528"/>
+        <c:crossAx val="509491840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="614678528"/>
+        <c:axId val="509491840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12916,7 +12908,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="614659584"/>
+        <c:crossAx val="509490304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15404,10 +15396,10 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>3</v>
@@ -15440,16 +15432,16 @@
         <v>12</v>
       </c>
       <c r="M1" s="44" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N1" s="44" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O1" s="48" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -17131,13 +17123,13 @@
         <v>0</v>
       </c>
       <c r="M33" s="22">
-        <v>6.6024694432251473E-3</v>
+        <v>5.5020578693542902E-3</v>
       </c>
       <c r="N33" s="22">
-        <v>2.6234933656491849E-2</v>
+        <v>2.2862451707354861E-2</v>
       </c>
       <c r="O33" s="22">
-        <v>25.166709127893537</v>
+        <v>24.065913576470347</v>
       </c>
       <c r="P33" s="1">
         <v>0.95</v>
@@ -17157,22 +17149,22 @@
         <v>27.336624376243282</v>
       </c>
       <c r="E34" s="17">
-        <v>536460.6411765482</v>
+        <v>564695.41176478763</v>
       </c>
       <c r="F34" s="18">
-        <v>956257.84529071697</v>
+        <v>1006587.2055691759</v>
       </c>
       <c r="G34" s="18">
-        <v>11921840.786312018</v>
+        <v>11972170.146590477</v>
       </c>
       <c r="H34" s="18">
-        <v>6688152.5560559547</v>
+        <v>6716387.3266441943</v>
       </c>
       <c r="I34" s="18">
-        <v>8675021.6658998467</v>
+        <v>8703256.4364880864</v>
       </c>
       <c r="J34" s="18">
-        <v>6688152.5560559547</v>
+        <v>6716387.3266441943</v>
       </c>
       <c r="K34" s="18">
         <v>-1986869.109843892</v>
@@ -17181,16 +17173,16 @@
         <v>0</v>
       </c>
       <c r="M34" s="22">
-        <v>5.5020578693542902E-3</v>
+        <v>4.5850482244619087E-3</v>
       </c>
       <c r="N34" s="22">
-        <v>2.2862451707354861E-2</v>
+        <v>3.3052041658950905E-2</v>
       </c>
       <c r="O34" s="22">
-        <v>24.065913576470347</v>
+        <v>13.872208778425705</v>
       </c>
       <c r="P34" s="1">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
@@ -17207,40 +17199,40 @@
         <v>27.106454818762419</v>
       </c>
       <c r="E35" s="17">
-        <v>366041.1327042802</v>
+        <v>732082.2654085604</v>
       </c>
       <c r="F35" s="18">
-        <v>573732.17263077828</v>
+        <v>1147464.3452615566</v>
       </c>
       <c r="G35" s="18">
-        <v>12495572.958942795</v>
+        <v>13119634.491852034</v>
       </c>
       <c r="H35" s="18">
-        <v>7972175.6908059875</v>
+        <v>8370326.9559438992</v>
       </c>
       <c r="I35" s="18">
-        <v>9041062.798604127</v>
+        <v>9435338.701896647</v>
       </c>
       <c r="J35" s="18">
-        <v>7972175.6908059875</v>
+        <v>8370326.9559438992</v>
       </c>
       <c r="K35" s="18">
-        <v>-1068887.1077981396</v>
+        <v>-1065011.7459527478</v>
       </c>
       <c r="L35" s="17">
         <v>0</v>
       </c>
       <c r="M35" s="22">
-        <v>4.5850482244619087E-3</v>
+        <v>1.6654210509469802E-2</v>
       </c>
       <c r="N35" s="22">
-        <v>3.3052041658950905E-2</v>
+        <v>4.0376705038210635E-2</v>
       </c>
       <c r="O35" s="22">
-        <v>13.872208778425705</v>
+        <v>41.247076733252584</v>
       </c>
       <c r="P35" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
@@ -17257,40 +17249,40 @@
         <v>26.839674750359887</v>
       </c>
       <c r="E36" s="17">
-        <v>659915.76071100484</v>
+        <v>313459.98633772728</v>
       </c>
       <c r="F36" s="18">
-        <v>1021541.3815149989</v>
+        <v>485232.15621962445</v>
       </c>
       <c r="G36" s="18">
-        <v>13517114.340457793</v>
+        <v>13604866.648071658</v>
       </c>
       <c r="H36" s="18">
-        <v>8732056.2377725523</v>
+        <v>8788744.2309180368</v>
       </c>
       <c r="I36" s="18">
-        <v>9700978.559315132</v>
+        <v>9748798.6882343739</v>
       </c>
       <c r="J36" s="18">
-        <v>8732056.2377725523</v>
+        <v>8788744.2309180368</v>
       </c>
       <c r="K36" s="18">
-        <v>-968922.32154257968</v>
+        <v>-960054.45731633715</v>
       </c>
       <c r="L36" s="17">
         <v>0</v>
       </c>
       <c r="M36" s="22">
-        <v>1.6654210509469802E-2</v>
+        <v>1.5211844793302065E-2</v>
       </c>
       <c r="N36" s="22">
-        <v>4.0376705038210635E-2</v>
+        <v>3.4980590233919424E-2</v>
       </c>
       <c r="O36" s="22">
-        <v>41.247076733252584</v>
+        <v>43.48652979146042</v>
       </c>
       <c r="P36" s="1">
-        <v>2</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
@@ -17313,31 +17305,31 @@
         <v>406804.80917874177</v>
       </c>
       <c r="G37" s="18">
-        <v>13923919.149636535</v>
+        <v>14011671.4572504</v>
       </c>
       <c r="H37" s="18">
-        <v>9245481.9634682313</v>
+        <v>9303749.493506128</v>
       </c>
       <c r="I37" s="18">
-        <v>9971096.9423288945</v>
+        <v>10018917.071248136</v>
       </c>
       <c r="J37" s="18">
-        <v>9245481.9634682313</v>
+        <v>9303749.493506128</v>
       </c>
       <c r="K37" s="18">
-        <v>-725614.97886066325</v>
+        <v>-715167.57774200849</v>
       </c>
       <c r="L37" s="17">
         <v>0</v>
       </c>
       <c r="M37" s="22">
-        <v>1.5211844793302065E-2</v>
+        <v>1.5676528506264293E-2</v>
       </c>
       <c r="N37" s="22">
-        <v>3.4980590233919424E-2</v>
+        <v>3.2150483040112095E-2</v>
       </c>
       <c r="O37" s="22">
-        <v>43.48652979146042</v>
+        <v>48.759853737518327</v>
       </c>
       <c r="P37" s="1">
         <v>0.95</v>
@@ -17400,7 +17392,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>2</v>
@@ -17436,16 +17428,16 @@
         <v>12</v>
       </c>
       <c r="M1" s="44" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N1" s="44" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O1" s="48" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -19127,13 +19119,13 @@
         <v>0</v>
       </c>
       <c r="M33" s="22">
-        <v>6.6024694432251473E-3</v>
+        <v>5.5020578693542902E-3</v>
       </c>
       <c r="N33" s="22">
-        <v>2.6234933656491849E-2</v>
+        <v>2.2862451707354861E-2</v>
       </c>
       <c r="O33" s="22">
-        <v>25.166709127893537</v>
+        <v>24.065913576470347</v>
       </c>
       <c r="P33" s="1">
         <v>0.95</v>
@@ -19153,22 +19145,22 @@
         <v>27.336624376243282</v>
       </c>
       <c r="E34" s="17">
-        <v>6414258.3177935686</v>
+        <v>6751850.8608353361</v>
       </c>
       <c r="F34" s="18">
-        <v>11433615.753541838</v>
+        <v>12035385.003728252</v>
       </c>
       <c r="G34" s="18">
-        <v>107830970.79276329</v>
+        <v>108432740.04294971</v>
       </c>
       <c r="H34" s="18">
-        <v>60493173.483548306</v>
+        <v>60830766.026590072</v>
       </c>
       <c r="I34" s="18">
-        <v>76839260.348115087</v>
+        <v>77176852.891156852</v>
       </c>
       <c r="J34" s="18">
-        <v>60493173.483548306</v>
+        <v>60830766.026590072</v>
       </c>
       <c r="K34" s="18">
         <v>-16346086.864566781</v>
@@ -19177,16 +19169,16 @@
         <v>0</v>
       </c>
       <c r="M34" s="22">
-        <v>5.5020578693542902E-3</v>
+        <v>4.5850482244619087E-3</v>
       </c>
       <c r="N34" s="22">
-        <v>2.2862451707354861E-2</v>
+        <v>3.3052041658950905E-2</v>
       </c>
       <c r="O34" s="22">
-        <v>24.065913576470347</v>
+        <v>13.872208778425705</v>
       </c>
       <c r="P34" s="1">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
@@ -19203,40 +19195,40 @@
         <v>27.106454818762419</v>
       </c>
       <c r="E35" s="17">
-        <v>3523678.5933467057</v>
+        <v>7047357.1866934113</v>
       </c>
       <c r="F35" s="18">
-        <v>5523007.1005343348</v>
+        <v>11046014.20106867</v>
       </c>
       <c r="G35" s="18">
-        <v>113353977.89329763</v>
+        <v>119478754.24401838</v>
       </c>
       <c r="H35" s="18">
-        <v>72319839.193157211</v>
+        <v>76227446.575009555</v>
       </c>
       <c r="I35" s="18">
-        <v>80362938.941461787</v>
+        <v>84224210.077850267</v>
       </c>
       <c r="J35" s="18">
-        <v>72319839.193157211</v>
+        <v>76227446.575009555</v>
       </c>
       <c r="K35" s="18">
-        <v>-8043099.7483045757</v>
+        <v>-7996763.5028407127</v>
       </c>
       <c r="L35" s="17">
         <v>0</v>
       </c>
       <c r="M35" s="22">
-        <v>4.5850482244619087E-3</v>
+        <v>1.6654210509469802E-2</v>
       </c>
       <c r="N35" s="22">
-        <v>3.3052041658950905E-2</v>
+        <v>4.0376705038210635E-2</v>
       </c>
       <c r="O35" s="22">
-        <v>13.872208778425705</v>
+        <v>41.247076733252584</v>
       </c>
       <c r="P35" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
@@ -19253,40 +19245,40 @@
         <v>26.839674750359887</v>
       </c>
       <c r="E36" s="17">
-        <v>6031414.9120591385</v>
+        <v>2864922.0832280908</v>
       </c>
       <c r="F36" s="18">
-        <v>9336555.1917061675</v>
+        <v>4434863.7160604298</v>
       </c>
       <c r="G36" s="18">
-        <v>122690533.08500379</v>
+        <v>123913617.96007881</v>
       </c>
       <c r="H36" s="18">
-        <v>79258087.766109943</v>
+        <v>80048200.629234716</v>
       </c>
       <c r="I36" s="18">
-        <v>86394353.85352093</v>
+        <v>87089132.161078364</v>
       </c>
       <c r="J36" s="18">
-        <v>79258087.766109943</v>
+        <v>80048200.629234716</v>
       </c>
       <c r="K36" s="18">
-        <v>-7136266.0874109864</v>
+        <v>-7040931.5318436474</v>
       </c>
       <c r="L36" s="17">
         <v>0</v>
       </c>
       <c r="M36" s="22">
-        <v>1.6654210509469802E-2</v>
+        <v>1.5211844793302065E-2</v>
       </c>
       <c r="N36" s="22">
-        <v>4.0376705038210635E-2</v>
+        <v>3.4980590233919424E-2</v>
       </c>
       <c r="O36" s="22">
-        <v>41.247076733252584</v>
+        <v>43.48652979146042</v>
       </c>
       <c r="P36" s="1">
-        <v>2</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
@@ -19309,31 +19301,31 @@
         <v>3451459.6346923732</v>
       </c>
       <c r="G37" s="18">
-        <v>126141992.71969616</v>
+        <v>127365077.59477118</v>
       </c>
       <c r="H37" s="18">
-        <v>83758279.977971211</v>
+        <v>84570408.30411078</v>
       </c>
       <c r="I37" s="18">
-        <v>88686122.963730097</v>
+        <v>89380901.271287531</v>
       </c>
       <c r="J37" s="18">
-        <v>83758279.977971211</v>
+        <v>84570408.30411078</v>
       </c>
       <c r="K37" s="18">
-        <v>-4927842.9857588857</v>
+        <v>-4810492.9671767503</v>
       </c>
       <c r="L37" s="17">
         <v>0</v>
       </c>
       <c r="M37" s="22">
-        <v>1.5211844793302065E-2</v>
+        <v>1.5676528506264293E-2</v>
       </c>
       <c r="N37" s="22">
-        <v>3.4980590233919424E-2</v>
+        <v>3.2150483040112095E-2</v>
       </c>
       <c r="O37" s="22">
-        <v>43.48652979146042</v>
+        <v>48.759853737518327</v>
       </c>
       <c r="P37" s="1">
         <v>0.95</v>
@@ -19408,10 +19400,10 @@
         <v>4</v>
       </c>
       <c r="E1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>25</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>26</v>
       </c>
       <c r="G1" s="40" t="s">
         <v>5</v>
@@ -19438,16 +19430,16 @@
         <v>12</v>
       </c>
       <c r="O1" s="44" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P1" s="44" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q1" s="48" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="R1" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -21321,13 +21313,13 @@
         <v>0</v>
       </c>
       <c r="O33" s="22">
-        <v>6.6024694432251473E-3</v>
+        <v>5.5020578693542902E-3</v>
       </c>
       <c r="P33" s="22">
-        <v>2.6234933656491849E-2</v>
+        <v>2.2862451707354861E-2</v>
       </c>
       <c r="Q33" s="22">
-        <v>25.166709127893537</v>
+        <v>24.065913576470347</v>
       </c>
       <c r="R33" s="1">
         <v>0.95</v>
@@ -21353,40 +21345,40 @@
         <v>4203114.608389196</v>
       </c>
       <c r="G34" s="17">
-        <v>2292143.1025699121</v>
+        <v>2412782.2132314867</v>
       </c>
       <c r="H34" s="18">
-        <v>4085816.6585237691</v>
+        <v>4300859.640551337</v>
       </c>
       <c r="I34" s="18">
-        <v>10278868.008639053</v>
+        <v>10493910.99066662</v>
       </c>
       <c r="J34" s="18">
-        <v>5766444.8450168921</v>
+        <v>5887083.9556784667</v>
       </c>
       <c r="K34" s="18">
-        <v>6645371.5684065055</v>
+        <v>6766010.6790680792</v>
       </c>
       <c r="L34" s="18">
-        <v>5766444.8450168921</v>
+        <v>5887083.9556784667</v>
       </c>
       <c r="M34" s="18">
-        <v>-878926.72338961344</v>
+        <v>-878926.72338961251</v>
       </c>
       <c r="N34" s="17">
         <v>0</v>
       </c>
       <c r="O34" s="22">
-        <v>5.5020578693542902E-3</v>
+        <v>4.5850482244619087E-3</v>
       </c>
       <c r="P34" s="22">
-        <v>2.2862451707354861E-2</v>
+        <v>3.3052041658950905E-2</v>
       </c>
       <c r="Q34" s="22">
-        <v>24.065913576470347</v>
+        <v>13.872208778425705</v>
       </c>
       <c r="R34" s="1">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
@@ -21409,40 +21401,40 @@
         <v>4305005.2464849772</v>
       </c>
       <c r="G35" s="17">
-        <v>1451514.0610744336</v>
+        <v>2903028.1221488672</v>
       </c>
       <c r="H35" s="18">
-        <v>2275100.3683980815</v>
+        <v>4550200.736796163</v>
       </c>
       <c r="I35" s="18">
-        <v>12553968.377037134</v>
+        <v>15044111.727462783</v>
       </c>
       <c r="J35" s="18">
-        <v>8009431.9682184579</v>
+        <v>9598143.4542874508</v>
       </c>
       <c r="K35" s="18">
-        <v>8096885.6294809394</v>
+        <v>9669038.8012169469</v>
       </c>
       <c r="L35" s="18">
-        <v>8009431.9682184579</v>
+        <v>9598143.4542874508</v>
       </c>
       <c r="M35" s="18">
-        <v>-87453.661262481473</v>
+        <v>-70895.346929496154</v>
       </c>
       <c r="N35" s="17">
         <v>0</v>
       </c>
       <c r="O35" s="22">
-        <v>4.5850482244619087E-3</v>
+        <v>1.6654210509469802E-2</v>
       </c>
       <c r="P35" s="22">
-        <v>3.3052041658950905E-2</v>
+        <v>4.0376705038210635E-2</v>
       </c>
       <c r="Q35" s="22">
-        <v>13.872208778425705</v>
+        <v>41.247076733252584</v>
       </c>
       <c r="R35" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
@@ -21465,40 +21457,40 @@
         <v>4423306.3268190296</v>
       </c>
       <c r="G36" s="17">
-        <v>1622430.3521967828</v>
+        <v>770654.41729347187</v>
       </c>
       <c r="H36" s="18">
-        <v>2511501.9856614391</v>
+        <v>1192963.4431891835</v>
       </c>
       <c r="I36" s="18">
-        <v>15065470.362698574</v>
+        <v>16237075.170651967</v>
       </c>
       <c r="J36" s="18">
-        <v>9732294.2709622905</v>
+        <v>10489151.009302735</v>
       </c>
       <c r="K36" s="18">
-        <v>9719315.9816777222</v>
+        <v>10439693.218510419</v>
       </c>
       <c r="L36" s="18">
-        <v>9732294.2709622905</v>
+        <v>10489151.009302735</v>
       </c>
       <c r="M36" s="18">
-        <v>12978.28928456828</v>
+        <v>49457.790792316198</v>
       </c>
       <c r="N36" s="17">
         <v>0</v>
       </c>
       <c r="O36" s="22">
-        <v>1.6654210509469802E-2</v>
+        <v>1.5211844793302065E-2</v>
       </c>
       <c r="P36" s="22">
-        <v>4.0376705038210635E-2</v>
+        <v>3.4980590233919424E-2</v>
       </c>
       <c r="Q36" s="22">
-        <v>41.247076733252584</v>
+        <v>43.48652979146042</v>
       </c>
       <c r="R36" s="1">
-        <v>2</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
@@ -21527,31 +21519,31 @@
         <v>554203.19268540957</v>
       </c>
       <c r="I37" s="18">
-        <v>15619673.555383984</v>
+        <v>16791278.363337375</v>
       </c>
       <c r="J37" s="18">
-        <v>10371462.846028805</v>
+        <v>11149408.408900628</v>
       </c>
       <c r="K37" s="18">
-        <v>10087306.887614807</v>
+        <v>10807684.124447504</v>
       </c>
       <c r="L37" s="18">
-        <v>10371462.846028805</v>
+        <v>11149408.408900628</v>
       </c>
       <c r="M37" s="18">
-        <v>284155.95841399767</v>
+        <v>341724.28445312381</v>
       </c>
       <c r="N37" s="17">
         <v>0</v>
       </c>
       <c r="O37" s="22">
-        <v>1.5211844793302065E-2</v>
+        <v>1.5676528506264293E-2</v>
       </c>
       <c r="P37" s="22">
-        <v>3.4980590233919424E-2</v>
+        <v>3.2150483040112095E-2</v>
       </c>
       <c r="Q37" s="22">
-        <v>43.48652979146042</v>
+        <v>48.759853737518327</v>
       </c>
       <c r="R37" s="1">
         <v>0.95</v>
@@ -21614,16 +21606,16 @@
   <sheetData>
     <row r="1" spans="1:36" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="E1" s="40" t="s">
         <v>5</v>
@@ -21650,19 +21642,19 @@
         <v>12</v>
       </c>
       <c r="M1" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="48" t="s">
+      <c r="P1" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="48" t="s">
+      <c r="Q1" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="P1" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" s="11" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -23450,16 +23442,16 @@
         <v>0</v>
       </c>
       <c r="M33" s="21">
-        <v>10.457536880796289</v>
+        <v>18.749994445931186</v>
       </c>
       <c r="N33" s="21">
-        <v>20.690080044153873</v>
+        <v>20.04338484474631</v>
       </c>
       <c r="O33" s="21">
-        <v>30.288490686760593</v>
+        <v>26.873455406089164</v>
       </c>
       <c r="P33" s="21">
-        <v>1.4932587589404349</v>
+        <v>6.3832437220605982</v>
       </c>
       <c r="Q33" s="1">
         <v>1</v>
@@ -23479,22 +23471,22 @@
         <v>27.336624376243282</v>
       </c>
       <c r="E34" s="17">
-        <v>564695.41176478763</v>
+        <v>677634.49411774508</v>
       </c>
       <c r="F34" s="18">
-        <v>1006587.2055691759</v>
+        <v>1207904.646683011</v>
       </c>
       <c r="G34" s="18">
-        <v>10452486.601092372</v>
+        <v>10653804.042206207</v>
       </c>
       <c r="H34" s="18">
-        <v>5863844.8735618722</v>
+        <v>5976783.9559148299</v>
       </c>
       <c r="I34" s="18">
-        <v>7489580.2169947214</v>
+        <v>7602519.2993476791</v>
       </c>
       <c r="J34" s="18">
-        <v>5863844.8735618722</v>
+        <v>5976783.9559148299</v>
       </c>
       <c r="K34" s="18">
         <v>-1625735.3434328493</v>
@@ -23503,19 +23495,19 @@
         <v>0</v>
       </c>
       <c r="M34" s="21">
-        <v>18.749994445931186</v>
+        <v>0.93022069523420603</v>
       </c>
       <c r="N34" s="21">
-        <v>20.04338484474631</v>
+        <v>13.672330128242274</v>
       </c>
       <c r="O34" s="21">
-        <v>26.873455406089164</v>
+        <v>22.473080313473535</v>
       </c>
       <c r="P34" s="21">
-        <v>6.3832437220605982</v>
+        <v>-3.9291702422202448</v>
       </c>
       <c r="Q34" s="1">
-        <v>1</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
@@ -23532,43 +23524,43 @@
         <v>27.106454818762419</v>
       </c>
       <c r="E35" s="17">
-        <v>439249.35924513621</v>
+        <v>366041.1327042802</v>
       </c>
       <c r="F35" s="18">
-        <v>688478.60715693387</v>
+        <v>573732.17263077828</v>
       </c>
       <c r="G35" s="18">
-        <v>11140965.208249306</v>
+        <v>11227536.214836985</v>
       </c>
       <c r="H35" s="18">
-        <v>7107935.9303612858</v>
+        <v>7163168.2335549518</v>
       </c>
       <c r="I35" s="18">
-        <v>7928829.5762398578</v>
+        <v>7968560.4320519594</v>
       </c>
       <c r="J35" s="18">
-        <v>7107935.9303612858</v>
+        <v>7163168.2335549518</v>
       </c>
       <c r="K35" s="18">
-        <v>-820893.64587857202</v>
+        <v>-805392.1984970076</v>
       </c>
       <c r="L35" s="17">
         <v>0</v>
       </c>
       <c r="M35" s="21">
-        <v>0.93022069523420603</v>
+        <v>42.857146434852993</v>
       </c>
       <c r="N35" s="21">
-        <v>13.672330128242274</v>
+        <v>23.400602230445845</v>
       </c>
       <c r="O35" s="21">
-        <v>22.473080313473535</v>
+        <v>22.782254285797638</v>
       </c>
       <c r="P35" s="21">
-        <v>-3.9291702422202448</v>
+        <v>24.637298119742262</v>
       </c>
       <c r="Q35" s="1">
-        <v>1.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
@@ -23591,34 +23583,34 @@
         <v>510770.69075749943</v>
       </c>
       <c r="G36" s="18">
-        <v>11651735.899006806</v>
+        <v>11738306.905594485</v>
       </c>
       <c r="H36" s="18">
-        <v>7527021.7130052736</v>
+        <v>7582946.5856551696</v>
       </c>
       <c r="I36" s="18">
-        <v>8258787.4565953603</v>
+        <v>8298518.3124074619</v>
       </c>
       <c r="J36" s="18">
-        <v>7527021.7130052736</v>
+        <v>7582946.5856551696</v>
       </c>
       <c r="K36" s="18">
-        <v>-731765.7435900867</v>
+        <v>-715571.72675229236</v>
       </c>
       <c r="L36" s="17">
         <v>0</v>
       </c>
       <c r="M36" s="21">
-        <v>42.857146434852993</v>
+        <v>46.808513876214093</v>
       </c>
       <c r="N36" s="21">
-        <v>23.400602230445845</v>
+        <v>31.203239445701929</v>
       </c>
       <c r="O36" s="21">
-        <v>22.782254285797638</v>
+        <v>25.589249339099069</v>
       </c>
       <c r="P36" s="21">
-        <v>24.637298119742262</v>
+        <v>42.431219658907651</v>
       </c>
       <c r="Q36" s="1">
         <v>1</v>
@@ -23644,34 +23636,34 @@
         <v>428215.58860920183</v>
       </c>
       <c r="G37" s="18">
-        <v>12079951.487616008</v>
+        <v>12166522.494203687</v>
       </c>
       <c r="H37" s="18">
-        <v>8021087.4824880334</v>
+        <v>8078570.6286743972</v>
       </c>
       <c r="I37" s="18">
-        <v>8543122.5966098476</v>
+        <v>8582853.4524219502</v>
       </c>
       <c r="J37" s="18">
-        <v>8021087.4824880334</v>
+        <v>8078570.6286743972</v>
       </c>
       <c r="K37" s="18">
-        <v>-522035.11412181426</v>
+        <v>-504282.82374755293</v>
       </c>
       <c r="L37" s="17">
         <v>0</v>
       </c>
       <c r="M37" s="21">
-        <v>46.808513876214093</v>
+        <v>54.700845774743321</v>
       </c>
       <c r="N37" s="21">
-        <v>31.203239445701929</v>
+        <v>39.035774888715729</v>
       </c>
       <c r="O37" s="21">
-        <v>25.589249339099069</v>
+        <v>30.071424522304625</v>
       </c>
       <c r="P37" s="21">
-        <v>42.431219658907651</v>
+        <v>56.964475621537929</v>
       </c>
       <c r="Q37" s="1">
         <v>1</v>
@@ -23734,22 +23726,22 @@
   <sheetData>
     <row r="1" spans="1:36" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>25</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>26</v>
       </c>
       <c r="G1" s="40" t="s">
         <v>5</v>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(RSI&KDJ)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(RSI&KDJ)cn.xlsx
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="32">
   <si>
     <t>in practice</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -149,10 +149,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>深创100ETF</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>SMA之MAX</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -174,6 +170,14 @@
   </si>
   <si>
     <t>成交均量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>深创100ETF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -351,7 +355,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -439,6 +443,8 @@
     <xf numFmtId="176" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -652,7 +658,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -757,6 +763,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -766,7 +775,7 @@
               <c:f>'模型四 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -871,6 +880,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>8410118.6915784068</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8666706.9546631575</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -913,7 +925,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1018,6 +1030,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1027,7 +1042,7 @@
               <c:f>'模型四 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1132,6 +1147,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>7894764.1240472868</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7984896.5277196188</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1174,7 +1192,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1279,6 +1297,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1288,7 +1309,7 @@
               <c:f>'模型四 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1393,6 +1414,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>-515354.56753112003</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-681810.42694353871</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1414,11 +1438,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="709995904"/>
-        <c:axId val="710001792"/>
+        <c:axId val="460530432"/>
+        <c:axId val="460532352"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="709995904"/>
+        <c:axId val="460530432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1461,14 +1485,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="710001792"/>
+        <c:crossAx val="460532352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="710001792"/>
+        <c:axId val="460532352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1519,7 +1543,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="709995904"/>
+        <c:crossAx val="460530432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1710,7 +1734,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1815,6 +1839,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>284335.14001448749</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>256588.26308475045</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1829,8 +1856,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="509527552"/>
-        <c:axId val="509526016"/>
+        <c:axId val="491768448"/>
+        <c:axId val="491766912"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1855,7 +1882,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1960,6 +1987,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1969,7 +1999,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2074,6 +2104,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>0.66399997472763062</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.64999997615814209</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2090,11 +2123,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="509518592"/>
-        <c:axId val="509520128"/>
+        <c:axId val="491763584"/>
+        <c:axId val="491765120"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="509518592"/>
+        <c:axId val="491763584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2137,14 +2170,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="509520128"/>
+        <c:crossAx val="491765120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="509520128"/>
+        <c:axId val="491765120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2195,12 +2228,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="509518592"/>
+        <c:crossAx val="491763584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="509526016"/>
+        <c:axId val="491766912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2237,12 +2270,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="509527552"/>
+        <c:crossAx val="491768448"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="509527552"/>
+        <c:axId val="491768448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2251,7 +2284,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="509526016"/>
+        <c:crossAx val="491766912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2430,7 +2463,7 @@
               <c:f>'模型四 (3)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2535,6 +2568,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2544,7 +2580,7 @@
               <c:f>'模型四 (3)PE副本成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2649,6 +2685,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>65335450.619937912</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>68283485.966209456</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2691,7 +2730,7 @@
               <c:f>'模型四 (3)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2796,6 +2835,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2805,7 +2847,7 @@
               <c:f>'模型四 (3)PE副本成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2910,6 +2952,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>67756165.639153317</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>69275607.223186716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2952,7 +2997,7 @@
               <c:f>'模型四 (3)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3057,6 +3102,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3066,7 +3114,7 @@
               <c:f>'模型四 (3)PE副本成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3171,6 +3219,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>2420715.019215405</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>992121.25697726011</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3192,11 +3243,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="509600512"/>
-        <c:axId val="509602048"/>
+        <c:axId val="491825024"/>
+        <c:axId val="491826560"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="509600512"/>
+        <c:axId val="491825024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3239,14 +3290,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="509602048"/>
+        <c:crossAx val="491826560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="509602048"/>
+        <c:axId val="491826560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3297,7 +3348,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="509600512"/>
+        <c:crossAx val="491825024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3488,7 +3539,7 @@
               <c:f>'模型四 (3)PE副本成交量'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3593,6 +3644,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>2781940.8200028366</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2948035.3462715377</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3607,8 +3661,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="511173760"/>
-        <c:axId val="511171968"/>
+        <c:axId val="491858176"/>
+        <c:axId val="491856640"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3633,7 +3687,7 @@
               <c:f>'模型四 (3)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3738,6 +3792,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3747,7 +3804,7 @@
               <c:f>'模型四 (3)PE副本成交量'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3852,6 +3909,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>0.66399997472763062</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.64999997615814209</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3868,11 +3928,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="511168896"/>
-        <c:axId val="511170432"/>
+        <c:axId val="491853312"/>
+        <c:axId val="491854848"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="511168896"/>
+        <c:axId val="491853312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3915,14 +3975,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="511170432"/>
+        <c:crossAx val="491854848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="511170432"/>
+        <c:axId val="491854848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3973,12 +4033,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="511168896"/>
+        <c:crossAx val="491853312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="511171968"/>
+        <c:axId val="491856640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4015,12 +4075,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="511173760"/>
+        <c:crossAx val="491858176"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="511173760"/>
+        <c:axId val="491858176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4029,7 +4089,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="511171968"/>
+        <c:crossAx val="491856640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4208,7 +4268,7 @@
               <c:f>'模型四 (3)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4313,6 +4373,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4322,7 +4385,7 @@
               <c:f>'模型四 (3)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4427,6 +4490,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>74589351.253344208</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>76657380.291236952</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4469,7 +4535,7 @@
               <c:f>'模型四 (3)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4574,6 +4640,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4583,7 +4652,7 @@
               <c:f>'模型四 (3)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4688,6 +4757,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>71318149.949174374</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>71882483.150818676</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4730,7 +4802,7 @@
               <c:f>'模型四 (3)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4835,6 +4907,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4844,7 +4919,7 @@
               <c:f>'模型四 (3)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4949,6 +5024,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>-3271201.3041698337</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-4774897.1404182762</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4970,11 +5048,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="511209856"/>
-        <c:axId val="511211392"/>
+        <c:axId val="491927040"/>
+        <c:axId val="491928576"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="511209856"/>
+        <c:axId val="491927040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5017,14 +5095,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="511211392"/>
+        <c:crossAx val="491928576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="511211392"/>
+        <c:axId val="491928576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5075,7 +5153,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="511209856"/>
+        <c:crossAx val="491927040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5266,7 +5344,7 @@
               <c:f>'模型四 (3)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5371,6 +5449,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>2412388.5370622873</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2068029.0378927437</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5385,8 +5466,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="511402752"/>
-        <c:axId val="511400960"/>
+        <c:axId val="491964288"/>
+        <c:axId val="491962752"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5411,7 +5492,7 @@
               <c:f>'模型四 (3)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5516,6 +5597,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5525,7 +5609,7 @@
               <c:f>'模型四 (3)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5630,6 +5714,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>0.66399997472763062</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.64999997615814209</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5646,11 +5733,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="511397888"/>
-        <c:axId val="511399424"/>
+        <c:axId val="491959424"/>
+        <c:axId val="491960960"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="511397888"/>
+        <c:axId val="491959424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5693,14 +5780,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="511399424"/>
+        <c:crossAx val="491960960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="511399424"/>
+        <c:axId val="491960960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5751,12 +5838,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="511397888"/>
+        <c:crossAx val="491959424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="511400960"/>
+        <c:axId val="491962752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5793,12 +5880,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="511402752"/>
+        <c:crossAx val="491964288"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="511402752"/>
+        <c:axId val="491964288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5807,7 +5894,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="511400960"/>
+        <c:crossAx val="491962752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5969,7 +6056,7 @@
               <c:f>'模型四 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6074,6 +6161,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>284335.14001448749</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>256588.26308475045</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6088,8 +6178,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="710136576"/>
-        <c:axId val="710126592"/>
+        <c:axId val="572694528"/>
+        <c:axId val="491100800"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6114,7 +6204,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6219,6 +6309,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6228,7 +6321,7 @@
               <c:f>'模型四 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6333,6 +6426,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>0.66399997472763062</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.64999997615814209</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6349,11 +6445,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="710106496"/>
-        <c:axId val="710124672"/>
+        <c:axId val="460546048"/>
+        <c:axId val="460549120"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="710106496"/>
+        <c:axId val="460546048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6396,14 +6492,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="710124672"/>
+        <c:crossAx val="460549120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="710124672"/>
+        <c:axId val="460549120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6454,12 +6550,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="710106496"/>
+        <c:crossAx val="460546048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="710126592"/>
+        <c:axId val="491100800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6496,12 +6592,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="710136576"/>
+        <c:crossAx val="572694528"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="710136576"/>
+        <c:axId val="572694528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6510,7 +6606,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="710126592"/>
+        <c:crossAx val="491100800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6689,7 +6785,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6794,6 +6890,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6803,7 +6902,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6908,6 +7007,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>10018917.071248136</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>10262675.92117865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6950,7 +7052,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7055,6 +7157,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7064,7 +7169,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7169,6 +7274,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>9303749.493506128</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9351344.9630789924</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7211,7 +7319,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7316,6 +7424,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7325,7 +7436,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7430,6 +7541,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>-715167.57774200849</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-911330.95809965767</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7451,11 +7565,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="710183552"/>
-        <c:axId val="710193536"/>
+        <c:axId val="573786752"/>
+        <c:axId val="573790080"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="710183552"/>
+        <c:axId val="573786752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7498,14 +7612,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="710193536"/>
+        <c:crossAx val="573790080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="710193536"/>
+        <c:axId val="573790080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7556,7 +7670,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="710183552"/>
+        <c:crossAx val="573786752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7756,7 +7870,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7861,6 +7975,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>270118.38301376312</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>243758.84993051292</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7875,8 +7992,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="710292224"/>
-        <c:axId val="710274048"/>
+        <c:axId val="573865984"/>
+        <c:axId val="573864192"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7901,7 +8018,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8006,6 +8123,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8015,7 +8135,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -8120,6 +8240,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>0.66399997472763062</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.64999997615814209</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8136,11 +8259,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="710263936"/>
-        <c:axId val="710265472"/>
+        <c:axId val="573859328"/>
+        <c:axId val="573862656"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="710263936"/>
+        <c:axId val="573859328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8183,14 +8306,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="710265472"/>
+        <c:crossAx val="573862656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="710265472"/>
+        <c:axId val="573862656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8241,12 +8364,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="710263936"/>
+        <c:crossAx val="573859328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="710274048"/>
+        <c:axId val="573864192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8283,12 +8406,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="710292224"/>
+        <c:crossAx val="573865984"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="710292224"/>
+        <c:axId val="573865984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8297,7 +8420,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="710274048"/>
+        <c:crossAx val="573864192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8476,7 +8599,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8581,6 +8704,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8590,7 +8716,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8695,6 +8821,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>89380901.271287531</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>91345528.857285634</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8737,7 +8866,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8842,6 +8971,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8851,7 +8983,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8956,6 +9088,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>84570408.30411078</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>84751924.985979289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8998,7 +9133,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9103,6 +9238,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9112,7 +9250,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9217,6 +9355,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>-4810492.9671767503</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-6593603.8713063449</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9238,11 +9379,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="710417024"/>
-        <c:axId val="710419200"/>
+        <c:axId val="573896960"/>
+        <c:axId val="576323584"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="710417024"/>
+        <c:axId val="573896960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9285,14 +9426,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="710419200"/>
+        <c:crossAx val="576323584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="710419200"/>
+        <c:axId val="576323584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9343,7 +9484,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="710417024"/>
+        <c:crossAx val="573896960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9543,7 +9684,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9648,6 +9789,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>2291769.1102091731</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1964627.5859981065</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9662,8 +9806,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="710628480"/>
-        <c:axId val="710565248"/>
+        <c:axId val="576371328"/>
+        <c:axId val="576369792"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9688,7 +9832,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9793,6 +9937,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9802,7 +9949,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -9907,6 +10054,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>0.66399997472763062</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.64999997615814209</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9923,11 +10073,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="710561792"/>
-        <c:axId val="710563328"/>
+        <c:axId val="576363904"/>
+        <c:axId val="576366080"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="710561792"/>
+        <c:axId val="576363904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9970,14 +10120,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="710563328"/>
+        <c:crossAx val="576366080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="710563328"/>
+        <c:axId val="576366080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10028,12 +10178,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="710561792"/>
+        <c:crossAx val="576363904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="710565248"/>
+        <c:axId val="576369792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10070,12 +10220,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="710628480"/>
+        <c:crossAx val="576371328"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="710628480"/>
+        <c:axId val="576371328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10084,7 +10234,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="710565248"/>
+        <c:crossAx val="576369792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10263,7 +10413,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10368,6 +10518,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10377,7 +10530,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10482,6 +10635,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>10807684.124447504</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>11197645.76202393</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10524,7 +10680,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10629,6 +10785,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10638,7 +10797,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10743,6 +10902,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>11149408.408900628</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>11304292.173410445</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10785,7 +10947,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10890,6 +11052,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10899,7 +11064,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11004,6 +11169,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>341724.28445312381</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>106646.41138651595</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11025,11 +11193,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="711354624"/>
-        <c:axId val="711386240"/>
+        <c:axId val="576466944"/>
+        <c:axId val="576468864"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="711354624"/>
+        <c:axId val="576466944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11072,14 +11240,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="711386240"/>
+        <c:crossAx val="576468864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="711386240"/>
+        <c:axId val="576468864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11130,7 +11298,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="711354624"/>
+        <c:crossAx val="576466944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11321,7 +11489,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11426,6 +11594,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>367990.90593708417</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>389961.63757642492</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11440,8 +11611,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="712365952"/>
-        <c:axId val="712364416"/>
+        <c:axId val="578808448"/>
+        <c:axId val="578806912"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -11466,7 +11637,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11571,6 +11742,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11580,7 +11754,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -11685,6 +11859,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>0.66399997472763062</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.64999997615814209</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11701,11 +11878,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="712339840"/>
-        <c:axId val="712341760"/>
+        <c:axId val="576865024"/>
+        <c:axId val="576866560"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="712339840"/>
+        <c:axId val="576865024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11748,14 +11925,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="712341760"/>
+        <c:crossAx val="576866560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="712341760"/>
+        <c:axId val="576866560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11806,12 +11983,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="712339840"/>
+        <c:crossAx val="576865024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="712364416"/>
+        <c:axId val="578806912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11848,12 +12025,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="712365952"/>
+        <c:crossAx val="578808448"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="712365952"/>
+        <c:axId val="578808448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11862,7 +12039,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="712364416"/>
+        <c:crossAx val="578806912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12041,7 +12218,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -12146,6 +12323,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12155,7 +12335,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12260,6 +12440,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>8582853.4524219502</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8839441.7155067008</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12302,7 +12485,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -12407,6 +12590,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12416,7 +12602,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12521,6 +12707,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>8078570.6286743972</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8164827.5942446459</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12563,7 +12752,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -12668,6 +12857,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12677,7 +12869,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12782,6 +12974,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>-504282.82374755293</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-674614.12126205489</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12803,11 +12998,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="509490304"/>
-        <c:axId val="509491840"/>
+        <c:axId val="491723008"/>
+        <c:axId val="491728896"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="509490304"/>
+        <c:axId val="491723008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12850,14 +13045,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="509491840"/>
+        <c:crossAx val="491728896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="509491840"/>
+        <c:axId val="491728896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12908,7 +13103,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="509490304"/>
+        <c:crossAx val="491723008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13760,7 +13955,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG37"/>
+  <dimension ref="A1:AG39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13924,11 +14119,21 @@
         <v>44561</v>
       </c>
       <c r="Z3" s="24">
-        <v>245217.81577195294</v>
+        <v>245217.76659387304</v>
       </c>
       <c r="AA3" s="24">
         <f>-Z3</f>
-        <v>-245217.81577195294</v>
+        <v>-245217.76659387304</v>
+      </c>
+      <c r="AB3" s="42">
+        <v>44561</v>
+      </c>
+      <c r="AC3" s="24">
+        <v>245217.76659387304</v>
+      </c>
+      <c r="AD3" s="24">
+        <f>-AC3</f>
+        <v>-245217.76659387304</v>
       </c>
     </row>
     <row r="4" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -13997,15 +14202,22 @@
         <v>44925</v>
       </c>
       <c r="Z4" s="27">
-        <v>3518640.0716485097</v>
+        <v>3518640.0102128703</v>
       </c>
       <c r="AA4" s="27">
         <f>-Z4</f>
-        <v>-3518640.0716485097</v>
-      </c>
-      <c r="AB4" s="19"/>
-      <c r="AC4" s="27"/>
-      <c r="AD4" s="27"/>
+        <v>-3518640.0102128703</v>
+      </c>
+      <c r="AB4" s="42">
+        <v>44925</v>
+      </c>
+      <c r="AC4" s="27">
+        <v>3518640.0102128703</v>
+      </c>
+      <c r="AD4" s="27">
+        <f>-AC4</f>
+        <v>-3518640.0102128703</v>
+      </c>
       <c r="AE4" s="19"/>
       <c r="AF4" s="27"/>
       <c r="AG4" s="27"/>
@@ -14070,18 +14282,25 @@
         <v>-4.8683695729055391E-2</v>
       </c>
       <c r="W5" s="33">
-        <v>-4.5834423753382425E-2</v>
+        <v>-4.5834421638543787E-2</v>
       </c>
       <c r="Y5" s="42">
         <v>44925</v>
       </c>
       <c r="Z5" s="27"/>
       <c r="AA5" s="27">
-        <v>3580619.3649953026</v>
-      </c>
-      <c r="AB5" s="19"/>
-      <c r="AC5" s="27"/>
-      <c r="AD5" s="27"/>
+        <v>3580619.270033245</v>
+      </c>
+      <c r="AB5" s="42">
+        <v>45289</v>
+      </c>
+      <c r="AC5" s="27">
+        <v>3101231.3499326059</v>
+      </c>
+      <c r="AD5" s="27">
+        <f>-AC5</f>
+        <v>-3101231.3499326059</v>
+      </c>
       <c r="AE5" s="19"/>
       <c r="AF5" s="27"/>
       <c r="AG5" s="27"/>
@@ -14124,14 +14343,42 @@
         <v>0</v>
       </c>
       <c r="M6" s="27"/>
+      <c r="P6" s="42">
+        <v>45289</v>
+      </c>
+      <c r="Q6" s="35">
+        <v>3101231.3499326059</v>
+      </c>
+      <c r="R6" s="34">
+        <v>6865089.1267393492</v>
+      </c>
+      <c r="S6" s="34">
+        <v>6043907.692957717</v>
+      </c>
+      <c r="T6" s="34">
+        <v>-821181.43378163222</v>
+      </c>
+      <c r="U6" s="34">
+        <v>0</v>
+      </c>
+      <c r="V6" s="33">
+        <v>-0.11961700986271995</v>
+      </c>
+      <c r="W6" s="33">
+        <v>-7.7878942670306261E-2</v>
+      </c>
       <c r="Y6" s="27"/>
       <c r="Z6" s="27"/>
       <c r="AA6" s="28">
-        <v>-4.5834423753382425E-2</v>
-      </c>
-      <c r="AB6" s="27"/>
+        <v>-4.5834421638543787E-2</v>
+      </c>
+      <c r="AB6" s="42">
+        <v>45289</v>
+      </c>
       <c r="AC6" s="27"/>
-      <c r="AD6" s="28"/>
+      <c r="AD6" s="28">
+        <v>6043907.692957717</v>
+      </c>
       <c r="AE6" s="19"/>
     </row>
     <row r="7" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -14175,6 +14422,9 @@
       <c r="Y7" s="27"/>
       <c r="Z7" s="27"/>
       <c r="AA7" s="27"/>
+      <c r="AD7" s="25">
+        <v>-7.7878942670306261E-2</v>
+      </c>
       <c r="AG7" s="25"/>
     </row>
     <row r="8" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -15338,6 +15588,47 @@
       <c r="L37" s="29">
         <v>0</v>
       </c>
+    </row>
+    <row r="38" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="32">
+        <v>45443</v>
+      </c>
+      <c r="B38" s="31">
+        <v>0.64999997615814209</v>
+      </c>
+      <c r="C38" s="31">
+        <v>18.329999919999999</v>
+      </c>
+      <c r="D38" s="29">
+        <v>26.389717901760058</v>
+      </c>
+      <c r="E38" s="29">
+        <v>256588.26308475045</v>
+      </c>
+      <c r="F38" s="30">
+        <v>394751.18845592643</v>
+      </c>
+      <c r="G38" s="30">
+        <v>12284456.647082906</v>
+      </c>
+      <c r="H38" s="30">
+        <v>7984896.5277196188</v>
+      </c>
+      <c r="I38" s="30">
+        <v>8666706.9546631575</v>
+      </c>
+      <c r="J38" s="30">
+        <v>7984896.5277196188</v>
+      </c>
+      <c r="K38" s="30">
+        <v>-681810.42694353871</v>
+      </c>
+      <c r="L38" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A39" s="49"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -15355,7 +15646,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH37"/>
+  <dimension ref="A1:AH39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15399,7 +15690,7 @@
         <v>18</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>3</v>
@@ -15432,16 +15723,16 @@
         <v>12</v>
       </c>
       <c r="M1" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="44" t="s">
+      <c r="O1" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="48" t="s">
+      <c r="P1" s="11" t="s">
         <v>22</v>
-      </c>
-      <c r="P1" s="11" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -15530,11 +15821,21 @@
         <v>44561</v>
       </c>
       <c r="AA3" s="1">
-        <v>391166.0852938749</v>
+        <v>391166.03767330461</v>
       </c>
       <c r="AB3" s="1">
         <f>-AA3</f>
-        <v>-391166.0852938749</v>
+        <v>-391166.03767330461</v>
+      </c>
+      <c r="AC3" s="42">
+        <v>44561</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>391166.03767330461</v>
+      </c>
+      <c r="AE3" s="1">
+        <f>-AD3</f>
+        <v>-391166.03767330461</v>
       </c>
     </row>
     <row r="4" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -15611,15 +15912,22 @@
         <v>44925</v>
       </c>
       <c r="AA4" s="7">
-        <v>4936141.2228610869</v>
+        <v>4936141.1701060347</v>
       </c>
       <c r="AB4" s="7">
         <f>-AA4</f>
-        <v>-4936141.2228610869</v>
-      </c>
-      <c r="AC4" s="6"/>
-      <c r="AD4" s="7"/>
-      <c r="AE4" s="7"/>
+        <v>-4936141.1701060347</v>
+      </c>
+      <c r="AC4" s="42">
+        <v>44925</v>
+      </c>
+      <c r="AD4" s="7">
+        <v>4936141.1701060347</v>
+      </c>
+      <c r="AE4" s="7">
+        <f>-AD4</f>
+        <v>-4936141.1701060347</v>
+      </c>
       <c r="AF4" s="6"/>
       <c r="AG4" s="7"/>
       <c r="AH4" s="7"/>
@@ -15695,18 +16003,25 @@
         <v>-5.7405834889118441E-2</v>
       </c>
       <c r="X5" s="9">
-        <v>-5.3676131859731302E-2</v>
+        <v>-5.3676130643865561E-2</v>
       </c>
       <c r="Z5" s="42">
         <v>44925</v>
       </c>
       <c r="AA5" s="7"/>
       <c r="AB5" s="7">
-        <v>5021488.7754730703</v>
-      </c>
-      <c r="AC5" s="6"/>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="7"/>
+        <v>5021488.6898059482</v>
+      </c>
+      <c r="AC5" s="42">
+        <v>45289</v>
+      </c>
+      <c r="AD5" s="7">
+        <v>2811253.8169439584</v>
+      </c>
+      <c r="AE5" s="7">
+        <f>-AD5</f>
+        <v>-2811253.8169439584</v>
+      </c>
       <c r="AF5" s="19"/>
       <c r="AG5" s="7"/>
       <c r="AH5" s="7"/>
@@ -15760,14 +16075,42 @@
       <c r="P6" s="1">
         <v>2</v>
       </c>
+      <c r="Q6" s="42">
+        <v>45289</v>
+      </c>
+      <c r="R6" s="10">
+        <v>2811253.8169439584</v>
+      </c>
+      <c r="S6" s="4">
+        <v>8138561.0247232979</v>
+      </c>
+      <c r="T6" s="4">
+        <v>7072800.7878068425</v>
+      </c>
+      <c r="U6" s="4">
+        <v>-1065760.2369164554</v>
+      </c>
+      <c r="V6" s="4">
+        <v>0</v>
+      </c>
+      <c r="W6" s="9">
+        <v>-0.13095192549136045</v>
+      </c>
+      <c r="X6" s="9">
+        <v>-7.9697327658813766E-2</v>
+      </c>
       <c r="Z6" s="7"/>
       <c r="AA6" s="7"/>
       <c r="AB6" s="8">
-        <v>-5.3676131859731302E-2</v>
-      </c>
-      <c r="AC6" s="7"/>
+        <v>-5.3676130643865561E-2</v>
+      </c>
+      <c r="AC6" s="42">
+        <v>45289</v>
+      </c>
       <c r="AD6" s="7"/>
-      <c r="AE6" s="8"/>
+      <c r="AE6" s="8">
+        <v>7072800.7878068425</v>
+      </c>
       <c r="AF6" s="19"/>
     </row>
     <row r="7" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -15822,6 +16165,9 @@
       <c r="Z7" s="7"/>
       <c r="AA7" s="7"/>
       <c r="AB7" s="7"/>
+      <c r="AE7" s="2">
+        <v>-7.9697327658813766E-2</v>
+      </c>
       <c r="AH7" s="2"/>
     </row>
     <row r="8" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -17334,6 +17680,59 @@
       <c r="P37" s="1">
         <v>0.95</v>
       </c>
+    </row>
+    <row r="38" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="15">
+        <v>45443</v>
+      </c>
+      <c r="B38" s="31">
+        <v>0.64999997615814209</v>
+      </c>
+      <c r="C38" s="16">
+        <v>18.329999919999999</v>
+      </c>
+      <c r="D38" s="17">
+        <v>26.389717901760058</v>
+      </c>
+      <c r="E38" s="17">
+        <v>243758.84993051292</v>
+      </c>
+      <c r="F38" s="18">
+        <v>375013.62903313013</v>
+      </c>
+      <c r="G38" s="18">
+        <v>14386685.086283529</v>
+      </c>
+      <c r="H38" s="18">
+        <v>9351344.9630789924</v>
+      </c>
+      <c r="I38" s="18">
+        <v>10262675.92117865</v>
+      </c>
+      <c r="J38" s="18">
+        <v>9351344.9630789924</v>
+      </c>
+      <c r="K38" s="18">
+        <v>-911330.95809965767</v>
+      </c>
+      <c r="L38" s="17">
+        <v>0</v>
+      </c>
+      <c r="M38" s="22">
+        <v>1.3063773755220243E-2</v>
+      </c>
+      <c r="N38" s="22">
+        <v>2.9125402295008165E-2</v>
+      </c>
+      <c r="O38" s="22">
+        <v>44.853539267539169</v>
+      </c>
+      <c r="P38" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A39" s="50"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -17351,7 +17750,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:AH37"/>
+  <dimension ref="A1:AH39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17392,7 +17791,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>2</v>
@@ -17428,16 +17827,16 @@
         <v>12</v>
       </c>
       <c r="M1" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="44" t="s">
+      <c r="O1" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="48" t="s">
+      <c r="P1" s="11" t="s">
         <v>22</v>
-      </c>
-      <c r="P1" s="11" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -17526,11 +17925,21 @@
         <v>44561</v>
       </c>
       <c r="AA3" s="1">
-        <v>1479712.5784384708</v>
+        <v>1479712.331556374</v>
       </c>
       <c r="AB3" s="1">
         <f>-AA3</f>
-        <v>-1479712.5784384708</v>
+        <v>-1479712.331556374</v>
+      </c>
+      <c r="AC3" s="42">
+        <v>44561</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>1479712.331556374</v>
+      </c>
+      <c r="AE3" s="1">
+        <f>-AD3</f>
+        <v>-1479712.331556374</v>
       </c>
     </row>
     <row r="4" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -17607,15 +18016,22 @@
         <v>44925</v>
       </c>
       <c r="AA4" s="7">
-        <v>44876935.423337787</v>
+        <v>44876934.711818963</v>
       </c>
       <c r="AB4" s="7">
         <f>-AA4</f>
-        <v>-44876935.423337787</v>
-      </c>
-      <c r="AC4" s="6"/>
-      <c r="AD4" s="7"/>
-      <c r="AE4" s="7"/>
+        <v>-44876934.711818963</v>
+      </c>
+      <c r="AC4" s="42">
+        <v>44925</v>
+      </c>
+      <c r="AD4" s="7">
+        <v>44876934.711818963</v>
+      </c>
+      <c r="AE4" s="7">
+        <f>-AD4</f>
+        <v>-44876934.711818963</v>
+      </c>
       <c r="AF4" s="6"/>
       <c r="AG4" s="7"/>
       <c r="AH4" s="7"/>
@@ -17691,18 +18107,25 @@
         <v>-3.9108503612133132E-2</v>
       </c>
       <c r="X5" s="9">
-        <v>-3.7943302629694475E-2</v>
+        <v>-3.7943302025369663E-2</v>
       </c>
       <c r="Z5" s="42">
         <v>44925</v>
       </c>
       <c r="AA5" s="7"/>
       <c r="AB5" s="7">
-        <v>44543708.829216212</v>
-      </c>
-      <c r="AC5" s="6"/>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="7"/>
+        <v>44543707.945033111</v>
+      </c>
+      <c r="AC5" s="42">
+        <v>45289</v>
+      </c>
+      <c r="AD5" s="7">
+        <v>24068354.986946188</v>
+      </c>
+      <c r="AE5" s="7">
+        <f>-AD5</f>
+        <v>-24068354.986946188</v>
+      </c>
       <c r="AF5" s="19"/>
       <c r="AG5" s="7"/>
       <c r="AH5" s="7"/>
@@ -17756,14 +18179,42 @@
       <c r="P6" s="1">
         <v>2</v>
       </c>
+      <c r="Q6" s="42">
+        <v>45289</v>
+      </c>
+      <c r="R6" s="10">
+        <v>24068354.986946188</v>
+      </c>
+      <c r="S6" s="4">
+        <v>70425002.030321524</v>
+      </c>
+      <c r="T6" s="4">
+        <v>62176292.161664203</v>
+      </c>
+      <c r="U6" s="4">
+        <v>-8248709.8686573207</v>
+      </c>
+      <c r="V6" s="4">
+        <v>0</v>
+      </c>
+      <c r="W6" s="9">
+        <v>-0.1171275772928744</v>
+      </c>
+      <c r="X6" s="9">
+        <v>-7.190101481079203E-2</v>
+      </c>
       <c r="Z6" s="7"/>
       <c r="AA6" s="7"/>
       <c r="AB6" s="8">
-        <v>-3.7943302629694475E-2</v>
-      </c>
-      <c r="AC6" s="7"/>
+        <v>-3.7943302025369663E-2</v>
+      </c>
+      <c r="AC6" s="42">
+        <v>45289</v>
+      </c>
       <c r="AD6" s="7"/>
-      <c r="AE6" s="8"/>
+      <c r="AE6" s="8">
+        <v>62176292.161664203</v>
+      </c>
       <c r="AF6" s="19"/>
     </row>
     <row r="7" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -17818,6 +18269,9 @@
       <c r="Z7" s="7"/>
       <c r="AA7" s="7"/>
       <c r="AB7" s="7"/>
+      <c r="AE7" s="2">
+        <v>-7.190101481079203E-2</v>
+      </c>
       <c r="AH7" s="2"/>
     </row>
     <row r="8" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -19330,6 +19784,59 @@
       <c r="P37" s="1">
         <v>0.95</v>
       </c>
+    </row>
+    <row r="38" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="15">
+        <v>45443</v>
+      </c>
+      <c r="B38" s="31">
+        <v>0.64999997615814209</v>
+      </c>
+      <c r="C38" s="16">
+        <v>18.329999919999999</v>
+      </c>
+      <c r="D38" s="17">
+        <v>26.389717901760058</v>
+      </c>
+      <c r="E38" s="17">
+        <v>1964627.5859981065</v>
+      </c>
+      <c r="F38" s="18">
+        <v>3022504.0893234145</v>
+      </c>
+      <c r="G38" s="18">
+        <v>130387581.68409459</v>
+      </c>
+      <c r="H38" s="18">
+        <v>84751924.985979289</v>
+      </c>
+      <c r="I38" s="18">
+        <v>91345528.857285634</v>
+      </c>
+      <c r="J38" s="18">
+        <v>84751924.985979289</v>
+      </c>
+      <c r="K38" s="18">
+        <v>-6593603.8713063449</v>
+      </c>
+      <c r="L38" s="17">
+        <v>0</v>
+      </c>
+      <c r="M38" s="22">
+        <v>1.3063773755220243E-2</v>
+      </c>
+      <c r="N38" s="22">
+        <v>2.9125402295008165E-2</v>
+      </c>
+      <c r="O38" s="22">
+        <v>44.853539267539169</v>
+      </c>
+      <c r="P38" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A39" s="50"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -19347,7 +19854,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AJ37"/>
+  <dimension ref="A1:AJ39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19388,22 +19895,22 @@
   <sheetData>
     <row r="1" spans="1:36" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>24</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>25</v>
       </c>
       <c r="G1" s="40" t="s">
         <v>5</v>
@@ -19430,16 +19937,16 @@
         <v>12</v>
       </c>
       <c r="O1" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="44" t="s">
+      <c r="Q1" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="48" t="s">
+      <c r="R1" s="11" t="s">
         <v>22</v>
-      </c>
-      <c r="R1" s="11" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -19540,11 +20047,21 @@
         <v>44561</v>
       </c>
       <c r="AC3" s="1">
-        <v>39715.271063418011</v>
+        <v>39715.263697469622</v>
       </c>
       <c r="AD3" s="1">
         <f>-AC3</f>
-        <v>-39715.271063418011</v>
+        <v>-39715.263697469622</v>
+      </c>
+      <c r="AE3" s="42">
+        <v>44561</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>39715.263697469622</v>
+      </c>
+      <c r="AG3" s="1">
+        <f>-AF3</f>
+        <v>-39715.263697469622</v>
       </c>
     </row>
     <row r="4" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -19627,15 +20144,22 @@
         <v>44925</v>
       </c>
       <c r="AC4" s="7">
-        <v>1946954.1077740435</v>
+        <v>1946954.0717777759</v>
       </c>
       <c r="AD4" s="7">
         <f>-AC4</f>
-        <v>-1946954.1077740435</v>
-      </c>
-      <c r="AE4" s="6"/>
-      <c r="AF4" s="7"/>
-      <c r="AG4" s="7"/>
+        <v>-1946954.0717777759</v>
+      </c>
+      <c r="AE4" s="42">
+        <v>44925</v>
+      </c>
+      <c r="AF4" s="7">
+        <v>1946954.0717777759</v>
+      </c>
+      <c r="AG4" s="7">
+        <f>-AF4</f>
+        <v>-1946954.0717777759</v>
+      </c>
       <c r="AH4" s="6"/>
       <c r="AI4" s="7"/>
       <c r="AJ4" s="7"/>
@@ -19717,18 +20241,25 @@
         <v>-1.8918953034668326E-2</v>
       </c>
       <c r="Z5" s="9">
-        <v>-1.8554907125104769E-2</v>
+        <v>-1.8554906714567387E-2</v>
       </c>
       <c r="AB5" s="42">
         <v>44925</v>
       </c>
       <c r="AC5" s="7"/>
       <c r="AD5" s="7">
-        <v>1949083.6732141678</v>
-      </c>
-      <c r="AE5" s="6"/>
-      <c r="AF5" s="7"/>
-      <c r="AG5" s="7"/>
+        <v>1949083.6316219736</v>
+      </c>
+      <c r="AE5" s="42">
+        <v>45289</v>
+      </c>
+      <c r="AF5" s="7">
+        <v>2366559.1303613475</v>
+      </c>
+      <c r="AG5" s="7">
+        <f>-AF5</f>
+        <v>-2366559.1303613475</v>
+      </c>
       <c r="AH5" s="19"/>
       <c r="AI5" s="7"/>
       <c r="AJ5" s="7"/>
@@ -19788,14 +20319,42 @@
       <c r="R6" s="1">
         <v>2</v>
       </c>
+      <c r="S6" s="42">
+        <v>45289</v>
+      </c>
+      <c r="T6" s="10">
+        <v>2366559.1303613475</v>
+      </c>
+      <c r="U6" s="4">
+        <v>4353228.4658365929</v>
+      </c>
+      <c r="V6" s="4">
+        <v>3994518.0027012783</v>
+      </c>
+      <c r="W6" s="4">
+        <v>-358710.46313531464</v>
+      </c>
+      <c r="X6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="9">
+        <v>-8.2401019369972017E-2</v>
+      </c>
+      <c r="Z6" s="9">
+        <v>-5.7289381485038149E-2</v>
+      </c>
       <c r="AB6" s="7"/>
       <c r="AC6" s="7"/>
       <c r="AD6" s="8">
-        <v>-1.8554907125104769E-2</v>
-      </c>
-      <c r="AE6" s="7"/>
+        <v>-1.8554906714567387E-2</v>
+      </c>
+      <c r="AE6" s="42">
+        <v>45289</v>
+      </c>
       <c r="AF6" s="7"/>
-      <c r="AG6" s="8"/>
+      <c r="AG6" s="8">
+        <v>3994518.0027012783</v>
+      </c>
       <c r="AH6" s="19"/>
     </row>
     <row r="7" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -19856,6 +20415,9 @@
       <c r="AB7" s="7"/>
       <c r="AC7" s="7"/>
       <c r="AD7" s="7"/>
+      <c r="AG7" s="2">
+        <v>-5.7289381485038149E-2</v>
+      </c>
       <c r="AJ7" s="2"/>
     </row>
     <row r="8" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -21548,6 +22110,65 @@
       <c r="R37" s="1">
         <v>0.95</v>
       </c>
+    </row>
+    <row r="38" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="15">
+        <v>45443</v>
+      </c>
+      <c r="B38" s="31">
+        <v>0.64999997615814209</v>
+      </c>
+      <c r="C38" s="16">
+        <v>18.329999919999999</v>
+      </c>
+      <c r="D38" s="17">
+        <v>26.389717901760058</v>
+      </c>
+      <c r="E38" s="17">
+        <v>6567000</v>
+      </c>
+      <c r="F38" s="17">
+        <v>4606710.9436179576</v>
+      </c>
+      <c r="G38" s="17">
+        <v>389961.63757642492</v>
+      </c>
+      <c r="H38" s="18">
+        <v>599941.00289251236</v>
+      </c>
+      <c r="I38" s="18">
+        <v>17391219.366229888</v>
+      </c>
+      <c r="J38" s="18">
+        <v>11304292.173410445</v>
+      </c>
+      <c r="K38" s="18">
+        <v>11197645.76202393</v>
+      </c>
+      <c r="L38" s="18">
+        <v>11304292.173410445</v>
+      </c>
+      <c r="M38" s="18">
+        <v>106646.41138651595</v>
+      </c>
+      <c r="N38" s="17">
+        <v>0</v>
+      </c>
+      <c r="O38" s="22">
+        <v>1.3063773755220243E-2</v>
+      </c>
+      <c r="P38" s="22">
+        <v>2.9125402295008165E-2</v>
+      </c>
+      <c r="Q38" s="22">
+        <v>44.853539267539169</v>
+      </c>
+      <c r="R38" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A39" s="50"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -21565,7 +22186,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AJ37"/>
+  <dimension ref="A1:AJ39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -21606,7 +22227,7 @@
   <sheetData>
     <row r="1" spans="1:36" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>2</v>
@@ -21642,19 +22263,19 @@
         <v>12</v>
       </c>
       <c r="M1" s="48" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N1" s="48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O1" s="48" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P1" s="48" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q1" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -21759,11 +22380,21 @@
         <v>44561</v>
       </c>
       <c r="AC3" s="1">
-        <v>245217.81577195294</v>
+        <v>245217.76659387304</v>
       </c>
       <c r="AD3" s="1">
         <f>-AC3</f>
-        <v>-245217.81577195294</v>
+        <v>-245217.76659387304</v>
+      </c>
+      <c r="AE3" s="42">
+        <v>44561</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>245217.76659387304</v>
+      </c>
+      <c r="AG3" s="1">
+        <f>-AF3</f>
+        <v>-245217.76659387304</v>
       </c>
     </row>
     <row r="4" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -21846,15 +22477,22 @@
         <v>44925</v>
       </c>
       <c r="AC4" s="7">
-        <v>3578435.7498996384</v>
+        <v>3578435.688703455</v>
       </c>
       <c r="AD4" s="7">
         <f>-AC4</f>
-        <v>-3578435.7498996384</v>
-      </c>
-      <c r="AE4" s="6"/>
-      <c r="AF4" s="7"/>
-      <c r="AG4" s="7"/>
+        <v>-3578435.688703455</v>
+      </c>
+      <c r="AE4" s="42">
+        <v>44925</v>
+      </c>
+      <c r="AF4" s="7">
+        <v>3578435.688703455</v>
+      </c>
+      <c r="AG4" s="7">
+        <f>-AF4</f>
+        <v>-3578435.688703455</v>
+      </c>
       <c r="AH4" s="6"/>
       <c r="AI4" s="7"/>
       <c r="AJ4" s="7"/>
@@ -21933,18 +22571,25 @@
         <v>-4.9284795661168258E-2</v>
       </c>
       <c r="Z5" s="9">
-        <v>-4.6444563089133917E-2</v>
+        <v>-4.6444561031212084E-2</v>
       </c>
       <c r="AB5" s="42">
         <v>44925</v>
       </c>
       <c r="AC5" s="7"/>
       <c r="AD5" s="7">
-        <v>3635205.570817343</v>
-      </c>
-      <c r="AE5" s="6"/>
-      <c r="AF5" s="7"/>
-      <c r="AG5" s="7"/>
+        <v>3635205.4760738793</v>
+      </c>
+      <c r="AE5" s="42">
+        <v>45289</v>
+      </c>
+      <c r="AF5" s="7">
+        <v>3101231.3499326059</v>
+      </c>
+      <c r="AG5" s="7">
+        <f>-AF5</f>
+        <v>-3101231.3499326059</v>
+      </c>
       <c r="AH5" s="19"/>
       <c r="AI5" s="7"/>
       <c r="AJ5" s="7"/>
@@ -22001,14 +22646,42 @@
       <c r="Q6" s="1">
         <v>1</v>
       </c>
+      <c r="S6" s="42">
+        <v>45289</v>
+      </c>
+      <c r="T6" s="10">
+        <v>3101231.3499326059</v>
+      </c>
+      <c r="U6" s="4">
+        <v>6924884.8052299339</v>
+      </c>
+      <c r="V6" s="4">
+        <v>6092604.9299462289</v>
+      </c>
+      <c r="W6" s="4">
+        <v>-832279.87528370507</v>
+      </c>
+      <c r="X6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="9">
+        <v>-0.12018681879807386</v>
+      </c>
+      <c r="Z6" s="9">
+        <v>-7.8086921629637929E-2</v>
+      </c>
       <c r="AB6" s="7"/>
       <c r="AC6" s="7"/>
       <c r="AD6" s="8">
-        <v>-4.6444563089133917E-2</v>
-      </c>
-      <c r="AE6" s="7"/>
+        <v>-4.6444561031212084E-2</v>
+      </c>
+      <c r="AE6" s="42">
+        <v>45289</v>
+      </c>
       <c r="AF6" s="7"/>
-      <c r="AG6" s="8"/>
+      <c r="AG6" s="8">
+        <v>6092604.9299462289</v>
+      </c>
       <c r="AH6" s="19"/>
     </row>
     <row r="7" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -22066,6 +22739,9 @@
       <c r="AB7" s="7"/>
       <c r="AC7" s="7"/>
       <c r="AD7" s="7"/>
+      <c r="AG7" s="2">
+        <v>-7.8086921629637929E-2</v>
+      </c>
       <c r="AJ7" s="2"/>
     </row>
     <row r="8" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -23668,6 +24344,62 @@
       <c r="Q37" s="1">
         <v>1</v>
       </c>
+    </row>
+    <row r="38" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="15">
+        <v>45443</v>
+      </c>
+      <c r="B38" s="31">
+        <v>0.64999997615814209</v>
+      </c>
+      <c r="C38" s="16">
+        <v>18.329999919999999</v>
+      </c>
+      <c r="D38" s="17">
+        <v>26.389717901760058</v>
+      </c>
+      <c r="E38" s="17">
+        <v>256588.26308475045</v>
+      </c>
+      <c r="F38" s="18">
+        <v>394751.18845592643</v>
+      </c>
+      <c r="G38" s="18">
+        <v>12561273.682659613</v>
+      </c>
+      <c r="H38" s="18">
+        <v>8164827.5942446459</v>
+      </c>
+      <c r="I38" s="18">
+        <v>8839441.7155067008</v>
+      </c>
+      <c r="J38" s="18">
+        <v>8164827.5942446459</v>
+      </c>
+      <c r="K38" s="18">
+        <v>-674614.12126205489</v>
+      </c>
+      <c r="L38" s="17">
+        <v>0</v>
+      </c>
+      <c r="M38" s="21">
+        <v>59.999981177480358</v>
+      </c>
+      <c r="N38" s="21">
+        <v>46.023843651637272</v>
+      </c>
+      <c r="O38" s="21">
+        <v>35.388897565415505</v>
+      </c>
+      <c r="P38" s="21">
+        <v>67.293735824080812</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A39" s="50"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -23685,7 +24417,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AJ37"/>
+  <dimension ref="A1:AJ39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -23738,10 +24470,10 @@
         <v>4</v>
       </c>
       <c r="E1" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>24</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>25</v>
       </c>
       <c r="G1" s="40" t="s">
         <v>5</v>
@@ -23864,11 +24596,21 @@
         <v>44561</v>
       </c>
       <c r="AC3" s="1">
-        <v>178636.11802005771</v>
+        <v>178636.06350526612</v>
       </c>
       <c r="AD3" s="1">
         <f>-AC3</f>
-        <v>-178636.11802005771</v>
+        <v>-178636.06350526612</v>
+      </c>
+      <c r="AE3" s="42">
+        <v>44561</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>178636.06350526612</v>
+      </c>
+      <c r="AG3" s="1">
+        <f>-AF3</f>
+        <v>-178636.06350526612</v>
       </c>
     </row>
     <row r="4" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -23943,15 +24685,22 @@
         <v>44925</v>
       </c>
       <c r="AC4" s="7">
-        <v>10768225.868522482</v>
+        <v>10768225.576655824</v>
       </c>
       <c r="AD4" s="7">
         <f>-AC4</f>
-        <v>-10768225.868522482</v>
-      </c>
-      <c r="AE4" s="6"/>
-      <c r="AF4" s="7"/>
-      <c r="AG4" s="7"/>
+        <v>-10768225.576655824</v>
+      </c>
+      <c r="AE4" s="42">
+        <v>44925</v>
+      </c>
+      <c r="AF4" s="7">
+        <v>10768225.576655824</v>
+      </c>
+      <c r="AG4" s="7">
+        <f>-AF4</f>
+        <v>-10768225.576655824</v>
+      </c>
       <c r="AH4" s="6"/>
       <c r="AI4" s="7"/>
       <c r="AJ4" s="7"/>
@@ -24022,18 +24771,25 @@
         <v>-1.0056833812759127E-2</v>
       </c>
       <c r="Z5" s="9">
-        <v>-9.8969303308865664E-3</v>
+        <v>-9.896929421119971E-3</v>
       </c>
       <c r="AB5" s="42">
         <v>44925</v>
       </c>
       <c r="AC5" s="7"/>
       <c r="AD5" s="7">
-        <v>10836771.20417548</v>
-      </c>
-      <c r="AE5" s="6"/>
-      <c r="AF5" s="7"/>
-      <c r="AG5" s="7"/>
+        <v>10836770.871874722</v>
+      </c>
+      <c r="AE5" s="42">
+        <v>45289</v>
+      </c>
+      <c r="AF5" s="7">
+        <v>18027975.015961196</v>
+      </c>
+      <c r="AG5" s="7">
+        <f>-AF5</f>
+        <v>-18027975.015961196</v>
+      </c>
       <c r="AH5" s="19"/>
       <c r="AI5" s="7"/>
       <c r="AJ5" s="7"/>
@@ -24082,14 +24838,42 @@
         <v>0</v>
       </c>
       <c r="O6" s="7"/>
+      <c r="S6" s="42">
+        <v>45289</v>
+      </c>
+      <c r="T6" s="10">
+        <v>18027975.015961196</v>
+      </c>
+      <c r="U6" s="4">
+        <v>28974836.656122286</v>
+      </c>
+      <c r="V6" s="4">
+        <v>26836402.930132851</v>
+      </c>
+      <c r="W6" s="4">
+        <v>-2138433.7259894349</v>
+      </c>
+      <c r="X6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="9">
+        <v>-7.3803133089883732E-2</v>
+      </c>
+      <c r="Z6" s="9">
+        <v>-5.415304781859398E-2</v>
+      </c>
       <c r="AB6" s="7"/>
       <c r="AC6" s="7"/>
       <c r="AD6" s="8">
-        <v>-9.8969303308865664E-3</v>
-      </c>
-      <c r="AE6" s="7"/>
+        <v>-9.896929421119971E-3</v>
+      </c>
+      <c r="AE6" s="42">
+        <v>45289</v>
+      </c>
       <c r="AF6" s="7"/>
-      <c r="AG6" s="8"/>
+      <c r="AG6" s="8">
+        <v>26836402.930132851</v>
+      </c>
       <c r="AH6" s="19"/>
     </row>
     <row r="7" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -24139,6 +24923,9 @@
       <c r="AB7" s="7"/>
       <c r="AC7" s="7"/>
       <c r="AD7" s="7"/>
+      <c r="AG7" s="2">
+        <v>-5.415304781859398E-2</v>
+      </c>
       <c r="AJ7" s="2"/>
     </row>
     <row r="8" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -25482,6 +26269,53 @@
       <c r="N37" s="17">
         <v>0</v>
       </c>
+    </row>
+    <row r="38" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="15">
+        <v>45443</v>
+      </c>
+      <c r="B38" s="31">
+        <v>0.64999997615814209</v>
+      </c>
+      <c r="C38" s="16">
+        <v>18.329999919999999</v>
+      </c>
+      <c r="D38" s="17">
+        <v>26.389717901760058</v>
+      </c>
+      <c r="E38" s="17">
+        <v>6567000</v>
+      </c>
+      <c r="F38" s="17">
+        <v>4606710.9436179576</v>
+      </c>
+      <c r="G38" s="17">
+        <v>2948035.3462715377</v>
+      </c>
+      <c r="H38" s="18">
+        <v>4535439.1606228212</v>
+      </c>
+      <c r="I38" s="18">
+        <v>106577861.17569375</v>
+      </c>
+      <c r="J38" s="18">
+        <v>69275607.223186716</v>
+      </c>
+      <c r="K38" s="18">
+        <v>68283485.966209456</v>
+      </c>
+      <c r="L38" s="18">
+        <v>69275607.223186716</v>
+      </c>
+      <c r="M38" s="18">
+        <v>992121.25697726011</v>
+      </c>
+      <c r="N38" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A39" s="50"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -25499,7 +26333,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AG37"/>
+  <dimension ref="A1:AG39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -25663,11 +26497,21 @@
         <v>44561</v>
       </c>
       <c r="Z3" s="1">
-        <v>905989.43478514929</v>
+        <v>905989.17956106178</v>
       </c>
       <c r="AA3" s="1">
         <f>-Z3</f>
-        <v>-905989.43478514929</v>
+        <v>-905989.17956106178</v>
+      </c>
+      <c r="AB3" s="42">
+        <v>44561</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>905989.17956106178</v>
+      </c>
+      <c r="AD3" s="1">
+        <f>-AC3</f>
+        <v>-905989.17956106178</v>
       </c>
     </row>
     <row r="4" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -25736,15 +26580,22 @@
         <v>44925</v>
       </c>
       <c r="Z4" s="7">
-        <v>31686237.028773796</v>
+        <v>31686236.202029958</v>
       </c>
       <c r="AA4" s="7">
         <f>-Z4</f>
-        <v>-31686237.028773796</v>
-      </c>
-      <c r="AB4" s="6"/>
-      <c r="AC4" s="7"/>
-      <c r="AD4" s="7"/>
+        <v>-31686236.202029958</v>
+      </c>
+      <c r="AB4" s="42">
+        <v>44925</v>
+      </c>
+      <c r="AC4" s="7">
+        <v>31686236.202029958</v>
+      </c>
+      <c r="AD4" s="7">
+        <f>-AC4</f>
+        <v>-31686236.202029958</v>
+      </c>
       <c r="AE4" s="6"/>
       <c r="AF4" s="7"/>
       <c r="AG4" s="7"/>
@@ -25809,18 +26660,25 @@
         <v>-3.1209478707840795E-2</v>
       </c>
       <c r="W5" s="9">
-        <v>-3.0390370567539127E-2</v>
+        <v>-3.0390369336756096E-2</v>
       </c>
       <c r="Y5" s="42">
         <v>44925</v>
       </c>
       <c r="Z5" s="7"/>
       <c r="AA5" s="7">
-        <v>31575040.017907716</v>
-      </c>
-      <c r="AB5" s="6"/>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="7"/>
+        <v>31575039.017503105</v>
+      </c>
+      <c r="AB5" s="42">
+        <v>45289</v>
+      </c>
+      <c r="AC5" s="7">
+        <v>26293500.424479302</v>
+      </c>
+      <c r="AD5" s="7">
+        <f>-AC5</f>
+        <v>-26293500.424479302</v>
+      </c>
       <c r="AE5" s="19"/>
       <c r="AF5" s="7"/>
       <c r="AG5" s="7"/>
@@ -25863,14 +26721,42 @@
         <v>0</v>
       </c>
       <c r="M6" s="7"/>
+      <c r="P6" s="42">
+        <v>45289</v>
+      </c>
+      <c r="Q6" s="10">
+        <v>26293500.424479302</v>
+      </c>
+      <c r="R6" s="4">
+        <v>58885725.80607032</v>
+      </c>
+      <c r="S6" s="4">
+        <v>52597859.443452083</v>
+      </c>
+      <c r="T6" s="4">
+        <v>-6287866.3626182377</v>
+      </c>
+      <c r="U6" s="4">
+        <v>0</v>
+      </c>
+      <c r="V6" s="9">
+        <v>-0.10678082466583173</v>
+      </c>
+      <c r="W6" s="9">
+        <v>-6.9877380423864377E-2</v>
+      </c>
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
       <c r="AA6" s="8">
-        <v>-3.0390370567539127E-2</v>
-      </c>
-      <c r="AB6" s="7"/>
+        <v>-3.0390369336756096E-2</v>
+      </c>
+      <c r="AB6" s="42">
+        <v>45289</v>
+      </c>
       <c r="AC6" s="7"/>
-      <c r="AD6" s="8"/>
+      <c r="AD6" s="8">
+        <v>52597859.443452083</v>
+      </c>
       <c r="AE6" s="19"/>
     </row>
     <row r="7" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -25914,6 +26800,9 @@
       <c r="Y7" s="7"/>
       <c r="Z7" s="7"/>
       <c r="AA7" s="7"/>
+      <c r="AD7" s="2">
+        <v>-6.9877380423864377E-2</v>
+      </c>
       <c r="AG7" s="2"/>
     </row>
     <row r="8" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -27077,6 +27966,47 @@
       <c r="L37" s="17">
         <v>0</v>
       </c>
+    </row>
+    <row r="38" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="15">
+        <v>45443</v>
+      </c>
+      <c r="B38" s="31">
+        <v>0.64999997615814209</v>
+      </c>
+      <c r="C38" s="16">
+        <v>18.329999919999999</v>
+      </c>
+      <c r="D38" s="17">
+        <v>26.389717901760058</v>
+      </c>
+      <c r="E38" s="17">
+        <v>2068029.0378927437</v>
+      </c>
+      <c r="F38" s="18">
+        <v>3181583.2519193841</v>
+      </c>
+      <c r="G38" s="18">
+        <v>110588439.67300391</v>
+      </c>
+      <c r="H38" s="18">
+        <v>71882483.150818676</v>
+      </c>
+      <c r="I38" s="18">
+        <v>76657380.291236952</v>
+      </c>
+      <c r="J38" s="18">
+        <v>71882483.150818676</v>
+      </c>
+      <c r="K38" s="18">
+        <v>-4774897.1404182762</v>
+      </c>
+      <c r="L38" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A39" s="50"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(RSI&KDJ)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(RSI&KDJ)cn.xlsx
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="29">
   <si>
     <t>in practice</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -145,10 +145,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>SMA之MAX</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -170,14 +166,6 @@
   </si>
   <si>
     <t>成交均量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>深创100ETF</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PE</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -355,7 +343,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -443,8 +431,6 @@
     <xf numFmtId="176" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -658,7 +644,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -766,6 +752,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -775,7 +764,7 @@
               <c:f>'模型四 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -883,6 +872,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>8666706.9546631575</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8941047.8112862259</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -925,7 +917,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1033,6 +1025,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1042,7 +1037,7 @@
               <c:f>'模型四 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1150,6 +1145,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>7984896.5277196188</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8087255.0088565843</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1192,7 +1190,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1300,6 +1298,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1309,7 +1310,7 @@
               <c:f>'模型四 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1417,6 +1418,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>-681810.42694353871</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-853792.8024296416</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1438,11 +1442,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="460530432"/>
-        <c:axId val="460532352"/>
+        <c:axId val="507716736"/>
+        <c:axId val="507718656"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="460530432"/>
+        <c:axId val="507716736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1485,14 +1489,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460532352"/>
+        <c:crossAx val="507718656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="460532352"/>
+        <c:axId val="507718656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1543,7 +1547,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460530432"/>
+        <c:crossAx val="507716736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1734,7 +1738,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1842,6 +1846,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>256588.26308475045</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>274340.85662306892</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1856,8 +1863,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="491768448"/>
-        <c:axId val="491766912"/>
+        <c:axId val="439870592"/>
+        <c:axId val="439868800"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1882,7 +1889,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1990,6 +1997,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1999,7 +2009,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2107,6 +2117,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0.64999997615814209</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.63599997758865356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2123,11 +2136,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="491763584"/>
-        <c:axId val="491765120"/>
+        <c:axId val="439865728"/>
+        <c:axId val="439867264"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="491763584"/>
+        <c:axId val="439865728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2170,14 +2183,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491765120"/>
+        <c:crossAx val="439867264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="491765120"/>
+        <c:axId val="439867264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2228,12 +2241,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491763584"/>
+        <c:crossAx val="439865728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="491766912"/>
+        <c:axId val="439868800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2270,12 +2283,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491768448"/>
+        <c:crossAx val="439870592"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="491768448"/>
+        <c:axId val="439870592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2284,7 +2297,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="491766912"/>
+        <c:crossAx val="439868800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2463,7 +2476,7 @@
               <c:f>'模型四 (3)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2571,6 +2584,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2580,7 +2596,7 @@
               <c:f>'模型四 (3)PE副本成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2688,6 +2704,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>68283485.966209456</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>72410666.244180724</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2730,7 +2749,7 @@
               <c:f>'模型四 (3)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2838,6 +2857,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2847,7 +2869,7 @@
               <c:f>'模型四 (3)PE副本成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2955,6 +2977,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>69275607.223186716</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>71910697.597159117</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2997,7 +3022,7 @@
               <c:f>'模型四 (3)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3105,6 +3130,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3114,7 +3142,7 @@
               <c:f>'模型四 (3)PE副本成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3222,6 +3250,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>992121.25697726011</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-499968.64702160656</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3243,11 +3274,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="491825024"/>
-        <c:axId val="491826560"/>
+        <c:axId val="479388032"/>
+        <c:axId val="479389568"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="491825024"/>
+        <c:axId val="479388032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3290,14 +3321,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491826560"/>
+        <c:crossAx val="479389568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="491826560"/>
+        <c:axId val="479389568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3348,7 +3379,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491825024"/>
+        <c:crossAx val="479388032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3539,7 +3570,7 @@
               <c:f>'模型四 (3)PE副本成交量'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3647,6 +3678,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>2948035.3462715377</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4127180.277971263</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3661,8 +3695,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="491858176"/>
-        <c:axId val="491856640"/>
+        <c:axId val="495424256"/>
+        <c:axId val="495410176"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3687,7 +3721,7 @@
               <c:f>'模型四 (3)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3795,6 +3829,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3804,7 +3841,7 @@
               <c:f>'模型四 (3)PE副本成交量'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3912,6 +3949,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0.64999997615814209</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.63599997758865356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3928,11 +3968,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="491853312"/>
-        <c:axId val="491854848"/>
+        <c:axId val="495407104"/>
+        <c:axId val="495408640"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="491853312"/>
+        <c:axId val="495407104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3975,14 +4015,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491854848"/>
+        <c:crossAx val="495408640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="491854848"/>
+        <c:axId val="495408640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4033,12 +4073,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491853312"/>
+        <c:crossAx val="495407104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="491856640"/>
+        <c:axId val="495410176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4075,12 +4115,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491858176"/>
+        <c:crossAx val="495424256"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="491858176"/>
+        <c:axId val="495424256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4089,7 +4129,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="491856640"/>
+        <c:crossAx val="495410176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4268,7 +4308,7 @@
               <c:f>'模型四 (3)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4376,6 +4416,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4385,7 +4428,7 @@
               <c:f>'模型四 (3)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4493,6 +4536,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>76657380.291236952</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>78943701.198407009</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4535,7 +4581,7 @@
               <c:f>'模型四 (3)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4643,6 +4689,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4652,7 +4701,7 @@
               <c:f>'模型四 (3)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4760,6 +4809,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>71882483.150818676</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>72620566.060764715</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4802,7 +4854,7 @@
               <c:f>'模型四 (3)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4910,6 +4962,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4919,7 +4974,7 @@
               <c:f>'模型四 (3)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5027,6 +5082,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>-4774897.1404182762</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-6323135.1376422942</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5048,11 +5106,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="491927040"/>
-        <c:axId val="491928576"/>
+        <c:axId val="495526272"/>
+        <c:axId val="495527808"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="491927040"/>
+        <c:axId val="495526272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5095,14 +5153,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491928576"/>
+        <c:crossAx val="495527808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="491928576"/>
+        <c:axId val="495527808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5153,7 +5211,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491927040"/>
+        <c:crossAx val="495526272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5344,7 +5402,7 @@
               <c:f>'模型四 (3)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5452,6 +5510,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>2068029.0378927437</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2286320.9071700629</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5466,8 +5527,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="491964288"/>
-        <c:axId val="491962752"/>
+        <c:axId val="495555328"/>
+        <c:axId val="495549440"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5492,7 +5553,7 @@
               <c:f>'模型四 (3)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5600,6 +5661,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5609,7 +5673,7 @@
               <c:f>'模型四 (3)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5717,6 +5781,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0.64999997615814209</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.63599997758865356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5733,11 +5800,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="491959424"/>
-        <c:axId val="491960960"/>
+        <c:axId val="495546368"/>
+        <c:axId val="495547904"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="491959424"/>
+        <c:axId val="495546368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5780,14 +5847,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491960960"/>
+        <c:crossAx val="495547904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="491960960"/>
+        <c:axId val="495547904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5838,12 +5905,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491959424"/>
+        <c:crossAx val="495546368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="491962752"/>
+        <c:axId val="495549440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5880,12 +5947,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491964288"/>
+        <c:crossAx val="495555328"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="491964288"/>
+        <c:axId val="495555328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5894,7 +5961,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="491962752"/>
+        <c:crossAx val="495549440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6056,7 +6123,7 @@
               <c:f>'模型四 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6164,6 +6231,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>256588.26308475045</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>274340.85662306892</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6178,8 +6248,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="572694528"/>
-        <c:axId val="491100800"/>
+        <c:axId val="520006656"/>
+        <c:axId val="520004736"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6204,7 +6274,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6312,6 +6382,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6321,7 +6394,7 @@
               <c:f>'模型四 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6429,6 +6502,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0.64999997615814209</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.63599997758865356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6445,11 +6521,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="460546048"/>
-        <c:axId val="460549120"/>
+        <c:axId val="519996544"/>
+        <c:axId val="519998848"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="460546048"/>
+        <c:axId val="519996544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6492,14 +6568,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460549120"/>
+        <c:crossAx val="519998848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="460549120"/>
+        <c:axId val="519998848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6550,12 +6626,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460546048"/>
+        <c:crossAx val="519996544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="491100800"/>
+        <c:axId val="520004736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6592,12 +6668,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="572694528"/>
+        <c:crossAx val="520006656"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="572694528"/>
+        <c:axId val="520006656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6606,7 +6682,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="491100800"/>
+        <c:crossAx val="520004736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6785,7 +6861,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6893,6 +6969,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6902,7 +6981,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7010,6 +7089,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>10262675.92117865</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>10523299.734970566</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7052,7 +7134,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7160,6 +7242,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7169,7 +7254,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7277,6 +7362,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>9351344.9630789924</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9410555.2062432561</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7319,7 +7407,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7427,6 +7515,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7436,7 +7527,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7544,6 +7635,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>-911330.95809965767</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-1112744.5287273098</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7565,11 +7659,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="573786752"/>
-        <c:axId val="573790080"/>
+        <c:axId val="520352128"/>
+        <c:axId val="520354432"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="573786752"/>
+        <c:axId val="520352128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7612,14 +7706,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="573790080"/>
+        <c:crossAx val="520354432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="573790080"/>
+        <c:axId val="520354432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7670,7 +7764,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="573786752"/>
+        <c:crossAx val="520352128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7870,7 +7964,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7978,6 +8072,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>243758.84993051292</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>260623.81379191545</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7992,8 +8089,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="573865984"/>
-        <c:axId val="573864192"/>
+        <c:axId val="569082624"/>
+        <c:axId val="566557696"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8018,7 +8115,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8126,6 +8223,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8135,7 +8235,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -8243,6 +8343,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0.64999997615814209</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.63599997758865356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8259,11 +8362,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="573859328"/>
-        <c:axId val="573862656"/>
+        <c:axId val="566517120"/>
+        <c:axId val="566556160"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="573859328"/>
+        <c:axId val="566517120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8306,14 +8409,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="573862656"/>
+        <c:crossAx val="566556160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="573862656"/>
+        <c:axId val="566556160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8364,12 +8467,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="573859328"/>
+        <c:crossAx val="566517120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="573864192"/>
+        <c:axId val="566557696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8406,12 +8509,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="573865984"/>
+        <c:crossAx val="569082624"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="573865984"/>
+        <c:axId val="569082624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8420,7 +8523,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="573864192"/>
+        <c:crossAx val="566557696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8599,7 +8702,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8707,6 +8810,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8716,7 +8822,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8824,6 +8930,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>91345528.857285634</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>93517533.719097197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8866,7 +8975,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8974,6 +9083,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8983,7 +9095,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9091,6 +9203,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>84751924.985979289</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>85098503.890734449</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9133,7 +9248,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9241,6 +9356,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9250,7 +9368,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9358,6 +9476,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>-6593603.8713063449</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-8419029.828362748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9379,11 +9500,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="573896960"/>
-        <c:axId val="576323584"/>
+        <c:axId val="569154176"/>
+        <c:axId val="570389248"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="573896960"/>
+        <c:axId val="569154176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9426,14 +9547,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="576323584"/>
+        <c:crossAx val="570389248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="576323584"/>
+        <c:axId val="570389248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9484,7 +9605,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="573896960"/>
+        <c:crossAx val="569154176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9684,7 +9805,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9792,6 +9913,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>1964627.5859981065</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2172004.8618115596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9806,8 +9930,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="576371328"/>
-        <c:axId val="576369792"/>
+        <c:axId val="578115072"/>
+        <c:axId val="573920768"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9832,7 +9956,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9940,6 +10064,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9949,7 +10076,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -10057,6 +10184,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0.64999997615814209</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.63599997758865356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10073,11 +10203,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="576363904"/>
-        <c:axId val="576366080"/>
+        <c:axId val="570541184"/>
+        <c:axId val="570542720"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="576363904"/>
+        <c:axId val="570541184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10120,14 +10250,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="576366080"/>
+        <c:crossAx val="570542720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="576366080"/>
+        <c:axId val="570542720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10178,12 +10308,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="576363904"/>
+        <c:crossAx val="570541184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="576369792"/>
+        <c:axId val="573920768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10220,12 +10350,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="576371328"/>
+        <c:crossAx val="578115072"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="576371328"/>
+        <c:axId val="578115072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10234,7 +10364,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="576369792"/>
+        <c:crossAx val="573920768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10413,7 +10543,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10521,6 +10651,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10530,7 +10663,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10638,6 +10771,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>11197645.76202393</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>11743582.900059368</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10680,7 +10816,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10788,6 +10924,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10797,7 +10936,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10905,6 +11044,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>11304292.173410445</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>11606752.265197005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10947,7 +11089,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11055,6 +11197,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11064,7 +11209,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11172,6 +11317,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>106646.41138651595</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-136830.63486236334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11193,11 +11341,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="576466944"/>
-        <c:axId val="576468864"/>
+        <c:axId val="579087360"/>
+        <c:axId val="579122304"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="576466944"/>
+        <c:axId val="579087360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11240,14 +11388,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="576468864"/>
+        <c:crossAx val="579122304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="576468864"/>
+        <c:axId val="579122304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11298,7 +11446,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="576466944"/>
+        <c:crossAx val="579087360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11489,7 +11637,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11597,6 +11745,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>389961.63757642492</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>545937.13803543919</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11611,8 +11762,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="578808448"/>
-        <c:axId val="578806912"/>
+        <c:axId val="611327360"/>
+        <c:axId val="611325056"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -11637,7 +11788,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11745,6 +11896,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11754,7 +11908,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -11862,6 +12016,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0.64999997615814209</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.63599997758865356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11878,11 +12035,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="576865024"/>
-        <c:axId val="576866560"/>
+        <c:axId val="611247616"/>
+        <c:axId val="611249152"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="576865024"/>
+        <c:axId val="611247616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11925,14 +12082,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="576866560"/>
+        <c:crossAx val="611249152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="576866560"/>
+        <c:axId val="611249152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11983,12 +12140,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="576865024"/>
+        <c:crossAx val="611247616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="578806912"/>
+        <c:axId val="611325056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12025,12 +12182,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="578808448"/>
+        <c:crossAx val="611327360"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="578808448"/>
+        <c:axId val="611327360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12039,7 +12196,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="578806912"/>
+        <c:crossAx val="611325056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12218,7 +12375,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -12326,6 +12483,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12335,7 +12495,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12443,6 +12603,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>8839441.7155067008</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9113782.5721297693</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12485,7 +12648,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -12593,6 +12756,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12602,7 +12768,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12710,6 +12876,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>8164827.5942446459</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8263310.6372795273</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12752,7 +12921,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -12860,6 +13029,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12869,7 +13041,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12977,6 +13149,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>-674614.12126205489</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-850471.93485024199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12998,11 +13173,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="491723008"/>
-        <c:axId val="491728896"/>
+        <c:axId val="612095488"/>
+        <c:axId val="612097024"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="491723008"/>
+        <c:axId val="612095488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13045,14 +13220,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491728896"/>
+        <c:crossAx val="612097024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="491728896"/>
+        <c:axId val="612097024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13103,7 +13278,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491723008"/>
+        <c:crossAx val="612095488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15627,8 +15802,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A39" s="49"/>
+    <row r="39" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="32">
+        <v>45471</v>
+      </c>
+      <c r="B39" s="31">
+        <v>0.63599997758865356</v>
+      </c>
+      <c r="C39" s="31">
+        <v>17.86000061</v>
+      </c>
+      <c r="D39" s="29">
+        <v>26.193870144829649</v>
+      </c>
+      <c r="E39" s="29">
+        <v>274340.85662306892</v>
+      </c>
+      <c r="F39" s="30">
+        <v>431353.5633495017</v>
+      </c>
+      <c r="G39" s="30">
+        <v>12715810.210432408</v>
+      </c>
+      <c r="H39" s="30">
+        <v>8087255.0088565843</v>
+      </c>
+      <c r="I39" s="30">
+        <v>8941047.8112862259</v>
+      </c>
+      <c r="J39" s="30">
+        <v>8087255.0088565843</v>
+      </c>
+      <c r="K39" s="30">
+        <v>-853792.8024296416</v>
+      </c>
+      <c r="L39" s="29">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -15687,7 +15897,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>2</v>
@@ -15723,16 +15933,16 @@
         <v>12</v>
       </c>
       <c r="M1" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="44" t="s">
+      <c r="O1" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="48" t="s">
+      <c r="P1" s="11" t="s">
         <v>21</v>
-      </c>
-      <c r="P1" s="11" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -17731,8 +17941,55 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A39" s="50"/>
+    <row r="39" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="15">
+        <v>45471</v>
+      </c>
+      <c r="B39" s="31">
+        <v>0.63599997758865356</v>
+      </c>
+      <c r="C39" s="16">
+        <v>17.86000061</v>
+      </c>
+      <c r="D39" s="17">
+        <v>26.193870144829649</v>
+      </c>
+      <c r="E39" s="17">
+        <v>260623.81379191545</v>
+      </c>
+      <c r="F39" s="18">
+        <v>409785.88518202654</v>
+      </c>
+      <c r="G39" s="18">
+        <v>14796470.971465556</v>
+      </c>
+      <c r="H39" s="18">
+        <v>9410555.2062432561</v>
+      </c>
+      <c r="I39" s="18">
+        <v>10523299.734970566</v>
+      </c>
+      <c r="J39" s="18">
+        <v>9410555.2062432561</v>
+      </c>
+      <c r="K39" s="18">
+        <v>-1112744.5287273098</v>
+      </c>
+      <c r="L39" s="17">
+        <v>0</v>
+      </c>
+      <c r="M39" s="22">
+        <v>1.3063773755220243E-2</v>
+      </c>
+      <c r="N39" s="22">
+        <v>2.9125402295008165E-2</v>
+      </c>
+      <c r="O39" s="22">
+        <v>44.853539267539169</v>
+      </c>
+      <c r="P39" s="1">
+        <v>0.95</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -17791,7 +18048,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>2</v>
@@ -17827,16 +18084,16 @@
         <v>12</v>
       </c>
       <c r="M1" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="44" t="s">
+      <c r="O1" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="48" t="s">
+      <c r="P1" s="11" t="s">
         <v>21</v>
-      </c>
-      <c r="P1" s="11" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -19835,8 +20092,55 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A39" s="50"/>
+    <row r="39" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="15">
+        <v>45471</v>
+      </c>
+      <c r="B39" s="31">
+        <v>0.63599997758865356</v>
+      </c>
+      <c r="C39" s="16">
+        <v>17.86000061</v>
+      </c>
+      <c r="D39" s="17">
+        <v>26.193870144829649</v>
+      </c>
+      <c r="E39" s="17">
+        <v>2172004.8618115596</v>
+      </c>
+      <c r="F39" s="18">
+        <v>3415102.1043216917</v>
+      </c>
+      <c r="G39" s="18">
+        <v>133802683.78841628</v>
+      </c>
+      <c r="H39" s="18">
+        <v>85098503.890734449</v>
+      </c>
+      <c r="I39" s="18">
+        <v>93517533.719097197</v>
+      </c>
+      <c r="J39" s="18">
+        <v>85098503.890734449</v>
+      </c>
+      <c r="K39" s="18">
+        <v>-8419029.828362748</v>
+      </c>
+      <c r="L39" s="17">
+        <v>0</v>
+      </c>
+      <c r="M39" s="22">
+        <v>1.3063773755220243E-2</v>
+      </c>
+      <c r="N39" s="22">
+        <v>2.9125402295008165E-2</v>
+      </c>
+      <c r="O39" s="22">
+        <v>44.853539267539169</v>
+      </c>
+      <c r="P39" s="1">
+        <v>0.95</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -19895,22 +20199,22 @@
   <sheetData>
     <row r="1" spans="1:36" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>23</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>24</v>
       </c>
       <c r="G1" s="40" t="s">
         <v>5</v>
@@ -19937,16 +20241,16 @@
         <v>12</v>
       </c>
       <c r="O1" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="44" t="s">
+      <c r="Q1" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="48" t="s">
+      <c r="R1" s="11" t="s">
         <v>21</v>
-      </c>
-      <c r="R1" s="11" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -22167,8 +22471,61 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A39" s="50"/>
+    <row r="39" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="15">
+        <v>45471</v>
+      </c>
+      <c r="B39" s="31">
+        <v>0.63599997758865356</v>
+      </c>
+      <c r="C39" s="16">
+        <v>17.86000061</v>
+      </c>
+      <c r="D39" s="17">
+        <v>26.193870144829649</v>
+      </c>
+      <c r="E39" s="17">
+        <v>8456200</v>
+      </c>
+      <c r="F39" s="17">
+        <v>4684454.1679955423</v>
+      </c>
+      <c r="G39" s="17">
+        <v>545937.13803543919</v>
+      </c>
+      <c r="H39" s="18">
+        <v>858391.75671879598</v>
+      </c>
+      <c r="I39" s="18">
+        <v>18249611.122948684</v>
+      </c>
+      <c r="J39" s="18">
+        <v>11606752.265197005</v>
+      </c>
+      <c r="K39" s="18">
+        <v>11743582.900059368</v>
+      </c>
+      <c r="L39" s="18">
+        <v>11606752.265197005</v>
+      </c>
+      <c r="M39" s="18">
+        <v>-136830.63486236334</v>
+      </c>
+      <c r="N39" s="17">
+        <v>0</v>
+      </c>
+      <c r="O39" s="22">
+        <v>1.3063773755220243E-2</v>
+      </c>
+      <c r="P39" s="22">
+        <v>2.9125402295008165E-2</v>
+      </c>
+      <c r="Q39" s="22">
+        <v>44.853539267539169</v>
+      </c>
+      <c r="R39" s="1">
+        <v>0.95</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -22263,19 +22620,19 @@
         <v>12</v>
       </c>
       <c r="M1" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="48" t="s">
+      <c r="Q1" s="11" t="s">
         <v>28</v>
-      </c>
-      <c r="O1" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="P1" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q1" s="11" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -24398,8 +24755,58 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A39" s="50"/>
+    <row r="39" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="15">
+        <v>45471</v>
+      </c>
+      <c r="B39" s="31">
+        <v>0.63599997758865356</v>
+      </c>
+      <c r="C39" s="16">
+        <v>17.86000061</v>
+      </c>
+      <c r="D39" s="17">
+        <v>26.193870144829649</v>
+      </c>
+      <c r="E39" s="17">
+        <v>274340.85662306892</v>
+      </c>
+      <c r="F39" s="18">
+        <v>431353.5633495017</v>
+      </c>
+      <c r="G39" s="18">
+        <v>12992627.246009115</v>
+      </c>
+      <c r="H39" s="18">
+        <v>8263310.6372795273</v>
+      </c>
+      <c r="I39" s="18">
+        <v>9113782.5721297693</v>
+      </c>
+      <c r="J39" s="18">
+        <v>8263310.6372795273</v>
+      </c>
+      <c r="K39" s="18">
+        <v>-850471.93485024199</v>
+      </c>
+      <c r="L39" s="17">
+        <v>0</v>
+      </c>
+      <c r="M39" s="21">
+        <v>59.999981177480358</v>
+      </c>
+      <c r="N39" s="21">
+        <v>46.023843651637272</v>
+      </c>
+      <c r="O39" s="21">
+        <v>35.388897565415505</v>
+      </c>
+      <c r="P39" s="21">
+        <v>67.293735824080812</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -24470,10 +24877,10 @@
         <v>4</v>
       </c>
       <c r="E1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>23</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>24</v>
       </c>
       <c r="G1" s="40" t="s">
         <v>5</v>
@@ -26314,8 +26721,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A39" s="50"/>
+    <row r="39" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="15">
+        <v>45471</v>
+      </c>
+      <c r="B39" s="31">
+        <v>0.63599997758865356</v>
+      </c>
+      <c r="C39" s="16">
+        <v>17.86000061</v>
+      </c>
+      <c r="D39" s="17">
+        <v>26.193870144829649</v>
+      </c>
+      <c r="E39" s="17">
+        <v>8456200</v>
+      </c>
+      <c r="F39" s="17">
+        <v>4684454.1679955423</v>
+      </c>
+      <c r="G39" s="17">
+        <v>4127180.277971263</v>
+      </c>
+      <c r="H39" s="18">
+        <v>6489277.3952904195</v>
+      </c>
+      <c r="I39" s="18">
+        <v>113067138.57098417</v>
+      </c>
+      <c r="J39" s="18">
+        <v>71910697.597159117</v>
+      </c>
+      <c r="K39" s="18">
+        <v>72410666.244180724</v>
+      </c>
+      <c r="L39" s="18">
+        <v>71910697.597159117</v>
+      </c>
+      <c r="M39" s="18">
+        <v>-499968.64702160656</v>
+      </c>
+      <c r="N39" s="17">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -28005,8 +28453,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A39" s="50"/>
+    <row r="39" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="15">
+        <v>45471</v>
+      </c>
+      <c r="B39" s="31">
+        <v>0.63599997758865356</v>
+      </c>
+      <c r="C39" s="16">
+        <v>17.86000061</v>
+      </c>
+      <c r="D39" s="17">
+        <v>26.193870144829649</v>
+      </c>
+      <c r="E39" s="17">
+        <v>2286320.9071700629</v>
+      </c>
+      <c r="F39" s="18">
+        <v>3594844.3203386231</v>
+      </c>
+      <c r="G39" s="18">
+        <v>114183283.99334253</v>
+      </c>
+      <c r="H39" s="18">
+        <v>72620566.060764715</v>
+      </c>
+      <c r="I39" s="18">
+        <v>78943701.198407009</v>
+      </c>
+      <c r="J39" s="18">
+        <v>72620566.060764715</v>
+      </c>
+      <c r="K39" s="18">
+        <v>-6323135.1376422942</v>
+      </c>
+      <c r="L39" s="17">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(RSI&KDJ)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(RSI&KDJ)cn.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="530" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="530" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="模型四 (1)PE副本" sheetId="14" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="34">
   <si>
     <t>in practice</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -125,6 +125,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>每年投入本金</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -142,6 +146,18 @@
   </si>
   <si>
     <t>年化收益率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>深创100ETF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE均值</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -166,6 +182,10 @@
   </si>
   <si>
     <t>成交均量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>深创100ETF</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -644,7 +664,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -755,6 +775,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -764,7 +787,7 @@
               <c:f>'模型四 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -875,6 +898,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>8941047.8112862259</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9209325.2065264452</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -917,7 +943,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1028,6 +1054,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1037,7 +1066,7 @@
               <c:f>'模型四 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1148,6 +1177,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>8087255.0088565843</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8317385.4645985421</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1190,7 +1222,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1301,6 +1333,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1310,7 +1345,7 @@
               <c:f>'模型四 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1421,6 +1456,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>-853792.8024296416</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-891939.74192790315</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1442,11 +1480,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="507716736"/>
-        <c:axId val="507718656"/>
+        <c:axId val="481277056"/>
+        <c:axId val="481278592"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="507716736"/>
+        <c:axId val="481277056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1489,14 +1527,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="507718656"/>
+        <c:crossAx val="481278592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="507718656"/>
+        <c:axId val="481278592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1547,7 +1585,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="507716736"/>
+        <c:crossAx val="481277056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1738,7 +1776,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1849,6 +1887,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>274340.85662306892</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>268277.3952402196</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1863,8 +1904,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="439870592"/>
-        <c:axId val="439868800"/>
+        <c:axId val="494171648"/>
+        <c:axId val="494170112"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1889,7 +1930,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2000,6 +2041,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2009,7 +2053,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2120,6 +2164,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>0.63599997758865356</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.63300001621246338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2136,11 +2183,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="439865728"/>
-        <c:axId val="439867264"/>
+        <c:axId val="494166784"/>
+        <c:axId val="494168320"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="439865728"/>
+        <c:axId val="494166784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2183,14 +2230,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439867264"/>
+        <c:crossAx val="494168320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="439867264"/>
+        <c:axId val="494168320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2241,12 +2288,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439865728"/>
+        <c:crossAx val="494166784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="439868800"/>
+        <c:axId val="494170112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2283,12 +2330,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439870592"/>
+        <c:crossAx val="494171648"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="439870592"/>
+        <c:axId val="494171648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2297,7 +2344,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="439868800"/>
+        <c:crossAx val="494170112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2476,7 +2523,7 @@
               <c:f>'模型四 (3)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2587,6 +2634,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2596,7 +2646,7 @@
               <c:f>'模型四 (3)PE副本成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2707,6 +2757,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>72410666.244180724</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>76592564.497348979</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2749,7 +2802,7 @@
               <c:f>'模型四 (3)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2860,6 +2913,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2869,7 +2925,7 @@
               <c:f>'模型四 (3)PE副本成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2980,6 +3036,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>71910697.597159117</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>75753398.801698089</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3022,7 +3081,7 @@
               <c:f>'模型四 (3)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3133,6 +3192,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3142,7 +3204,7 @@
               <c:f>'模型四 (3)PE副本成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3253,6 +3315,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>-499968.64702160656</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-839165.69565089047</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3274,11 +3339,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="479388032"/>
-        <c:axId val="479389568"/>
+        <c:axId val="494338816"/>
+        <c:axId val="494340352"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="479388032"/>
+        <c:axId val="494338816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3321,14 +3386,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="479389568"/>
+        <c:crossAx val="494340352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="479389568"/>
+        <c:axId val="494340352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3379,7 +3444,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="479388032"/>
+        <c:crossAx val="494338816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3570,7 +3635,7 @@
               <c:f>'模型四 (3)PE副本成交量'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3681,6 +3746,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>4127180.277971263</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4181898.253168257</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3695,8 +3763,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="495424256"/>
-        <c:axId val="495410176"/>
+        <c:axId val="495965312"/>
+        <c:axId val="495947136"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3721,7 +3789,7 @@
               <c:f>'模型四 (3)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3832,6 +3900,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3841,7 +3912,7 @@
               <c:f>'模型四 (3)PE副本成交量'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3952,6 +4023,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>0.63599997758865356</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.63300001621246338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3968,11 +4042,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="495407104"/>
-        <c:axId val="495408640"/>
+        <c:axId val="495944064"/>
+        <c:axId val="495945600"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="495407104"/>
+        <c:axId val="495944064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4015,14 +4089,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="495408640"/>
+        <c:crossAx val="495945600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="495408640"/>
+        <c:axId val="495945600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4073,12 +4147,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="495407104"/>
+        <c:crossAx val="495944064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="495410176"/>
+        <c:axId val="495947136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4115,12 +4189,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="495424256"/>
+        <c:crossAx val="495965312"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="495424256"/>
+        <c:axId val="495965312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4129,7 +4203,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="495410176"/>
+        <c:crossAx val="495947136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4308,7 +4382,7 @@
               <c:f>'模型四 (3)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4419,6 +4493,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4428,7 +4505,7 @@
               <c:f>'模型四 (3)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4539,6 +4616,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>78943701.198407009</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>81154644.338406831</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4581,7 +4661,7 @@
               <c:f>'模型四 (3)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4692,6 +4772,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4701,7 +4784,7 @@
               <c:f>'模型四 (3)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4812,6 +4895,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>72620566.060764715</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>74488963.758977965</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4854,7 +4940,7 @@
               <c:f>'模型四 (3)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4965,6 +5051,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4974,7 +5063,7 @@
               <c:f>'模型四 (3)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5085,6 +5174,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>-6323135.1376422942</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-6665680.5794288665</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5106,11 +5198,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="495526272"/>
-        <c:axId val="495527808"/>
+        <c:axId val="496075136"/>
+        <c:axId val="496076672"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="495526272"/>
+        <c:axId val="496075136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5153,14 +5245,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="495527808"/>
+        <c:crossAx val="496076672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="495527808"/>
+        <c:axId val="496076672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5211,7 +5303,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="495526272"/>
+        <c:crossAx val="496075136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5402,7 +5494,7 @@
               <c:f>'模型四 (3)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5513,6 +5605,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>2286320.9071700629</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2210943.1399998264</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5527,8 +5622,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="495555328"/>
-        <c:axId val="495549440"/>
+        <c:axId val="496472832"/>
+        <c:axId val="496471040"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5553,7 +5648,7 @@
               <c:f>'模型四 (3)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5664,6 +5759,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5673,7 +5771,7 @@
               <c:f>'模型四 (3)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5784,6 +5882,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>0.63599997758865356</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.63300001621246338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5800,11 +5901,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="495546368"/>
-        <c:axId val="495547904"/>
+        <c:axId val="496467968"/>
+        <c:axId val="496469504"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="495546368"/>
+        <c:axId val="496467968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5847,14 +5948,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="495547904"/>
+        <c:crossAx val="496469504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="495547904"/>
+        <c:axId val="496469504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5905,12 +6006,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="495546368"/>
+        <c:crossAx val="496467968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="495549440"/>
+        <c:axId val="496471040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5947,12 +6048,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="495555328"/>
+        <c:crossAx val="496472832"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="495555328"/>
+        <c:axId val="496472832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5961,7 +6062,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="495549440"/>
+        <c:crossAx val="496471040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6123,7 +6224,7 @@
               <c:f>'模型四 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6234,6 +6335,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>274340.85662306892</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>268277.3952402196</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6248,8 +6352,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="520006656"/>
-        <c:axId val="520004736"/>
+        <c:axId val="503975296"/>
+        <c:axId val="503973760"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6274,7 +6378,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6385,6 +6489,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6394,7 +6501,7 @@
               <c:f>'模型四 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6505,6 +6612,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>0.63599997758865356</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.63300001621246338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6521,11 +6631,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="519996544"/>
-        <c:axId val="519998848"/>
+        <c:axId val="493931136"/>
+        <c:axId val="503971840"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="519996544"/>
+        <c:axId val="493931136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6568,14 +6678,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="519998848"/>
+        <c:crossAx val="503971840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="519998848"/>
+        <c:axId val="503971840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6626,12 +6736,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="519996544"/>
+        <c:crossAx val="493931136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="520004736"/>
+        <c:axId val="503973760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6668,12 +6778,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="520006656"/>
+        <c:crossAx val="503975296"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="520006656"/>
+        <c:axId val="503975296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6682,7 +6792,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="520004736"/>
+        <c:crossAx val="503973760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6861,7 +6971,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6972,6 +7082,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6981,7 +7094,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7092,6 +7205,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>10523299.734970566</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>10778163.260448774</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7134,7 +7250,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7245,6 +7361,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7254,7 +7373,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7365,6 +7484,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>9410555.2062432561</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9621029.8903031498</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7407,7 +7529,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7518,6 +7640,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7527,7 +7652,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7638,6 +7763,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>-1112744.5287273098</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-1157133.3701456245</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7659,11 +7787,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="520352128"/>
-        <c:axId val="520354432"/>
+        <c:axId val="504009472"/>
+        <c:axId val="504011392"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="520352128"/>
+        <c:axId val="504009472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7706,14 +7834,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="520354432"/>
+        <c:crossAx val="504011392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="520354432"/>
+        <c:axId val="504011392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7764,7 +7892,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="520352128"/>
+        <c:crossAx val="504009472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7964,7 +8092,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8075,6 +8203,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>260623.81379191545</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>254863.52547820861</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8089,8 +8220,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="569082624"/>
-        <c:axId val="566557696"/>
+        <c:axId val="518746112"/>
+        <c:axId val="518736128"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8115,7 +8246,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8226,6 +8357,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8235,7 +8369,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -8346,6 +8480,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>0.63599997758865356</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.63300001621246338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8362,11 +8499,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="566517120"/>
-        <c:axId val="566556160"/>
+        <c:axId val="518723840"/>
+        <c:axId val="518734592"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="566517120"/>
+        <c:axId val="518723840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8409,14 +8546,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="566556160"/>
+        <c:crossAx val="518734592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="566556160"/>
+        <c:axId val="518734592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8467,12 +8604,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="566517120"/>
+        <c:crossAx val="518723840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="566557696"/>
+        <c:axId val="518736128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8509,12 +8646,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="569082624"/>
+        <c:crossAx val="518746112"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="569082624"/>
+        <c:axId val="518746112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8523,7 +8660,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="566557696"/>
+        <c:crossAx val="518736128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8702,7 +8839,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8813,6 +8950,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8822,7 +8962,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8933,6 +9073,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>93517533.719097197</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>95617929.702097028</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8975,7 +9118,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9086,6 +9229,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9095,7 +9241,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9206,6 +9352,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>85098503.890734449</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>86797496.99033846</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9248,7 +9397,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9359,6 +9508,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9368,7 +9520,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9479,6 +9631,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>-8419029.828362748</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-8820432.7117585689</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9500,11 +9655,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="569154176"/>
-        <c:axId val="570389248"/>
+        <c:axId val="518819200"/>
+        <c:axId val="518837760"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="569154176"/>
+        <c:axId val="518819200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9547,14 +9702,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="570389248"/>
+        <c:crossAx val="518837760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="570389248"/>
+        <c:axId val="518837760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9605,7 +9760,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="569154176"/>
+        <c:crossAx val="518819200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9805,7 +9960,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9916,6 +10071,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>2172004.8618115596</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2100395.9829998352</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9930,8 +10088,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="578115072"/>
-        <c:axId val="573920768"/>
+        <c:axId val="518966272"/>
+        <c:axId val="518963968"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9956,7 +10114,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10067,6 +10225,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10076,7 +10237,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -10187,6 +10348,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>0.63599997758865356</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.63300001621246338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10203,11 +10367,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="570541184"/>
-        <c:axId val="570542720"/>
+        <c:axId val="518915200"/>
+        <c:axId val="518916736"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="570541184"/>
+        <c:axId val="518915200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10250,14 +10414,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="570542720"/>
+        <c:crossAx val="518916736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="570542720"/>
+        <c:axId val="518916736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10308,12 +10472,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="570541184"/>
+        <c:crossAx val="518915200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="573920768"/>
+        <c:axId val="518963968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10350,12 +10514,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="578115072"/>
+        <c:crossAx val="518966272"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="578115072"/>
+        <c:axId val="518966272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10364,7 +10528,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="573920768"/>
+        <c:crossAx val="518963968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10543,7 +10707,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10654,6 +10818,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10663,7 +10830,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10774,6 +10941,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>11743582.900059368</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>12296758.048737954</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10816,7 +10986,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10927,6 +11097,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10936,7 +11109,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11047,6 +11220,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>11606752.265197005</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>12105179.285376254</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11089,7 +11265,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11200,6 +11376,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11209,7 +11388,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11320,6 +11499,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>-136830.63486236334</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-191578.76336169988</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11341,11 +11523,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="579087360"/>
-        <c:axId val="579122304"/>
+        <c:axId val="526178944"/>
+        <c:axId val="526185216"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="579087360"/>
+        <c:axId val="526178944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11388,14 +11570,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="579122304"/>
+        <c:crossAx val="526185216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="579122304"/>
+        <c:axId val="526185216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11446,7 +11628,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="579087360"/>
+        <c:crossAx val="526178944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11637,7 +11819,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11748,6 +11930,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>545937.13803543919</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>553175.14867858589</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11762,8 +11947,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="611327360"/>
-        <c:axId val="611325056"/>
+        <c:axId val="618876288"/>
+        <c:axId val="618874752"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -11788,7 +11973,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11899,6 +12084,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11908,7 +12096,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -12019,6 +12207,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>0.63599997758865356</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.63300001621246338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12035,11 +12226,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="611247616"/>
-        <c:axId val="611249152"/>
+        <c:axId val="618841216"/>
+        <c:axId val="618843136"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="611247616"/>
+        <c:axId val="618841216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12082,14 +12273,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="611249152"/>
+        <c:crossAx val="618843136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="611249152"/>
+        <c:axId val="618843136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12140,12 +12331,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="611247616"/>
+        <c:crossAx val="618841216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="611325056"/>
+        <c:axId val="618874752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12182,12 +12373,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="611327360"/>
+        <c:crossAx val="618876288"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="611327360"/>
+        <c:axId val="618876288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12196,7 +12387,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="611325056"/>
+        <c:crossAx val="618874752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12375,7 +12566,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -12486,6 +12677,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12495,7 +12689,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12606,6 +12800,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>9113782.5721297693</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9382059.9673699886</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12648,7 +12845,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -12759,6 +12956,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12768,7 +12968,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12879,6 +13079,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>8263310.6372795273</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8492610.6526064835</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12921,7 +13124,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -13032,6 +13235,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13041,7 +13247,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13152,6 +13358,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>-850471.93485024199</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-889449.31476350501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13173,11 +13382,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="612095488"/>
-        <c:axId val="612097024"/>
+        <c:axId val="652688384"/>
+        <c:axId val="656211328"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="612095488"/>
+        <c:axId val="652688384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13220,14 +13429,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="612097024"/>
+        <c:crossAx val="656211328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="612097024"/>
+        <c:axId val="656211328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13278,7 +13487,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="612095488"/>
+        <c:crossAx val="652688384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14130,7 +14339,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG39"/>
+  <dimension ref="A1:AG40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14267,28 +14476,28 @@
       </c>
       <c r="M3" s="27"/>
       <c r="P3" s="45" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="Q3" s="46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R3" s="46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S3" s="46" t="s">
         <v>10</v>
       </c>
       <c r="T3" s="46" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="U3" s="47" t="s">
         <v>12</v>
       </c>
       <c r="V3" s="46" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="W3" s="46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Y3" s="42">
         <v>44561</v>
@@ -15837,6 +16046,44 @@
         <v>-853792.8024296416</v>
       </c>
       <c r="L39" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="32">
+        <v>45504</v>
+      </c>
+      <c r="B40" s="31">
+        <v>0.63300001621246338</v>
+      </c>
+      <c r="C40" s="31">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D40" s="29">
+        <v>25.951256745485065</v>
+      </c>
+      <c r="E40" s="29">
+        <v>268277.3952402196</v>
+      </c>
+      <c r="F40" s="30">
+        <v>423818.93897167547</v>
+      </c>
+      <c r="G40" s="30">
+        <v>13139629.149404084</v>
+      </c>
+      <c r="H40" s="30">
+        <v>8317385.4645985421</v>
+      </c>
+      <c r="I40" s="30">
+        <v>9209325.2065264452</v>
+      </c>
+      <c r="J40" s="30">
+        <v>8317385.4645985421</v>
+      </c>
+      <c r="K40" s="30">
+        <v>-891939.74192790315</v>
+      </c>
+      <c r="L40" s="29">
         <v>0</v>
       </c>
     </row>
@@ -15856,7 +16103,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH39"/>
+  <dimension ref="A1:AH40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15897,7 +16144,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>2</v>
@@ -15933,16 +16180,16 @@
         <v>12</v>
       </c>
       <c r="M1" s="44" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N1" s="44" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="O1" s="48" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -16004,28 +16251,28 @@
       </c>
       <c r="M3" s="21"/>
       <c r="Q3" s="45" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="R3" s="46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="S3" s="46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T3" s="46" t="s">
         <v>10</v>
       </c>
       <c r="U3" s="46" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="V3" s="47" t="s">
         <v>12</v>
       </c>
       <c r="W3" s="46" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="X3" s="46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Z3" s="42">
         <v>44561</v>
@@ -17979,15 +18226,65 @@
         <v>0</v>
       </c>
       <c r="M39" s="22">
-        <v>1.3063773755220243E-2</v>
+        <v>1.0886478129350202E-2</v>
       </c>
       <c r="N39" s="22">
-        <v>2.9125402295008165E-2</v>
+        <v>2.6604501674088222E-2</v>
       </c>
       <c r="O39" s="22">
-        <v>44.853539267539169</v>
+        <v>40.919684430523347</v>
       </c>
       <c r="P39" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="15">
+        <v>45504</v>
+      </c>
+      <c r="B40" s="31">
+        <v>0.63300001621246338</v>
+      </c>
+      <c r="C40" s="16">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D40" s="17">
+        <v>25.951256745485065</v>
+      </c>
+      <c r="E40" s="17">
+        <v>254863.52547820861</v>
+      </c>
+      <c r="F40" s="18">
+        <v>402627.99202309171</v>
+      </c>
+      <c r="G40" s="18">
+        <v>15199098.963488648</v>
+      </c>
+      <c r="H40" s="18">
+        <v>9621029.8903031498</v>
+      </c>
+      <c r="I40" s="18">
+        <v>10778163.260448774</v>
+      </c>
+      <c r="J40" s="18">
+        <v>9621029.8903031498</v>
+      </c>
+      <c r="K40" s="18">
+        <v>-1157133.3701456245</v>
+      </c>
+      <c r="L40" s="17">
+        <v>0</v>
+      </c>
+      <c r="M40" s="22">
+        <v>9.0720651077918352E-3</v>
+      </c>
+      <c r="N40" s="22">
+        <v>2.2670411624438547E-2</v>
+      </c>
+      <c r="O40" s="22">
+        <v>40.017205060415456</v>
+      </c>
+      <c r="P40" s="1">
         <v>0.95</v>
       </c>
     </row>
@@ -18007,7 +18304,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:AH39"/>
+  <dimension ref="A1:AH40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18051,10 +18348,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>4</v>
@@ -18084,16 +18381,16 @@
         <v>12</v>
       </c>
       <c r="M1" s="44" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N1" s="44" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="O1" s="48" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -18155,28 +18452,28 @@
       </c>
       <c r="M3" s="21"/>
       <c r="Q3" s="45" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="R3" s="46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="S3" s="46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T3" s="46" t="s">
         <v>10</v>
       </c>
       <c r="U3" s="46" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="V3" s="47" t="s">
         <v>12</v>
       </c>
       <c r="W3" s="46" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="X3" s="46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Z3" s="42">
         <v>44561</v>
@@ -20130,15 +20427,65 @@
         <v>0</v>
       </c>
       <c r="M39" s="22">
-        <v>1.3063773755220243E-2</v>
+        <v>1.0886478129350202E-2</v>
       </c>
       <c r="N39" s="22">
-        <v>2.9125402295008165E-2</v>
+        <v>2.6604501674088222E-2</v>
       </c>
       <c r="O39" s="22">
-        <v>44.853539267539169</v>
+        <v>40.919684430523347</v>
       </c>
       <c r="P39" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="15">
+        <v>45504</v>
+      </c>
+      <c r="B40" s="31">
+        <v>0.63300001621246338</v>
+      </c>
+      <c r="C40" s="16">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D40" s="17">
+        <v>25.951256745485065</v>
+      </c>
+      <c r="E40" s="17">
+        <v>2100395.9829998352</v>
+      </c>
+      <c r="F40" s="18">
+        <v>3318161.0255991644</v>
+      </c>
+      <c r="G40" s="18">
+        <v>137120844.81401545</v>
+      </c>
+      <c r="H40" s="18">
+        <v>86797496.99033846</v>
+      </c>
+      <c r="I40" s="18">
+        <v>95617929.702097028</v>
+      </c>
+      <c r="J40" s="18">
+        <v>86797496.99033846</v>
+      </c>
+      <c r="K40" s="18">
+        <v>-8820432.7117585689</v>
+      </c>
+      <c r="L40" s="17">
+        <v>0</v>
+      </c>
+      <c r="M40" s="22">
+        <v>9.0720651077918352E-3</v>
+      </c>
+      <c r="N40" s="22">
+        <v>2.2670411624438547E-2</v>
+      </c>
+      <c r="O40" s="22">
+        <v>40.017205060415456</v>
+      </c>
+      <c r="P40" s="1">
         <v>0.95</v>
       </c>
     </row>
@@ -20158,7 +20505,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AJ39"/>
+  <dimension ref="A1:AJ40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -20202,7 +20549,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>3</v>
@@ -20211,10 +20558,10 @@
         <v>4</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G1" s="40" t="s">
         <v>5</v>
@@ -20241,16 +20588,16 @@
         <v>12</v>
       </c>
       <c r="O1" s="44" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="P1" s="44" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q1" s="48" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="R1" s="11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -20324,28 +20671,28 @@
       <c r="P3" s="22"/>
       <c r="Q3" s="22"/>
       <c r="S3" s="45" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="T3" s="46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="U3" s="46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="V3" s="46" t="s">
         <v>10</v>
       </c>
       <c r="W3" s="46" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="X3" s="47" t="s">
         <v>12</v>
       </c>
       <c r="Y3" s="46" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Z3" s="46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AB3" s="42">
         <v>44561</v>
@@ -22515,15 +22862,71 @@
         <v>0</v>
       </c>
       <c r="O39" s="22">
-        <v>1.3063773755220243E-2</v>
+        <v>1.0886478129350202E-2</v>
       </c>
       <c r="P39" s="22">
-        <v>2.9125402295008165E-2</v>
+        <v>2.6604501674088222E-2</v>
       </c>
       <c r="Q39" s="22">
-        <v>44.853539267539169</v>
+        <v>40.919684430523347</v>
       </c>
       <c r="R39" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="15">
+        <v>45504</v>
+      </c>
+      <c r="B40" s="31">
+        <v>0.63300001621246338</v>
+      </c>
+      <c r="C40" s="16">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D40" s="17">
+        <v>25.951256745485065</v>
+      </c>
+      <c r="E40" s="17">
+        <v>9012202</v>
+      </c>
+      <c r="F40" s="17">
+        <v>4764694.1608626992</v>
+      </c>
+      <c r="G40" s="17">
+        <v>553175.14867858589</v>
+      </c>
+      <c r="H40" s="18">
+        <v>873894.36731533252</v>
+      </c>
+      <c r="I40" s="18">
+        <v>19123505.490264017</v>
+      </c>
+      <c r="J40" s="18">
+        <v>12105179.285376254</v>
+      </c>
+      <c r="K40" s="18">
+        <v>12296758.048737954</v>
+      </c>
+      <c r="L40" s="18">
+        <v>12105179.285376254</v>
+      </c>
+      <c r="M40" s="18">
+        <v>-191578.76336169988</v>
+      </c>
+      <c r="N40" s="17">
+        <v>0</v>
+      </c>
+      <c r="O40" s="22">
+        <v>9.0720651077918352E-3</v>
+      </c>
+      <c r="P40" s="22">
+        <v>2.2670411624438547E-2</v>
+      </c>
+      <c r="Q40" s="22">
+        <v>40.017205060415456</v>
+      </c>
+      <c r="R40" s="1">
         <v>0.95</v>
       </c>
     </row>
@@ -22543,7 +22946,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AJ39"/>
+  <dimension ref="A1:AJ40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -22584,7 +22987,7 @@
   <sheetData>
     <row r="1" spans="1:36" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>2</v>
@@ -22620,19 +23023,19 @@
         <v>12</v>
       </c>
       <c r="M1" s="48" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N1" s="48" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="O1" s="48" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="P1" s="48" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="Q1" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -22710,28 +23113,28 @@
         <v>1</v>
       </c>
       <c r="S3" s="45" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="T3" s="46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="U3" s="46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="V3" s="46" t="s">
         <v>10</v>
       </c>
       <c r="W3" s="46" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="X3" s="47" t="s">
         <v>12</v>
       </c>
       <c r="Y3" s="46" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Z3" s="46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AB3" s="42">
         <v>44561</v>
@@ -24793,18 +25196,71 @@
         <v>0</v>
       </c>
       <c r="M39" s="21">
-        <v>59.999981177480358</v>
+        <v>62.893067379123451</v>
       </c>
       <c r="N39" s="21">
-        <v>46.023843651637272</v>
+        <v>51.646918227465996</v>
       </c>
       <c r="O39" s="21">
-        <v>35.388897565415505</v>
+        <v>40.808237786098999</v>
       </c>
       <c r="P39" s="21">
-        <v>67.293735824080812</v>
+        <v>73.324279110199996</v>
       </c>
       <c r="Q39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="15">
+        <v>45504</v>
+      </c>
+      <c r="B40" s="31">
+        <v>0.63300001621246338</v>
+      </c>
+      <c r="C40" s="16">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D40" s="17">
+        <v>25.951256745485065</v>
+      </c>
+      <c r="E40" s="17">
+        <v>268277.3952402196</v>
+      </c>
+      <c r="F40" s="18">
+        <v>423818.93897167547</v>
+      </c>
+      <c r="G40" s="18">
+        <v>13416446.184980791</v>
+      </c>
+      <c r="H40" s="18">
+        <v>8492610.6526064835</v>
+      </c>
+      <c r="I40" s="18">
+        <v>9382059.9673699886</v>
+      </c>
+      <c r="J40" s="18">
+        <v>8492610.6526064835</v>
+      </c>
+      <c r="K40" s="18">
+        <v>-889449.31476350501</v>
+      </c>
+      <c r="L40" s="17">
+        <v>0</v>
+      </c>
+      <c r="M40" s="21">
+        <v>65.986389868671111</v>
+      </c>
+      <c r="N40" s="21">
+        <v>56.426742107867703</v>
+      </c>
+      <c r="O40" s="21">
+        <v>46.014405893355239</v>
+      </c>
+      <c r="P40" s="21">
+        <v>77.251414536892625</v>
+      </c>
+      <c r="Q40" s="1">
         <v>1</v>
       </c>
     </row>
@@ -24824,7 +25280,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AJ39"/>
+  <dimension ref="A1:AJ40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -24868,7 +25324,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>3</v>
@@ -24877,10 +25333,10 @@
         <v>4</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G1" s="40" t="s">
         <v>5</v>
@@ -24976,28 +25432,28 @@
       </c>
       <c r="O3" s="7"/>
       <c r="S3" s="45" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="T3" s="46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="U3" s="46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="V3" s="46" t="s">
         <v>10</v>
       </c>
       <c r="W3" s="46" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="X3" s="47" t="s">
         <v>12</v>
       </c>
       <c r="Y3" s="46" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Z3" s="46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AB3" s="42">
         <v>44561</v>
@@ -26762,6 +27218,50 @@
         <v>-499968.64702160656</v>
       </c>
       <c r="N39" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="15">
+        <v>45504</v>
+      </c>
+      <c r="B40" s="31">
+        <v>0.63300001621246338</v>
+      </c>
+      <c r="C40" s="16">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D40" s="17">
+        <v>25.951256745485065</v>
+      </c>
+      <c r="E40" s="17">
+        <v>9012202</v>
+      </c>
+      <c r="F40" s="17">
+        <v>4764694.1608626992</v>
+      </c>
+      <c r="G40" s="17">
+        <v>4181898.253168257</v>
+      </c>
+      <c r="H40" s="18">
+        <v>6606474.1643934222</v>
+      </c>
+      <c r="I40" s="18">
+        <v>119673612.73537759</v>
+      </c>
+      <c r="J40" s="18">
+        <v>75753398.801698089</v>
+      </c>
+      <c r="K40" s="18">
+        <v>76592564.497348979</v>
+      </c>
+      <c r="L40" s="18">
+        <v>75753398.801698089</v>
+      </c>
+      <c r="M40" s="18">
+        <v>-839165.69565089047</v>
+      </c>
+      <c r="N40" s="17">
         <v>0</v>
       </c>
     </row>
@@ -26781,7 +27281,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AG39"/>
+  <dimension ref="A1:AG40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -26825,13 +27325,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E1" s="40" t="s">
         <v>5</v>
@@ -26918,28 +27418,28 @@
       </c>
       <c r="M3" s="7"/>
       <c r="P3" s="45" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="Q3" s="46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R3" s="46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S3" s="46" t="s">
         <v>10</v>
       </c>
       <c r="T3" s="46" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="U3" s="47" t="s">
         <v>12</v>
       </c>
       <c r="V3" s="46" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="W3" s="46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Y3" s="42">
         <v>44561</v>
@@ -28488,6 +28988,44 @@
         <v>-6323135.1376422942</v>
       </c>
       <c r="L39" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="15">
+        <v>45504</v>
+      </c>
+      <c r="B40" s="31">
+        <v>0.63300001621246338</v>
+      </c>
+      <c r="C40" s="16">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D40" s="17">
+        <v>25.951256745485065</v>
+      </c>
+      <c r="E40" s="17">
+        <v>2210943.1399998264</v>
+      </c>
+      <c r="F40" s="18">
+        <v>3492801.0795780676</v>
+      </c>
+      <c r="G40" s="18">
+        <v>117676085.07292061</v>
+      </c>
+      <c r="H40" s="18">
+        <v>74488963.758977965</v>
+      </c>
+      <c r="I40" s="18">
+        <v>81154644.338406831</v>
+      </c>
+      <c r="J40" s="18">
+        <v>74488963.758977965</v>
+      </c>
+      <c r="K40" s="18">
+        <v>-6665680.5794288665</v>
+      </c>
+      <c r="L40" s="17">
         <v>0</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(RSI&KDJ)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(RSI&KDJ)cn.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="530" firstSheet="5" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="530" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="模型四 (1)PE副本" sheetId="14" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="30">
   <si>
     <t>in practice</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -125,10 +125,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>每年投入本金</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -149,15 +145,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>深创100ETF</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PE均值</t>
+    <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -182,10 +170,6 @@
   </si>
   <si>
     <t>成交均量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>深创100ETF</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -664,7 +648,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -778,6 +762,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -787,7 +774,7 @@
               <c:f>'模型四 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -901,6 +888,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>9209325.2065264452</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9314484.7442212198</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -943,7 +933,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1057,6 +1047,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1066,7 +1059,7 @@
               <c:f>'模型四 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1180,6 +1173,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>8317385.4645985421</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8120333.5067951689</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1222,7 +1218,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1336,6 +1332,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1345,7 +1344,7 @@
               <c:f>'模型四 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1459,6 +1458,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-891939.74192790315</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1194151.2374260509</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1480,11 +1482,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="481277056"/>
-        <c:axId val="481278592"/>
+        <c:axId val="472640896"/>
+        <c:axId val="472644224"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="481277056"/>
+        <c:axId val="472640896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1527,14 +1529,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="481278592"/>
+        <c:crossAx val="472644224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="481278592"/>
+        <c:axId val="472644224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1585,7 +1587,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="481277056"/>
+        <c:crossAx val="472640896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1776,7 +1778,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1890,6 +1892,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>268277.3952402196</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>105159.53769477447</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1904,8 +1909,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="494171648"/>
-        <c:axId val="494170112"/>
+        <c:axId val="480921856"/>
+        <c:axId val="480920320"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1930,7 +1935,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2044,6 +2049,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2053,7 +2061,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2167,6 +2175,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>0.63300001621246338</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.61000001430511475</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2183,11 +2194,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="494166784"/>
-        <c:axId val="494168320"/>
+        <c:axId val="480896512"/>
+        <c:axId val="480898048"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="494166784"/>
+        <c:axId val="480896512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2230,14 +2241,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494168320"/>
+        <c:crossAx val="480898048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="494168320"/>
+        <c:axId val="480898048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2288,12 +2299,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494166784"/>
+        <c:crossAx val="480896512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="494170112"/>
+        <c:axId val="480920320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2330,12 +2341,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494171648"/>
+        <c:crossAx val="480921856"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="494171648"/>
+        <c:axId val="480921856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2344,7 +2355,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="494170112"/>
+        <c:crossAx val="480920320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2523,7 +2534,7 @@
               <c:f>'模型四 (3)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2637,6 +2648,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2646,7 +2660,7 @@
               <c:f>'模型四 (3)PE副本成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2760,6 +2774,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>76592564.497348979</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>77383428.500605687</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2802,7 +2819,7 @@
               <c:f>'模型四 (3)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2916,6 +2933,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2925,7 +2945,7 @@
               <c:f>'模型四 (3)PE副本成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3039,6 +3059,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>75753398.801698089</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>73791769.4837818</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3081,7 +3104,7 @@
               <c:f>'模型四 (3)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3195,6 +3218,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3204,7 +3230,7 @@
               <c:f>'模型四 (3)PE副本成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3318,6 +3344,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-839165.69565089047</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-3591659.0168238878</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3339,11 +3368,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="494338816"/>
-        <c:axId val="494340352"/>
+        <c:axId val="481023488"/>
+        <c:axId val="481025024"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="494338816"/>
+        <c:axId val="481023488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3386,14 +3415,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494340352"/>
+        <c:crossAx val="481025024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="494340352"/>
+        <c:axId val="481025024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3444,7 +3473,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494338816"/>
+        <c:crossAx val="481023488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3635,7 +3664,7 @@
               <c:f>'模型四 (3)PE副本成交量'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3749,6 +3778,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>4181898.253168257</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>790864.00325670931</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3763,8 +3795,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="495965312"/>
-        <c:axId val="495947136"/>
+        <c:axId val="485603200"/>
+        <c:axId val="485601664"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3789,7 +3821,7 @@
               <c:f>'模型四 (3)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3903,6 +3935,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3912,7 +3947,7 @@
               <c:f>'模型四 (3)PE副本成交量'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4026,6 +4061,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>0.63300001621246338</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.61000001430511475</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4042,11 +4080,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="495944064"/>
-        <c:axId val="495945600"/>
+        <c:axId val="485598336"/>
+        <c:axId val="485599872"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="495944064"/>
+        <c:axId val="485598336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4089,14 +4127,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="495945600"/>
+        <c:crossAx val="485599872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="495945600"/>
+        <c:axId val="485599872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4147,12 +4185,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="495944064"/>
+        <c:crossAx val="485598336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="495947136"/>
+        <c:axId val="485601664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4189,12 +4227,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="495965312"/>
+        <c:crossAx val="485603200"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="495965312"/>
+        <c:axId val="485603200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4203,7 +4241,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="495947136"/>
+        <c:crossAx val="485601664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4382,7 +4420,7 @@
               <c:f>'模型四 (3)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4496,6 +4534,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4505,7 +4546,7 @@
               <c:f>'模型四 (3)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4619,6 +4660,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>81154644.338406831</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>81697237.673032597</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4661,7 +4705,7 @@
               <c:f>'模型四 (3)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4775,6 +4819,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4784,7 +4831,7 @@
               <c:f>'模型四 (3)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4898,6 +4945,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>74488963.758977965</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>72325006.91247724</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4940,7 +4990,7 @@
               <c:f>'模型四 (3)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5054,6 +5104,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5063,7 +5116,7 @@
               <c:f>'模型四 (3)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5177,6 +5230,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-6665680.5794288665</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-9372230.7605553567</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5198,11 +5254,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="496075136"/>
-        <c:axId val="496076672"/>
+        <c:axId val="487322752"/>
+        <c:axId val="487324288"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="496075136"/>
+        <c:axId val="487322752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5245,14 +5301,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496076672"/>
+        <c:crossAx val="487324288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="496076672"/>
+        <c:axId val="487324288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5303,7 +5359,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496075136"/>
+        <c:crossAx val="487322752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5494,7 +5550,7 @@
               <c:f>'模型四 (3)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5608,6 +5664,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>2210943.1399998264</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>542593.33462576638</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5622,8 +5681,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="496472832"/>
-        <c:axId val="496471040"/>
+        <c:axId val="488171008"/>
+        <c:axId val="488169472"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5648,7 +5707,7 @@
               <c:f>'模型四 (3)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5762,6 +5821,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5771,7 +5833,7 @@
               <c:f>'模型四 (3)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5885,6 +5947,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>0.63300001621246338</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.61000001430511475</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5901,11 +5966,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="496467968"/>
-        <c:axId val="496469504"/>
+        <c:axId val="488157952"/>
+        <c:axId val="488159488"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="496467968"/>
+        <c:axId val="488157952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5948,14 +6013,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496469504"/>
+        <c:crossAx val="488159488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="496469504"/>
+        <c:axId val="488159488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6006,12 +6071,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496467968"/>
+        <c:crossAx val="488157952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="496471040"/>
+        <c:axId val="488169472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6048,12 +6113,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496472832"/>
+        <c:crossAx val="488171008"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="496472832"/>
+        <c:axId val="488171008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6062,7 +6127,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="496471040"/>
+        <c:crossAx val="488169472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6224,7 +6289,7 @@
               <c:f>'模型四 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6338,6 +6403,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>268277.3952402196</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>105159.53769477447</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6352,8 +6420,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="503975296"/>
-        <c:axId val="503973760"/>
+        <c:axId val="478208768"/>
+        <c:axId val="478186112"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6378,7 +6446,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6492,6 +6560,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6501,7 +6572,7 @@
               <c:f>'模型四 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6615,6 +6686,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>0.63300001621246338</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.61000001430511475</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6631,11 +6705,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="493931136"/>
-        <c:axId val="503971840"/>
+        <c:axId val="478182784"/>
+        <c:axId val="478184576"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="493931136"/>
+        <c:axId val="478182784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6678,14 +6752,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="503971840"/>
+        <c:crossAx val="478184576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="503971840"/>
+        <c:axId val="478184576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6736,12 +6810,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493931136"/>
+        <c:crossAx val="478182784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="503973760"/>
+        <c:axId val="478186112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6778,12 +6852,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="503975296"/>
+        <c:crossAx val="478208768"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="503975296"/>
+        <c:axId val="478208768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6792,7 +6866,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="503973760"/>
+        <c:crossAx val="478186112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6971,7 +7045,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7085,6 +7159,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7094,7 +7171,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7208,6 +7285,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>10778163.260448774</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>10878064.821258809</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7250,7 +7330,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7364,6 +7444,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7373,7 +7456,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7487,6 +7570,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>9621029.8903031498</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9371352.1459629666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7529,7 +7615,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7643,6 +7729,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7652,7 +7741,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7766,6 +7855,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-1157133.3701456245</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1506712.6752958428</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7787,11 +7879,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="504009472"/>
-        <c:axId val="504011392"/>
+        <c:axId val="600866816"/>
+        <c:axId val="627659520"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="504009472"/>
+        <c:axId val="600866816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7834,14 +7926,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504011392"/>
+        <c:crossAx val="627659520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="504011392"/>
+        <c:axId val="627659520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7892,7 +7984,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504009472"/>
+        <c:crossAx val="600866816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8092,7 +8184,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8206,6 +8298,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>254863.52547820861</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>99901.560810035735</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8220,8 +8315,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="518746112"/>
-        <c:axId val="518736128"/>
+        <c:axId val="635463552"/>
+        <c:axId val="635460608"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8246,7 +8341,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8360,6 +8455,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8369,7 +8467,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -8483,6 +8581,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>0.63300001621246338</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.61000001430511475</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8499,11 +8600,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="518723840"/>
-        <c:axId val="518734592"/>
+        <c:axId val="635438976"/>
+        <c:axId val="635457536"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="518723840"/>
+        <c:axId val="635438976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8546,14 +8647,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="518734592"/>
+        <c:crossAx val="635457536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="518734592"/>
+        <c:axId val="635457536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8604,12 +8705,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="518723840"/>
+        <c:crossAx val="635438976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="518736128"/>
+        <c:axId val="635460608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8646,12 +8747,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="518746112"/>
+        <c:crossAx val="635463552"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="518746112"/>
+        <c:axId val="635463552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8660,7 +8761,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="518736128"/>
+        <c:crossAx val="635460608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8839,7 +8940,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8953,6 +9054,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8962,7 +9066,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9076,6 +9180,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>95617929.702097028</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>96133393.369991511</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9118,7 +9225,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9232,6 +9339,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9241,7 +9351,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9355,6 +9465,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>86797496.99033846</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>84159180.965973333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9397,7 +9510,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9511,6 +9624,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9520,7 +9636,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9634,6 +9750,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-8820432.7117585689</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-11974212.404018179</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9655,11 +9774,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="518819200"/>
-        <c:axId val="518837760"/>
+        <c:axId val="635541760"/>
+        <c:axId val="635646336"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="518819200"/>
+        <c:axId val="635541760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9702,14 +9821,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="518837760"/>
+        <c:crossAx val="635646336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="518837760"/>
+        <c:axId val="635646336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9760,7 +9879,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="518819200"/>
+        <c:crossAx val="635541760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9960,7 +10079,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10074,6 +10193,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>2100395.9829998352</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>515463.66789447801</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10088,8 +10210,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="518966272"/>
-        <c:axId val="518963968"/>
+        <c:axId val="635950208"/>
+        <c:axId val="635776384"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -10114,7 +10236,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10228,6 +10350,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10237,7 +10362,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -10351,6 +10476,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>0.63300001621246338</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.61000001430511475</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10367,11 +10495,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="518915200"/>
-        <c:axId val="518916736"/>
+        <c:axId val="635773312"/>
+        <c:axId val="635774848"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="518915200"/>
+        <c:axId val="635773312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10414,14 +10542,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="518916736"/>
+        <c:crossAx val="635774848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="518916736"/>
+        <c:axId val="635774848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10472,12 +10600,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="518915200"/>
+        <c:crossAx val="635773312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="518963968"/>
+        <c:axId val="635776384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10514,12 +10642,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="518966272"/>
+        <c:crossAx val="635950208"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="518966272"/>
+        <c:axId val="635950208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10528,7 +10656,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="518963968"/>
+        <c:crossAx val="635776384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10707,7 +10835,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10821,6 +10949,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10830,7 +10961,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10944,6 +11075,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>12296758.048737954</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>12401372.337776342</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10986,7 +11120,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11100,6 +11234,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11109,7 +11246,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11223,6 +11360,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>12105179.285376254</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>11769952.911663378</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11265,7 +11405,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11379,6 +11519,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11388,7 +11531,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11502,6 +11645,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-191578.76336169988</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-631419.42611296475</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11523,11 +11669,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="526178944"/>
-        <c:axId val="526185216"/>
+        <c:axId val="638268928"/>
+        <c:axId val="638275584"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="526178944"/>
+        <c:axId val="638268928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11570,14 +11716,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="526185216"/>
+        <c:crossAx val="638275584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="526185216"/>
+        <c:axId val="638275584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11628,7 +11774,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="526178944"/>
+        <c:crossAx val="638268928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11819,7 +11965,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11933,6 +12079,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>553175.14867858589</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>104614.28903838751</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11947,8 +12096,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="618876288"/>
-        <c:axId val="618874752"/>
+        <c:axId val="478206592"/>
+        <c:axId val="478205056"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -11973,7 +12122,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -12087,6 +12236,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12096,7 +12248,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -12210,6 +12362,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>0.63300001621246338</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.61000001430511475</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12226,11 +12381,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="618841216"/>
-        <c:axId val="618843136"/>
+        <c:axId val="478197632"/>
+        <c:axId val="478199168"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="618841216"/>
+        <c:axId val="478197632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12273,14 +12428,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="618843136"/>
+        <c:crossAx val="478199168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="618843136"/>
+        <c:axId val="478199168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12331,12 +12486,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="618841216"/>
+        <c:crossAx val="478197632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="618874752"/>
+        <c:axId val="478205056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12373,12 +12528,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="618876288"/>
+        <c:crossAx val="478206592"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="618876288"/>
+        <c:axId val="478206592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12387,7 +12542,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="618874752"/>
+        <c:crossAx val="478205056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12566,7 +12721,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -12680,6 +12835,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12689,7 +12847,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12803,6 +12961,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>9382059.9673699886</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9487219.5050647631</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12845,7 +13006,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -12959,6 +13120,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12968,7 +13132,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13082,6 +13246,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>8492610.6526064835</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8289191.9024568591</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13124,7 +13291,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -13238,6 +13405,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13247,7 +13417,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13361,6 +13531,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-889449.31476350501</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1198027.602607904</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13382,11 +13555,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="652688384"/>
-        <c:axId val="656211328"/>
+        <c:axId val="480135040"/>
+        <c:axId val="480136576"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="652688384"/>
+        <c:axId val="480135040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13429,14 +13602,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="656211328"/>
+        <c:crossAx val="480136576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="656211328"/>
+        <c:axId val="480136576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13487,7 +13660,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="652688384"/>
+        <c:crossAx val="480135040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14339,7 +14512,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG40"/>
+  <dimension ref="A1:AG41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14476,28 +14649,28 @@
       </c>
       <c r="M3" s="27"/>
       <c r="P3" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="46" t="s">
+      <c r="R3" s="46" t="s">
         <v>14</v>
-      </c>
-      <c r="R3" s="46" t="s">
-        <v>15</v>
       </c>
       <c r="S3" s="46" t="s">
         <v>10</v>
       </c>
       <c r="T3" s="46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U3" s="47" t="s">
         <v>12</v>
       </c>
       <c r="V3" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="W3" s="46" t="s">
         <v>17</v>
-      </c>
-      <c r="W3" s="46" t="s">
-        <v>18</v>
       </c>
       <c r="Y3" s="42">
         <v>44561</v>
@@ -16084,6 +16257,44 @@
         <v>-891939.74192790315</v>
       </c>
       <c r="L40" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="32">
+        <v>45534</v>
+      </c>
+      <c r="B41" s="31">
+        <v>0.61000001430511475</v>
+      </c>
+      <c r="C41" s="31">
+        <v>20.56999969</v>
+      </c>
+      <c r="D41" s="29">
+        <v>25.729715551443242</v>
+      </c>
+      <c r="E41" s="29">
+        <v>105159.53769477447</v>
+      </c>
+      <c r="F41" s="30">
+        <v>172392.68070274981</v>
+      </c>
+      <c r="G41" s="30">
+        <v>13312021.830106834</v>
+      </c>
+      <c r="H41" s="30">
+        <v>8120333.5067951689</v>
+      </c>
+      <c r="I41" s="30">
+        <v>9314484.7442212198</v>
+      </c>
+      <c r="J41" s="30">
+        <v>8120333.5067951689</v>
+      </c>
+      <c r="K41" s="30">
+        <v>-1194151.2374260509</v>
+      </c>
+      <c r="L41" s="29">
         <v>0</v>
       </c>
     </row>
@@ -16103,7 +16314,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH40"/>
+  <dimension ref="A1:AH41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16144,7 +16355,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>2</v>
@@ -16180,16 +16391,16 @@
         <v>12</v>
       </c>
       <c r="M1" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="11" t="s">
         <v>22</v>
-      </c>
-      <c r="N1" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="P1" s="11" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -16251,28 +16462,28 @@
       </c>
       <c r="M3" s="21"/>
       <c r="Q3" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="46" t="s">
+      <c r="S3" s="46" t="s">
         <v>14</v>
-      </c>
-      <c r="S3" s="46" t="s">
-        <v>15</v>
       </c>
       <c r="T3" s="46" t="s">
         <v>10</v>
       </c>
       <c r="U3" s="46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="V3" s="47" t="s">
         <v>12</v>
       </c>
       <c r="W3" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="X3" s="46" t="s">
         <v>17</v>
-      </c>
-      <c r="X3" s="46" t="s">
-        <v>18</v>
       </c>
       <c r="Z3" s="42">
         <v>44561</v>
@@ -18285,6 +18496,56 @@
         <v>40.017205060415456</v>
       </c>
       <c r="P40" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="15">
+        <v>45534</v>
+      </c>
+      <c r="B41" s="31">
+        <v>0.61000001430511475</v>
+      </c>
+      <c r="C41" s="16">
+        <v>20.56999969</v>
+      </c>
+      <c r="D41" s="17">
+        <v>25.729715551443242</v>
+      </c>
+      <c r="E41" s="17">
+        <v>99901.560810035735</v>
+      </c>
+      <c r="F41" s="18">
+        <v>163773.0466676123</v>
+      </c>
+      <c r="G41" s="18">
+        <v>15362872.010156261</v>
+      </c>
+      <c r="H41" s="18">
+        <v>9371352.1459629666</v>
+      </c>
+      <c r="I41" s="18">
+        <v>10878064.821258809</v>
+      </c>
+      <c r="J41" s="18">
+        <v>9371352.1459629666</v>
+      </c>
+      <c r="K41" s="18">
+        <v>-1506712.6752958428</v>
+      </c>
+      <c r="L41" s="17">
+        <v>0</v>
+      </c>
+      <c r="M41" s="22">
+        <v>7.5600542564931957E-3</v>
+      </c>
+      <c r="N41" s="22">
+        <v>2.2725343338256893E-2</v>
+      </c>
+      <c r="O41" s="22">
+        <v>33.267062873220716</v>
+      </c>
+      <c r="P41" s="1">
         <v>0.95</v>
       </c>
     </row>
@@ -18304,7 +18565,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:AH40"/>
+  <dimension ref="A1:AH41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18348,10 +18609,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>4</v>
@@ -18381,16 +18642,16 @@
         <v>12</v>
       </c>
       <c r="M1" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="11" t="s">
         <v>22</v>
-      </c>
-      <c r="N1" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="P1" s="11" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -18452,28 +18713,28 @@
       </c>
       <c r="M3" s="21"/>
       <c r="Q3" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="46" t="s">
+      <c r="S3" s="46" t="s">
         <v>14</v>
-      </c>
-      <c r="S3" s="46" t="s">
-        <v>15</v>
       </c>
       <c r="T3" s="46" t="s">
         <v>10</v>
       </c>
       <c r="U3" s="46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="V3" s="47" t="s">
         <v>12</v>
       </c>
       <c r="W3" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="X3" s="46" t="s">
         <v>17</v>
-      </c>
-      <c r="X3" s="46" t="s">
-        <v>18</v>
       </c>
       <c r="Z3" s="42">
         <v>44561</v>
@@ -20486,6 +20747,56 @@
         <v>40.017205060415456</v>
       </c>
       <c r="P40" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="15">
+        <v>45534</v>
+      </c>
+      <c r="B41" s="31">
+        <v>0.61000001430511475</v>
+      </c>
+      <c r="C41" s="16">
+        <v>20.56999969</v>
+      </c>
+      <c r="D41" s="17">
+        <v>25.729715551443242</v>
+      </c>
+      <c r="E41" s="17">
+        <v>515463.66789447801</v>
+      </c>
+      <c r="F41" s="18">
+        <v>845022.38656776363</v>
+      </c>
+      <c r="G41" s="18">
+        <v>137965867.20058322</v>
+      </c>
+      <c r="H41" s="18">
+        <v>84159180.965973333</v>
+      </c>
+      <c r="I41" s="18">
+        <v>96133393.369991511</v>
+      </c>
+      <c r="J41" s="18">
+        <v>84159180.965973333</v>
+      </c>
+      <c r="K41" s="18">
+        <v>-11974212.404018179</v>
+      </c>
+      <c r="L41" s="17">
+        <v>0</v>
+      </c>
+      <c r="M41" s="22">
+        <v>7.5600542564931957E-3</v>
+      </c>
+      <c r="N41" s="22">
+        <v>2.2725343338256893E-2</v>
+      </c>
+      <c r="O41" s="22">
+        <v>33.267062873220716</v>
+      </c>
+      <c r="P41" s="1">
         <v>0.95</v>
       </c>
     </row>
@@ -20505,7 +20816,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AJ40"/>
+  <dimension ref="A1:AJ41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -20549,7 +20860,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>3</v>
@@ -20558,10 +20869,10 @@
         <v>4</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G1" s="40" t="s">
         <v>5</v>
@@ -20588,16 +20899,16 @@
         <v>12</v>
       </c>
       <c r="O1" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" s="11" t="s">
         <v>22</v>
-      </c>
-      <c r="P1" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q1" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="R1" s="11" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -20671,28 +20982,28 @@
       <c r="P3" s="22"/>
       <c r="Q3" s="22"/>
       <c r="S3" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="T3" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="T3" s="46" t="s">
+      <c r="U3" s="46" t="s">
         <v>14</v>
-      </c>
-      <c r="U3" s="46" t="s">
-        <v>15</v>
       </c>
       <c r="V3" s="46" t="s">
         <v>10</v>
       </c>
       <c r="W3" s="46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="X3" s="47" t="s">
         <v>12</v>
       </c>
       <c r="Y3" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z3" s="46" t="s">
         <v>17</v>
-      </c>
-      <c r="Z3" s="46" t="s">
-        <v>18</v>
       </c>
       <c r="AB3" s="42">
         <v>44561</v>
@@ -22927,6 +23238,62 @@
         <v>40.017205060415456</v>
       </c>
       <c r="R40" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="15">
+        <v>45534</v>
+      </c>
+      <c r="B41" s="31">
+        <v>0.61000001430511475</v>
+      </c>
+      <c r="C41" s="16">
+        <v>20.56999969</v>
+      </c>
+      <c r="D41" s="17">
+        <v>25.729715551443242</v>
+      </c>
+      <c r="E41" s="17">
+        <v>6956200</v>
+      </c>
+      <c r="F41" s="17">
+        <v>4772486.4689518735</v>
+      </c>
+      <c r="G41" s="17">
+        <v>104614.28903838751</v>
+      </c>
+      <c r="H41" s="18">
+        <v>171498.83046733943</v>
+      </c>
+      <c r="I41" s="18">
+        <v>19295004.320731357</v>
+      </c>
+      <c r="J41" s="18">
+        <v>11769952.911663378</v>
+      </c>
+      <c r="K41" s="18">
+        <v>12401372.337776342</v>
+      </c>
+      <c r="L41" s="18">
+        <v>11769952.911663378</v>
+      </c>
+      <c r="M41" s="18">
+        <v>-631419.42611296475</v>
+      </c>
+      <c r="N41" s="17">
+        <v>0</v>
+      </c>
+      <c r="O41" s="22">
+        <v>7.5600542564931957E-3</v>
+      </c>
+      <c r="P41" s="22">
+        <v>2.2725343338256893E-2</v>
+      </c>
+      <c r="Q41" s="22">
+        <v>33.267062873220716</v>
+      </c>
+      <c r="R41" s="1">
         <v>0.95</v>
       </c>
     </row>
@@ -22946,7 +23313,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AJ40"/>
+  <dimension ref="A1:AJ41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -22987,7 +23354,7 @@
   <sheetData>
     <row r="1" spans="1:36" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>2</v>
@@ -23023,19 +23390,19 @@
         <v>12</v>
       </c>
       <c r="M1" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" s="11" t="s">
         <v>29</v>
-      </c>
-      <c r="N1" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="O1" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="P1" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q1" s="11" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -23113,28 +23480,28 @@
         <v>1</v>
       </c>
       <c r="S3" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="T3" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="T3" s="46" t="s">
+      <c r="U3" s="46" t="s">
         <v>14</v>
-      </c>
-      <c r="U3" s="46" t="s">
-        <v>15</v>
       </c>
       <c r="V3" s="46" t="s">
         <v>10</v>
       </c>
       <c r="W3" s="46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="X3" s="47" t="s">
         <v>12</v>
       </c>
       <c r="Y3" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z3" s="46" t="s">
         <v>17</v>
-      </c>
-      <c r="Z3" s="46" t="s">
-        <v>18</v>
       </c>
       <c r="AB3" s="42">
         <v>44561</v>
@@ -25261,6 +25628,59 @@
         <v>77.251414536892625</v>
       </c>
       <c r="Q40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="15">
+        <v>45534</v>
+      </c>
+      <c r="B41" s="31">
+        <v>0.61000001430511475</v>
+      </c>
+      <c r="C41" s="16">
+        <v>20.56999969</v>
+      </c>
+      <c r="D41" s="17">
+        <v>25.729715551443242</v>
+      </c>
+      <c r="E41" s="17">
+        <v>105159.53769477447</v>
+      </c>
+      <c r="F41" s="18">
+        <v>172392.68070274981</v>
+      </c>
+      <c r="G41" s="18">
+        <v>13588838.865683541</v>
+      </c>
+      <c r="H41" s="18">
+        <v>8289191.9024568591</v>
+      </c>
+      <c r="I41" s="18">
+        <v>9487219.5050647631</v>
+      </c>
+      <c r="J41" s="18">
+        <v>8289191.9024568591</v>
+      </c>
+      <c r="K41" s="18">
+        <v>-1198027.602607904</v>
+      </c>
+      <c r="L41" s="17">
+        <v>0</v>
+      </c>
+      <c r="M41" s="21">
+        <v>50.340131641102225</v>
+      </c>
+      <c r="N41" s="21">
+        <v>54.39787195227921</v>
+      </c>
+      <c r="O41" s="21">
+        <v>48.808894579663225</v>
+      </c>
+      <c r="P41" s="21">
+        <v>65.575826697511175</v>
+      </c>
+      <c r="Q41" s="1">
         <v>1</v>
       </c>
     </row>
@@ -25280,7 +25700,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AJ40"/>
+  <dimension ref="A1:AJ41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -25321,10 +25741,10 @@
   <sheetData>
     <row r="1" spans="1:36" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>3</v>
@@ -25333,10 +25753,10 @@
         <v>4</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G1" s="40" t="s">
         <v>5</v>
@@ -25432,28 +25852,28 @@
       </c>
       <c r="O3" s="7"/>
       <c r="S3" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="T3" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="T3" s="46" t="s">
+      <c r="U3" s="46" t="s">
         <v>14</v>
-      </c>
-      <c r="U3" s="46" t="s">
-        <v>15</v>
       </c>
       <c r="V3" s="46" t="s">
         <v>10</v>
       </c>
       <c r="W3" s="46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="X3" s="47" t="s">
         <v>12</v>
       </c>
       <c r="Y3" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z3" s="46" t="s">
         <v>17</v>
-      </c>
-      <c r="Z3" s="46" t="s">
-        <v>18</v>
       </c>
       <c r="AB3" s="42">
         <v>44561</v>
@@ -27262,6 +27682,50 @@
         <v>-839165.69565089047</v>
       </c>
       <c r="N40" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="15">
+        <v>45534</v>
+      </c>
+      <c r="B41" s="31">
+        <v>0.61000001430511475</v>
+      </c>
+      <c r="C41" s="16">
+        <v>20.56999969</v>
+      </c>
+      <c r="D41" s="17">
+        <v>25.729715551443242</v>
+      </c>
+      <c r="E41" s="17">
+        <v>6956200</v>
+      </c>
+      <c r="F41" s="17">
+        <v>4772486.4689518735</v>
+      </c>
+      <c r="G41" s="17">
+        <v>790864.00325670931</v>
+      </c>
+      <c r="H41" s="18">
+        <v>1296498.3355904128</v>
+      </c>
+      <c r="I41" s="18">
+        <v>120970111.070968</v>
+      </c>
+      <c r="J41" s="18">
+        <v>73791769.4837818</v>
+      </c>
+      <c r="K41" s="18">
+        <v>77383428.500605687</v>
+      </c>
+      <c r="L41" s="18">
+        <v>73791769.4837818</v>
+      </c>
+      <c r="M41" s="18">
+        <v>-3591659.0168238878</v>
+      </c>
+      <c r="N41" s="17">
         <v>0</v>
       </c>
     </row>
@@ -27281,7 +27745,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AG40"/>
+  <dimension ref="A1:AG41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -27322,16 +27786,16 @@
   <sheetData>
     <row r="1" spans="1:33" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="E1" s="40" t="s">
         <v>5</v>
@@ -27418,28 +27882,28 @@
       </c>
       <c r="M3" s="7"/>
       <c r="P3" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="46" t="s">
+      <c r="R3" s="46" t="s">
         <v>14</v>
-      </c>
-      <c r="R3" s="46" t="s">
-        <v>15</v>
       </c>
       <c r="S3" s="46" t="s">
         <v>10</v>
       </c>
       <c r="T3" s="46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U3" s="47" t="s">
         <v>12</v>
       </c>
       <c r="V3" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="W3" s="46" t="s">
         <v>17</v>
-      </c>
-      <c r="W3" s="46" t="s">
-        <v>18</v>
       </c>
       <c r="Y3" s="42">
         <v>44561</v>
@@ -29026,6 +29490,44 @@
         <v>-6665680.5794288665</v>
       </c>
       <c r="L40" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="15">
+        <v>45534</v>
+      </c>
+      <c r="B41" s="31">
+        <v>0.61000001430511475</v>
+      </c>
+      <c r="C41" s="16">
+        <v>20.56999969</v>
+      </c>
+      <c r="D41" s="17">
+        <v>25.729715551443242</v>
+      </c>
+      <c r="E41" s="17">
+        <v>542593.33462576638</v>
+      </c>
+      <c r="F41" s="18">
+        <v>889497.24901869858</v>
+      </c>
+      <c r="G41" s="18">
+        <v>118565582.3219393</v>
+      </c>
+      <c r="H41" s="18">
+        <v>72325006.91247724</v>
+      </c>
+      <c r="I41" s="18">
+        <v>81697237.673032597</v>
+      </c>
+      <c r="J41" s="18">
+        <v>72325006.91247724</v>
+      </c>
+      <c r="K41" s="18">
+        <v>-9372230.7605553567</v>
+      </c>
+      <c r="L41" s="17">
         <v>0</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(RSI&KDJ)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(RSI&KDJ)cn.xlsx
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="29">
   <si>
     <t>in practice</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -142,10 +142,6 @@
   </si>
   <si>
     <t>年化收益率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -648,7 +644,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -765,6 +761,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -774,7 +773,7 @@
               <c:f>'模型四 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -891,6 +890,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>9314484.7442212198</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9315019.3275703583</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -933,7 +935,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1050,6 +1052,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1059,7 +1064,7 @@
               <c:f>'模型四 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1176,6 +1181,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>8120333.5067951689</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10210855.587295413</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1218,7 +1226,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1335,6 +1343,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1344,7 +1355,7 @@
               <c:f>'模型四 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1461,6 +1472,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>-1194151.2374260509</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>895836.25972505473</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1482,11 +1496,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="472640896"/>
-        <c:axId val="472644224"/>
+        <c:axId val="535188608"/>
+        <c:axId val="535190528"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="472640896"/>
+        <c:axId val="535188608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1529,14 +1543,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472644224"/>
+        <c:crossAx val="535190528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="472644224"/>
+        <c:axId val="535190528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1587,7 +1601,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472640896"/>
+        <c:crossAx val="535188608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1778,7 +1792,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1895,6 +1909,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>105159.53769477447</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>534.58334913787519</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1909,8 +1926,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="480921856"/>
-        <c:axId val="480920320"/>
+        <c:axId val="474913024"/>
+        <c:axId val="474911488"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1935,7 +1952,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2052,6 +2069,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2061,7 +2081,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2178,6 +2198,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>0.61000001430511475</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.76700001955032349</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2194,11 +2217,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="480896512"/>
-        <c:axId val="480898048"/>
+        <c:axId val="474904064"/>
+        <c:axId val="474905600"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="480896512"/>
+        <c:axId val="474904064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2241,14 +2264,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="480898048"/>
+        <c:crossAx val="474905600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="480898048"/>
+        <c:axId val="474905600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2299,12 +2322,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="480896512"/>
+        <c:crossAx val="474904064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="480920320"/>
+        <c:axId val="474911488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2341,12 +2364,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="480921856"/>
+        <c:crossAx val="474913024"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="480921856"/>
+        <c:axId val="474913024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2355,7 +2378,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="480920320"/>
+        <c:crossAx val="474911488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2534,7 +2557,7 @@
               <c:f>'模型四 (3)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2651,6 +2674,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2660,7 +2686,7 @@
               <c:f>'模型四 (3)PE副本成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2777,6 +2803,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>77383428.500605687</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>77383937.154961765</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2819,7 +2848,7 @@
               <c:f>'模型四 (3)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2936,6 +2965,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2945,7 +2977,7 @@
               <c:f>'模型四 (3)PE副本成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3062,6 +3094,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>73791769.4837818</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>92784586.210793331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3104,7 +3139,7 @@
               <c:f>'模型四 (3)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3221,6 +3256,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3230,7 +3268,7 @@
               <c:f>'模型四 (3)PE副本成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3347,6 +3385,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>-3591659.0168238878</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>15400649.055831566</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3368,11 +3409,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="481023488"/>
-        <c:axId val="481025024"/>
+        <c:axId val="474932736"/>
+        <c:axId val="474934272"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="481023488"/>
+        <c:axId val="474932736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3415,14 +3456,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="481025024"/>
+        <c:crossAx val="474934272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="481025024"/>
+        <c:axId val="474934272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3473,7 +3514,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="481023488"/>
+        <c:crossAx val="474932736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3664,7 +3705,7 @@
               <c:f>'模型四 (3)PE副本成交量'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3781,6 +3822,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>790864.00325670931</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>508.65435607668536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3795,8 +3839,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="485603200"/>
-        <c:axId val="485601664"/>
+        <c:axId val="475301760"/>
+        <c:axId val="475300224"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3821,7 +3865,7 @@
               <c:f>'模型四 (3)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3938,6 +3982,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3947,7 +3994,7 @@
               <c:f>'模型四 (3)PE副本成交量'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4064,6 +4111,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>0.61000001430511475</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.76700001955032349</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4080,11 +4130,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="485598336"/>
-        <c:axId val="485599872"/>
+        <c:axId val="475296896"/>
+        <c:axId val="475298432"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="485598336"/>
+        <c:axId val="475296896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4127,14 +4177,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485599872"/>
+        <c:crossAx val="475298432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="485599872"/>
+        <c:axId val="475298432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4185,12 +4235,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485598336"/>
+        <c:crossAx val="475296896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="485601664"/>
+        <c:axId val="475300224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4227,12 +4277,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485603200"/>
+        <c:crossAx val="475301760"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="485603200"/>
+        <c:axId val="475301760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4241,7 +4291,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="485601664"/>
+        <c:crossAx val="475300224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4420,7 +4470,7 @@
               <c:f>'模型四 (3)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4537,6 +4587,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4546,7 +4599,7 @@
               <c:f>'模型四 (3)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4663,6 +4716,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>81697237.673032597</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>81697434.336908206</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4705,7 +4761,7 @@
               <c:f>'模型四 (3)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4822,6 +4878,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4831,7 +4890,7 @@
               <c:f>'模型四 (3)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4948,6 +5007,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>72325006.91247724</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>90940000.622798532</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4990,7 +5052,7 @@
               <c:f>'模型四 (3)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5107,6 +5169,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5116,7 +5181,7 @@
               <c:f>'模型四 (3)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5233,6 +5298,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>-9372230.7605553567</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9242566.2858903259</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5254,11 +5322,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="487322752"/>
-        <c:axId val="487324288"/>
+        <c:axId val="475718784"/>
+        <c:axId val="475720320"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="487322752"/>
+        <c:axId val="475718784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5301,14 +5369,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="487324288"/>
+        <c:crossAx val="475720320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="487324288"/>
+        <c:axId val="475720320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5359,7 +5427,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="487322752"/>
+        <c:crossAx val="475718784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5550,7 +5618,7 @@
               <c:f>'模型四 (3)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5667,6 +5735,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>542593.33462576638</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>196.6638756048801</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5681,8 +5752,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="488171008"/>
-        <c:axId val="488169472"/>
+        <c:axId val="481089024"/>
+        <c:axId val="481087488"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5707,7 +5778,7 @@
               <c:f>'模型四 (3)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5824,6 +5895,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5833,7 +5907,7 @@
               <c:f>'模型四 (3)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5950,6 +6024,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>0.61000001430511475</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.76700001955032349</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5966,11 +6043,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="488157952"/>
-        <c:axId val="488159488"/>
+        <c:axId val="481080064"/>
+        <c:axId val="481081600"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="488157952"/>
+        <c:axId val="481080064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6013,14 +6090,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="488159488"/>
+        <c:crossAx val="481081600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="488159488"/>
+        <c:axId val="481081600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6071,12 +6148,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="488157952"/>
+        <c:crossAx val="481080064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="488169472"/>
+        <c:axId val="481087488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6113,12 +6190,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="488171008"/>
+        <c:crossAx val="481089024"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="488171008"/>
+        <c:axId val="481089024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6127,7 +6204,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="488169472"/>
+        <c:crossAx val="481087488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6289,7 +6366,7 @@
               <c:f>'模型四 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6406,6 +6483,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>105159.53769477447</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>534.58334913787519</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6420,8 +6500,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="478208768"/>
-        <c:axId val="478186112"/>
+        <c:axId val="535672320"/>
+        <c:axId val="535279872"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6446,7 +6526,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6563,6 +6643,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6572,7 +6655,7 @@
               <c:f>'模型四 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6689,6 +6772,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>0.61000001430511475</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.76700001955032349</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6705,11 +6791,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="478182784"/>
-        <c:axId val="478184576"/>
+        <c:axId val="535276160"/>
+        <c:axId val="535277952"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="478182784"/>
+        <c:axId val="535276160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6752,14 +6838,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="478184576"/>
+        <c:crossAx val="535277952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="478184576"/>
+        <c:axId val="535277952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6810,12 +6896,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="478182784"/>
+        <c:crossAx val="535276160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="478186112"/>
+        <c:axId val="535279872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6852,12 +6938,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="478208768"/>
+        <c:crossAx val="535672320"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="478208768"/>
+        <c:axId val="535672320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6866,7 +6952,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="478186112"/>
+        <c:crossAx val="535279872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7045,7 +7131,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7162,6 +7248,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7171,7 +7260,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7288,6 +7377,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>10878064.821258809</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10878572.67544049</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7330,7 +7422,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7447,6 +7539,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7456,7 +7551,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7573,6 +7668,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>9371352.1459629666</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>11783830.98632065</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7615,7 +7713,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7732,6 +7830,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7741,7 +7842,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7858,6 +7959,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>-1506712.6752958428</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>905258.31088015996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7879,11 +7983,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="600866816"/>
-        <c:axId val="627659520"/>
+        <c:axId val="541369088"/>
+        <c:axId val="541370624"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="600866816"/>
+        <c:axId val="541369088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7926,14 +8030,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="627659520"/>
+        <c:crossAx val="541370624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="627659520"/>
+        <c:axId val="541370624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7984,7 +8088,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="600866816"/>
+        <c:crossAx val="541369088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8184,7 +8288,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8301,6 +8405,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>99901.560810035735</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>507.85418168098141</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8315,8 +8422,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="635463552"/>
-        <c:axId val="635460608"/>
+        <c:axId val="542407680"/>
+        <c:axId val="542406144"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8341,7 +8448,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8458,6 +8565,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8467,7 +8577,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -8584,6 +8694,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>0.61000001430511475</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.76700001955032349</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8600,11 +8713,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="635438976"/>
-        <c:axId val="635457536"/>
+        <c:axId val="542400512"/>
+        <c:axId val="542404608"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="635438976"/>
+        <c:axId val="542400512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8647,14 +8760,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="635457536"/>
+        <c:crossAx val="542404608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="635457536"/>
+        <c:axId val="542404608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8705,12 +8818,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="635438976"/>
+        <c:crossAx val="542400512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="635460608"/>
+        <c:axId val="542406144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8747,12 +8860,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="635463552"/>
+        <c:crossAx val="542407680"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="635463552"/>
+        <c:axId val="542407680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8761,7 +8874,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="635460608"/>
+        <c:crossAx val="542406144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8940,7 +9053,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9057,6 +9170,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9066,7 +9182,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9183,6 +9299,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>96133393.369991511</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>96133580.200673342</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9225,7 +9344,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9342,6 +9461,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9351,7 +9473,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9468,6 +9590,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>84159180.965973333</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>105820009.6708065</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9510,7 +9635,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9627,6 +9752,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9636,7 +9764,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9753,6 +9881,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>-11974212.404018179</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9686429.4701331556</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9774,11 +9905,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="635541760"/>
-        <c:axId val="635646336"/>
+        <c:axId val="542507008"/>
+        <c:axId val="542508928"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="635541760"/>
+        <c:axId val="542507008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9821,14 +9952,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="635646336"/>
+        <c:crossAx val="542508928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="635646336"/>
+        <c:axId val="542508928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9879,7 +10010,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="635541760"/>
+        <c:crossAx val="542507008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10079,7 +10210,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10196,6 +10327,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>515463.66789447801</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>186.83068182463609</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10210,8 +10344,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="635950208"/>
-        <c:axId val="635776384"/>
+        <c:axId val="542870912"/>
+        <c:axId val="542869376"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -10236,7 +10370,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10353,6 +10487,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10362,7 +10499,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -10479,6 +10616,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>0.61000001430511475</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.76700001955032349</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10495,11 +10635,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="635773312"/>
-        <c:axId val="635774848"/>
+        <c:axId val="542831744"/>
+        <c:axId val="542867840"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="635773312"/>
+        <c:axId val="542831744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10542,14 +10682,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="635774848"/>
+        <c:crossAx val="542867840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="635774848"/>
+        <c:axId val="542867840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10600,12 +10740,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="635773312"/>
+        <c:crossAx val="542831744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="635776384"/>
+        <c:axId val="542869376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10642,12 +10782,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="635950208"/>
+        <c:crossAx val="542870912"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="635950208"/>
+        <c:axId val="542870912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10656,7 +10796,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="635776384"/>
+        <c:crossAx val="542869376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10835,7 +10975,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10952,6 +11092,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10961,7 +11104,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11078,6 +11221,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>12401372.337776342</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>12401439.621801924</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11120,7 +11266,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11237,6 +11383,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11246,7 +11395,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11363,6 +11512,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>11769952.911663378</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>14799335.975250108</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11405,7 +11557,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11522,6 +11674,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11531,7 +11686,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11648,6 +11803,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>-631419.42611296475</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2397896.3534481842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11669,11 +11827,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="638268928"/>
-        <c:axId val="638275584"/>
+        <c:axId val="573387520"/>
+        <c:axId val="474341376"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="638268928"/>
+        <c:axId val="573387520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11716,14 +11874,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="638275584"/>
+        <c:crossAx val="474341376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="638275584"/>
+        <c:axId val="474341376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11774,7 +11932,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="638268928"/>
+        <c:crossAx val="573387520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11965,7 +12123,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12082,6 +12240,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>104614.28903838751</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>67.284025582295712</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12096,8 +12257,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="478206592"/>
-        <c:axId val="478205056"/>
+        <c:axId val="474602112"/>
+        <c:axId val="474600576"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -12122,7 +12283,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -12239,6 +12400,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12248,7 +12412,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -12365,6 +12529,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>0.61000001430511475</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.76700001955032349</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12381,11 +12548,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="478197632"/>
-        <c:axId val="478199168"/>
+        <c:axId val="474572672"/>
+        <c:axId val="474574208"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="478197632"/>
+        <c:axId val="474572672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12428,14 +12595,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="478199168"/>
+        <c:crossAx val="474574208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="478199168"/>
+        <c:axId val="474574208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12486,12 +12653,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="478197632"/>
+        <c:crossAx val="474572672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="478205056"/>
+        <c:axId val="474600576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12528,12 +12695,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="478206592"/>
+        <c:crossAx val="474602112"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="478206592"/>
+        <c:axId val="474602112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12542,7 +12709,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="478205056"/>
+        <c:crossAx val="474600576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12721,7 +12888,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -12838,6 +13005,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12847,7 +13017,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12964,6 +13134,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>9487219.5050647631</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9487754.0884139016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13006,7 +13179,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -13123,6 +13296,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13132,7 +13308,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13249,6 +13425,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>8289191.9024568591</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10423174.258994609</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13291,7 +13470,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -13408,6 +13587,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13417,7 +13599,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13534,6 +13716,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>-1198027.602607904</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>935420.17058070749</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13555,11 +13740,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="480135040"/>
-        <c:axId val="480136576"/>
+        <c:axId val="474769280"/>
+        <c:axId val="474770816"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="480135040"/>
+        <c:axId val="474769280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13602,14 +13787,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="480136576"/>
+        <c:crossAx val="474770816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="480136576"/>
+        <c:axId val="474770816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13660,7 +13845,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="480135040"/>
+        <c:crossAx val="474769280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14512,7 +14697,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG41"/>
+  <dimension ref="A1:AG42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16298,6 +16483,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="42" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="32">
+        <v>45565</v>
+      </c>
+      <c r="B42" s="31">
+        <v>0.76700001955032349</v>
+      </c>
+      <c r="C42" s="31">
+        <v>25.239999770000001</v>
+      </c>
+      <c r="D42" s="29">
+        <v>25.607882301175056</v>
+      </c>
+      <c r="E42" s="29">
+        <v>534.58334913787519</v>
+      </c>
+      <c r="F42" s="30">
+        <v>696.97957693832984</v>
+      </c>
+      <c r="G42" s="30">
+        <v>13312718.809683772</v>
+      </c>
+      <c r="H42" s="30">
+        <v>10210855.587295413</v>
+      </c>
+      <c r="I42" s="30">
+        <v>9315019.3275703583</v>
+      </c>
+      <c r="J42" s="30">
+        <v>10210855.587295413</v>
+      </c>
+      <c r="K42" s="30">
+        <v>895836.25972505473</v>
+      </c>
+      <c r="L42" s="29">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -16314,7 +16537,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH41"/>
+  <dimension ref="A1:AH42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16355,7 +16578,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>2</v>
@@ -16391,16 +16614,16 @@
         <v>12</v>
       </c>
       <c r="M1" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="44" t="s">
+      <c r="O1" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="48" t="s">
+      <c r="P1" s="11" t="s">
         <v>21</v>
-      </c>
-      <c r="P1" s="11" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -18546,6 +18769,56 @@
         <v>33.267062873220716</v>
       </c>
       <c r="P41" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="15">
+        <v>45565</v>
+      </c>
+      <c r="B42" s="31">
+        <v>0.76700001955032349</v>
+      </c>
+      <c r="C42" s="16">
+        <v>25.239999770000001</v>
+      </c>
+      <c r="D42" s="17">
+        <v>25.607882301175056</v>
+      </c>
+      <c r="E42" s="17">
+        <v>507.85418168098141</v>
+      </c>
+      <c r="F42" s="18">
+        <v>662.13059809141339</v>
+      </c>
+      <c r="G42" s="18">
+        <v>15363534.140754351</v>
+      </c>
+      <c r="H42" s="18">
+        <v>11783830.98632065</v>
+      </c>
+      <c r="I42" s="18">
+        <v>10878572.67544049</v>
+      </c>
+      <c r="J42" s="18">
+        <v>11783830.98632065</v>
+      </c>
+      <c r="K42" s="18">
+        <v>905258.31088015996</v>
+      </c>
+      <c r="L42" s="17">
+        <v>0</v>
+      </c>
+      <c r="M42" s="22">
+        <v>3.2466712754612458E-2</v>
+      </c>
+      <c r="N42" s="22">
+        <v>4.5104453656082198E-2</v>
+      </c>
+      <c r="O42" s="22">
+        <v>71.981168427775472</v>
+      </c>
+      <c r="P42" s="1">
         <v>0.95</v>
       </c>
     </row>
@@ -18565,7 +18838,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:AH41"/>
+  <dimension ref="A1:AH42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18642,16 +18915,16 @@
         <v>12</v>
       </c>
       <c r="M1" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="44" t="s">
+      <c r="O1" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="48" t="s">
+      <c r="P1" s="11" t="s">
         <v>21</v>
-      </c>
-      <c r="P1" s="11" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -20797,6 +21070,56 @@
         <v>33.267062873220716</v>
       </c>
       <c r="P41" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="15">
+        <v>45565</v>
+      </c>
+      <c r="B42" s="31">
+        <v>0.76700001955032349</v>
+      </c>
+      <c r="C42" s="16">
+        <v>25.239999770000001</v>
+      </c>
+      <c r="D42" s="17">
+        <v>25.607882301175056</v>
+      </c>
+      <c r="E42" s="17">
+        <v>186.83068182463609</v>
+      </c>
+      <c r="F42" s="18">
+        <v>243.5862803943227</v>
+      </c>
+      <c r="G42" s="18">
+        <v>137966110.78686363</v>
+      </c>
+      <c r="H42" s="18">
+        <v>105820009.6708065</v>
+      </c>
+      <c r="I42" s="18">
+        <v>96133580.200673342</v>
+      </c>
+      <c r="J42" s="18">
+        <v>105820009.6708065</v>
+      </c>
+      <c r="K42" s="18">
+        <v>9686429.4701331556</v>
+      </c>
+      <c r="L42" s="17">
+        <v>0</v>
+      </c>
+      <c r="M42" s="22">
+        <v>3.2466712754612458E-2</v>
+      </c>
+      <c r="N42" s="22">
+        <v>4.5104453656082198E-2</v>
+      </c>
+      <c r="O42" s="22">
+        <v>71.981168427775472</v>
+      </c>
+      <c r="P42" s="1">
         <v>0.95</v>
       </c>
     </row>
@@ -20816,7 +21139,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AJ41"/>
+  <dimension ref="A1:AJ42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -20869,10 +21192,10 @@
         <v>4</v>
       </c>
       <c r="E1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>23</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>24</v>
       </c>
       <c r="G1" s="40" t="s">
         <v>5</v>
@@ -20899,16 +21222,16 @@
         <v>12</v>
       </c>
       <c r="O1" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="44" t="s">
+      <c r="Q1" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="48" t="s">
+      <c r="R1" s="11" t="s">
         <v>21</v>
-      </c>
-      <c r="R1" s="11" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -23294,6 +23617,62 @@
         <v>33.267062873220716</v>
       </c>
       <c r="R41" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="15">
+        <v>45565</v>
+      </c>
+      <c r="B42" s="31">
+        <v>0.76700001955032349</v>
+      </c>
+      <c r="C42" s="16">
+        <v>25.239999770000001</v>
+      </c>
+      <c r="D42" s="17">
+        <v>25.607882301175056</v>
+      </c>
+      <c r="E42" s="17">
+        <v>12479809</v>
+      </c>
+      <c r="F42" s="17">
+        <v>4825138.2799101509</v>
+      </c>
+      <c r="G42" s="17">
+        <v>67.284025582295712</v>
+      </c>
+      <c r="H42" s="18">
+        <v>87.723629553155646</v>
+      </c>
+      <c r="I42" s="18">
+        <v>19295092.04436091</v>
+      </c>
+      <c r="J42" s="18">
+        <v>14799335.975250108</v>
+      </c>
+      <c r="K42" s="18">
+        <v>12401439.621801924</v>
+      </c>
+      <c r="L42" s="18">
+        <v>14799335.975250108</v>
+      </c>
+      <c r="M42" s="18">
+        <v>2397896.3534481842</v>
+      </c>
+      <c r="N42" s="17">
+        <v>0</v>
+      </c>
+      <c r="O42" s="22">
+        <v>3.2466712754612458E-2</v>
+      </c>
+      <c r="P42" s="22">
+        <v>4.5104453656082198E-2</v>
+      </c>
+      <c r="Q42" s="22">
+        <v>71.981168427775472</v>
+      </c>
+      <c r="R42" s="1">
         <v>0.95</v>
       </c>
     </row>
@@ -23313,7 +23692,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AJ41"/>
+  <dimension ref="A1:AJ42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -23390,19 +23769,19 @@
         <v>12</v>
       </c>
       <c r="M1" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="48" t="s">
+      <c r="O1" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="48" t="s">
+      <c r="P1" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="48" t="s">
+      <c r="Q1" s="11" t="s">
         <v>28</v>
-      </c>
-      <c r="Q1" s="11" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -25681,6 +26060,59 @@
         <v>65.575826697511175</v>
       </c>
       <c r="Q41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="15">
+        <v>45565</v>
+      </c>
+      <c r="B42" s="31">
+        <v>0.76700001955032349</v>
+      </c>
+      <c r="C42" s="16">
+        <v>25.239999770000001</v>
+      </c>
+      <c r="D42" s="17">
+        <v>25.607882301175056</v>
+      </c>
+      <c r="E42" s="17">
+        <v>534.58334913787519</v>
+      </c>
+      <c r="F42" s="18">
+        <v>696.97957693832984</v>
+      </c>
+      <c r="G42" s="18">
+        <v>13589535.845260479</v>
+      </c>
+      <c r="H42" s="18">
+        <v>10423174.258994609</v>
+      </c>
+      <c r="I42" s="18">
+        <v>9487754.0884139016</v>
+      </c>
+      <c r="J42" s="18">
+        <v>10423174.258994609</v>
+      </c>
+      <c r="K42" s="18">
+        <v>935420.17058070749</v>
+      </c>
+      <c r="L42" s="17">
+        <v>0</v>
+      </c>
+      <c r="M42" s="21">
+        <v>100</v>
+      </c>
+      <c r="N42" s="21">
+        <v>69.598581301519474</v>
+      </c>
+      <c r="O42" s="21">
+        <v>55.738790153615305</v>
+      </c>
+      <c r="P42" s="21">
+        <v>97.318163597327825</v>
+      </c>
+      <c r="Q42" s="1">
         <v>1</v>
       </c>
     </row>
@@ -25700,7 +26132,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AJ41"/>
+  <dimension ref="A1:AJ42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -25741,7 +26173,7 @@
   <sheetData>
     <row r="1" spans="1:36" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>2</v>
@@ -25753,10 +26185,10 @@
         <v>4</v>
       </c>
       <c r="E1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>23</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>24</v>
       </c>
       <c r="G1" s="40" t="s">
         <v>5</v>
@@ -27726,6 +28158,50 @@
         <v>-3591659.0168238878</v>
       </c>
       <c r="N41" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="15">
+        <v>45565</v>
+      </c>
+      <c r="B42" s="31">
+        <v>0.76700001955032349</v>
+      </c>
+      <c r="C42" s="16">
+        <v>25.239999770000001</v>
+      </c>
+      <c r="D42" s="17">
+        <v>25.607882301175056</v>
+      </c>
+      <c r="E42" s="17">
+        <v>12479809</v>
+      </c>
+      <c r="F42" s="17">
+        <v>4825138.2799101509</v>
+      </c>
+      <c r="G42" s="17">
+        <v>508.65435607668536</v>
+      </c>
+      <c r="H42" s="18">
+        <v>663.17385021045902</v>
+      </c>
+      <c r="I42" s="18">
+        <v>120970774.24481821</v>
+      </c>
+      <c r="J42" s="18">
+        <v>92784586.210793331</v>
+      </c>
+      <c r="K42" s="18">
+        <v>77383937.154961765</v>
+      </c>
+      <c r="L42" s="18">
+        <v>92784586.210793331</v>
+      </c>
+      <c r="M42" s="18">
+        <v>15400649.055831566</v>
+      </c>
+      <c r="N42" s="17">
         <v>0</v>
       </c>
     </row>
@@ -27745,7 +28221,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AG41"/>
+  <dimension ref="A1:AG42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -27786,7 +28262,7 @@
   <sheetData>
     <row r="1" spans="1:33" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>2</v>
@@ -29528,6 +30004,44 @@
         <v>-9372230.7605553567</v>
       </c>
       <c r="L41" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="15">
+        <v>45565</v>
+      </c>
+      <c r="B42" s="31">
+        <v>0.76700001955032349</v>
+      </c>
+      <c r="C42" s="16">
+        <v>25.239999770000001</v>
+      </c>
+      <c r="D42" s="17">
+        <v>25.607882301175056</v>
+      </c>
+      <c r="E42" s="17">
+        <v>196.6638756048801</v>
+      </c>
+      <c r="F42" s="18">
+        <v>256.40661094139233</v>
+      </c>
+      <c r="G42" s="18">
+        <v>118565838.72855024</v>
+      </c>
+      <c r="H42" s="18">
+        <v>90940000.622798532</v>
+      </c>
+      <c r="I42" s="18">
+        <v>81697434.336908206</v>
+      </c>
+      <c r="J42" s="18">
+        <v>90940000.622798532</v>
+      </c>
+      <c r="K42" s="18">
+        <v>9242566.2858903259</v>
+      </c>
+      <c r="L42" s="17">
         <v>0</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(RSI&KDJ)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(RSI&KDJ)cn.xlsx
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="33">
   <si>
     <t>in practice</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -145,6 +145,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>SMA之MAX</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -166,6 +170,18 @@
   </si>
   <si>
     <t>成交均量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>深创100ETF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -644,7 +660,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -764,6 +780,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -773,7 +792,7 @@
               <c:f>'模型四 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -893,6 +912,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>9315019.3275703583</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9316744.2474954911</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -935,7 +957,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1055,6 +1077,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1064,7 +1089,7 @@
               <c:f>'模型四 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1184,6 +1209,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>10210855.587295413</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10345707.568357404</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1226,7 +1254,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1346,6 +1374,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1355,7 +1386,7 @@
               <c:f>'模型四 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1475,6 +1506,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>895836.25972505473</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1028963.3208619133</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1496,11 +1530,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="535188608"/>
-        <c:axId val="535190528"/>
+        <c:axId val="484728832"/>
+        <c:axId val="484730752"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="535188608"/>
+        <c:axId val="484728832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1543,14 +1577,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="535190528"/>
+        <c:crossAx val="484730752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="535190528"/>
+        <c:axId val="484730752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1601,7 +1635,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="535188608"/>
+        <c:crossAx val="484728832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1792,7 +1826,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1912,6 +1946,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>534.58334913787519</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1724.9199251330979</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1926,8 +1963,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="474913024"/>
-        <c:axId val="474911488"/>
+        <c:axId val="606345088"/>
+        <c:axId val="606343552"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1952,7 +1989,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2072,6 +2109,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2081,7 +2121,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2201,6 +2241,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>0.76700001955032349</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.77700001001358032</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2217,11 +2260,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="474904064"/>
-        <c:axId val="474905600"/>
+        <c:axId val="597783680"/>
+        <c:axId val="606240768"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="474904064"/>
+        <c:axId val="597783680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2264,14 +2307,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474905600"/>
+        <c:crossAx val="606240768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="474905600"/>
+        <c:axId val="606240768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2322,12 +2365,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474904064"/>
+        <c:crossAx val="597783680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="474911488"/>
+        <c:axId val="606343552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2364,12 +2407,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474913024"/>
+        <c:crossAx val="606345088"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="474913024"/>
+        <c:axId val="606345088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2378,7 +2421,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="474911488"/>
+        <c:crossAx val="606343552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2557,7 +2600,7 @@
               <c:f>'模型四 (3)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2677,6 +2720,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2686,7 +2732,7 @@
               <c:f>'模型四 (3)PE副本成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2802,10 +2848,13 @@
                   <c:v>76592564.497348979</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>77383428.500605687</c:v>
+                  <c:v>77383428.500733271</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>77383937.154961765</c:v>
+                  <c:v>77383937.155090466</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>77383937.155090466</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2848,7 +2897,7 @@
               <c:f>'模型四 (3)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2968,6 +3017,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2977,7 +3029,7 @@
               <c:f>'模型四 (3)PE副本成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3093,10 +3145,13 @@
                   <c:v>75753398.801698089</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>73791769.4837818</c:v>
+                  <c:v>73791769.483909383</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>92784586.210793331</c:v>
+                  <c:v>92784586.21095489</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>93994292.799737975</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3139,7 +3194,7 @@
               <c:f>'模型四 (3)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3259,6 +3314,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3268,7 +3326,7 @@
               <c:f>'模型四 (3)PE副本成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3387,7 +3445,10 @@
                   <c:v>-3591659.0168238878</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>15400649.055831566</c:v>
+                  <c:v>15400649.055864424</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>16610355.644647509</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3409,11 +3470,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="474932736"/>
-        <c:axId val="474934272"/>
+        <c:axId val="606406912"/>
+        <c:axId val="606449664"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="474932736"/>
+        <c:axId val="606406912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3456,14 +3517,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474934272"/>
+        <c:crossAx val="606449664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="474934272"/>
+        <c:axId val="606449664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3514,7 +3575,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474932736"/>
+        <c:crossAx val="606406912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3705,7 +3766,7 @@
               <c:f>'模型四 (3)PE副本成交量'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3821,10 +3882,13 @@
                   <c:v>4181898.253168257</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>790864.00325670931</c:v>
+                  <c:v>790864.00338428561</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>508.65435607668536</c:v>
+                  <c:v>508.65435720173048</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3839,8 +3903,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="475301760"/>
-        <c:axId val="475300224"/>
+        <c:axId val="486150144"/>
+        <c:axId val="608691328"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3865,7 +3929,7 @@
               <c:f>'模型四 (3)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3985,6 +4049,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3994,7 +4061,7 @@
               <c:f>'模型四 (3)PE副本成交量'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4114,6 +4181,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>0.76700001955032349</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.77700001001358032</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4130,11 +4200,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="475296896"/>
-        <c:axId val="475298432"/>
+        <c:axId val="607633408"/>
+        <c:axId val="607635712"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="475296896"/>
+        <c:axId val="607633408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4177,14 +4247,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475298432"/>
+        <c:crossAx val="607635712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="475298432"/>
+        <c:axId val="607635712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4235,12 +4305,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475296896"/>
+        <c:crossAx val="607633408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="475300224"/>
+        <c:axId val="608691328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4277,12 +4347,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475301760"/>
+        <c:crossAx val="486150144"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="475301760"/>
+        <c:axId val="486150144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4291,7 +4361,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="475300224"/>
+        <c:crossAx val="608691328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4470,7 +4540,7 @@
               <c:f>'模型四 (3)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4590,6 +4660,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4599,7 +4672,7 @@
               <c:f>'模型四 (3)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4719,6 +4792,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>81697434.336908206</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>81698574.205692559</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4761,7 +4837,7 @@
               <c:f>'模型四 (3)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4881,6 +4957,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4890,7 +4969,7 @@
               <c:f>'模型四 (3)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5010,6 +5089,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>90940000.622798532</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>92126797.748136446</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5052,7 +5134,7 @@
               <c:f>'模型四 (3)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5172,6 +5254,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5181,7 +5266,7 @@
               <c:f>'模型四 (3)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5301,6 +5386,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>9242566.2858903259</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10428223.542443886</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5322,11 +5410,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="475718784"/>
-        <c:axId val="475720320"/>
+        <c:axId val="486168448"/>
+        <c:axId val="486169984"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="475718784"/>
+        <c:axId val="486168448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5369,14 +5457,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475720320"/>
+        <c:crossAx val="486169984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="475720320"/>
+        <c:axId val="486169984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5427,7 +5515,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475718784"/>
+        <c:crossAx val="486168448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5618,7 +5706,7 @@
               <c:f>'模型四 (3)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5738,6 +5826,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>196.6638756048801</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1139.868784348736</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5752,8 +5843,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="481089024"/>
-        <c:axId val="481087488"/>
+        <c:axId val="487329152"/>
+        <c:axId val="487327616"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5778,7 +5869,7 @@
               <c:f>'模型四 (3)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5898,6 +5989,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5907,7 +6001,7 @@
               <c:f>'模型四 (3)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6027,6 +6121,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>0.76700001955032349</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.77700001001358032</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6043,11 +6140,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="481080064"/>
-        <c:axId val="481081600"/>
+        <c:axId val="486206080"/>
+        <c:axId val="487326080"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="481080064"/>
+        <c:axId val="486206080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6090,14 +6187,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="481081600"/>
+        <c:crossAx val="487326080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="481081600"/>
+        <c:axId val="487326080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6148,12 +6245,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="481080064"/>
+        <c:crossAx val="486206080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="481087488"/>
+        <c:axId val="487327616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6190,12 +6287,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="481089024"/>
+        <c:crossAx val="487329152"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="481089024"/>
+        <c:axId val="487329152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6204,7 +6301,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="481087488"/>
+        <c:crossAx val="487327616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6366,7 +6463,7 @@
               <c:f>'模型四 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6486,6 +6583,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>534.58334913787519</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1724.9199251330979</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6500,8 +6600,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="535672320"/>
-        <c:axId val="535279872"/>
+        <c:axId val="517347200"/>
+        <c:axId val="517334912"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6526,7 +6626,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6646,6 +6746,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6655,7 +6758,7 @@
               <c:f>'模型四 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6775,6 +6878,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>0.76700001955032349</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.77700001001358032</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6791,11 +6897,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="535276160"/>
-        <c:axId val="535277952"/>
+        <c:axId val="486007936"/>
+        <c:axId val="505325824"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="535276160"/>
+        <c:axId val="486007936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6838,14 +6944,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="535277952"/>
+        <c:crossAx val="505325824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="535277952"/>
+        <c:axId val="505325824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6896,12 +7002,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="535276160"/>
+        <c:crossAx val="486007936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="535279872"/>
+        <c:axId val="517334912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6938,12 +7044,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="535672320"/>
+        <c:crossAx val="517347200"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="535672320"/>
+        <c:axId val="517347200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6952,7 +7058,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="535279872"/>
+        <c:crossAx val="517334912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7131,7 +7237,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7251,6 +7357,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7260,7 +7369,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7380,6 +7489,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>10878572.67544049</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10878917.659425518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7422,7 +7534,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7542,6 +7654,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7551,7 +7666,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7671,6 +7786,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>11783830.98632065</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>11937811.165195141</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7713,7 +7831,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7833,6 +7951,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7842,7 +7963,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7962,6 +8083,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>905258.31088015996</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1058893.5057696234</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7983,11 +8107,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="541369088"/>
-        <c:axId val="541370624"/>
+        <c:axId val="525504512"/>
+        <c:axId val="525506048"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="541369088"/>
+        <c:axId val="525504512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8030,14 +8154,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="541370624"/>
+        <c:crossAx val="525506048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="541370624"/>
+        <c:axId val="525506048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8088,7 +8212,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="541369088"/>
+        <c:crossAx val="525504512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8288,7 +8412,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8408,6 +8532,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>507.85418168098141</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>344.98398502661962</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8422,8 +8549,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="542407680"/>
-        <c:axId val="542406144"/>
+        <c:axId val="546391552"/>
+        <c:axId val="546388992"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8448,7 +8575,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8568,6 +8695,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8577,7 +8707,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -8697,6 +8827,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>0.76700001955032349</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.77700001001358032</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8713,11 +8846,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="542400512"/>
-        <c:axId val="542404608"/>
+        <c:axId val="525626368"/>
+        <c:axId val="546386688"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="542400512"/>
+        <c:axId val="525626368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8760,14 +8893,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="542404608"/>
+        <c:crossAx val="546386688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="542404608"/>
+        <c:axId val="546386688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8818,12 +8951,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="542400512"/>
+        <c:crossAx val="525626368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="542406144"/>
+        <c:axId val="546388992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8860,12 +8993,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="542407680"/>
+        <c:crossAx val="546391552"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="542407680"/>
+        <c:axId val="546391552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8874,7 +9007,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="542406144"/>
+        <c:crossAx val="546388992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9053,7 +9186,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9173,6 +9306,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9182,7 +9318,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9302,6 +9438,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>96133580.200673342</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>96133808.174430206</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9344,7 +9483,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9464,6 +9603,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9473,7 +9615,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9593,6 +9735,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>105820009.6708065</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>107199897.43668465</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9635,7 +9780,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9755,6 +9900,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9764,7 +9912,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9884,6 +10032,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>9686429.4701331556</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>11066089.262254447</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9905,11 +10056,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="542507008"/>
-        <c:axId val="542508928"/>
+        <c:axId val="561559808"/>
+        <c:axId val="561572864"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="542507008"/>
+        <c:axId val="561559808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9952,14 +10103,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="542508928"/>
+        <c:crossAx val="561572864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="542508928"/>
+        <c:axId val="561572864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10010,7 +10161,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="542507008"/>
+        <c:crossAx val="561559808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10210,7 +10361,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10330,6 +10481,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>186.83068182463609</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>227.97375686974721</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10344,8 +10498,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="542870912"/>
-        <c:axId val="542869376"/>
+        <c:axId val="563245824"/>
+        <c:axId val="563244032"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -10370,7 +10524,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10490,6 +10644,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10499,7 +10656,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -10619,6 +10776,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>0.76700001955032349</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.77700001001358032</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10635,11 +10795,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="542831744"/>
-        <c:axId val="542867840"/>
+        <c:axId val="563235840"/>
+        <c:axId val="563242496"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="542831744"/>
+        <c:axId val="563235840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10682,14 +10842,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="542867840"/>
+        <c:crossAx val="563242496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="542867840"/>
+        <c:axId val="563242496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10740,12 +10900,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="542831744"/>
+        <c:crossAx val="563235840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="542869376"/>
+        <c:axId val="563244032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10782,12 +10942,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="542870912"/>
+        <c:crossAx val="563245824"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="542870912"/>
+        <c:axId val="563245824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10796,7 +10956,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="542869376"/>
+        <c:crossAx val="563244032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10975,7 +11135,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11095,6 +11255,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11104,7 +11267,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11220,10 +11383,13 @@
                   <c:v>12296758.048737954</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>12401372.337776342</c:v>
+                  <c:v>12401372.337793218</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>12401439.621801924</c:v>
+                  <c:v>12401439.621818949</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>12401439.621818949</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11266,7 +11432,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11386,6 +11552,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11395,7 +11564,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11511,10 +11680,13 @@
                   <c:v>12105179.285376254</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>11769952.911663378</c:v>
+                  <c:v>11769952.911680253</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>14799335.975250108</c:v>
+                  <c:v>14799335.975271476</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>14992286.711703027</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11557,7 +11729,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11677,6 +11849,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11686,7 +11861,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11805,7 +11980,10 @@
                   <c:v>-631419.42611296475</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2397896.3534481842</c:v>
+                  <c:v>2397896.3534525279</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2590847.0898840781</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11827,11 +12005,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="573387520"/>
-        <c:axId val="474341376"/>
+        <c:axId val="563275264"/>
+        <c:axId val="563277184"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="573387520"/>
+        <c:axId val="563275264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11874,14 +12052,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474341376"/>
+        <c:crossAx val="563277184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="474341376"/>
+        <c:axId val="563277184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11932,7 +12110,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="573387520"/>
+        <c:crossAx val="563275264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12123,7 +12301,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12239,10 +12417,13 @@
                   <c:v>553175.14867858589</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>104614.28903838751</c:v>
+                  <c:v>104614.28905526309</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>67.284025582295712</c:v>
+                  <c:v>67.28402573111498</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12257,8 +12438,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="474602112"/>
-        <c:axId val="474600576"/>
+        <c:axId val="563377280"/>
+        <c:axId val="563375488"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -12283,7 +12464,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -12403,6 +12584,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12412,7 +12596,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -12532,6 +12716,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>0.76700001955032349</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.77700001001358032</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12548,11 +12735,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="474572672"/>
-        <c:axId val="474574208"/>
+        <c:axId val="563372032"/>
+        <c:axId val="563373952"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="474572672"/>
+        <c:axId val="563372032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12595,14 +12782,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474574208"/>
+        <c:crossAx val="563373952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="474574208"/>
+        <c:axId val="563373952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12653,12 +12840,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474572672"/>
+        <c:crossAx val="563372032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="474600576"/>
+        <c:axId val="563375488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12695,12 +12882,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474602112"/>
+        <c:crossAx val="563377280"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="474602112"/>
+        <c:axId val="563377280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12709,7 +12896,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="474600576"/>
+        <c:crossAx val="563375488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12888,7 +13075,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -13008,6 +13195,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13017,7 +13207,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13137,6 +13327,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>9487754.0884139016</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9489479.0083390344</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13179,7 +13372,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -13299,6 +13492,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13308,7 +13504,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13428,6 +13624,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>10423174.258994609</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10560794.407772435</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13470,7 +13669,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -13590,6 +13789,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13599,7 +13801,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13719,6 +13921,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>935420.17058070749</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1071315.3994334005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13740,11 +13945,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="474769280"/>
-        <c:axId val="474770816"/>
+        <c:axId val="563441664"/>
+        <c:axId val="563443200"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="474769280"/>
+        <c:axId val="563441664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13787,14 +13992,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474770816"/>
+        <c:crossAx val="563443200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="474770816"/>
+        <c:axId val="563443200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13845,7 +14050,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474769280"/>
+        <c:crossAx val="563441664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14697,7 +14902,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG42"/>
+  <dimension ref="A1:AG43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16521,6 +16726,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="43" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="32">
+        <v>45596</v>
+      </c>
+      <c r="B43" s="31">
+        <v>0.77700001001358032</v>
+      </c>
+      <c r="C43" s="31">
+        <v>24.940000529999999</v>
+      </c>
+      <c r="D43" s="29">
+        <v>25.600824703771881</v>
+      </c>
+      <c r="E43" s="29">
+        <v>1724.9199251330979</v>
+      </c>
+      <c r="F43" s="30">
+        <v>2219.9741350105646</v>
+      </c>
+      <c r="G43" s="30">
+        <v>13314938.783818783</v>
+      </c>
+      <c r="H43" s="30">
+        <v>10345707.568357404</v>
+      </c>
+      <c r="I43" s="30">
+        <v>9316744.2474954911</v>
+      </c>
+      <c r="J43" s="30">
+        <v>10345707.568357404</v>
+      </c>
+      <c r="K43" s="30">
+        <v>1028963.3208619133</v>
+      </c>
+      <c r="L43" s="29">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -16537,7 +16780,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH42"/>
+  <dimension ref="A1:AH43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16614,16 +16857,16 @@
         <v>12</v>
       </c>
       <c r="M1" s="44" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N1" s="44" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O1" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -18820,6 +19063,56 @@
       </c>
       <c r="P42" s="1">
         <v>0.95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="15">
+        <v>45596</v>
+      </c>
+      <c r="B43" s="31">
+        <v>0.77700001001358032</v>
+      </c>
+      <c r="C43" s="16">
+        <v>24.940000529999999</v>
+      </c>
+      <c r="D43" s="17">
+        <v>25.600824703771881</v>
+      </c>
+      <c r="E43" s="17">
+        <v>344.98398502661962</v>
+      </c>
+      <c r="F43" s="18">
+        <v>443.99482700211297</v>
+      </c>
+      <c r="G43" s="18">
+        <v>15363978.135581354</v>
+      </c>
+      <c r="H43" s="18">
+        <v>11937811.165195141</v>
+      </c>
+      <c r="I43" s="18">
+        <v>10878917.659425518</v>
+      </c>
+      <c r="J43" s="18">
+        <v>11937811.165195141</v>
+      </c>
+      <c r="K43" s="18">
+        <v>1058893.5057696234</v>
+      </c>
+      <c r="L43" s="17">
+        <v>0</v>
+      </c>
+      <c r="M43" s="22">
+        <v>2.8722259039386522E-2</v>
+      </c>
+      <c r="N43" s="22">
+        <v>3.9253709790611303E-2</v>
+      </c>
+      <c r="O43" s="22">
+        <v>73.17081415386707</v>
+      </c>
+      <c r="P43" s="1">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -18838,7 +19131,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:AH42"/>
+  <dimension ref="A1:AH43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18915,16 +19208,16 @@
         <v>12</v>
       </c>
       <c r="M1" s="44" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N1" s="44" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O1" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -21121,6 +21414,56 @@
       </c>
       <c r="P42" s="1">
         <v>0.95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="15">
+        <v>45596</v>
+      </c>
+      <c r="B43" s="31">
+        <v>0.77700001001358032</v>
+      </c>
+      <c r="C43" s="16">
+        <v>24.940000529999999</v>
+      </c>
+      <c r="D43" s="17">
+        <v>25.600824703771881</v>
+      </c>
+      <c r="E43" s="17">
+        <v>227.97375686974721</v>
+      </c>
+      <c r="F43" s="18">
+        <v>293.40251471266095</v>
+      </c>
+      <c r="G43" s="18">
+        <v>137966404.18937835</v>
+      </c>
+      <c r="H43" s="18">
+        <v>107199897.43668465</v>
+      </c>
+      <c r="I43" s="18">
+        <v>96133808.174430206</v>
+      </c>
+      <c r="J43" s="18">
+        <v>107199897.43668465</v>
+      </c>
+      <c r="K43" s="18">
+        <v>11066089.262254447</v>
+      </c>
+      <c r="L43" s="17">
+        <v>0</v>
+      </c>
+      <c r="M43" s="22">
+        <v>2.8722259039386522E-2</v>
+      </c>
+      <c r="N43" s="22">
+        <v>3.9253709790611303E-2</v>
+      </c>
+      <c r="O43" s="22">
+        <v>73.17081415386707</v>
+      </c>
+      <c r="P43" s="1">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -21139,7 +21482,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AJ42"/>
+  <dimension ref="A1:AJ43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -21180,22 +21523,22 @@
   <sheetData>
     <row r="1" spans="1:36" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G1" s="40" t="s">
         <v>5</v>
@@ -21222,16 +21565,16 @@
         <v>12</v>
       </c>
       <c r="O1" s="44" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P1" s="44" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q1" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R1" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -23575,7 +23918,7 @@
         <v>20.56999969</v>
       </c>
       <c r="D41" s="17">
-        <v>25.729715551443242</v>
+        <v>25.729715551720684</v>
       </c>
       <c r="E41" s="17">
         <v>6956200</v>
@@ -23584,22 +23927,22 @@
         <v>4772486.4689518735</v>
       </c>
       <c r="G41" s="17">
-        <v>104614.28903838751</v>
+        <v>104614.28905526309</v>
       </c>
       <c r="H41" s="18">
-        <v>171498.83046733943</v>
+        <v>171498.83049500431</v>
       </c>
       <c r="I41" s="18">
-        <v>19295004.320731357</v>
+        <v>19295004.320759021</v>
       </c>
       <c r="J41" s="18">
-        <v>11769952.911663378</v>
+        <v>11769952.911680253</v>
       </c>
       <c r="K41" s="18">
-        <v>12401372.337776342</v>
+        <v>12401372.337793218</v>
       </c>
       <c r="L41" s="18">
-        <v>11769952.911663378</v>
+        <v>11769952.911680253</v>
       </c>
       <c r="M41" s="18">
         <v>-631419.42611296475</v>
@@ -23631,7 +23974,7 @@
         <v>25.239999770000001</v>
       </c>
       <c r="D42" s="17">
-        <v>25.607882301175056</v>
+        <v>25.607882301446285</v>
       </c>
       <c r="E42" s="17">
         <v>12479809</v>
@@ -23640,25 +23983,25 @@
         <v>4825138.2799101509</v>
       </c>
       <c r="G42" s="17">
-        <v>67.284025582295712</v>
+        <v>67.28402573111498</v>
       </c>
       <c r="H42" s="18">
-        <v>87.723629553155646</v>
+        <v>87.723629747183367</v>
       </c>
       <c r="I42" s="18">
-        <v>19295092.04436091</v>
+        <v>19295092.044388767</v>
       </c>
       <c r="J42" s="18">
-        <v>14799335.975250108</v>
+        <v>14799335.975271476</v>
       </c>
       <c r="K42" s="18">
-        <v>12401439.621801924</v>
+        <v>12401439.621818949</v>
       </c>
       <c r="L42" s="18">
-        <v>14799335.975250108</v>
+        <v>14799335.975271476</v>
       </c>
       <c r="M42" s="18">
-        <v>2397896.3534481842</v>
+        <v>2397896.3534525279</v>
       </c>
       <c r="N42" s="17">
         <v>0</v>
@@ -23674,6 +24017,62 @@
       </c>
       <c r="R42" s="1">
         <v>0.95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="15">
+        <v>45596</v>
+      </c>
+      <c r="B43" s="31">
+        <v>0.77700001001358032</v>
+      </c>
+      <c r="C43" s="16">
+        <v>24.940000529999999</v>
+      </c>
+      <c r="D43" s="17">
+        <v>25.600824703771881</v>
+      </c>
+      <c r="E43" s="17">
+        <v>0</v>
+      </c>
+      <c r="F43" s="17">
+        <v>4776893.3677173248</v>
+      </c>
+      <c r="G43" s="17">
+        <v>0</v>
+      </c>
+      <c r="H43" s="18">
+        <v>0</v>
+      </c>
+      <c r="I43" s="18">
+        <v>19295092.044388767</v>
+      </c>
+      <c r="J43" s="18">
+        <v>14992286.711703027</v>
+      </c>
+      <c r="K43" s="18">
+        <v>12401439.621818949</v>
+      </c>
+      <c r="L43" s="18">
+        <v>14992286.711703027</v>
+      </c>
+      <c r="M43" s="18">
+        <v>2590847.0898840781</v>
+      </c>
+      <c r="N43" s="17">
+        <v>0</v>
+      </c>
+      <c r="O43" s="22">
+        <v>2.8722259039386522E-2</v>
+      </c>
+      <c r="P43" s="22">
+        <v>3.9253709790611303E-2</v>
+      </c>
+      <c r="Q43" s="22">
+        <v>73.17081415386707</v>
+      </c>
+      <c r="R43" s="1">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -23692,7 +24091,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AJ42"/>
+  <dimension ref="A1:AJ43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -23769,19 +24168,19 @@
         <v>12</v>
       </c>
       <c r="M1" s="48" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N1" s="48" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="O1" s="48" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P1" s="48" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="Q1" s="11" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -26113,6 +26512,59 @@
         <v>97.318163597327825</v>
       </c>
       <c r="Q42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="15">
+        <v>45596</v>
+      </c>
+      <c r="B43" s="31">
+        <v>0.77700001001358032</v>
+      </c>
+      <c r="C43" s="16">
+        <v>24.940000529999999</v>
+      </c>
+      <c r="D43" s="17">
+        <v>25.600824703771881</v>
+      </c>
+      <c r="E43" s="17">
+        <v>1724.9199251330979</v>
+      </c>
+      <c r="F43" s="18">
+        <v>2219.9741350105646</v>
+      </c>
+      <c r="G43" s="18">
+        <v>13591755.81939549</v>
+      </c>
+      <c r="H43" s="18">
+        <v>10560794.407772435</v>
+      </c>
+      <c r="I43" s="18">
+        <v>9489479.0083390344</v>
+      </c>
+      <c r="J43" s="18">
+        <v>10560794.407772435</v>
+      </c>
+      <c r="K43" s="18">
+        <v>1071315.3994334005</v>
+      </c>
+      <c r="L43" s="17">
+        <v>0</v>
+      </c>
+      <c r="M43" s="21">
+        <v>71.301774260986164</v>
+      </c>
+      <c r="N43" s="21">
+        <v>70.166312288008371</v>
+      </c>
+      <c r="O43" s="21">
+        <v>60.547964198412991</v>
+      </c>
+      <c r="P43" s="21">
+        <v>89.403008467199115</v>
+      </c>
+      <c r="Q43" s="1">
         <v>1</v>
       </c>
     </row>
@@ -26132,7 +26584,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AJ42"/>
+  <dimension ref="A1:AJ43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -26185,10 +26637,10 @@
         <v>4</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G1" s="40" t="s">
         <v>5</v>
@@ -28128,7 +28580,7 @@
         <v>20.56999969</v>
       </c>
       <c r="D41" s="17">
-        <v>25.729715551443242</v>
+        <v>25.729715551720684</v>
       </c>
       <c r="E41" s="17">
         <v>6956200</v>
@@ -28137,22 +28589,22 @@
         <v>4772486.4689518735</v>
       </c>
       <c r="G41" s="17">
-        <v>790864.00325670931</v>
+        <v>790864.00338428561</v>
       </c>
       <c r="H41" s="18">
-        <v>1296498.3355904128</v>
+        <v>1296498.3357995544</v>
       </c>
       <c r="I41" s="18">
-        <v>120970111.070968</v>
+        <v>120970111.07117715</v>
       </c>
       <c r="J41" s="18">
-        <v>73791769.4837818</v>
+        <v>73791769.483909383</v>
       </c>
       <c r="K41" s="18">
-        <v>77383428.500605687</v>
+        <v>77383428.500733271</v>
       </c>
       <c r="L41" s="18">
-        <v>73791769.4837818</v>
+        <v>73791769.483909383</v>
       </c>
       <c r="M41" s="18">
         <v>-3591659.0168238878</v>
@@ -28172,7 +28624,7 @@
         <v>25.239999770000001</v>
       </c>
       <c r="D42" s="17">
-        <v>25.607882301175056</v>
+        <v>25.607882301446285</v>
       </c>
       <c r="E42" s="17">
         <v>12479809</v>
@@ -28181,27 +28633,71 @@
         <v>4825138.2799101509</v>
       </c>
       <c r="G42" s="17">
-        <v>508.65435607668536</v>
+        <v>508.65435720173048</v>
       </c>
       <c r="H42" s="18">
-        <v>663.17385021045902</v>
+        <v>663.17385167727139</v>
       </c>
       <c r="I42" s="18">
-        <v>120970774.24481821</v>
+        <v>120970774.24502884</v>
       </c>
       <c r="J42" s="18">
-        <v>92784586.210793331</v>
+        <v>92784586.21095489</v>
       </c>
       <c r="K42" s="18">
-        <v>77383937.154961765</v>
+        <v>77383937.155090466</v>
       </c>
       <c r="L42" s="18">
-        <v>92784586.210793331</v>
+        <v>92784586.21095489</v>
       </c>
       <c r="M42" s="18">
-        <v>15400649.055831566</v>
+        <v>15400649.055864424</v>
       </c>
       <c r="N42" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="15">
+        <v>45596</v>
+      </c>
+      <c r="B43" s="31">
+        <v>0.77700001001358032</v>
+      </c>
+      <c r="C43" s="16">
+        <v>24.940000529999999</v>
+      </c>
+      <c r="D43" s="17">
+        <v>25.600824703771881</v>
+      </c>
+      <c r="E43" s="17">
+        <v>0</v>
+      </c>
+      <c r="F43" s="17">
+        <v>4776893.3677173248</v>
+      </c>
+      <c r="G43" s="17">
+        <v>0</v>
+      </c>
+      <c r="H43" s="18">
+        <v>0</v>
+      </c>
+      <c r="I43" s="18">
+        <v>120970774.24502884</v>
+      </c>
+      <c r="J43" s="18">
+        <v>93994292.799737975</v>
+      </c>
+      <c r="K43" s="18">
+        <v>77383937.155090466</v>
+      </c>
+      <c r="L43" s="18">
+        <v>93994292.799737975</v>
+      </c>
+      <c r="M43" s="18">
+        <v>16610355.644647509</v>
+      </c>
+      <c r="N43" s="17">
         <v>0</v>
       </c>
     </row>
@@ -28221,7 +28717,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AG42"/>
+  <dimension ref="A1:AG43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -28262,7 +28758,7 @@
   <sheetData>
     <row r="1" spans="1:33" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>2</v>
@@ -30042,6 +30538,44 @@
         <v>9242566.2858903259</v>
       </c>
       <c r="L42" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="15">
+        <v>45596</v>
+      </c>
+      <c r="B43" s="31">
+        <v>0.77700001001358032</v>
+      </c>
+      <c r="C43" s="16">
+        <v>24.940000529999999</v>
+      </c>
+      <c r="D43" s="17">
+        <v>25.600824703771881</v>
+      </c>
+      <c r="E43" s="17">
+        <v>1139.868784348736</v>
+      </c>
+      <c r="F43" s="18">
+        <v>1467.0125735633046</v>
+      </c>
+      <c r="G43" s="18">
+        <v>118567305.74112381</v>
+      </c>
+      <c r="H43" s="18">
+        <v>92126797.748136446</v>
+      </c>
+      <c r="I43" s="18">
+        <v>81698574.205692559</v>
+      </c>
+      <c r="J43" s="18">
+        <v>92126797.748136446</v>
+      </c>
+      <c r="K43" s="18">
+        <v>10428223.542443886</v>
+      </c>
+      <c r="L43" s="17">
         <v>0</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(RSI&KDJ)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(RSI&KDJ)cn.xlsx
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="36">
   <si>
     <t>in practice</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -182,6 +182,18 @@
   </si>
   <si>
     <t>PE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE均值</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -660,7 +672,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -783,6 +795,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -792,7 +807,7 @@
               <c:f>'模型四 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -908,13 +923,16 @@
                   <c:v>9209325.2065264452</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>9314484.7442212198</c:v>
+                  <c:v>9314484.7442325279</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>9315019.3275703583</c:v>
+                  <c:v>9315019.3275824543</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>9316744.2474954911</c:v>
+                  <c:v>9316744.2475075871</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9319756.864160249</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -957,7 +975,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1080,6 +1098,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1089,7 +1110,7 @@
               <c:f>'模型四 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1205,13 +1226,16 @@
                   <c:v>8317385.4645985421</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>8120333.5067951689</c:v>
+                  <c:v>8120333.506806477</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>10210855.587295413</c:v>
+                  <c:v>10210855.58731042</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>10345707.568357404</c:v>
+                  <c:v>10345707.568372607</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10401980.048094602</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1254,7 +1278,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1377,6 +1401,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1386,7 +1413,7 @@
               <c:f>'模型四 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1505,10 +1532,13 @@
                   <c:v>-1194151.2374260509</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>895836.25972505473</c:v>
+                  <c:v>895836.25972796604</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1028963.3208619133</c:v>
+                  <c:v>1028963.3208650202</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1082223.1839343533</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1530,11 +1560,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="484728832"/>
-        <c:axId val="484730752"/>
+        <c:axId val="499408896"/>
+        <c:axId val="499411200"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="484728832"/>
+        <c:axId val="499408896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1577,14 +1607,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484730752"/>
+        <c:crossAx val="499411200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="484730752"/>
+        <c:axId val="499411200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1635,7 +1665,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484728832"/>
+        <c:crossAx val="499408896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1826,7 +1856,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1942,13 +1972,16 @@
                   <c:v>268277.3952402196</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>105159.53769477447</c:v>
+                  <c:v>105159.5377060835</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>534.58334913787519</c:v>
+                  <c:v>534.58334992613857</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>1724.9199251330979</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3012.6166526625288</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1963,8 +1996,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="606345088"/>
-        <c:axId val="606343552"/>
+        <c:axId val="617980672"/>
+        <c:axId val="617974784"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1989,7 +2022,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2112,6 +2145,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2121,7 +2157,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2244,6 +2280,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0.77700001001358032</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.78100001811981201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2260,11 +2299,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="597783680"/>
-        <c:axId val="606240768"/>
+        <c:axId val="617960192"/>
+        <c:axId val="617972480"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="597783680"/>
+        <c:axId val="617960192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2307,14 +2346,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="606240768"/>
+        <c:crossAx val="617972480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="606240768"/>
+        <c:axId val="617972480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2365,12 +2404,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="597783680"/>
+        <c:crossAx val="617960192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="606343552"/>
+        <c:axId val="617974784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2407,12 +2446,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="606345088"/>
+        <c:crossAx val="617980672"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="606345088"/>
+        <c:axId val="617980672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2421,7 +2460,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="606343552"/>
+        <c:crossAx val="617974784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2600,7 +2639,7 @@
               <c:f>'模型四 (3)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2723,6 +2762,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2732,7 +2774,7 @@
               <c:f>'模型四 (3)PE副本成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2854,7 +2896,10 @@
                   <c:v>77383937.155090466</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>77383937.155090466</c:v>
+                  <c:v>77384313.641651466</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>77385253.011353359</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2897,7 +2942,7 @@
               <c:f>'模型四 (3)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3020,6 +3065,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3029,7 +3077,7 @@
               <c:f>'模型四 (3)PE副本成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3151,7 +3199,10 @@
                   <c:v>92784586.21095489</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>93994292.799737975</c:v>
+                  <c:v>93994669.286298975</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>94479494.671756774</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3194,7 +3245,7 @@
               <c:f>'模型四 (3)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3317,6 +3368,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3326,7 +3380,7 @@
               <c:f>'模型四 (3)PE副本成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3449,6 +3503,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>16610355.644647509</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>17094241.660403416</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3470,11 +3527,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="606406912"/>
-        <c:axId val="606449664"/>
+        <c:axId val="494722048"/>
+        <c:axId val="495125248"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="606406912"/>
+        <c:axId val="494722048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3517,14 +3574,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="606449664"/>
+        <c:crossAx val="495125248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="606449664"/>
+        <c:axId val="495125248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3575,7 +3632,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="606406912"/>
+        <c:crossAx val="494722048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3766,7 +3823,7 @@
               <c:f>'模型四 (3)PE副本成交量'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3888,7 +3945,10 @@
                   <c:v>508.65435720173048</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>376.48656100691892</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>939.36970189355725</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3903,8 +3963,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="486150144"/>
-        <c:axId val="608691328"/>
+        <c:axId val="501031680"/>
+        <c:axId val="501025792"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3929,7 +3989,7 @@
               <c:f>'模型四 (3)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4052,6 +4112,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4061,7 +4124,7 @@
               <c:f>'模型四 (3)PE副本成交量'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4184,6 +4247,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0.77700001001358032</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.78100001811981201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4200,11 +4266,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="607633408"/>
-        <c:axId val="607635712"/>
+        <c:axId val="501022720"/>
+        <c:axId val="501024256"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="607633408"/>
+        <c:axId val="501022720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4247,14 +4313,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="607635712"/>
+        <c:crossAx val="501024256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="607635712"/>
+        <c:axId val="501024256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4305,12 +4371,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="607633408"/>
+        <c:crossAx val="501022720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="608691328"/>
+        <c:axId val="501025792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4347,12 +4413,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486150144"/>
+        <c:crossAx val="501031680"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="486150144"/>
+        <c:axId val="501031680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4361,7 +4427,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="608691328"/>
+        <c:crossAx val="501025792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4540,7 +4606,7 @@
               <c:f>'模型四 (3)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4663,6 +4729,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4672,7 +4741,7 @@
               <c:f>'模型四 (3)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4788,13 +4857,16 @@
                   <c:v>81154644.338406831</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>81697237.673032597</c:v>
+                  <c:v>81697237.673120126</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>81697434.336908206</c:v>
+                  <c:v>81697434.336996168</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>81698574.205692559</c:v>
+                  <c:v>81698574.205780521</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>81701205.18404828</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4837,7 +4909,7 @@
               <c:f>'模型四 (3)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4960,6 +5032,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4969,7 +5044,7 @@
               <c:f>'模型四 (3)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5085,13 +5160,16 @@
                   <c:v>74488963.758977965</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>72325006.91247724</c:v>
+                  <c:v>72325006.912564754</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>90940000.622798532</c:v>
+                  <c:v>90940000.622909024</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>92126797.748136446</c:v>
+                  <c:v>92126797.748248369</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>92603698.91061525</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5134,7 +5212,7 @@
               <c:f>'模型四 (3)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5257,6 +5335,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5266,7 +5347,7 @@
               <c:f>'模型四 (3)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5382,13 +5463,16 @@
                   <c:v>-6665680.5794288665</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-9372230.7605553567</c:v>
+                  <c:v>-9372230.7605553716</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>9242566.2858903259</c:v>
+                  <c:v>9242566.2859128565</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>10428223.542443886</c:v>
+                  <c:v>10428223.542467847</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10902493.72656697</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5410,11 +5494,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="486168448"/>
-        <c:axId val="486169984"/>
+        <c:axId val="506149120"/>
+        <c:axId val="506150912"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="486168448"/>
+        <c:axId val="506149120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5457,14 +5541,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486169984"/>
+        <c:crossAx val="506150912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="486169984"/>
+        <c:axId val="506150912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5515,7 +5599,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486168448"/>
+        <c:crossAx val="506149120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5706,7 +5790,7 @@
               <c:f>'模型四 (3)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5822,13 +5906,16 @@
                   <c:v>2210943.1399998264</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>542593.33462576638</c:v>
+                  <c:v>542593.33471329347</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>196.6638756048801</c:v>
+                  <c:v>196.66387603986257</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>1139.868784348736</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2630.9782677645899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5843,8 +5930,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="487329152"/>
-        <c:axId val="487327616"/>
+        <c:axId val="506195968"/>
+        <c:axId val="506181888"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5869,7 +5956,7 @@
               <c:f>'模型四 (3)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5992,6 +6079,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6001,7 +6091,7 @@
               <c:f>'模型四 (3)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6124,6 +6214,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0.77700001001358032</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.78100001811981201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6140,11 +6233,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="486206080"/>
-        <c:axId val="487326080"/>
+        <c:axId val="506178560"/>
+        <c:axId val="506180352"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="486206080"/>
+        <c:axId val="506178560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6187,14 +6280,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="487326080"/>
+        <c:crossAx val="506180352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="487326080"/>
+        <c:axId val="506180352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6245,12 +6338,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486206080"/>
+        <c:crossAx val="506178560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="487327616"/>
+        <c:axId val="506181888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6287,12 +6380,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="487329152"/>
+        <c:crossAx val="506195968"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="487329152"/>
+        <c:axId val="506195968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6301,7 +6394,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="487327616"/>
+        <c:crossAx val="506181888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6463,7 +6556,7 @@
               <c:f>'模型四 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6579,13 +6672,16 @@
                   <c:v>268277.3952402196</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>105159.53769477447</c:v>
+                  <c:v>105159.5377060835</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>534.58334913787519</c:v>
+                  <c:v>534.58334992613857</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>1724.9199251330979</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3012.6166526625288</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6600,8 +6696,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="517347200"/>
-        <c:axId val="517334912"/>
+        <c:axId val="499439104"/>
+        <c:axId val="499436160"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6626,7 +6722,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6749,6 +6845,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6758,7 +6857,7 @@
               <c:f>'模型四 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6881,6 +6980,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0.77700001001358032</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.78100001811981201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6897,11 +6999,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="486007936"/>
-        <c:axId val="505325824"/>
+        <c:axId val="499432832"/>
+        <c:axId val="499434624"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="486007936"/>
+        <c:axId val="499432832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6944,14 +7046,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="505325824"/>
+        <c:crossAx val="499434624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="505325824"/>
+        <c:axId val="499434624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7002,12 +7104,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486007936"/>
+        <c:crossAx val="499432832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="517334912"/>
+        <c:axId val="499436160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7044,12 +7146,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="517347200"/>
+        <c:crossAx val="499439104"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="517347200"/>
+        <c:axId val="499439104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7058,7 +7160,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="517334912"/>
+        <c:crossAx val="499436160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7237,7 +7339,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7360,6 +7462,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7369,7 +7474,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7485,13 +7590,16 @@
                   <c:v>10778163.260448774</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>10878064.821258809</c:v>
+                  <c:v>10878064.821269553</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>10878572.67544049</c:v>
+                  <c:v>10878572.675451983</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>10878917.659425518</c:v>
+                  <c:v>10878917.65943701</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10879520.182767542</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7534,7 +7642,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7657,6 +7765,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7666,7 +7777,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7782,13 +7893,16 @@
                   <c:v>9621029.8903031498</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>9371352.1459629666</c:v>
+                  <c:v>9371352.1459737085</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>11783830.98632065</c:v>
+                  <c:v>11783830.986334907</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>11937811.165195141</c:v>
+                  <c:v>11937811.165209584</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>11999869.725626484</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7831,7 +7945,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7954,6 +8068,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7963,7 +8080,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8079,13 +8196,16 @@
                   <c:v>-1157133.3701456245</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-1506712.6752958428</c:v>
+                  <c:v>-1506712.6752958447</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>905258.31088015996</c:v>
+                  <c:v>905258.31088292412</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1058893.5057696234</c:v>
+                  <c:v>1058893.5057725739</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1120349.5428589415</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8107,11 +8227,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="525504512"/>
-        <c:axId val="525506048"/>
+        <c:axId val="576123264"/>
+        <c:axId val="576125184"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="525504512"/>
+        <c:axId val="576123264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8154,14 +8274,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="525506048"/>
+        <c:crossAx val="576125184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="525506048"/>
+        <c:axId val="576125184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8212,7 +8332,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="525504512"/>
+        <c:crossAx val="576123264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8412,7 +8532,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8528,13 +8648,16 @@
                   <c:v>254863.52547820861</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>99901.560810035735</c:v>
+                  <c:v>99901.560820779327</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>507.85418168098141</c:v>
+                  <c:v>507.85418242983161</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>344.98398502661962</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>602.52333053250584</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8549,8 +8672,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="546391552"/>
-        <c:axId val="546388992"/>
+        <c:axId val="587474048"/>
+        <c:axId val="587464064"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8575,7 +8698,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8698,6 +8821,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8707,7 +8833,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -8830,6 +8956,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0.77700001001358032</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.78100001811981201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8846,11 +8975,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="525626368"/>
-        <c:axId val="546386688"/>
+        <c:axId val="587459968"/>
+        <c:axId val="587462144"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="525626368"/>
+        <c:axId val="587459968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8893,14 +9022,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="546386688"/>
+        <c:crossAx val="587462144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="546386688"/>
+        <c:axId val="587462144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8951,12 +9080,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="525626368"/>
+        <c:crossAx val="587459968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="546388992"/>
+        <c:axId val="587464064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8993,12 +9122,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="546391552"/>
+        <c:crossAx val="587474048"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="546391552"/>
+        <c:axId val="587474048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9007,7 +9136,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="546388992"/>
+        <c:crossAx val="587464064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9186,7 +9315,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9309,6 +9438,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9318,7 +9450,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9434,13 +9566,16 @@
                   <c:v>95617929.702097028</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>96133393.369991511</c:v>
+                  <c:v>96133393.37007466</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>96133580.200673342</c:v>
+                  <c:v>96133580.200756893</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>96133808.174430206</c:v>
+                  <c:v>96133808.174513757</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>96134334.370167315</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9483,7 +9618,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9606,6 +9741,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9615,7 +9753,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9731,13 +9869,16 @@
                   <c:v>86797496.99033846</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>84159180.965973333</c:v>
+                  <c:v>84159180.966056481</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>105820009.6708065</c:v>
+                  <c:v>105820009.67091146</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>107199897.43668465</c:v>
+                  <c:v>107199897.43679099</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>107752290.36759025</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9780,7 +9921,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9903,6 +10044,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9912,7 +10056,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10031,10 +10175,13 @@
                   <c:v>-11974212.404018179</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>9686429.4701331556</c:v>
+                  <c:v>9686429.4701545686</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>11066089.262254447</c:v>
+                  <c:v>11066089.262277231</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>11617955.997422934</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10056,11 +10203,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="561559808"/>
-        <c:axId val="561572864"/>
+        <c:axId val="587490432"/>
+        <c:axId val="587522048"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="561559808"/>
+        <c:axId val="587490432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10103,14 +10250,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="561572864"/>
+        <c:crossAx val="587522048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="561572864"/>
+        <c:axId val="587522048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10161,7 +10308,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="561559808"/>
+        <c:crossAx val="587490432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10361,7 +10508,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10477,13 +10624,16 @@
                   <c:v>2100395.9829998352</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>515463.66789447801</c:v>
+                  <c:v>515463.66797762876</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>186.83068182463609</c:v>
+                  <c:v>186.83068223786944</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>227.97375686974721</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>526.19565355291797</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10498,8 +10648,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="563245824"/>
-        <c:axId val="563244032"/>
+        <c:axId val="587567104"/>
+        <c:axId val="587564160"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -10524,7 +10674,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10647,6 +10797,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10656,7 +10809,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -10779,6 +10932,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0.77700001001358032</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.78100001811981201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10795,11 +10951,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="563235840"/>
-        <c:axId val="563242496"/>
+        <c:axId val="587549312"/>
+        <c:axId val="587551488"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="563235840"/>
+        <c:axId val="587549312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10842,14 +10998,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="563242496"/>
+        <c:crossAx val="587551488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="563242496"/>
+        <c:axId val="587551488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10900,12 +11056,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="563235840"/>
+        <c:crossAx val="587549312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="563244032"/>
+        <c:axId val="587564160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10942,12 +11098,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="563245824"/>
+        <c:crossAx val="587567104"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="563245824"/>
+        <c:axId val="587567104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10956,7 +11112,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="563244032"/>
+        <c:crossAx val="587564160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11135,7 +11291,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11258,6 +11414,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11267,7 +11426,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11389,7 +11548,10 @@
                   <c:v>12401439.621818949</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>12401439.621818949</c:v>
+                  <c:v>12401450.106254825</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>12401476.265917409</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11432,7 +11594,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11555,6 +11717,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11564,7 +11729,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11686,7 +11851,10 @@
                   <c:v>14799335.975271476</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>14992286.711703027</c:v>
+                  <c:v>14992297.196138902</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>15069503.934363566</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11729,7 +11897,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11852,6 +12020,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11861,7 +12032,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11983,7 +12154,10 @@
                   <c:v>2397896.3534525279</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2590847.0898840781</c:v>
+                  <c:v>2590847.0898840763</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2668027.6684461571</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12005,11 +12179,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="563275264"/>
-        <c:axId val="563277184"/>
+        <c:axId val="589684736"/>
+        <c:axId val="589686656"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="563275264"/>
+        <c:axId val="589684736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12052,14 +12226,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="563277184"/>
+        <c:crossAx val="589686656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="563277184"/>
+        <c:axId val="589686656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12110,7 +12284,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="563275264"/>
+        <c:crossAx val="589684736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12301,7 +12475,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12423,7 +12597,10 @@
                   <c:v>67.28402573111498</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>10.484435876142047</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>26.159662584377543</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12438,8 +12615,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="563377280"/>
-        <c:axId val="563375488"/>
+        <c:axId val="590617984"/>
+        <c:axId val="590616064"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -12464,7 +12641,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -12587,6 +12764,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12596,7 +12776,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -12719,6 +12899,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0.77700001001358032</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.78100001811981201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12735,11 +12918,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="563372032"/>
-        <c:axId val="563373952"/>
+        <c:axId val="589990144"/>
+        <c:axId val="590614528"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="563372032"/>
+        <c:axId val="589990144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12782,14 +12965,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="563373952"/>
+        <c:crossAx val="590614528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="563373952"/>
+        <c:axId val="590614528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12840,12 +13023,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="563372032"/>
+        <c:crossAx val="589990144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="563375488"/>
+        <c:axId val="590616064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12882,12 +13065,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="563377280"/>
+        <c:crossAx val="590617984"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="563377280"/>
+        <c:axId val="590617984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12896,7 +13079,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="563375488"/>
+        <c:crossAx val="590616064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13075,7 +13258,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -13198,6 +13381,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13207,7 +13393,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13323,13 +13509,16 @@
                   <c:v>9382059.9673699886</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>9487219.5050647631</c:v>
+                  <c:v>9487219.5050760712</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>9487754.0884139016</c:v>
+                  <c:v>9487754.0884259976</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>9489479.0083390344</c:v>
+                  <c:v>9489479.0083511304</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9492491.6250037923</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13372,7 +13561,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -13495,6 +13684,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13504,7 +13696,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13620,13 +13812,16 @@
                   <c:v>8492610.6526064835</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>8289191.9024568591</c:v>
+                  <c:v>8289191.9024681682</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>10423174.258994609</c:v>
+                  <c:v>10423174.259009616</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>10560794.407772435</c:v>
+                  <c:v>10560794.407787638</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10618174.157895882</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13669,7 +13864,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -13792,6 +13987,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13801,7 +13999,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13917,13 +14115,16 @@
                   <c:v>-889449.31476350501</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-1198027.602607904</c:v>
+                  <c:v>-1198027.6026079031</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>935420.17058070749</c:v>
+                  <c:v>935420.1705836188</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1071315.3994334005</c:v>
+                  <c:v>1071315.3994365074</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1125682.5328920893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13945,11 +14146,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="563441664"/>
-        <c:axId val="563443200"/>
+        <c:axId val="617768448"/>
+        <c:axId val="617769984"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="563441664"/>
+        <c:axId val="617768448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13992,14 +14193,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="563443200"/>
+        <c:crossAx val="617769984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="563443200"/>
+        <c:axId val="617769984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14050,7 +14251,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="563441664"/>
+        <c:crossAx val="617768448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14902,7 +15103,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG43"/>
+  <dimension ref="A1:AG44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16661,25 +16862,25 @@
         <v>20.56999969</v>
       </c>
       <c r="D41" s="29">
-        <v>25.729715551443242</v>
+        <v>25.729715551720684</v>
       </c>
       <c r="E41" s="29">
-        <v>105159.53769477447</v>
+        <v>105159.5377060835</v>
       </c>
       <c r="F41" s="30">
-        <v>172392.68070274981</v>
+        <v>172392.68072128922</v>
       </c>
       <c r="G41" s="30">
-        <v>13312021.830106834</v>
+        <v>13312021.830125373</v>
       </c>
       <c r="H41" s="30">
-        <v>8120333.5067951689</v>
+        <v>8120333.506806477</v>
       </c>
       <c r="I41" s="30">
-        <v>9314484.7442212198</v>
+        <v>9314484.7442325279</v>
       </c>
       <c r="J41" s="30">
-        <v>8120333.5067951689</v>
+        <v>8120333.506806477</v>
       </c>
       <c r="K41" s="30">
         <v>-1194151.2374260509</v>
@@ -16699,28 +16900,28 @@
         <v>25.239999770000001</v>
       </c>
       <c r="D42" s="29">
-        <v>25.607882301175056</v>
+        <v>25.607882301446285</v>
       </c>
       <c r="E42" s="29">
-        <v>534.58334913787519</v>
+        <v>534.58334992613857</v>
       </c>
       <c r="F42" s="30">
-        <v>696.97957693832984</v>
+        <v>696.9795779660526</v>
       </c>
       <c r="G42" s="30">
-        <v>13312718.809683772</v>
+        <v>13312718.809703339</v>
       </c>
       <c r="H42" s="30">
-        <v>10210855.587295413</v>
+        <v>10210855.58731042</v>
       </c>
       <c r="I42" s="30">
-        <v>9315019.3275703583</v>
+        <v>9315019.3275824543</v>
       </c>
       <c r="J42" s="30">
-        <v>10210855.587295413</v>
+        <v>10210855.58731042</v>
       </c>
       <c r="K42" s="30">
-        <v>895836.25972505473</v>
+        <v>895836.25972796604</v>
       </c>
       <c r="L42" s="29">
         <v>0</v>
@@ -16746,21 +16947,59 @@
         <v>2219.9741350105646</v>
       </c>
       <c r="G43" s="30">
-        <v>13314938.783818783</v>
+        <v>13314938.78383835</v>
       </c>
       <c r="H43" s="30">
-        <v>10345707.568357404</v>
+        <v>10345707.568372607</v>
       </c>
       <c r="I43" s="30">
-        <v>9316744.2474954911</v>
+        <v>9316744.2475075871</v>
       </c>
       <c r="J43" s="30">
-        <v>10345707.568357404</v>
+        <v>10345707.568372607</v>
       </c>
       <c r="K43" s="30">
-        <v>1028963.3208619133</v>
+        <v>1028963.3208650202</v>
       </c>
       <c r="L43" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="32">
+        <v>45625</v>
+      </c>
+      <c r="B44" s="31">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C44" s="31">
+        <v>24.719999309999999</v>
+      </c>
+      <c r="D44" s="29">
+        <v>25.593319274370291</v>
+      </c>
+      <c r="E44" s="29">
+        <v>3012.6166526625288</v>
+      </c>
+      <c r="F44" s="30">
+        <v>3857.3835886907341</v>
+      </c>
+      <c r="G44" s="30">
+        <v>13318796.167427041</v>
+      </c>
+      <c r="H44" s="30">
+        <v>10401980.048094602</v>
+      </c>
+      <c r="I44" s="30">
+        <v>9319756.864160249</v>
+      </c>
+      <c r="J44" s="30">
+        <v>10401980.048094602</v>
+      </c>
+      <c r="K44" s="30">
+        <v>1082223.1839343533</v>
+      </c>
+      <c r="L44" s="29">
         <v>0</v>
       </c>
     </row>
@@ -16780,7 +17019,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH43"/>
+  <dimension ref="A1:AH44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16821,7 +17060,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>2</v>
@@ -18976,28 +19215,28 @@
         <v>20.56999969</v>
       </c>
       <c r="D41" s="17">
-        <v>25.729715551443242</v>
+        <v>25.729715551720684</v>
       </c>
       <c r="E41" s="17">
-        <v>99901.560810035735</v>
+        <v>99901.560820779327</v>
       </c>
       <c r="F41" s="18">
-        <v>163773.0466676123</v>
+        <v>163773.04668522475</v>
       </c>
       <c r="G41" s="18">
-        <v>15362872.010156261</v>
+        <v>15362872.010173872</v>
       </c>
       <c r="H41" s="18">
-        <v>9371352.1459629666</v>
+        <v>9371352.1459737085</v>
       </c>
       <c r="I41" s="18">
-        <v>10878064.821258809</v>
+        <v>10878064.821269553</v>
       </c>
       <c r="J41" s="18">
-        <v>9371352.1459629666</v>
+        <v>9371352.1459737085</v>
       </c>
       <c r="K41" s="18">
-        <v>-1506712.6752958428</v>
+        <v>-1506712.6752958447</v>
       </c>
       <c r="L41" s="17">
         <v>0</v>
@@ -19026,28 +19265,28 @@
         <v>25.239999770000001</v>
       </c>
       <c r="D42" s="17">
-        <v>25.607882301175056</v>
+        <v>25.607882301446285</v>
       </c>
       <c r="E42" s="17">
-        <v>507.85418168098141</v>
+        <v>507.85418242983161</v>
       </c>
       <c r="F42" s="18">
-        <v>662.13059809141339</v>
+        <v>662.13059906774993</v>
       </c>
       <c r="G42" s="18">
-        <v>15363534.140754351</v>
+        <v>15363534.140772941</v>
       </c>
       <c r="H42" s="18">
-        <v>11783830.98632065</v>
+        <v>11783830.986334907</v>
       </c>
       <c r="I42" s="18">
-        <v>10878572.67544049</v>
+        <v>10878572.675451983</v>
       </c>
       <c r="J42" s="18">
-        <v>11783830.98632065</v>
+        <v>11783830.986334907</v>
       </c>
       <c r="K42" s="18">
-        <v>905258.31088015996</v>
+        <v>905258.31088292412</v>
       </c>
       <c r="L42" s="17">
         <v>0</v>
@@ -19085,19 +19324,19 @@
         <v>443.99482700211297</v>
       </c>
       <c r="G43" s="18">
-        <v>15363978.135581354</v>
+        <v>15363978.135599943</v>
       </c>
       <c r="H43" s="18">
-        <v>11937811.165195141</v>
+        <v>11937811.165209584</v>
       </c>
       <c r="I43" s="18">
-        <v>10878917.659425518</v>
+        <v>10878917.65943701</v>
       </c>
       <c r="J43" s="18">
-        <v>11937811.165195141</v>
+        <v>11937811.165209584</v>
       </c>
       <c r="K43" s="18">
-        <v>1058893.5057696234</v>
+        <v>1058893.5057725739</v>
       </c>
       <c r="L43" s="17">
         <v>0</v>
@@ -19112,6 +19351,56 @@
         <v>73.17081415386707</v>
       </c>
       <c r="P43" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="15">
+        <v>45625</v>
+      </c>
+      <c r="B44" s="31">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C44" s="16">
+        <v>24.719999309999999</v>
+      </c>
+      <c r="D44" s="17">
+        <v>25.593319274370291</v>
+      </c>
+      <c r="E44" s="17">
+        <v>602.52333053250584</v>
+      </c>
+      <c r="F44" s="18">
+        <v>771.47671773814693</v>
+      </c>
+      <c r="G44" s="18">
+        <v>15364749.612317681</v>
+      </c>
+      <c r="H44" s="18">
+        <v>11999869.725626484</v>
+      </c>
+      <c r="I44" s="18">
+        <v>10879520.182767542</v>
+      </c>
+      <c r="J44" s="18">
+        <v>11999869.725626484</v>
+      </c>
+      <c r="K44" s="18">
+        <v>1120349.5428589415</v>
+      </c>
+      <c r="L44" s="17">
+        <v>0</v>
+      </c>
+      <c r="M44" s="22">
+        <v>2.4601883883860715E-2</v>
+      </c>
+      <c r="N44" s="22">
+        <v>3.3378092843214698E-2</v>
+      </c>
+      <c r="O44" s="22">
+        <v>73.706679406225973</v>
+      </c>
+      <c r="P44" s="1">
         <v>0.2</v>
       </c>
     </row>
@@ -19131,7 +19420,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:AH43"/>
+  <dimension ref="A1:AH44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -21327,25 +21616,25 @@
         <v>20.56999969</v>
       </c>
       <c r="D41" s="17">
-        <v>25.729715551443242</v>
+        <v>25.729715551720684</v>
       </c>
       <c r="E41" s="17">
-        <v>515463.66789447801</v>
+        <v>515463.66797762876</v>
       </c>
       <c r="F41" s="18">
-        <v>845022.38656776363</v>
+        <v>845022.38670407631</v>
       </c>
       <c r="G41" s="18">
-        <v>137965867.20058322</v>
+        <v>137965867.20071954</v>
       </c>
       <c r="H41" s="18">
-        <v>84159180.965973333</v>
+        <v>84159180.966056481</v>
       </c>
       <c r="I41" s="18">
-        <v>96133393.369991511</v>
+        <v>96133393.37007466</v>
       </c>
       <c r="J41" s="18">
-        <v>84159180.965973333</v>
+        <v>84159180.966056481</v>
       </c>
       <c r="K41" s="18">
         <v>-11974212.404018179</v>
@@ -21377,28 +21666,28 @@
         <v>25.239999770000001</v>
       </c>
       <c r="D42" s="17">
-        <v>25.607882301175056</v>
+        <v>25.607882301446285</v>
       </c>
       <c r="E42" s="17">
-        <v>186.83068182463609</v>
+        <v>186.83068223786944</v>
       </c>
       <c r="F42" s="18">
-        <v>243.5862803943227</v>
+        <v>243.58628093308846</v>
       </c>
       <c r="G42" s="18">
-        <v>137966110.78686363</v>
+        <v>137966110.78700048</v>
       </c>
       <c r="H42" s="18">
-        <v>105820009.6708065</v>
+        <v>105820009.67091146</v>
       </c>
       <c r="I42" s="18">
-        <v>96133580.200673342</v>
+        <v>96133580.200756893</v>
       </c>
       <c r="J42" s="18">
-        <v>105820009.6708065</v>
+        <v>105820009.67091146</v>
       </c>
       <c r="K42" s="18">
-        <v>9686429.4701331556</v>
+        <v>9686429.4701545686</v>
       </c>
       <c r="L42" s="17">
         <v>0</v>
@@ -21436,19 +21725,19 @@
         <v>293.40251471266095</v>
       </c>
       <c r="G43" s="18">
-        <v>137966404.18937835</v>
+        <v>137966404.1895152</v>
       </c>
       <c r="H43" s="18">
-        <v>107199897.43668465</v>
+        <v>107199897.43679099</v>
       </c>
       <c r="I43" s="18">
-        <v>96133808.174430206</v>
+        <v>96133808.174513757</v>
       </c>
       <c r="J43" s="18">
-        <v>107199897.43668465</v>
+        <v>107199897.43679099</v>
       </c>
       <c r="K43" s="18">
-        <v>11066089.262254447</v>
+        <v>11066089.262277231</v>
       </c>
       <c r="L43" s="17">
         <v>0</v>
@@ -21463,6 +21752,56 @@
         <v>73.17081415386707</v>
       </c>
       <c r="P43" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="15">
+        <v>45625</v>
+      </c>
+      <c r="B44" s="31">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C44" s="16">
+        <v>24.719999309999999</v>
+      </c>
+      <c r="D44" s="17">
+        <v>25.593319274370291</v>
+      </c>
+      <c r="E44" s="17">
+        <v>526.19565355291797</v>
+      </c>
+      <c r="F44" s="18">
+        <v>673.7460196475887</v>
+      </c>
+      <c r="G44" s="18">
+        <v>137967077.93553486</v>
+      </c>
+      <c r="H44" s="18">
+        <v>107752290.36759025</v>
+      </c>
+      <c r="I44" s="18">
+        <v>96134334.370167315</v>
+      </c>
+      <c r="J44" s="18">
+        <v>107752290.36759025</v>
+      </c>
+      <c r="K44" s="18">
+        <v>11617955.997422934</v>
+      </c>
+      <c r="L44" s="17">
+        <v>0</v>
+      </c>
+      <c r="M44" s="22">
+        <v>2.4601883883860715E-2</v>
+      </c>
+      <c r="N44" s="22">
+        <v>3.3378092843214698E-2</v>
+      </c>
+      <c r="O44" s="22">
+        <v>73.706679406225973</v>
+      </c>
+      <c r="P44" s="1">
         <v>0.2</v>
       </c>
     </row>
@@ -21482,7 +21821,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AJ43"/>
+  <dimension ref="A1:AJ44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -24033,31 +24372,31 @@
         <v>25.600824703771881</v>
       </c>
       <c r="E43" s="17">
-        <v>0</v>
+        <v>1578400</v>
       </c>
       <c r="F43" s="17">
-        <v>4776893.3677173248</v>
+        <v>4778839.6069281753</v>
       </c>
       <c r="G43" s="17">
-        <v>0</v>
+        <v>10.484435876142047</v>
       </c>
       <c r="H43" s="18">
-        <v>0</v>
+        <v>13.493482292180152</v>
       </c>
       <c r="I43" s="18">
-        <v>19295092.044388767</v>
+        <v>19295105.537871059</v>
       </c>
       <c r="J43" s="18">
-        <v>14992286.711703027</v>
+        <v>14992297.196138902</v>
       </c>
       <c r="K43" s="18">
-        <v>12401439.621818949</v>
+        <v>12401450.106254825</v>
       </c>
       <c r="L43" s="18">
-        <v>14992286.711703027</v>
+        <v>14992297.196138902</v>
       </c>
       <c r="M43" s="18">
-        <v>2590847.0898840781</v>
+        <v>2590847.0898840763</v>
       </c>
       <c r="N43" s="17">
         <v>0</v>
@@ -24072,6 +24411,62 @@
         <v>73.17081415386707</v>
       </c>
       <c r="R43" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="15">
+        <v>45625</v>
+      </c>
+      <c r="B44" s="31">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C44" s="16">
+        <v>24.719999309999999</v>
+      </c>
+      <c r="D44" s="17">
+        <v>25.593319274370291</v>
+      </c>
+      <c r="E44" s="17">
+        <v>1693501</v>
+      </c>
+      <c r="F44" s="17">
+        <v>4743142.4693134017</v>
+      </c>
+      <c r="G44" s="17">
+        <v>26.159662584377543</v>
+      </c>
+      <c r="H44" s="18">
+        <v>33.495085758582441</v>
+      </c>
+      <c r="I44" s="18">
+        <v>19295139.032956816</v>
+      </c>
+      <c r="J44" s="18">
+        <v>15069503.934363566</v>
+      </c>
+      <c r="K44" s="18">
+        <v>12401476.265917409</v>
+      </c>
+      <c r="L44" s="18">
+        <v>15069503.934363566</v>
+      </c>
+      <c r="M44" s="18">
+        <v>2668027.6684461571</v>
+      </c>
+      <c r="N44" s="17">
+        <v>0</v>
+      </c>
+      <c r="O44" s="22">
+        <v>2.4601883883860715E-2</v>
+      </c>
+      <c r="P44" s="22">
+        <v>3.3378092843214698E-2</v>
+      </c>
+      <c r="Q44" s="22">
+        <v>73.706679406225973</v>
+      </c>
+      <c r="R44" s="1">
         <v>0.2</v>
       </c>
     </row>
@@ -24091,7 +24486,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AJ43"/>
+  <dimension ref="A1:AJ44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -24132,16 +24527,16 @@
   <sheetData>
     <row r="1" spans="1:36" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="E1" s="40" t="s">
         <v>5</v>
@@ -24168,19 +24563,19 @@
         <v>12</v>
       </c>
       <c r="M1" s="48" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" s="48" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" s="48" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" s="48" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" s="11" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -26420,28 +26815,28 @@
         <v>20.56999969</v>
       </c>
       <c r="D41" s="17">
-        <v>25.729715551443242</v>
+        <v>25.729715551720684</v>
       </c>
       <c r="E41" s="17">
-        <v>105159.53769477447</v>
+        <v>105159.5377060835</v>
       </c>
       <c r="F41" s="18">
-        <v>172392.68070274981</v>
+        <v>172392.68072128922</v>
       </c>
       <c r="G41" s="18">
-        <v>13588838.865683541</v>
+        <v>13588838.86570208</v>
       </c>
       <c r="H41" s="18">
-        <v>8289191.9024568591</v>
+        <v>8289191.9024681682</v>
       </c>
       <c r="I41" s="18">
-        <v>9487219.5050647631</v>
+        <v>9487219.5050760712</v>
       </c>
       <c r="J41" s="18">
-        <v>8289191.9024568591</v>
+        <v>8289191.9024681682</v>
       </c>
       <c r="K41" s="18">
-        <v>-1198027.602607904</v>
+        <v>-1198027.6026079031</v>
       </c>
       <c r="L41" s="17">
         <v>0</v>
@@ -26473,28 +26868,28 @@
         <v>25.239999770000001</v>
       </c>
       <c r="D42" s="17">
-        <v>25.607882301175056</v>
+        <v>25.607882301446285</v>
       </c>
       <c r="E42" s="17">
-        <v>534.58334913787519</v>
+        <v>534.58334992613857</v>
       </c>
       <c r="F42" s="18">
-        <v>696.97957693832984</v>
+        <v>696.9795779660526</v>
       </c>
       <c r="G42" s="18">
-        <v>13589535.845260479</v>
+        <v>13589535.845280046</v>
       </c>
       <c r="H42" s="18">
-        <v>10423174.258994609</v>
+        <v>10423174.259009616</v>
       </c>
       <c r="I42" s="18">
-        <v>9487754.0884139016</v>
+        <v>9487754.0884259976</v>
       </c>
       <c r="J42" s="18">
-        <v>10423174.258994609</v>
+        <v>10423174.259009616</v>
       </c>
       <c r="K42" s="18">
-        <v>935420.17058070749</v>
+        <v>935420.1705836188</v>
       </c>
       <c r="L42" s="17">
         <v>0</v>
@@ -26535,19 +26930,19 @@
         <v>2219.9741350105646</v>
       </c>
       <c r="G43" s="18">
-        <v>13591755.81939549</v>
+        <v>13591755.819415057</v>
       </c>
       <c r="H43" s="18">
-        <v>10560794.407772435</v>
+        <v>10560794.407787638</v>
       </c>
       <c r="I43" s="18">
-        <v>9489479.0083390344</v>
+        <v>9489479.0083511304</v>
       </c>
       <c r="J43" s="18">
-        <v>10560794.407772435</v>
+        <v>10560794.407787638</v>
       </c>
       <c r="K43" s="18">
-        <v>1071315.3994334005</v>
+        <v>1071315.3994365074</v>
       </c>
       <c r="L43" s="17">
         <v>0</v>
@@ -26565,6 +26960,59 @@
         <v>89.403008467199115</v>
       </c>
       <c r="Q43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="15">
+        <v>45625</v>
+      </c>
+      <c r="B44" s="31">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C44" s="16">
+        <v>24.719999309999999</v>
+      </c>
+      <c r="D44" s="17">
+        <v>25.593319274370291</v>
+      </c>
+      <c r="E44" s="17">
+        <v>3012.6166526625288</v>
+      </c>
+      <c r="F44" s="18">
+        <v>3857.3835886907341</v>
+      </c>
+      <c r="G44" s="18">
+        <v>13595613.203003747</v>
+      </c>
+      <c r="H44" s="18">
+        <v>10618174.157895882</v>
+      </c>
+      <c r="I44" s="18">
+        <v>9492491.6250037923</v>
+      </c>
+      <c r="J44" s="18">
+        <v>10618174.157895882</v>
+      </c>
+      <c r="K44" s="18">
+        <v>1125682.5328920893</v>
+      </c>
+      <c r="L44" s="17">
+        <v>0</v>
+      </c>
+      <c r="M44" s="21">
+        <v>67.931038664297006</v>
+      </c>
+      <c r="N44" s="21">
+        <v>69.421221080104587</v>
+      </c>
+      <c r="O44" s="21">
+        <v>63.505716492310192</v>
+      </c>
+      <c r="P44" s="21">
+        <v>81.252230255693362</v>
+      </c>
+      <c r="Q44" s="1">
         <v>1</v>
       </c>
     </row>
@@ -26584,7 +27032,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AJ43"/>
+  <dimension ref="A1:AJ44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -28671,33 +29119,77 @@
         <v>25.600824703771881</v>
       </c>
       <c r="E43" s="17">
-        <v>0</v>
+        <v>1578400</v>
       </c>
       <c r="F43" s="17">
-        <v>4776893.3677173248</v>
+        <v>4778839.6069281753</v>
       </c>
       <c r="G43" s="17">
-        <v>0</v>
+        <v>376.48656100691892</v>
       </c>
       <c r="H43" s="18">
-        <v>0</v>
+        <v>484.5386823101054</v>
       </c>
       <c r="I43" s="18">
-        <v>120970774.24502884</v>
+        <v>120971258.78371115</v>
       </c>
       <c r="J43" s="18">
-        <v>93994292.799737975</v>
+        <v>93994669.286298975</v>
       </c>
       <c r="K43" s="18">
-        <v>77383937.155090466</v>
+        <v>77384313.641651466</v>
       </c>
       <c r="L43" s="18">
-        <v>93994292.799737975</v>
+        <v>93994669.286298975</v>
       </c>
       <c r="M43" s="18">
         <v>16610355.644647509</v>
       </c>
       <c r="N43" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="15">
+        <v>45625</v>
+      </c>
+      <c r="B44" s="31">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C44" s="16">
+        <v>24.719999309999999</v>
+      </c>
+      <c r="D44" s="17">
+        <v>25.593319274370291</v>
+      </c>
+      <c r="E44" s="17">
+        <v>1693501</v>
+      </c>
+      <c r="F44" s="17">
+        <v>4743142.4693134017</v>
+      </c>
+      <c r="G44" s="17">
+        <v>939.36970189355725</v>
+      </c>
+      <c r="H44" s="18">
+        <v>1202.778079512733</v>
+      </c>
+      <c r="I44" s="18">
+        <v>120972461.56179066</v>
+      </c>
+      <c r="J44" s="18">
+        <v>94479494.671756774</v>
+      </c>
+      <c r="K44" s="18">
+        <v>77385253.011353359</v>
+      </c>
+      <c r="L44" s="18">
+        <v>94479494.671756774</v>
+      </c>
+      <c r="M44" s="18">
+        <v>17094241.660403416</v>
+      </c>
+      <c r="N44" s="17">
         <v>0</v>
       </c>
     </row>
@@ -28717,7 +29209,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AG43"/>
+  <dimension ref="A1:AG44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -28758,7 +29250,7 @@
   <sheetData>
     <row r="1" spans="1:33" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>2</v>
@@ -30476,28 +30968,28 @@
         <v>20.56999969</v>
       </c>
       <c r="D41" s="17">
-        <v>25.729715551443242</v>
+        <v>25.729715551720684</v>
       </c>
       <c r="E41" s="17">
-        <v>542593.33462576638</v>
+        <v>542593.33471329347</v>
       </c>
       <c r="F41" s="18">
-        <v>889497.24901869858</v>
+        <v>889497.2491621857</v>
       </c>
       <c r="G41" s="18">
-        <v>118565582.3219393</v>
+        <v>118565582.32208279</v>
       </c>
       <c r="H41" s="18">
-        <v>72325006.91247724</v>
+        <v>72325006.912564754</v>
       </c>
       <c r="I41" s="18">
-        <v>81697237.673032597</v>
+        <v>81697237.673120126</v>
       </c>
       <c r="J41" s="18">
-        <v>72325006.91247724</v>
+        <v>72325006.912564754</v>
       </c>
       <c r="K41" s="18">
-        <v>-9372230.7605553567</v>
+        <v>-9372230.7605553716</v>
       </c>
       <c r="L41" s="17">
         <v>0</v>
@@ -30514,28 +31006,28 @@
         <v>25.239999770000001</v>
       </c>
       <c r="D42" s="17">
-        <v>25.607882301175056</v>
+        <v>25.607882301446285</v>
       </c>
       <c r="E42" s="17">
-        <v>196.6638756048801</v>
+        <v>196.66387603986257</v>
       </c>
       <c r="F42" s="18">
-        <v>256.40661094139233</v>
+        <v>256.40661150851417</v>
       </c>
       <c r="G42" s="18">
-        <v>118565838.72855024</v>
+        <v>118565838.72869429</v>
       </c>
       <c r="H42" s="18">
-        <v>90940000.622798532</v>
+        <v>90940000.622909024</v>
       </c>
       <c r="I42" s="18">
-        <v>81697434.336908206</v>
+        <v>81697434.336996168</v>
       </c>
       <c r="J42" s="18">
-        <v>90940000.622798532</v>
+        <v>90940000.622909024</v>
       </c>
       <c r="K42" s="18">
-        <v>9242566.2858903259</v>
+        <v>9242566.2859128565</v>
       </c>
       <c r="L42" s="17">
         <v>0</v>
@@ -30561,21 +31053,59 @@
         <v>1467.0125735633046</v>
       </c>
       <c r="G43" s="18">
-        <v>118567305.74112381</v>
+        <v>118567305.74126786</v>
       </c>
       <c r="H43" s="18">
-        <v>92126797.748136446</v>
+        <v>92126797.748248369</v>
       </c>
       <c r="I43" s="18">
-        <v>81698574.205692559</v>
+        <v>81698574.205780521</v>
       </c>
       <c r="J43" s="18">
-        <v>92126797.748136446</v>
+        <v>92126797.748248369</v>
       </c>
       <c r="K43" s="18">
-        <v>10428223.542443886</v>
+        <v>10428223.542467847</v>
       </c>
       <c r="L43" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="15">
+        <v>45625</v>
+      </c>
+      <c r="B44" s="31">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C44" s="16">
+        <v>24.719999309999999</v>
+      </c>
+      <c r="D44" s="17">
+        <v>25.593319274370291</v>
+      </c>
+      <c r="E44" s="17">
+        <v>2630.9782677645899</v>
+      </c>
+      <c r="F44" s="18">
+        <v>3368.7300982379434</v>
+      </c>
+      <c r="G44" s="18">
+        <v>118570674.47136609</v>
+      </c>
+      <c r="H44" s="18">
+        <v>92603698.91061525</v>
+      </c>
+      <c r="I44" s="18">
+        <v>81701205.18404828</v>
+      </c>
+      <c r="J44" s="18">
+        <v>92603698.91061525</v>
+      </c>
+      <c r="K44" s="18">
+        <v>10902493.72656697</v>
+      </c>
+      <c r="L44" s="17">
         <v>0</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(RSI&KDJ)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(RSI&KDJ)cn.xlsx
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="29">
   <si>
     <t>in practice</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -145,10 +145,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>SMA之MAX</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -170,30 +166,6 @@
   </si>
   <si>
     <t>成交均量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>深创100ETF</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PE均值</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -371,7 +343,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -459,6 +431,8 @@
     <xf numFmtId="176" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -672,7 +646,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -798,6 +772,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -807,7 +784,7 @@
               <c:f>'模型四 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -933,6 +910,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>9319756.864160249</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9322156.0793799553</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -975,7 +955,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1101,6 +1081,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1110,7 +1093,7 @@
               <c:f>'模型四 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1236,6 +1219,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>10401980.048094602</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>10510929.054722106</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1278,7 +1264,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1404,6 +1390,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1413,7 +1402,7 @@
               <c:f>'模型四 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1539,6 +1528,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>1082223.1839343533</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1188772.9753421508</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1560,11 +1552,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="499408896"/>
-        <c:axId val="499411200"/>
+        <c:axId val="366455424"/>
+        <c:axId val="366462464"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="499408896"/>
+        <c:axId val="366455424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1607,14 +1599,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="499411200"/>
+        <c:crossAx val="366462464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="499411200"/>
+        <c:axId val="366462464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1665,7 +1657,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="499408896"/>
+        <c:crossAx val="366455424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1856,7 +1848,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1982,6 +1974,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>3012.6166526625288</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2399.2152197068949</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1996,8 +1991,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="617980672"/>
-        <c:axId val="617974784"/>
+        <c:axId val="491752064"/>
+        <c:axId val="491750528"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2022,7 +2017,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2148,6 +2143,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2157,7 +2155,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2283,6 +2281,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>0.78100001811981201</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.78899997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2299,11 +2300,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="617960192"/>
-        <c:axId val="617972480"/>
+        <c:axId val="491722624"/>
+        <c:axId val="491724160"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="617960192"/>
+        <c:axId val="491722624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2346,14 +2347,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617972480"/>
+        <c:crossAx val="491724160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="617972480"/>
+        <c:axId val="491724160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2404,12 +2405,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617960192"/>
+        <c:crossAx val="491722624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="617974784"/>
+        <c:axId val="491750528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2446,12 +2447,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617980672"/>
+        <c:crossAx val="491752064"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="617980672"/>
+        <c:axId val="491752064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2460,7 +2461,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="617974784"/>
+        <c:crossAx val="491750528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2639,7 +2640,7 @@
               <c:f>'模型四 (3)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2765,6 +2766,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2774,7 +2778,7 @@
               <c:f>'模型四 (3)PE副本成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2900,6 +2904,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>77385253.011353359</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>77386224.119623885</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2942,7 +2949,7 @@
               <c:f>'模型四 (3)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3068,6 +3075,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3077,7 +3087,7 @@
               <c:f>'模型四 (3)PE副本成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3203,6 +3213,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>94479494.671756774</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>95448240.223262623</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3245,7 +3258,7 @@
               <c:f>'模型四 (3)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3371,6 +3384,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3380,7 +3396,7 @@
               <c:f>'模型四 (3)PE副本成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3506,6 +3522,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>17094241.660403416</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>18062016.103638738</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3527,11 +3546,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="494722048"/>
-        <c:axId val="495125248"/>
+        <c:axId val="493031808"/>
+        <c:axId val="493033344"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="494722048"/>
+        <c:axId val="493031808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3574,14 +3593,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="495125248"/>
+        <c:crossAx val="493033344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="495125248"/>
+        <c:axId val="493033344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3632,7 +3651,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494722048"/>
+        <c:crossAx val="493031808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3823,7 +3842,7 @@
               <c:f>'模型四 (3)PE副本成交量'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3949,6 +3968,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>939.36970189355725</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>971.10827052589309</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3963,8 +3985,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="501031680"/>
-        <c:axId val="501025792"/>
+        <c:axId val="493111168"/>
+        <c:axId val="493109632"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3989,7 +4011,7 @@
               <c:f>'模型四 (3)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4115,6 +4137,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4124,7 +4149,7 @@
               <c:f>'模型四 (3)PE副本成交量'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4250,6 +4275,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>0.78100001811981201</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.78899997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4266,11 +4294,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="501022720"/>
-        <c:axId val="501024256"/>
+        <c:axId val="493102208"/>
+        <c:axId val="493103744"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="501022720"/>
+        <c:axId val="493102208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4313,14 +4341,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501024256"/>
+        <c:crossAx val="493103744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="501024256"/>
+        <c:axId val="493103744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4371,12 +4399,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501022720"/>
+        <c:crossAx val="493102208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="501025792"/>
+        <c:axId val="493109632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4413,12 +4441,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501031680"/>
+        <c:crossAx val="493111168"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="501031680"/>
+        <c:axId val="493111168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4427,7 +4455,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="501025792"/>
+        <c:crossAx val="493109632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4606,7 +4634,7 @@
               <c:f>'模型四 (3)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4732,6 +4760,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4741,7 +4772,7 @@
               <c:f>'模型四 (3)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4867,6 +4898,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>81701205.18404828</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>81703075.027569145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4909,7 +4943,7 @@
               <c:f>'模型四 (3)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5035,6 +5069,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5044,7 +5081,7 @@
               <c:f>'模型四 (3)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5170,6 +5207,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>92603698.91061525</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>93554129.004866824</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5212,7 +5252,7 @@
               <c:f>'模型四 (3)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5338,6 +5378,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5347,7 +5390,7 @@
               <c:f>'模型四 (3)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5473,6 +5516,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>10902493.72656697</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>11851053.977297679</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5494,11 +5540,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="506149120"/>
-        <c:axId val="506150912"/>
+        <c:axId val="493322240"/>
+        <c:axId val="493323776"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="506149120"/>
+        <c:axId val="493322240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5541,14 +5587,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506150912"/>
+        <c:crossAx val="493323776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="506150912"/>
+        <c:axId val="493323776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5599,7 +5645,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506149120"/>
+        <c:crossAx val="493322240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5790,7 +5836,7 @@
               <c:f>'模型四 (3)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5916,6 +5962,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>2630.9782677645899</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1869.843520860353</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5930,8 +5979,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="506195968"/>
-        <c:axId val="506181888"/>
+        <c:axId val="493499904"/>
+        <c:axId val="493498368"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5956,7 +6005,7 @@
               <c:f>'模型四 (3)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6082,6 +6131,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6091,7 +6143,7 @@
               <c:f>'模型四 (3)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6217,6 +6269,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>0.78100001811981201</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.78899997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6233,11 +6288,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="506178560"/>
-        <c:axId val="506180352"/>
+        <c:axId val="493490944"/>
+        <c:axId val="493492480"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="506178560"/>
+        <c:axId val="493490944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6280,14 +6335,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506180352"/>
+        <c:crossAx val="493492480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="506180352"/>
+        <c:axId val="493492480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6338,12 +6393,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506178560"/>
+        <c:crossAx val="493490944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="506181888"/>
+        <c:axId val="493498368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6380,12 +6435,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506195968"/>
+        <c:crossAx val="493499904"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="506195968"/>
+        <c:axId val="493499904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6394,7 +6449,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="506181888"/>
+        <c:crossAx val="493498368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6556,7 +6611,7 @@
               <c:f>'模型四 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6682,6 +6737,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>3012.6166526625288</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2399.2152197068949</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6696,8 +6754,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="499439104"/>
-        <c:axId val="499436160"/>
+        <c:axId val="491588608"/>
+        <c:axId val="491587072"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6722,7 +6780,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6848,6 +6906,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6857,7 +6918,7 @@
               <c:f>'模型四 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6983,6 +7044,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>0.78100001811981201</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.78899997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6999,11 +7063,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="499432832"/>
-        <c:axId val="499434624"/>
+        <c:axId val="402911616"/>
+        <c:axId val="402914304"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="499432832"/>
+        <c:axId val="402911616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7046,14 +7110,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="499434624"/>
+        <c:crossAx val="402914304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="499434624"/>
+        <c:axId val="402914304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7104,12 +7168,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="499432832"/>
+        <c:crossAx val="402911616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="499436160"/>
+        <c:axId val="491587072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7146,12 +7210,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="499439104"/>
+        <c:crossAx val="491588608"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="499439104"/>
+        <c:axId val="491588608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7160,7 +7224,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="499436160"/>
+        <c:crossAx val="491587072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7339,7 +7403,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7465,6 +7529,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7474,7 +7541,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7600,6 +7667,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>10879520.182767542</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>10880000.025811484</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7642,7 +7712,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7768,6 +7838,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7777,7 +7850,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7903,6 +7976,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>11999869.725626484</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>12123266.898858964</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7945,7 +8021,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8071,6 +8147,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8080,7 +8159,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8206,6 +8285,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>1120349.5428589415</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1243266.8730474804</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8227,11 +8309,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="576123264"/>
-        <c:axId val="576125184"/>
+        <c:axId val="502028160"/>
+        <c:axId val="502215040"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="576123264"/>
+        <c:axId val="502028160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8274,14 +8356,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="576125184"/>
+        <c:crossAx val="502215040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="576125184"/>
+        <c:axId val="502215040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8332,7 +8414,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="576123264"/>
+        <c:crossAx val="502028160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8532,7 +8614,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8658,6 +8740,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>602.52333053250584</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>479.84304394137899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8672,8 +8757,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="587474048"/>
-        <c:axId val="587464064"/>
+        <c:axId val="503711232"/>
+        <c:axId val="503709696"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8698,7 +8783,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8824,6 +8909,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8833,7 +8921,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -8959,6 +9047,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>0.78100001811981201</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.78899997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8975,11 +9066,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="587459968"/>
-        <c:axId val="587462144"/>
+        <c:axId val="502263168"/>
+        <c:axId val="502266112"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="587459968"/>
+        <c:axId val="502263168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9022,14 +9113,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="587462144"/>
+        <c:crossAx val="502266112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="587462144"/>
+        <c:axId val="502266112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9080,12 +9171,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="587459968"/>
+        <c:crossAx val="502263168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="587464064"/>
+        <c:axId val="503709696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9122,12 +9213,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="587474048"/>
+        <c:crossAx val="503711232"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="587474048"/>
+        <c:axId val="503711232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9136,7 +9227,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="587464064"/>
+        <c:crossAx val="503709696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9315,7 +9406,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9441,6 +9532,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9450,7 +9544,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9576,6 +9670,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>96134334.370167315</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>96134708.338871494</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9618,7 +9715,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9744,6 +9841,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9753,7 +9853,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9879,6 +9979,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>107752290.36759025</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>108856394.97308622</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9921,7 +10024,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10047,6 +10150,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10056,7 +10162,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10182,6 +10288,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>11617955.997422934</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>12721686.634214729</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10203,11 +10312,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="587490432"/>
-        <c:axId val="587522048"/>
+        <c:axId val="503777536"/>
+        <c:axId val="503779328"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="587490432"/>
+        <c:axId val="503777536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10250,14 +10359,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="587522048"/>
+        <c:crossAx val="503779328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="587522048"/>
+        <c:axId val="503779328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10308,7 +10417,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="587490432"/>
+        <c:crossAx val="503777536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10508,7 +10617,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10634,6 +10743,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>526.19565355291797</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>373.9687041720706</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10648,8 +10760,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="587567104"/>
-        <c:axId val="587564160"/>
+        <c:axId val="504571392"/>
+        <c:axId val="504569856"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -10674,7 +10786,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10800,6 +10912,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10809,7 +10924,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -10935,6 +11050,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>0.78100001811981201</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.78899997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10951,11 +11069,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="587549312"/>
-        <c:axId val="587551488"/>
+        <c:axId val="503943552"/>
+        <c:axId val="503945088"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="587549312"/>
+        <c:axId val="503943552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10998,14 +11116,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="587551488"/>
+        <c:crossAx val="503945088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="587551488"/>
+        <c:axId val="503945088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11056,12 +11174,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="587549312"/>
+        <c:crossAx val="503943552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="587564160"/>
+        <c:axId val="504569856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11098,12 +11216,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="587567104"/>
+        <c:crossAx val="504571392"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="587567104"/>
+        <c:axId val="504571392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11112,7 +11230,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="587564160"/>
+        <c:crossAx val="504569856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11291,7 +11409,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11417,6 +11535,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11426,7 +11547,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11552,6 +11673,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>12401476.265917409</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>12401503.309438867</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11594,7 +11718,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11720,6 +11844,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11729,7 +11856,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11855,6 +11982,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>15069503.934363566</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>15223891.252890505</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11897,7 +12027,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -12023,6 +12153,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12032,7 +12165,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12158,6 +12291,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>2668027.6684461571</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2822387.9434516374</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12179,11 +12315,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="589684736"/>
-        <c:axId val="589686656"/>
+        <c:axId val="504609792"/>
+        <c:axId val="505984128"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="589684736"/>
+        <c:axId val="504609792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12226,14 +12362,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="589686656"/>
+        <c:crossAx val="505984128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="589686656"/>
+        <c:axId val="505984128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12284,7 +12420,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="589684736"/>
+        <c:crossAx val="504609792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12475,7 +12611,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12601,6 +12737,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>26.159662584377543</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>27.043521457683099</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12615,8 +12754,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="590617984"/>
-        <c:axId val="590616064"/>
+        <c:axId val="532658048"/>
+        <c:axId val="532578688"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -12641,7 +12780,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -12767,6 +12906,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12776,7 +12918,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -12902,6 +13044,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>0.78100001811981201</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.78899997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12918,11 +13063,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="589990144"/>
-        <c:axId val="590614528"/>
+        <c:axId val="532472960"/>
+        <c:axId val="532516864"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="589990144"/>
+        <c:axId val="532472960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12965,14 +13110,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="590614528"/>
+        <c:crossAx val="532516864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="590614528"/>
+        <c:axId val="532516864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13023,12 +13168,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="589990144"/>
+        <c:crossAx val="532472960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="590616064"/>
+        <c:axId val="532578688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13065,12 +13210,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="590617984"/>
+        <c:crossAx val="532658048"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="590617984"/>
+        <c:axId val="532658048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13079,7 +13224,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="590616064"/>
+        <c:crossAx val="532578688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13258,7 +13403,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -13384,6 +13529,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13393,7 +13541,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13519,6 +13667,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>9492491.6250037923</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9494890.8402234986</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13561,7 +13712,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -13687,6 +13838,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13696,7 +13850,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13822,6 +13976,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>10618174.157895882</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>10729337.688796306</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13864,7 +14021,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -13990,6 +14147,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13999,7 +14159,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14125,6 +14285,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>1125682.5328920893</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1234446.8485728074</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14146,11 +14309,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="617768448"/>
-        <c:axId val="617769984"/>
+        <c:axId val="533865600"/>
+        <c:axId val="533867136"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="617768448"/>
+        <c:axId val="533865600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14193,14 +14356,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617769984"/>
+        <c:crossAx val="533867136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="617769984"/>
+        <c:axId val="533867136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14251,7 +14414,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617768448"/>
+        <c:crossAx val="533865600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15103,7 +15266,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG44"/>
+  <dimension ref="A1:AG46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15283,6 +15446,16 @@
         <f>-AC3</f>
         <v>-245217.76659387304</v>
       </c>
+      <c r="AE3" s="42">
+        <v>44561</v>
+      </c>
+      <c r="AF3" s="24">
+        <v>245217.76659387304</v>
+      </c>
+      <c r="AG3" s="24">
+        <f>-AF3</f>
+        <v>-245217.76659387304</v>
+      </c>
     </row>
     <row r="4" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="32">
@@ -15366,9 +15539,16 @@
         <f>-AC4</f>
         <v>-3518640.0102128703</v>
       </c>
-      <c r="AE4" s="19"/>
-      <c r="AF4" s="27"/>
-      <c r="AG4" s="27"/>
+      <c r="AE4" s="42">
+        <v>44925</v>
+      </c>
+      <c r="AF4" s="27">
+        <v>3518640.0102128703</v>
+      </c>
+      <c r="AG4" s="27">
+        <f>-AF4</f>
+        <v>-3518640.0102128703</v>
+      </c>
     </row>
     <row r="5" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="32">
@@ -15449,9 +15629,16 @@
         <f>-AC5</f>
         <v>-3101231.3499326059</v>
       </c>
-      <c r="AE5" s="19"/>
-      <c r="AF5" s="27"/>
-      <c r="AG5" s="27"/>
+      <c r="AE5" s="42">
+        <v>45289</v>
+      </c>
+      <c r="AF5" s="27">
+        <v>3101231.3499326059</v>
+      </c>
+      <c r="AG5" s="27">
+        <f>-AF5</f>
+        <v>-3101231.3499326059</v>
+      </c>
     </row>
     <row r="6" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="32">
@@ -15527,7 +15714,16 @@
       <c r="AD6" s="28">
         <v>6043907.692957717</v>
       </c>
-      <c r="AE6" s="19"/>
+      <c r="AE6" s="42">
+        <v>45657</v>
+      </c>
+      <c r="AF6" s="24">
+        <v>2457066.9526406061</v>
+      </c>
+      <c r="AG6" s="24">
+        <f>-AF6</f>
+        <v>-2457066.9526406061</v>
+      </c>
     </row>
     <row r="7" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="32">
@@ -15567,13 +15763,42 @@
         <v>0</v>
       </c>
       <c r="M7" s="27"/>
+      <c r="P7" s="42">
+        <v>45657</v>
+      </c>
+      <c r="Q7" s="35">
+        <v>2457066.9526406061</v>
+      </c>
+      <c r="R7" s="34">
+        <v>9322156.0793799553</v>
+      </c>
+      <c r="S7" s="34">
+        <v>10510929.054722106</v>
+      </c>
+      <c r="T7" s="34">
+        <v>1188772.9753421508</v>
+      </c>
+      <c r="U7" s="34">
+        <v>0</v>
+      </c>
+      <c r="V7" s="33">
+        <v>0.1275212477906956</v>
+      </c>
+      <c r="W7" s="33">
+        <v>5.64349825650452E-2</v>
+      </c>
       <c r="Y7" s="27"/>
       <c r="Z7" s="27"/>
       <c r="AA7" s="27"/>
       <c r="AD7" s="25">
         <v>-7.7878942670306261E-2</v>
       </c>
-      <c r="AG7" s="25"/>
+      <c r="AE7" s="42">
+        <v>45657</v>
+      </c>
+      <c r="AG7" s="25">
+        <v>10510929.054722106</v>
+      </c>
     </row>
     <row r="8" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="32">
@@ -15613,6 +15838,9 @@
         <v>0</v>
       </c>
       <c r="M8" s="27"/>
+      <c r="AG8" s="25">
+        <v>5.64349825650452E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="32">
@@ -17002,6 +17230,47 @@
       <c r="L44" s="29">
         <v>0</v>
       </c>
+    </row>
+    <row r="45" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="32">
+        <v>45657</v>
+      </c>
+      <c r="B45" s="31">
+        <v>0.78899997472763062</v>
+      </c>
+      <c r="C45" s="31">
+        <v>24.799999239999998</v>
+      </c>
+      <c r="D45" s="29">
+        <v>25.579355550139105</v>
+      </c>
+      <c r="E45" s="29">
+        <v>2399.2152197068949</v>
+      </c>
+      <c r="F45" s="30">
+        <v>3040.8305406285012</v>
+      </c>
+      <c r="G45" s="30">
+        <v>13321836.99796767</v>
+      </c>
+      <c r="H45" s="30">
+        <v>10510929.054722106</v>
+      </c>
+      <c r="I45" s="30">
+        <v>9322156.0793799553</v>
+      </c>
+      <c r="J45" s="30">
+        <v>10510929.054722106</v>
+      </c>
+      <c r="K45" s="30">
+        <v>1188772.9753421508</v>
+      </c>
+      <c r="L45" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A46" s="49"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -17019,7 +17288,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH44"/>
+  <dimension ref="A1:AH46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17060,7 +17329,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>2</v>
@@ -17096,16 +17365,16 @@
         <v>12</v>
       </c>
       <c r="M1" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="44" t="s">
+      <c r="O1" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="48" t="s">
+      <c r="P1" s="11" t="s">
         <v>21</v>
-      </c>
-      <c r="P1" s="11" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -17210,6 +17479,16 @@
         <f>-AD3</f>
         <v>-391166.03767330461</v>
       </c>
+      <c r="AF3" s="42">
+        <v>44561</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>391166.03767330461</v>
+      </c>
+      <c r="AH3" s="1">
+        <f>-AG3</f>
+        <v>-391166.03767330461</v>
+      </c>
     </row>
     <row r="4" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15">
@@ -17301,9 +17580,16 @@
         <f>-AD4</f>
         <v>-4936141.1701060347</v>
       </c>
-      <c r="AF4" s="6"/>
-      <c r="AG4" s="7"/>
-      <c r="AH4" s="7"/>
+      <c r="AF4" s="42">
+        <v>44925</v>
+      </c>
+      <c r="AG4" s="7">
+        <v>4936141.1701060347</v>
+      </c>
+      <c r="AH4" s="7">
+        <f>-AG4</f>
+        <v>-4936141.1701060347</v>
+      </c>
     </row>
     <row r="5" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15">
@@ -17395,9 +17681,16 @@
         <f>-AD5</f>
         <v>-2811253.8169439584</v>
       </c>
-      <c r="AF5" s="19"/>
-      <c r="AG5" s="7"/>
-      <c r="AH5" s="7"/>
+      <c r="AF5" s="42">
+        <v>45289</v>
+      </c>
+      <c r="AG5" s="7">
+        <v>2811253.8169439584</v>
+      </c>
+      <c r="AH5" s="7">
+        <f>-AG5</f>
+        <v>-2811253.8169439584</v>
+      </c>
     </row>
     <row r="6" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15">
@@ -17484,7 +17777,16 @@
       <c r="AE6" s="8">
         <v>7072800.7878068425</v>
       </c>
-      <c r="AF6" s="19"/>
+      <c r="AF6" s="42">
+        <v>45657</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>2741439.0010881862</v>
+      </c>
+      <c r="AH6" s="1">
+        <f>-AG6</f>
+        <v>-2741439.0010881862</v>
+      </c>
     </row>
     <row r="7" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15">
@@ -17534,6 +17836,30 @@
       </c>
       <c r="P7" s="1">
         <v>2</v>
+      </c>
+      <c r="Q7" s="42">
+        <v>45657</v>
+      </c>
+      <c r="R7" s="10">
+        <v>2741439.0010881862</v>
+      </c>
+      <c r="S7" s="4">
+        <v>10880000.025811484</v>
+      </c>
+      <c r="T7" s="4">
+        <v>12123266.898858964</v>
+      </c>
+      <c r="U7" s="4">
+        <v>1243266.8730474804</v>
+      </c>
+      <c r="V7" s="4">
+        <v>0</v>
+      </c>
+      <c r="W7" s="9">
+        <v>0.11427085203106435</v>
+      </c>
+      <c r="X7" s="9">
+        <v>4.8343179700410577E-2</v>
       </c>
       <c r="Z7" s="7"/>
       <c r="AA7" s="7"/>
@@ -17541,7 +17867,12 @@
       <c r="AE7" s="2">
         <v>-7.9697327658813766E-2</v>
       </c>
-      <c r="AH7" s="2"/>
+      <c r="AF7" s="42">
+        <v>45657</v>
+      </c>
+      <c r="AH7" s="2">
+        <v>12123266.898858964</v>
+      </c>
     </row>
     <row r="8" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15">
@@ -17592,6 +17923,9 @@
       <c r="P8" s="1">
         <v>1</v>
       </c>
+      <c r="AH8" s="2">
+        <v>4.8343179700410577E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15">
@@ -19403,6 +19737,59 @@
       <c r="P44" s="1">
         <v>0.2</v>
       </c>
+    </row>
+    <row r="45" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="15">
+        <v>45657</v>
+      </c>
+      <c r="B45" s="31">
+        <v>0.78899997472763062</v>
+      </c>
+      <c r="C45" s="16">
+        <v>24.799999239999998</v>
+      </c>
+      <c r="D45" s="17">
+        <v>25.579355550139105</v>
+      </c>
+      <c r="E45" s="17">
+        <v>479.84304394137899</v>
+      </c>
+      <c r="F45" s="18">
+        <v>608.16610812570025</v>
+      </c>
+      <c r="G45" s="18">
+        <v>15365357.778425807</v>
+      </c>
+      <c r="H45" s="18">
+        <v>12123266.898858964</v>
+      </c>
+      <c r="I45" s="18">
+        <v>10880000.025811484</v>
+      </c>
+      <c r="J45" s="18">
+        <v>12123266.898858964</v>
+      </c>
+      <c r="K45" s="18">
+        <v>1243266.8730474804</v>
+      </c>
+      <c r="L45" s="17">
+        <v>0</v>
+      </c>
+      <c r="M45" s="22">
+        <v>2.1834896004520363E-2</v>
+      </c>
+      <c r="N45" s="22">
+        <v>2.914840347064868E-2</v>
+      </c>
+      <c r="O45" s="22">
+        <v>74.909406364253414</v>
+      </c>
+      <c r="P45" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A46" s="50"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -19420,7 +19807,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:AH44"/>
+  <dimension ref="A1:AH46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19497,16 +19884,16 @@
         <v>12</v>
       </c>
       <c r="M1" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="44" t="s">
+      <c r="O1" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="48" t="s">
+      <c r="P1" s="11" t="s">
         <v>21</v>
-      </c>
-      <c r="P1" s="11" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -19611,6 +19998,16 @@
         <f>-AD3</f>
         <v>-1479712.331556374</v>
       </c>
+      <c r="AF3" s="42">
+        <v>44561</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>1479712.331556374</v>
+      </c>
+      <c r="AH3" s="1">
+        <f>-AG3</f>
+        <v>-1479712.331556374</v>
+      </c>
     </row>
     <row r="4" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15">
@@ -19702,9 +20099,16 @@
         <f>-AD4</f>
         <v>-44876934.711818963</v>
       </c>
-      <c r="AF4" s="6"/>
-      <c r="AG4" s="7"/>
-      <c r="AH4" s="7"/>
+      <c r="AF4" s="42">
+        <v>44925</v>
+      </c>
+      <c r="AG4" s="7">
+        <v>44876934.711818963</v>
+      </c>
+      <c r="AH4" s="7">
+        <f>-AG4</f>
+        <v>-44876934.711818963</v>
+      </c>
     </row>
     <row r="5" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15">
@@ -19796,9 +20200,16 @@
         <f>-AD5</f>
         <v>-24068354.986946188</v>
       </c>
-      <c r="AF5" s="19"/>
-      <c r="AG5" s="7"/>
-      <c r="AH5" s="7"/>
+      <c r="AF5" s="42">
+        <v>45289</v>
+      </c>
+      <c r="AG5" s="7">
+        <v>24068354.986946188</v>
+      </c>
+      <c r="AH5" s="7">
+        <f>-AG5</f>
+        <v>-24068354.986946188</v>
+      </c>
     </row>
     <row r="6" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15">
@@ -19885,7 +20296,16 @@
       <c r="AE6" s="8">
         <v>62176292.161664203</v>
       </c>
-      <c r="AF6" s="19"/>
+      <c r="AF6" s="42">
+        <v>45657</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>25709706.30854997</v>
+      </c>
+      <c r="AH6" s="1">
+        <f>-AG6</f>
+        <v>-25709706.30854997</v>
+      </c>
     </row>
     <row r="7" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15">
@@ -19935,6 +20355,30 @@
       </c>
       <c r="P7" s="1">
         <v>2</v>
+      </c>
+      <c r="Q7" s="42">
+        <v>45657</v>
+      </c>
+      <c r="R7" s="10">
+        <v>25709706.30854997</v>
+      </c>
+      <c r="S7" s="4">
+        <v>96134708.338871494</v>
+      </c>
+      <c r="T7" s="4">
+        <v>108856394.97308622</v>
+      </c>
+      <c r="U7" s="4">
+        <v>12721686.634214729</v>
+      </c>
+      <c r="V7" s="4">
+        <v>0</v>
+      </c>
+      <c r="W7" s="9">
+        <v>0.13233187944328315</v>
+      </c>
+      <c r="X7" s="9">
+        <v>5.6774440541677906E-2</v>
       </c>
       <c r="Z7" s="7"/>
       <c r="AA7" s="7"/>
@@ -19942,7 +20386,12 @@
       <c r="AE7" s="2">
         <v>-7.190101481079203E-2</v>
       </c>
-      <c r="AH7" s="2"/>
+      <c r="AF7" s="42">
+        <v>45657</v>
+      </c>
+      <c r="AH7" s="2">
+        <v>108856394.97308622</v>
+      </c>
     </row>
     <row r="8" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15">
@@ -19993,6 +20442,9 @@
       <c r="P8" s="1">
         <v>1</v>
       </c>
+      <c r="AH8" s="2">
+        <v>5.6774440541677906E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15">
@@ -21804,6 +22256,59 @@
       <c r="P44" s="1">
         <v>0.2</v>
       </c>
+    </row>
+    <row r="45" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="15">
+        <v>45657</v>
+      </c>
+      <c r="B45" s="31">
+        <v>0.78899997472763062</v>
+      </c>
+      <c r="C45" s="16">
+        <v>24.799999239999998</v>
+      </c>
+      <c r="D45" s="17">
+        <v>25.579355550139105</v>
+      </c>
+      <c r="E45" s="17">
+        <v>373.9687041720706</v>
+      </c>
+      <c r="F45" s="18">
+        <v>473.97809398050708</v>
+      </c>
+      <c r="G45" s="18">
+        <v>137967551.91362885</v>
+      </c>
+      <c r="H45" s="18">
+        <v>108856394.97308622</v>
+      </c>
+      <c r="I45" s="18">
+        <v>96134708.338871494</v>
+      </c>
+      <c r="J45" s="18">
+        <v>108856394.97308622</v>
+      </c>
+      <c r="K45" s="18">
+        <v>12721686.634214729</v>
+      </c>
+      <c r="L45" s="17">
+        <v>0</v>
+      </c>
+      <c r="M45" s="22">
+        <v>2.1834896004520363E-2</v>
+      </c>
+      <c r="N45" s="22">
+        <v>2.914840347064868E-2</v>
+      </c>
+      <c r="O45" s="22">
+        <v>74.909406364253414</v>
+      </c>
+      <c r="P45" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A46" s="50"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -21821,7 +22326,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AJ44"/>
+  <dimension ref="A1:AJ46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -21862,22 +22367,22 @@
   <sheetData>
     <row r="1" spans="1:36" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>23</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>24</v>
       </c>
       <c r="G1" s="40" t="s">
         <v>5</v>
@@ -21904,16 +22409,16 @@
         <v>12</v>
       </c>
       <c r="O1" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="44" t="s">
+      <c r="Q1" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="48" t="s">
+      <c r="R1" s="11" t="s">
         <v>21</v>
-      </c>
-      <c r="R1" s="11" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -22030,6 +22535,16 @@
         <f>-AF3</f>
         <v>-39715.263697469622</v>
       </c>
+      <c r="AH3" s="42">
+        <v>44561</v>
+      </c>
+      <c r="AI3" s="1">
+        <v>39715.263697469622</v>
+      </c>
+      <c r="AJ3" s="1">
+        <f>-AI3</f>
+        <v>-39715.263697469622</v>
+      </c>
     </row>
     <row r="4" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15">
@@ -22127,9 +22642,16 @@
         <f>-AF4</f>
         <v>-1946954.0717777759</v>
       </c>
-      <c r="AH4" s="6"/>
-      <c r="AI4" s="7"/>
-      <c r="AJ4" s="7"/>
+      <c r="AH4" s="42">
+        <v>44925</v>
+      </c>
+      <c r="AI4" s="7">
+        <v>1946954.0717777759</v>
+      </c>
+      <c r="AJ4" s="7">
+        <f>-AI4</f>
+        <v>-1946954.0717777759</v>
+      </c>
     </row>
     <row r="5" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15">
@@ -22227,9 +22749,16 @@
         <f>-AF5</f>
         <v>-2366559.1303613475</v>
       </c>
-      <c r="AH5" s="19"/>
-      <c r="AI5" s="7"/>
-      <c r="AJ5" s="7"/>
+      <c r="AH5" s="42">
+        <v>45289</v>
+      </c>
+      <c r="AI5" s="7">
+        <v>2366559.1303613475</v>
+      </c>
+      <c r="AJ5" s="7">
+        <f>-AI5</f>
+        <v>-2366559.1303613475</v>
+      </c>
     </row>
     <row r="6" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15">
@@ -22322,7 +22851,16 @@
       <c r="AG6" s="8">
         <v>3994518.0027012783</v>
       </c>
-      <c r="AH6" s="19"/>
+      <c r="AH6" s="42">
+        <v>45657</v>
+      </c>
+      <c r="AI6" s="1">
+        <v>8048274.8436022745</v>
+      </c>
+      <c r="AJ6" s="1">
+        <f>-AI6</f>
+        <v>-8048274.8436022745</v>
+      </c>
     </row>
     <row r="7" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15">
@@ -22378,6 +22916,30 @@
       </c>
       <c r="R7" s="1">
         <v>2</v>
+      </c>
+      <c r="S7" s="42">
+        <v>45657</v>
+      </c>
+      <c r="T7" s="10">
+        <v>8048274.8436022745</v>
+      </c>
+      <c r="U7" s="4">
+        <v>12401503.309438867</v>
+      </c>
+      <c r="V7" s="4">
+        <v>15223891.252890505</v>
+      </c>
+      <c r="W7" s="4">
+        <v>2822387.9434516374</v>
+      </c>
+      <c r="X7" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="9">
+        <v>0.22758433981979417</v>
+      </c>
+      <c r="Z7" s="9">
+        <v>0.14101984839244763</v>
       </c>
       <c r="AB7" s="7"/>
       <c r="AC7" s="7"/>
@@ -22385,7 +22947,12 @@
       <c r="AG7" s="2">
         <v>-5.7289381485038149E-2</v>
       </c>
-      <c r="AJ7" s="2"/>
+      <c r="AH7" s="42">
+        <v>45657</v>
+      </c>
+      <c r="AJ7" s="2">
+        <v>15223891.252890505</v>
+      </c>
     </row>
     <row r="8" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15">
@@ -22442,6 +23009,9 @@
       <c r="R8" s="1">
         <v>1</v>
       </c>
+      <c r="AJ8" s="2">
+        <v>0.14101984839244763</v>
+      </c>
     </row>
     <row r="9" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15">
@@ -24469,6 +25039,65 @@
       <c r="R44" s="1">
         <v>0.2</v>
       </c>
+    </row>
+    <row r="45" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="15">
+        <v>45657</v>
+      </c>
+      <c r="B45" s="31">
+        <v>0.78899997472763062</v>
+      </c>
+      <c r="C45" s="16">
+        <v>24.799999239999998</v>
+      </c>
+      <c r="D45" s="17">
+        <v>25.579355550139105</v>
+      </c>
+      <c r="E45" s="17">
+        <v>2431000</v>
+      </c>
+      <c r="F45" s="17">
+        <v>4680826.7802620027</v>
+      </c>
+      <c r="G45" s="17">
+        <v>27.043521457683099</v>
+      </c>
+      <c r="H45" s="18">
+        <v>34.275693693169949</v>
+      </c>
+      <c r="I45" s="18">
+        <v>19295173.308650509</v>
+      </c>
+      <c r="J45" s="18">
+        <v>15223891.252890505</v>
+      </c>
+      <c r="K45" s="18">
+        <v>12401503.309438867</v>
+      </c>
+      <c r="L45" s="18">
+        <v>15223891.252890505</v>
+      </c>
+      <c r="M45" s="18">
+        <v>2822387.9434516374</v>
+      </c>
+      <c r="N45" s="17">
+        <v>0</v>
+      </c>
+      <c r="O45" s="22">
+        <v>2.1834896004520363E-2</v>
+      </c>
+      <c r="P45" s="22">
+        <v>2.914840347064868E-2</v>
+      </c>
+      <c r="Q45" s="22">
+        <v>74.909406364253414</v>
+      </c>
+      <c r="R45" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A46" s="50"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -24486,7 +25115,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AJ44"/>
+  <dimension ref="A1:AJ46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -24527,16 +25156,16 @@
   <sheetData>
     <row r="1" spans="1:36" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="E1" s="40" t="s">
         <v>5</v>
@@ -24563,19 +25192,19 @@
         <v>12</v>
       </c>
       <c r="M1" s="48" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="N1" s="48" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="O1" s="48" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="P1" s="48" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="Q1" s="11" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -24696,6 +25325,16 @@
         <f>-AF3</f>
         <v>-245217.76659387304</v>
       </c>
+      <c r="AH3" s="42">
+        <v>44561</v>
+      </c>
+      <c r="AI3" s="1">
+        <v>245217.76659387304</v>
+      </c>
+      <c r="AJ3" s="1">
+        <f>-AI3</f>
+        <v>-245217.76659387304</v>
+      </c>
     </row>
     <row r="4" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15">
@@ -24793,9 +25432,16 @@
         <f>-AF4</f>
         <v>-3578435.688703455</v>
       </c>
-      <c r="AH4" s="6"/>
-      <c r="AI4" s="7"/>
-      <c r="AJ4" s="7"/>
+      <c r="AH4" s="42">
+        <v>44925</v>
+      </c>
+      <c r="AI4" s="7">
+        <v>3578435.688703455</v>
+      </c>
+      <c r="AJ4" s="7">
+        <f>-AI4</f>
+        <v>-3578435.688703455</v>
+      </c>
     </row>
     <row r="5" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15">
@@ -24890,9 +25536,16 @@
         <f>-AF5</f>
         <v>-3101231.3499326059</v>
       </c>
-      <c r="AH5" s="19"/>
-      <c r="AI5" s="7"/>
-      <c r="AJ5" s="7"/>
+      <c r="AH5" s="42">
+        <v>45289</v>
+      </c>
+      <c r="AI5" s="7">
+        <v>3101231.3499326059</v>
+      </c>
+      <c r="AJ5" s="7">
+        <f>-AI5</f>
+        <v>-3101231.3499326059</v>
+      </c>
     </row>
     <row r="6" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15">
@@ -24982,7 +25635,16 @@
       <c r="AG6" s="8">
         <v>6092604.9299462289</v>
       </c>
-      <c r="AH6" s="19"/>
+      <c r="AH6" s="42">
+        <v>45657</v>
+      </c>
+      <c r="AI6" s="1">
+        <v>2570006.0349935647</v>
+      </c>
+      <c r="AJ6" s="1">
+        <f>-AI6</f>
+        <v>-2570006.0349935647</v>
+      </c>
     </row>
     <row r="7" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15">
@@ -25035,6 +25697,30 @@
       </c>
       <c r="Q7" s="1">
         <v>1</v>
+      </c>
+      <c r="S7" s="42">
+        <v>45657</v>
+      </c>
+      <c r="T7" s="10">
+        <v>2570006.0349935647</v>
+      </c>
+      <c r="U7" s="4">
+        <v>9494890.8402234986</v>
+      </c>
+      <c r="V7" s="4">
+        <v>10729337.688796306</v>
+      </c>
+      <c r="W7" s="4">
+        <v>1234446.8485728074</v>
+      </c>
+      <c r="X7" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="9">
+        <v>0.1300116946414257</v>
+      </c>
+      <c r="Z7" s="9">
+        <v>5.7718344667351706E-2</v>
       </c>
       <c r="AB7" s="7"/>
       <c r="AC7" s="7"/>
@@ -25042,7 +25728,12 @@
       <c r="AG7" s="2">
         <v>-7.8086921629637929E-2</v>
       </c>
-      <c r="AJ7" s="2"/>
+      <c r="AH7" s="42">
+        <v>45657</v>
+      </c>
+      <c r="AJ7" s="2">
+        <v>10729337.688796306</v>
+      </c>
     </row>
     <row r="8" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15">
@@ -25096,6 +25787,9 @@
       <c r="Q8" s="1">
         <v>1</v>
       </c>
+      <c r="AJ8" s="2">
+        <v>5.7718344667351706E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15">
@@ -27015,6 +27709,62 @@
       <c r="Q44" s="1">
         <v>1</v>
       </c>
+    </row>
+    <row r="45" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="15">
+        <v>45657</v>
+      </c>
+      <c r="B45" s="31">
+        <v>0.78899997472763062</v>
+      </c>
+      <c r="C45" s="16">
+        <v>24.799999239999998</v>
+      </c>
+      <c r="D45" s="17">
+        <v>25.579355550139105</v>
+      </c>
+      <c r="E45" s="17">
+        <v>2399.2152197068949</v>
+      </c>
+      <c r="F45" s="18">
+        <v>3040.8305406285012</v>
+      </c>
+      <c r="G45" s="18">
+        <v>13598654.033544376</v>
+      </c>
+      <c r="H45" s="18">
+        <v>10729337.688796306</v>
+      </c>
+      <c r="I45" s="18">
+        <v>9494890.8402234986</v>
+      </c>
+      <c r="J45" s="18">
+        <v>10729337.688796306</v>
+      </c>
+      <c r="K45" s="18">
+        <v>1234446.8485728074</v>
+      </c>
+      <c r="L45" s="17">
+        <v>0</v>
+      </c>
+      <c r="M45" s="21">
+        <v>70.689644187016341</v>
+      </c>
+      <c r="N45" s="21">
+        <v>69.8440287824085</v>
+      </c>
+      <c r="O45" s="21">
+        <v>65.6184872556763</v>
+      </c>
+      <c r="P45" s="21">
+        <v>78.295111835872916</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A46" s="50"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -27032,7 +27782,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AJ44"/>
+  <dimension ref="A1:AJ46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -27085,10 +27835,10 @@
         <v>4</v>
       </c>
       <c r="E1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>23</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>24</v>
       </c>
       <c r="G1" s="40" t="s">
         <v>5</v>
@@ -27227,6 +27977,16 @@
         <f>-AF3</f>
         <v>-178636.06350526612</v>
       </c>
+      <c r="AH3" s="42">
+        <v>44561</v>
+      </c>
+      <c r="AI3" s="1">
+        <v>178636.06350526612</v>
+      </c>
+      <c r="AJ3" s="1">
+        <f>-AI3</f>
+        <v>-178636.06350526612</v>
+      </c>
     </row>
     <row r="4" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15">
@@ -27316,9 +28076,16 @@
         <f>-AF4</f>
         <v>-10768225.576655824</v>
       </c>
-      <c r="AH4" s="6"/>
-      <c r="AI4" s="7"/>
-      <c r="AJ4" s="7"/>
+      <c r="AH4" s="42">
+        <v>44925</v>
+      </c>
+      <c r="AI4" s="7">
+        <v>10768225.576655824</v>
+      </c>
+      <c r="AJ4" s="7">
+        <f>-AI4</f>
+        <v>-10768225.576655824</v>
+      </c>
     </row>
     <row r="5" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15">
@@ -27405,9 +28172,16 @@
         <f>-AF5</f>
         <v>-18027975.015961196</v>
       </c>
-      <c r="AH5" s="19"/>
-      <c r="AI5" s="7"/>
-      <c r="AJ5" s="7"/>
+      <c r="AH5" s="42">
+        <v>45289</v>
+      </c>
+      <c r="AI5" s="7">
+        <v>18027975.015961196</v>
+      </c>
+      <c r="AJ5" s="7">
+        <f>-AI5</f>
+        <v>-18027975.015961196</v>
+      </c>
     </row>
     <row r="6" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15">
@@ -27489,7 +28263,16 @@
       <c r="AG6" s="8">
         <v>26836402.930132851</v>
       </c>
-      <c r="AH6" s="19"/>
+      <c r="AH6" s="42">
+        <v>45657</v>
+      </c>
+      <c r="AI6" s="1">
+        <v>48411387.463501602</v>
+      </c>
+      <c r="AJ6" s="1">
+        <f>-AI6</f>
+        <v>-48411387.463501602</v>
+      </c>
     </row>
     <row r="7" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15">
@@ -27535,13 +28318,42 @@
         <v>0</v>
       </c>
       <c r="O7" s="7"/>
+      <c r="S7" s="42">
+        <v>45657</v>
+      </c>
+      <c r="T7" s="10">
+        <v>48411387.463501602</v>
+      </c>
+      <c r="U7" s="4">
+        <v>77386224.119623885</v>
+      </c>
+      <c r="V7" s="4">
+        <v>95448240.223262623</v>
+      </c>
+      <c r="W7" s="4">
+        <v>18062016.103638738</v>
+      </c>
+      <c r="X7" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="9">
+        <v>0.2334009225688336</v>
+      </c>
+      <c r="Z7" s="9">
+        <v>0.14432823997854882</v>
+      </c>
       <c r="AB7" s="7"/>
       <c r="AC7" s="7"/>
       <c r="AD7" s="7"/>
       <c r="AG7" s="2">
         <v>-5.415304781859398E-2</v>
       </c>
-      <c r="AJ7" s="2"/>
+      <c r="AH7" s="42">
+        <v>45657</v>
+      </c>
+      <c r="AJ7" s="2">
+        <v>95448240.223262623</v>
+      </c>
     </row>
     <row r="8" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15">
@@ -27587,6 +28399,9 @@
         <v>0</v>
       </c>
       <c r="O8" s="7"/>
+      <c r="AJ8" s="2">
+        <v>0.14432823997854882</v>
+      </c>
     </row>
     <row r="9" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15">
@@ -29192,6 +30007,53 @@
       <c r="N44" s="17">
         <v>0</v>
       </c>
+    </row>
+    <row r="45" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="15">
+        <v>45657</v>
+      </c>
+      <c r="B45" s="31">
+        <v>0.78899997472763062</v>
+      </c>
+      <c r="C45" s="16">
+        <v>24.799999239999998</v>
+      </c>
+      <c r="D45" s="17">
+        <v>25.579355550139105</v>
+      </c>
+      <c r="E45" s="17">
+        <v>2431000</v>
+      </c>
+      <c r="F45" s="17">
+        <v>4680826.7802620027</v>
+      </c>
+      <c r="G45" s="17">
+        <v>971.10827052589309</v>
+      </c>
+      <c r="H45" s="18">
+        <v>1230.8090008001936</v>
+      </c>
+      <c r="I45" s="18">
+        <v>120973692.37079147</v>
+      </c>
+      <c r="J45" s="18">
+        <v>95448240.223262623</v>
+      </c>
+      <c r="K45" s="18">
+        <v>77386224.119623885</v>
+      </c>
+      <c r="L45" s="18">
+        <v>95448240.223262623</v>
+      </c>
+      <c r="M45" s="18">
+        <v>18062016.103638738</v>
+      </c>
+      <c r="N45" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A46" s="50"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -29209,7 +30071,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AG44"/>
+  <dimension ref="A1:AG46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -29389,6 +30251,16 @@
         <f>-AC3</f>
         <v>-905989.17956106178</v>
       </c>
+      <c r="AE3" s="42">
+        <v>44561</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>905989.17956106178</v>
+      </c>
+      <c r="AG3" s="1">
+        <f>-AF3</f>
+        <v>-905989.17956106178</v>
+      </c>
     </row>
     <row r="4" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15">
@@ -29472,9 +30344,16 @@
         <f>-AC4</f>
         <v>-31686236.202029958</v>
       </c>
-      <c r="AE4" s="6"/>
-      <c r="AF4" s="7"/>
-      <c r="AG4" s="7"/>
+      <c r="AE4" s="42">
+        <v>44925</v>
+      </c>
+      <c r="AF4" s="7">
+        <v>31686236.202029958</v>
+      </c>
+      <c r="AG4" s="7">
+        <f>-AF4</f>
+        <v>-31686236.202029958</v>
+      </c>
     </row>
     <row r="5" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15">
@@ -29555,9 +30434,16 @@
         <f>-AC5</f>
         <v>-26293500.424479302</v>
       </c>
-      <c r="AE5" s="19"/>
-      <c r="AF5" s="7"/>
-      <c r="AG5" s="7"/>
+      <c r="AE5" s="42">
+        <v>45289</v>
+      </c>
+      <c r="AF5" s="7">
+        <v>26293500.424479302</v>
+      </c>
+      <c r="AG5" s="7">
+        <f>-AF5</f>
+        <v>-26293500.424479302</v>
+      </c>
     </row>
     <row r="6" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15">
@@ -29633,7 +30519,16 @@
       <c r="AD6" s="8">
         <v>52597859.443452083</v>
       </c>
-      <c r="AE6" s="19"/>
+      <c r="AE6" s="42">
+        <v>45657</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>22817349.221498825</v>
+      </c>
+      <c r="AG6" s="1">
+        <f>-AF6</f>
+        <v>-22817349.221498825</v>
+      </c>
     </row>
     <row r="7" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15">
@@ -29673,13 +30568,42 @@
         <v>0</v>
       </c>
       <c r="M7" s="7"/>
+      <c r="P7" s="42">
+        <v>45657</v>
+      </c>
+      <c r="Q7" s="10">
+        <v>22817349.221498825</v>
+      </c>
+      <c r="R7" s="4">
+        <v>81703075.027569145</v>
+      </c>
+      <c r="S7" s="4">
+        <v>93554129.004866824</v>
+      </c>
+      <c r="T7" s="4">
+        <v>11851053.977297679</v>
+      </c>
+      <c r="U7" s="4">
+        <v>0</v>
+      </c>
+      <c r="V7" s="9">
+        <v>0.14505028082846044</v>
+      </c>
+      <c r="W7" s="9">
+        <v>6.4947672307627435E-2</v>
+      </c>
       <c r="Y7" s="7"/>
       <c r="Z7" s="7"/>
       <c r="AA7" s="7"/>
       <c r="AD7" s="2">
         <v>-6.9877380423864377E-2</v>
       </c>
-      <c r="AG7" s="2"/>
+      <c r="AE7" s="42">
+        <v>45657</v>
+      </c>
+      <c r="AG7" s="2">
+        <v>93554129.004866824</v>
+      </c>
     </row>
     <row r="8" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15">
@@ -29719,6 +30643,9 @@
         <v>0</v>
       </c>
       <c r="M8" s="7"/>
+      <c r="AG8" s="2">
+        <v>6.4947672307627435E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15">
@@ -31108,6 +32035,47 @@
       <c r="L44" s="17">
         <v>0</v>
       </c>
+    </row>
+    <row r="45" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="15">
+        <v>45657</v>
+      </c>
+      <c r="B45" s="31">
+        <v>0.78899997472763062</v>
+      </c>
+      <c r="C45" s="16">
+        <v>24.799999239999998</v>
+      </c>
+      <c r="D45" s="17">
+        <v>25.579355550139105</v>
+      </c>
+      <c r="E45" s="17">
+        <v>1869.843520860353</v>
+      </c>
+      <c r="F45" s="18">
+        <v>2369.8904699025352</v>
+      </c>
+      <c r="G45" s="18">
+        <v>118573044.361836</v>
+      </c>
+      <c r="H45" s="18">
+        <v>93554129.004866824</v>
+      </c>
+      <c r="I45" s="18">
+        <v>81703075.027569145</v>
+      </c>
+      <c r="J45" s="18">
+        <v>93554129.004866824</v>
+      </c>
+      <c r="K45" s="18">
+        <v>11851053.977297679</v>
+      </c>
+      <c r="L45" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A46" s="50"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(RSI&KDJ)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(RSI&KDJ)cn.xlsx
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="34">
   <si>
     <t>in practice</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -145,6 +145,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>SMA之MAX</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -166,6 +170,22 @@
   </si>
   <si>
     <t>成交均量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>深创100ETF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE均值</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -343,7 +363,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -431,8 +451,6 @@
     <xf numFmtId="176" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1552,11 +1570,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="366455424"/>
-        <c:axId val="366462464"/>
+        <c:axId val="433919104"/>
+        <c:axId val="433921408"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="366455424"/>
+        <c:axId val="433919104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1599,14 +1617,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="366462464"/>
+        <c:crossAx val="433921408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="366462464"/>
+        <c:axId val="433921408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1657,7 +1675,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="366455424"/>
+        <c:crossAx val="433919104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1991,8 +2009,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="491752064"/>
-        <c:axId val="491750528"/>
+        <c:axId val="506354304"/>
+        <c:axId val="506352768"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2300,11 +2318,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="491722624"/>
-        <c:axId val="491724160"/>
+        <c:axId val="506341248"/>
+        <c:axId val="506342784"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="491722624"/>
+        <c:axId val="506341248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2347,14 +2365,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491724160"/>
+        <c:crossAx val="506342784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="491724160"/>
+        <c:axId val="506342784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2405,12 +2423,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491722624"/>
+        <c:crossAx val="506341248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="491750528"/>
+        <c:axId val="506352768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2447,12 +2465,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491752064"/>
+        <c:crossAx val="506354304"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="491752064"/>
+        <c:axId val="506354304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2461,7 +2479,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="491750528"/>
+        <c:crossAx val="506352768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3546,11 +3564,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="493031808"/>
-        <c:axId val="493033344"/>
+        <c:axId val="506528128"/>
+        <c:axId val="506529664"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="493031808"/>
+        <c:axId val="506528128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3593,14 +3611,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493033344"/>
+        <c:crossAx val="506529664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="493033344"/>
+        <c:axId val="506529664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3651,7 +3669,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493031808"/>
+        <c:crossAx val="506528128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3985,8 +4003,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="493111168"/>
-        <c:axId val="493109632"/>
+        <c:axId val="506566528"/>
+        <c:axId val="506564992"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4294,11 +4312,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="493102208"/>
-        <c:axId val="493103744"/>
+        <c:axId val="506557568"/>
+        <c:axId val="506559104"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="493102208"/>
+        <c:axId val="506557568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4341,14 +4359,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493103744"/>
+        <c:crossAx val="506559104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="493103744"/>
+        <c:axId val="506559104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4399,12 +4417,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493102208"/>
+        <c:crossAx val="506557568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="493109632"/>
+        <c:axId val="506564992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4441,12 +4459,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493111168"/>
+        <c:crossAx val="506566528"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="493111168"/>
+        <c:axId val="506566528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4455,7 +4473,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="493109632"/>
+        <c:crossAx val="506564992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5540,11 +5558,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="493322240"/>
-        <c:axId val="493323776"/>
+        <c:axId val="506580352"/>
+        <c:axId val="506582144"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="493322240"/>
+        <c:axId val="506580352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5587,14 +5605,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493323776"/>
+        <c:crossAx val="506582144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="493323776"/>
+        <c:axId val="506582144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5645,7 +5663,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493322240"/>
+        <c:crossAx val="506580352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5979,8 +5997,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="493499904"/>
-        <c:axId val="493498368"/>
+        <c:axId val="506807424"/>
+        <c:axId val="506805632"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6288,11 +6306,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="493490944"/>
-        <c:axId val="493492480"/>
+        <c:axId val="506802560"/>
+        <c:axId val="506804096"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="493490944"/>
+        <c:axId val="506802560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6335,14 +6353,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493492480"/>
+        <c:crossAx val="506804096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="493492480"/>
+        <c:axId val="506804096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6393,12 +6411,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493490944"/>
+        <c:crossAx val="506802560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="493498368"/>
+        <c:axId val="506805632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6435,12 +6453,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493499904"/>
+        <c:crossAx val="506807424"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="493499904"/>
+        <c:axId val="506807424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6449,7 +6467,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="493498368"/>
+        <c:crossAx val="506805632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6754,8 +6772,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="491588608"/>
-        <c:axId val="491587072"/>
+        <c:axId val="517735168"/>
+        <c:axId val="509312384"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7063,11 +7081,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="402911616"/>
-        <c:axId val="402914304"/>
+        <c:axId val="506829824"/>
+        <c:axId val="506841728"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="402911616"/>
+        <c:axId val="506829824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7110,14 +7128,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="402914304"/>
+        <c:crossAx val="506841728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="402914304"/>
+        <c:axId val="506841728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7168,12 +7186,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="402911616"/>
+        <c:crossAx val="506829824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="491587072"/>
+        <c:axId val="509312384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7210,12 +7228,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491588608"/>
+        <c:crossAx val="517735168"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="491588608"/>
+        <c:axId val="517735168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7224,7 +7242,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="491587072"/>
+        <c:crossAx val="509312384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8309,11 +8327,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="502028160"/>
-        <c:axId val="502215040"/>
+        <c:axId val="518772608"/>
+        <c:axId val="518778880"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="502028160"/>
+        <c:axId val="518772608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8356,14 +8374,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="502215040"/>
+        <c:crossAx val="518778880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="502215040"/>
+        <c:axId val="518778880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8414,7 +8432,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="502028160"/>
+        <c:crossAx val="518772608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8757,8 +8775,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="503711232"/>
-        <c:axId val="503709696"/>
+        <c:axId val="518817280"/>
+        <c:axId val="518815744"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9066,11 +9084,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="502263168"/>
-        <c:axId val="502266112"/>
+        <c:axId val="518809472"/>
+        <c:axId val="518811008"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="502263168"/>
+        <c:axId val="518809472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9113,14 +9131,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="502266112"/>
+        <c:crossAx val="518811008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="502266112"/>
+        <c:axId val="518811008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9171,12 +9189,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="502263168"/>
+        <c:crossAx val="518809472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="503709696"/>
+        <c:axId val="518815744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9213,12 +9231,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="503711232"/>
+        <c:crossAx val="518817280"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="503711232"/>
+        <c:axId val="518817280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9227,7 +9245,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="503709696"/>
+        <c:crossAx val="518815744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10312,11 +10330,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="503777536"/>
-        <c:axId val="503779328"/>
+        <c:axId val="519577600"/>
+        <c:axId val="519579520"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="503777536"/>
+        <c:axId val="519577600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10359,14 +10377,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="503779328"/>
+        <c:crossAx val="519579520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="503779328"/>
+        <c:axId val="519579520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10417,7 +10435,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="503777536"/>
+        <c:crossAx val="519577600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10760,8 +10778,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="504571392"/>
-        <c:axId val="504569856"/>
+        <c:axId val="519762688"/>
+        <c:axId val="519666688"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -11069,11 +11087,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="503943552"/>
-        <c:axId val="503945088"/>
+        <c:axId val="519609344"/>
+        <c:axId val="519664768"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="503943552"/>
+        <c:axId val="519609344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11116,14 +11134,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="503945088"/>
+        <c:crossAx val="519664768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="503945088"/>
+        <c:axId val="519664768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11174,12 +11192,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="503943552"/>
+        <c:crossAx val="519609344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="504569856"/>
+        <c:axId val="519666688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11216,12 +11234,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504571392"/>
+        <c:crossAx val="519762688"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="504571392"/>
+        <c:axId val="519762688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11230,7 +11248,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="504569856"/>
+        <c:crossAx val="519666688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12315,11 +12333,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="504609792"/>
-        <c:axId val="505984128"/>
+        <c:axId val="545904512"/>
+        <c:axId val="545923456"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="504609792"/>
+        <c:axId val="545904512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12362,14 +12380,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="505984128"/>
+        <c:crossAx val="545923456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="505984128"/>
+        <c:axId val="545923456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12420,7 +12438,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504609792"/>
+        <c:crossAx val="545904512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12754,8 +12772,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="532658048"/>
-        <c:axId val="532578688"/>
+        <c:axId val="506269056"/>
+        <c:axId val="506267520"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -13063,11 +13081,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="532472960"/>
-        <c:axId val="532516864"/>
+        <c:axId val="550156160"/>
+        <c:axId val="506265984"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="532472960"/>
+        <c:axId val="550156160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13110,14 +13128,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="532516864"/>
+        <c:crossAx val="506265984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="532516864"/>
+        <c:axId val="506265984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13168,12 +13186,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="532472960"/>
+        <c:crossAx val="550156160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="532578688"/>
+        <c:axId val="506267520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13210,12 +13228,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="532658048"/>
+        <c:crossAx val="506269056"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="532658048"/>
+        <c:axId val="506269056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13224,7 +13242,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="532578688"/>
+        <c:crossAx val="506267520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14309,11 +14327,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="533865600"/>
-        <c:axId val="533867136"/>
+        <c:axId val="506324096"/>
+        <c:axId val="506325632"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="533865600"/>
+        <c:axId val="506324096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14356,14 +14374,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="533867136"/>
+        <c:crossAx val="506325632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="533867136"/>
+        <c:axId val="506325632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14414,7 +14432,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="533865600"/>
+        <c:crossAx val="506324096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15266,7 +15284,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG46"/>
+  <dimension ref="A1:AG45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17269,9 +17287,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A46" s="49"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -17288,7 +17303,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH46"/>
+  <dimension ref="A1:AH45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17365,16 +17380,16 @@
         <v>12</v>
       </c>
       <c r="M1" s="44" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N1" s="44" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O1" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -19787,9 +19802,6 @@
       <c r="P45" s="1">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A46" s="50"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -19807,7 +19819,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:AH46"/>
+  <dimension ref="A1:AH45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19884,16 +19896,16 @@
         <v>12</v>
       </c>
       <c r="M1" s="44" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N1" s="44" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O1" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -22306,9 +22318,6 @@
       <c r="P45" s="1">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A46" s="50"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -22326,7 +22335,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AJ46"/>
+  <dimension ref="A1:AJ45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -22367,22 +22376,22 @@
   <sheetData>
     <row r="1" spans="1:36" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G1" s="40" t="s">
         <v>5</v>
@@ -22409,16 +22418,16 @@
         <v>12</v>
       </c>
       <c r="O1" s="44" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P1" s="44" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q1" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R1" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -25095,9 +25104,6 @@
       <c r="R45" s="1">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A46" s="50"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -25115,7 +25121,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AJ46"/>
+  <dimension ref="A1:AJ45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -25156,16 +25162,16 @@
   <sheetData>
     <row r="1" spans="1:36" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="E1" s="40" t="s">
         <v>5</v>
@@ -25192,19 +25198,19 @@
         <v>12</v>
       </c>
       <c r="M1" s="48" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N1" s="48" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="O1" s="48" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="P1" s="48" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="Q1" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -27762,9 +27768,6 @@
       <c r="Q45" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A46" s="50"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -27782,7 +27785,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AJ46"/>
+  <dimension ref="A1:AJ45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -27835,10 +27838,10 @@
         <v>4</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G1" s="40" t="s">
         <v>5</v>
@@ -30051,9 +30054,6 @@
       <c r="N45" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A46" s="50"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -30071,7 +30071,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AG46"/>
+  <dimension ref="A1:AG45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -30112,7 +30112,7 @@
   <sheetData>
     <row r="1" spans="1:33" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>2</v>
@@ -32073,9 +32073,6 @@
       <c r="L45" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A46" s="50"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(RSI&KDJ)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(RSI&KDJ)cn.xlsx
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="33">
   <si>
     <t>in practice</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -145,7 +145,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
+    <t>每年投入本金</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -165,11 +165,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>成交量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>成交均量</t>
+    <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -181,11 +177,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>PE</t>
+    <t>成交量</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>PE均值</t>
+    <t>成交均量</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -664,7 +660,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -793,6 +789,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -802,7 +801,7 @@
               <c:f>'模型四 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -931,6 +930,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>9322156.0793799553</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9327292.1649004761</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -973,7 +975,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1102,6 +1104,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1111,7 +1116,7 @@
               <c:f>'模型四 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1240,6 +1245,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>10510929.054722106</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>10409491.022322454</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1282,7 +1290,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1411,6 +1419,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1420,7 +1431,7 @@
               <c:f>'模型四 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1549,6 +1560,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>1188772.9753421508</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1082198.8574219774</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1570,11 +1584,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="433919104"/>
-        <c:axId val="433921408"/>
+        <c:axId val="587447680"/>
+        <c:axId val="587457664"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="433919104"/>
+        <c:axId val="587447680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1617,14 +1631,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="433921408"/>
+        <c:crossAx val="587457664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="433921408"/>
+        <c:axId val="587457664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1675,7 +1689,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="433919104"/>
+        <c:crossAx val="587447680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1866,7 +1880,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1995,6 +2009,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>2399.2152197068949</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5136.0855205209327</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2009,8 +2026,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="506354304"/>
-        <c:axId val="506352768"/>
+        <c:axId val="610995584"/>
+        <c:axId val="610994048"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2035,7 +2052,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2164,6 +2181,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2173,7 +2193,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2302,6 +2322,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>0.78899997472763062</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.78100001811981201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2318,11 +2341,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="506341248"/>
-        <c:axId val="506342784"/>
+        <c:axId val="610968704"/>
+        <c:axId val="610992512"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="506341248"/>
+        <c:axId val="610968704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2365,14 +2388,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506342784"/>
+        <c:crossAx val="610992512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="506342784"/>
+        <c:axId val="610992512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2423,12 +2446,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506341248"/>
+        <c:crossAx val="610968704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="506352768"/>
+        <c:axId val="610994048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2465,12 +2488,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506354304"/>
+        <c:crossAx val="610995584"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="506354304"/>
+        <c:axId val="610995584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2479,7 +2502,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="506352768"/>
+        <c:crossAx val="610994048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2658,7 +2681,7 @@
               <c:f>'模型四 (3)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2787,6 +2810,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2796,7 +2822,7 @@
               <c:f>'模型四 (3)PE副本成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2925,6 +2951,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>77386224.119623885</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>77387302.951601744</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2967,7 +2996,7 @@
               <c:f>'模型四 (3)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3096,6 +3125,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3105,7 +3137,7 @@
               <c:f>'模型四 (3)PE副本成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3234,6 +3266,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>95448240.223262623</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>94481534.76558654</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3276,7 +3311,7 @@
               <c:f>'模型四 (3)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3405,6 +3440,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3414,7 +3452,7 @@
               <c:f>'模型四 (3)PE副本成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3543,6 +3581,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>18062016.103638738</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>17094231.813984796</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3564,11 +3605,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="506528128"/>
-        <c:axId val="506529664"/>
+        <c:axId val="611931648"/>
+        <c:axId val="612311808"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="506528128"/>
+        <c:axId val="611931648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3611,14 +3652,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506529664"/>
+        <c:crossAx val="612311808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="506529664"/>
+        <c:axId val="612311808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3669,7 +3710,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506528128"/>
+        <c:crossAx val="611931648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3860,7 +3901,7 @@
               <c:f>'模型四 (3)PE副本成交量'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3989,6 +4030,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>971.10827052589309</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1078.8319778520554</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4003,8 +4047,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="506566528"/>
-        <c:axId val="506564992"/>
+        <c:axId val="625144960"/>
+        <c:axId val="623659648"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4029,7 +4073,7 @@
               <c:f>'模型四 (3)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4158,6 +4202,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4167,7 +4214,7 @@
               <c:f>'模型四 (3)PE副本成交量'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4296,6 +4343,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>0.78899997472763062</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.78100001811981201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4312,11 +4362,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="506557568"/>
-        <c:axId val="506559104"/>
+        <c:axId val="622815104"/>
+        <c:axId val="623658112"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="506557568"/>
+        <c:axId val="622815104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4359,14 +4409,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506559104"/>
+        <c:crossAx val="623658112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="506559104"/>
+        <c:axId val="623658112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4417,12 +4467,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506557568"/>
+        <c:crossAx val="622815104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="506564992"/>
+        <c:axId val="623659648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4459,12 +4509,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506566528"/>
+        <c:crossAx val="625144960"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="506566528"/>
+        <c:axId val="625144960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4473,7 +4523,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="506564992"/>
+        <c:crossAx val="623659648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4652,7 +4702,7 @@
               <c:f>'模型四 (3)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4781,6 +4831,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4790,7 +4843,7 @@
               <c:f>'模型四 (3)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4919,6 +4972,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>81703075.027569145</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>81708931.685000867</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4961,7 +5017,7 @@
               <c:f>'模型四 (3)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5090,6 +5146,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5099,7 +5158,7 @@
               <c:f>'模型四 (3)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5228,6 +5287,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>93554129.004866824</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>92611406.452546924</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5270,7 +5332,7 @@
               <c:f>'模型四 (3)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5399,6 +5461,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5408,7 +5473,7 @@
               <c:f>'模型四 (3)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5537,6 +5602,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>11851053.977297679</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>10902474.767546058</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5558,11 +5626,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="506580352"/>
-        <c:axId val="506582144"/>
+        <c:axId val="536851968"/>
+        <c:axId val="536853504"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="506580352"/>
+        <c:axId val="536851968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5605,14 +5673,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506582144"/>
+        <c:crossAx val="536853504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="506582144"/>
+        <c:axId val="536853504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5663,7 +5731,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506580352"/>
+        <c:crossAx val="536851968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5854,7 +5922,7 @@
               <c:f>'模型四 (3)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5983,6 +6051,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>1869.843520860353</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5856.657431728444</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5997,8 +6068,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="506807424"/>
-        <c:axId val="506805632"/>
+        <c:axId val="558369792"/>
+        <c:axId val="558368256"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6023,7 +6094,7 @@
               <c:f>'模型四 (3)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6152,6 +6223,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6161,7 +6235,7 @@
               <c:f>'模型四 (3)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6290,6 +6364,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>0.78899997472763062</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.78100001811981201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6306,11 +6383,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="506802560"/>
-        <c:axId val="506804096"/>
+        <c:axId val="536922368"/>
+        <c:axId val="558366720"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="506802560"/>
+        <c:axId val="536922368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6353,14 +6430,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506804096"/>
+        <c:crossAx val="558366720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="506804096"/>
+        <c:axId val="558366720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6411,12 +6488,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506802560"/>
+        <c:crossAx val="536922368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="506805632"/>
+        <c:axId val="558368256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6453,12 +6530,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506807424"/>
+        <c:crossAx val="558369792"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="506807424"/>
+        <c:axId val="558369792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6467,7 +6544,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="506805632"/>
+        <c:crossAx val="558368256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6629,7 +6706,7 @@
               <c:f>'模型四 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6758,6 +6835,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>2399.2152197068949</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5136.0855205209327</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6772,8 +6852,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="517735168"/>
-        <c:axId val="509312384"/>
+        <c:axId val="591450112"/>
+        <c:axId val="591435648"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6798,7 +6878,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6927,6 +7007,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6936,7 +7019,7 @@
               <c:f>'模型四 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -7065,6 +7148,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>0.78899997472763062</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.78100001811981201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7081,11 +7167,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="506829824"/>
-        <c:axId val="506841728"/>
+        <c:axId val="591431936"/>
+        <c:axId val="591434112"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="506829824"/>
+        <c:axId val="591431936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7128,14 +7214,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506841728"/>
+        <c:crossAx val="591434112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="506841728"/>
+        <c:axId val="591434112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7186,12 +7272,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506829824"/>
+        <c:crossAx val="591431936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="509312384"/>
+        <c:axId val="591435648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7228,12 +7314,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="517735168"/>
+        <c:crossAx val="591450112"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="517735168"/>
+        <c:axId val="591450112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7242,7 +7328,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="509312384"/>
+        <c:crossAx val="591435648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7421,7 +7507,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7550,6 +7636,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7559,7 +7648,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7688,6 +7777,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>10880000.025811484</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>10881027.242915587</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7730,7 +7822,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7859,6 +7951,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7868,7 +7963,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7997,6 +8092,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>12123266.898858964</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>12001371.920472054</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8039,7 +8137,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8168,6 +8266,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8177,7 +8278,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8306,6 +8407,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>1243266.8730474804</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1120344.6775564663</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8327,11 +8431,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="518772608"/>
-        <c:axId val="518778880"/>
+        <c:axId val="591488128"/>
+        <c:axId val="591489664"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="518772608"/>
+        <c:axId val="591488128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8374,14 +8478,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="518778880"/>
+        <c:crossAx val="591489664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="518778880"/>
+        <c:axId val="591489664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8432,7 +8536,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="518772608"/>
+        <c:crossAx val="591488128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8632,7 +8736,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8761,6 +8865,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>479.84304394137899</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1027.2171041041865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8775,8 +8882,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="518817280"/>
-        <c:axId val="518815744"/>
+        <c:axId val="591641984"/>
+        <c:axId val="591640448"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8801,7 +8908,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8930,6 +9037,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8939,7 +9049,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -9068,6 +9178,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>0.78899997472763062</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.78100001811981201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9084,11 +9197,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="518809472"/>
-        <c:axId val="518811008"/>
+        <c:axId val="591595392"/>
+        <c:axId val="591638912"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="518809472"/>
+        <c:axId val="591595392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9131,14 +9244,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="518811008"/>
+        <c:crossAx val="591638912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="518811008"/>
+        <c:axId val="591638912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9189,12 +9302,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="518809472"/>
+        <c:crossAx val="591595392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="518815744"/>
+        <c:axId val="591640448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9231,12 +9344,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="518817280"/>
+        <c:crossAx val="591641984"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="518817280"/>
+        <c:axId val="591641984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9245,7 +9358,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="518815744"/>
+        <c:crossAx val="591640448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9424,7 +9537,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9553,6 +9666,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9562,7 +9678,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9691,6 +9807,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>96134708.338871494</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>96135879.670357838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9733,7 +9852,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9862,6 +9981,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9871,7 +9993,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10000,6 +10122,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>108856394.97308622</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>107753831.87597658</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10042,7 +10167,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10171,6 +10296,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10180,7 +10308,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10309,6 +10437,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>12721686.634214729</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>11617952.205618739</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10330,11 +10461,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="519577600"/>
-        <c:axId val="519579520"/>
+        <c:axId val="591903360"/>
+        <c:axId val="591921920"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="519577600"/>
+        <c:axId val="591903360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10377,14 +10508,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="519579520"/>
+        <c:crossAx val="591921920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="519579520"/>
+        <c:axId val="591921920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10435,7 +10566,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="519577600"/>
+        <c:crossAx val="591903360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10635,7 +10766,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10764,6 +10895,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>373.9687041720706</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1171.3314863456887</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10778,8 +10912,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="519762688"/>
-        <c:axId val="519666688"/>
+        <c:axId val="592087680"/>
+        <c:axId val="592084352"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -10804,7 +10938,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10933,6 +11067,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10942,7 +11079,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -11071,6 +11208,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>0.78899997472763062</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.78100001811981201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11087,11 +11227,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="519609344"/>
-        <c:axId val="519664768"/>
+        <c:axId val="592073472"/>
+        <c:axId val="592075008"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="519609344"/>
+        <c:axId val="592073472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11134,14 +11274,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="519664768"/>
+        <c:crossAx val="592075008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="519664768"/>
+        <c:axId val="592075008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11192,12 +11332,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="519609344"/>
+        <c:crossAx val="592073472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="519666688"/>
+        <c:axId val="592084352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11234,12 +11374,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="519762688"/>
+        <c:crossAx val="592087680"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="519762688"/>
+        <c:axId val="592087680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11248,7 +11388,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="519666688"/>
+        <c:crossAx val="592084352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11427,7 +11567,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11556,6 +11696,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11565,7 +11708,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11694,6 +11837,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>12401503.309438867</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>12401533.352861036</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11736,7 +11882,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11865,6 +12011,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11874,7 +12023,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12003,6 +12152,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>15223891.252890505</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>15069560.747103129</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12045,7 +12197,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -12174,6 +12326,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12183,7 +12338,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12312,6 +12467,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>2822387.9434516374</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2668027.394242093</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12333,11 +12491,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="545904512"/>
-        <c:axId val="545923456"/>
+        <c:axId val="592140160"/>
+        <c:axId val="592141696"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="545904512"/>
+        <c:axId val="592140160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12380,14 +12538,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="545923456"/>
+        <c:crossAx val="592141696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="545923456"/>
+        <c:axId val="592141696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12438,7 +12596,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="545904512"/>
+        <c:crossAx val="592140160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12629,7 +12787,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12758,6 +12916,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>27.043521457683099</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>30.043422168031928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12772,8 +12933,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="506269056"/>
-        <c:axId val="506267520"/>
+        <c:axId val="600674304"/>
+        <c:axId val="595224832"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -12798,7 +12959,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -12927,6 +13088,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12936,7 +13100,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -13065,6 +13229,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>0.78899997472763062</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.78100001811981201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13081,11 +13248,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="550156160"/>
-        <c:axId val="506265984"/>
+        <c:axId val="593113088"/>
+        <c:axId val="593114624"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="550156160"/>
+        <c:axId val="593113088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13128,14 +13295,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506265984"/>
+        <c:crossAx val="593114624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="506265984"/>
+        <c:axId val="593114624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13186,12 +13353,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="550156160"/>
+        <c:crossAx val="593113088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="506267520"/>
+        <c:axId val="595224832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13228,12 +13395,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506269056"/>
+        <c:crossAx val="600674304"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="506269056"/>
+        <c:axId val="600674304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13242,7 +13409,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="506267520"/>
+        <c:crossAx val="595224832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13421,7 +13588,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -13550,6 +13717,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13559,7 +13729,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13688,6 +13858,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>9494890.8402234986</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9500026.9257440194</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13730,7 +13903,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -13859,6 +14032,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13868,7 +14044,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13997,6 +14173,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>10729337.688796306</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>10625685.132123733</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14039,7 +14218,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -14168,6 +14347,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14177,7 +14359,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14306,6 +14488,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>1234446.8485728074</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1125658.2063797135</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14327,11 +14512,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="506324096"/>
-        <c:axId val="506325632"/>
+        <c:axId val="610892032"/>
+        <c:axId val="610899072"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="506324096"/>
+        <c:axId val="610892032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14374,14 +14559,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506325632"/>
+        <c:crossAx val="610899072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="506325632"/>
+        <c:axId val="610899072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14432,7 +14617,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506324096"/>
+        <c:crossAx val="610892032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15284,7 +15469,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG45"/>
+  <dimension ref="A1:AG46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17287,6 +17472,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="46" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="32">
+        <v>45684</v>
+      </c>
+      <c r="B46" s="31">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C46" s="31">
+        <v>24.409999849999998</v>
+      </c>
+      <c r="D46" s="29">
+        <v>25.550295783221614</v>
+      </c>
+      <c r="E46" s="29">
+        <v>5136.0855205209327</v>
+      </c>
+      <c r="F46" s="30">
+        <v>6576.2937277333249</v>
+      </c>
+      <c r="G46" s="30">
+        <v>13328413.291695403</v>
+      </c>
+      <c r="H46" s="30">
+        <v>10409491.022322454</v>
+      </c>
+      <c r="I46" s="30">
+        <v>9327292.1649004761</v>
+      </c>
+      <c r="J46" s="30">
+        <v>10409491.022322454</v>
+      </c>
+      <c r="K46" s="30">
+        <v>1082198.8574219774</v>
+      </c>
+      <c r="L46" s="29">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -17303,7 +17526,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH45"/>
+  <dimension ref="A1:AH46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17454,7 +17677,7 @@
         <v>1</v>
       </c>
       <c r="R3" s="46" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="S3" s="46" t="s">
         <v>14</v>
@@ -19800,6 +20023,56 @@
         <v>74.909406364253414</v>
       </c>
       <c r="P45" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="15">
+        <v>45684</v>
+      </c>
+      <c r="B46" s="31">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C46" s="16">
+        <v>24.409999849999998</v>
+      </c>
+      <c r="D46" s="17">
+        <v>25.550295783221614</v>
+      </c>
+      <c r="E46" s="17">
+        <v>1027.2171041041865</v>
+      </c>
+      <c r="F46" s="18">
+        <v>1315.2587455466651</v>
+      </c>
+      <c r="G46" s="18">
+        <v>15366673.037171355</v>
+      </c>
+      <c r="H46" s="18">
+        <v>12001371.920472054</v>
+      </c>
+      <c r="I46" s="18">
+        <v>10881027.242915587</v>
+      </c>
+      <c r="J46" s="18">
+        <v>12001371.920472054</v>
+      </c>
+      <c r="K46" s="18">
+        <v>1120344.6775564663</v>
+      </c>
+      <c r="L46" s="17">
+        <v>0</v>
+      </c>
+      <c r="M46" s="22">
+        <v>1.8195746670433634E-2</v>
+      </c>
+      <c r="N46" s="22">
+        <v>2.5623662326843669E-2</v>
+      </c>
+      <c r="O46" s="22">
+        <v>71.01149881830726</v>
+      </c>
+      <c r="P46" s="1">
         <v>0.2</v>
       </c>
     </row>
@@ -19819,7 +20092,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:AH45"/>
+  <dimension ref="A1:AH46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19970,7 +20243,7 @@
         <v>1</v>
       </c>
       <c r="R3" s="46" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="S3" s="46" t="s">
         <v>14</v>
@@ -22316,6 +22589,56 @@
         <v>74.909406364253414</v>
       </c>
       <c r="P45" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="15">
+        <v>45684</v>
+      </c>
+      <c r="B46" s="31">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C46" s="16">
+        <v>24.409999849999998</v>
+      </c>
+      <c r="D46" s="17">
+        <v>25.550295783221614</v>
+      </c>
+      <c r="E46" s="17">
+        <v>1171.3314863456887</v>
+      </c>
+      <c r="F46" s="18">
+        <v>1499.7841986810256</v>
+      </c>
+      <c r="G46" s="18">
+        <v>137969051.69782752</v>
+      </c>
+      <c r="H46" s="18">
+        <v>107753831.87597658</v>
+      </c>
+      <c r="I46" s="18">
+        <v>96135879.670357838</v>
+      </c>
+      <c r="J46" s="18">
+        <v>107753831.87597658</v>
+      </c>
+      <c r="K46" s="18">
+        <v>11617952.205618739</v>
+      </c>
+      <c r="L46" s="17">
+        <v>0</v>
+      </c>
+      <c r="M46" s="22">
+        <v>1.8195746670433634E-2</v>
+      </c>
+      <c r="N46" s="22">
+        <v>2.5623662326843669E-2</v>
+      </c>
+      <c r="O46" s="22">
+        <v>71.01149881830726</v>
+      </c>
+      <c r="P46" s="1">
         <v>0.2</v>
       </c>
     </row>
@@ -22335,7 +22658,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AJ45"/>
+  <dimension ref="A1:AJ46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -22376,22 +22699,22 @@
   <sheetData>
     <row r="1" spans="1:36" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G1" s="40" t="s">
         <v>5</v>
@@ -22504,7 +22827,7 @@
         <v>1</v>
       </c>
       <c r="T3" s="46" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="U3" s="46" t="s">
         <v>14</v>
@@ -25102,6 +25425,62 @@
         <v>74.909406364253414</v>
       </c>
       <c r="R45" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="15">
+        <v>45684</v>
+      </c>
+      <c r="B46" s="31">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C46" s="16">
+        <v>24.409999849999998</v>
+      </c>
+      <c r="D46" s="17">
+        <v>25.550295783221614</v>
+      </c>
+      <c r="E46" s="17">
+        <v>851700</v>
+      </c>
+      <c r="F46" s="17">
+        <v>4623625.5848982222</v>
+      </c>
+      <c r="G46" s="17">
+        <v>30.043422168031928</v>
+      </c>
+      <c r="H46" s="18">
+        <v>38.467889207427667</v>
+      </c>
+      <c r="I46" s="18">
+        <v>19295211.776539717</v>
+      </c>
+      <c r="J46" s="18">
+        <v>15069560.747103129</v>
+      </c>
+      <c r="K46" s="18">
+        <v>12401533.352861036</v>
+      </c>
+      <c r="L46" s="18">
+        <v>15069560.747103129</v>
+      </c>
+      <c r="M46" s="18">
+        <v>2668027.394242093</v>
+      </c>
+      <c r="N46" s="17">
+        <v>0</v>
+      </c>
+      <c r="O46" s="22">
+        <v>1.8195746670433634E-2</v>
+      </c>
+      <c r="P46" s="22">
+        <v>2.5623662326843669E-2</v>
+      </c>
+      <c r="Q46" s="22">
+        <v>71.01149881830726</v>
+      </c>
+      <c r="R46" s="1">
         <v>0.2</v>
       </c>
     </row>
@@ -25121,7 +25500,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AJ45"/>
+  <dimension ref="A1:AJ46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -25162,16 +25541,16 @@
   <sheetData>
     <row r="1" spans="1:36" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="E1" s="40" t="s">
         <v>5</v>
@@ -25198,19 +25577,19 @@
         <v>12</v>
       </c>
       <c r="M1" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="48" t="s">
+      <c r="O1" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="48" t="s">
+      <c r="P1" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="P1" s="48" t="s">
+      <c r="Q1" s="11" t="s">
         <v>32</v>
-      </c>
-      <c r="Q1" s="11" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -25291,7 +25670,7 @@
         <v>1</v>
       </c>
       <c r="T3" s="46" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="U3" s="46" t="s">
         <v>14</v>
@@ -27766,6 +28145,59 @@
         <v>78.295111835872916</v>
       </c>
       <c r="Q45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="15">
+        <v>45684</v>
+      </c>
+      <c r="B46" s="31">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C46" s="16">
+        <v>24.409999849999998</v>
+      </c>
+      <c r="D46" s="17">
+        <v>25.550295783221614</v>
+      </c>
+      <c r="E46" s="17">
+        <v>5136.0855205209327</v>
+      </c>
+      <c r="F46" s="18">
+        <v>6576.2937277333249</v>
+      </c>
+      <c r="G46" s="18">
+        <v>13605230.32727211</v>
+      </c>
+      <c r="H46" s="18">
+        <v>10625685.132123733</v>
+      </c>
+      <c r="I46" s="18">
+        <v>9500026.9257440194</v>
+      </c>
+      <c r="J46" s="18">
+        <v>10625685.132123733</v>
+      </c>
+      <c r="K46" s="18">
+        <v>1125658.2063797135</v>
+      </c>
+      <c r="L46" s="17">
+        <v>0</v>
+      </c>
+      <c r="M46" s="21">
+        <v>67.931038664297006</v>
+      </c>
+      <c r="N46" s="21">
+        <v>69.206365409704674</v>
+      </c>
+      <c r="O46" s="21">
+        <v>66.814446640352415</v>
+      </c>
+      <c r="P46" s="21">
+        <v>73.990202948409177</v>
+      </c>
+      <c r="Q46" s="1">
         <v>1</v>
       </c>
     </row>
@@ -27785,7 +28217,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AJ45"/>
+  <dimension ref="A1:AJ46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -27826,22 +28258,22 @@
   <sheetData>
     <row r="1" spans="1:36" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G1" s="40" t="s">
         <v>5</v>
@@ -27940,7 +28372,7 @@
         <v>1</v>
       </c>
       <c r="T3" s="46" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="U3" s="46" t="s">
         <v>14</v>
@@ -30052,6 +30484,50 @@
         <v>18062016.103638738</v>
       </c>
       <c r="N45" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="15">
+        <v>45684</v>
+      </c>
+      <c r="B46" s="31">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C46" s="16">
+        <v>24.409999849999998</v>
+      </c>
+      <c r="D46" s="17">
+        <v>25.550295783221614</v>
+      </c>
+      <c r="E46" s="17">
+        <v>851700</v>
+      </c>
+      <c r="F46" s="17">
+        <v>4623625.5848982222</v>
+      </c>
+      <c r="G46" s="17">
+        <v>1078.8319778520554</v>
+      </c>
+      <c r="H46" s="18">
+        <v>1381.3469306303568</v>
+      </c>
+      <c r="I46" s="18">
+        <v>120975073.71772209</v>
+      </c>
+      <c r="J46" s="18">
+        <v>94481534.76558654</v>
+      </c>
+      <c r="K46" s="18">
+        <v>77387302.951601744</v>
+      </c>
+      <c r="L46" s="18">
+        <v>94481534.76558654</v>
+      </c>
+      <c r="M46" s="18">
+        <v>17094231.813984796</v>
+      </c>
+      <c r="N46" s="17">
         <v>0</v>
       </c>
     </row>
@@ -30071,7 +30547,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AG45"/>
+  <dimension ref="A1:AG46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -30112,7 +30588,7 @@
   <sheetData>
     <row r="1" spans="1:33" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>2</v>
@@ -30211,7 +30687,7 @@
         <v>1</v>
       </c>
       <c r="Q3" s="46" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="R3" s="46" t="s">
         <v>14</v>
@@ -32071,6 +32547,44 @@
         <v>11851053.977297679</v>
       </c>
       <c r="L45" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="15">
+        <v>45684</v>
+      </c>
+      <c r="B46" s="31">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C46" s="16">
+        <v>24.409999849999998</v>
+      </c>
+      <c r="D46" s="17">
+        <v>25.550295783221614</v>
+      </c>
+      <c r="E46" s="17">
+        <v>5856.657431728444</v>
+      </c>
+      <c r="F46" s="18">
+        <v>7498.9209934051287</v>
+      </c>
+      <c r="G46" s="18">
+        <v>118580543.2828294</v>
+      </c>
+      <c r="H46" s="18">
+        <v>92611406.452546924</v>
+      </c>
+      <c r="I46" s="18">
+        <v>81708931.685000867</v>
+      </c>
+      <c r="J46" s="18">
+        <v>92611406.452546924</v>
+      </c>
+      <c r="K46" s="18">
+        <v>10902474.767546058</v>
+      </c>
+      <c r="L46" s="17">
         <v>0</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(RSI&KDJ)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(RSI&KDJ)cn.xlsx
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="49">
   <si>
     <t>in practice</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -145,7 +145,71 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>深创100ETF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE均值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>买卖金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>买卖份数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>持有份数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>市值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计投入资金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总资产</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>利润</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回收资金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>每年投入本金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计投入本金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>盈利金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝对收益率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>年化收益率</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -660,7 +724,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -792,6 +856,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -801,7 +868,7 @@
               <c:f>'模型四 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -932,6 +999,9 @@
                   <c:v>9322156.0793799553</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>9327292.1649004761</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>9327292.1649004761</c:v>
                 </c:pt>
               </c:numCache>
@@ -975,7 +1045,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1107,6 +1177,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1116,7 +1189,7 @@
               <c:f>'模型四 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1248,6 +1321,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>10409491.022322454</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>11022598.084584303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1290,7 +1366,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1422,6 +1498,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1431,7 +1510,7 @@
               <c:f>'模型四 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1563,6 +1642,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>1082198.8574219774</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1695305.9196838271</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1584,11 +1666,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="587447680"/>
-        <c:axId val="587457664"/>
+        <c:axId val="439217152"/>
+        <c:axId val="455020544"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="587447680"/>
+        <c:axId val="439217152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1631,14 +1713,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="587457664"/>
+        <c:crossAx val="455020544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="587457664"/>
+        <c:axId val="455020544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1689,7 +1771,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="587447680"/>
+        <c:crossAx val="439217152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1880,7 +1962,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2012,6 +2094,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>5136.0855205209327</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-1054.5417431386754</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2026,8 +2111,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="610995584"/>
-        <c:axId val="610994048"/>
+        <c:axId val="641655552"/>
+        <c:axId val="641399808"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2052,7 +2137,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2184,6 +2269,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2193,7 +2281,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2325,6 +2413,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>0.78100001811981201</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.82700002193450928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2341,11 +2432,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="610968704"/>
-        <c:axId val="610992512"/>
+        <c:axId val="641383808"/>
+        <c:axId val="641397888"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="610968704"/>
+        <c:axId val="641383808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2388,14 +2479,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="610992512"/>
+        <c:crossAx val="641397888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="610992512"/>
+        <c:axId val="641397888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2446,12 +2537,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="610968704"/>
+        <c:crossAx val="641383808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="610994048"/>
+        <c:axId val="641399808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2488,12 +2579,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="610995584"/>
+        <c:crossAx val="641655552"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="610995584"/>
+        <c:axId val="641655552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2502,7 +2593,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="610994048"/>
+        <c:crossAx val="641399808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2681,7 +2772,7 @@
               <c:f>'模型四 (3)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2813,6 +2904,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2822,7 +2916,7 @@
               <c:f>'模型四 (3)PE副本成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2953,6 +3047,9 @@
                   <c:v>77386224.119623885</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>77387302.951601744</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>77387302.951601744</c:v>
                 </c:pt>
               </c:numCache>
@@ -2996,7 +3093,7 @@
               <c:f>'模型四 (3)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3128,6 +3225,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3137,7 +3237,7 @@
               <c:f>'模型四 (3)PE副本成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3269,6 +3369,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>94481534.76558654</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>100046388.61808506</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3311,7 +3414,7 @@
               <c:f>'模型四 (3)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3443,6 +3546,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3452,7 +3558,7 @@
               <c:f>'模型四 (3)PE副本成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3584,6 +3690,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>17094231.813984796</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>22659085.666483313</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3605,11 +3714,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="611931648"/>
-        <c:axId val="612311808"/>
+        <c:axId val="507806080"/>
+        <c:axId val="507807616"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="611931648"/>
+        <c:axId val="507806080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3652,14 +3761,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="612311808"/>
+        <c:crossAx val="507807616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="612311808"/>
+        <c:axId val="507807616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3710,7 +3819,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="611931648"/>
+        <c:crossAx val="507806080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3901,7 +4010,7 @@
               <c:f>'模型四 (3)PE副本成交量'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4033,6 +4142,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>1078.8319778520554</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-152.60175248454331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4047,8 +4159,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="625144960"/>
-        <c:axId val="623659648"/>
+        <c:axId val="507836288"/>
+        <c:axId val="507834752"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4073,7 +4185,7 @@
               <c:f>'模型四 (3)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4205,6 +4317,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4214,7 +4329,7 @@
               <c:f>'模型四 (3)PE副本成交量'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4346,6 +4461,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>0.78100001811981201</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.82700002193450928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4362,11 +4480,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="622815104"/>
-        <c:axId val="623658112"/>
+        <c:axId val="507831424"/>
+        <c:axId val="507832960"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="622815104"/>
+        <c:axId val="507831424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4409,14 +4527,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="623658112"/>
+        <c:crossAx val="507832960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="623658112"/>
+        <c:axId val="507832960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4467,12 +4585,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="622815104"/>
+        <c:crossAx val="507831424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="623659648"/>
+        <c:axId val="507834752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4509,12 +4627,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="625144960"/>
+        <c:crossAx val="507836288"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="625144960"/>
+        <c:axId val="507836288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4523,7 +4641,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="623659648"/>
+        <c:crossAx val="507834752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4702,7 +4820,7 @@
               <c:f>'模型四 (3)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4834,6 +4952,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4843,7 +4964,7 @@
               <c:f>'模型四 (3)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4974,6 +5095,9 @@
                   <c:v>81703075.027569145</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>81708931.685000867</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>81708931.685000867</c:v>
                 </c:pt>
               </c:numCache>
@@ -5017,7 +5141,7 @@
               <c:f>'模型四 (3)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5149,6 +5273,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5158,7 +5285,7 @@
               <c:f>'模型四 (3)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5290,6 +5417,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>92611406.452546924</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>98066111.895905942</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5332,7 +5462,7 @@
               <c:f>'模型四 (3)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5464,6 +5594,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5473,7 +5606,7 @@
               <c:f>'模型四 (3)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5605,6 +5738,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>10902474.767546058</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>16357180.210905075</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5626,11 +5762,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="536851968"/>
-        <c:axId val="536853504"/>
+        <c:axId val="507911552"/>
+        <c:axId val="507913344"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="536851968"/>
+        <c:axId val="507911552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5673,14 +5809,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="536853504"/>
+        <c:crossAx val="507913344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="536853504"/>
+        <c:axId val="507913344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5731,7 +5867,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="536851968"/>
+        <c:crossAx val="507911552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5922,7 +6058,7 @@
               <c:f>'模型四 (3)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6054,6 +6190,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>5856.657431728444</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-544.87529301887162</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6068,8 +6207,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="558369792"/>
-        <c:axId val="558368256"/>
+        <c:axId val="507950208"/>
+        <c:axId val="507944320"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6094,7 +6233,7 @@
               <c:f>'模型四 (3)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6226,6 +6365,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6235,7 +6377,7 @@
               <c:f>'模型四 (3)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6367,6 +6509,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>0.78100001811981201</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.82700002193450928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6383,11 +6528,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="536922368"/>
-        <c:axId val="558366720"/>
+        <c:axId val="507941248"/>
+        <c:axId val="507942784"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="536922368"/>
+        <c:axId val="507941248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6430,14 +6575,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="558366720"/>
+        <c:crossAx val="507942784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="558366720"/>
+        <c:axId val="507942784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6488,12 +6633,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="536922368"/>
+        <c:crossAx val="507941248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="558368256"/>
+        <c:axId val="507944320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6530,12 +6675,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="558369792"/>
+        <c:crossAx val="507950208"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="558369792"/>
+        <c:axId val="507950208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6544,7 +6689,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="558368256"/>
+        <c:crossAx val="507944320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6706,7 +6851,7 @@
               <c:f>'模型四 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6838,6 +6983,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>5136.0855205209327</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-1054.5417431386754</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6852,8 +7000,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="591450112"/>
-        <c:axId val="591435648"/>
+        <c:axId val="530604416"/>
+        <c:axId val="530597376"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6878,7 +7026,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7010,6 +7158,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7019,7 +7170,7 @@
               <c:f>'模型四 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -7151,6 +7302,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>0.78100001811981201</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.82700002193450928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7167,11 +7321,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="591431936"/>
-        <c:axId val="591434112"/>
+        <c:axId val="530589952"/>
+        <c:axId val="530595840"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="591431936"/>
+        <c:axId val="530589952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7214,14 +7368,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="591434112"/>
+        <c:crossAx val="530595840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="591434112"/>
+        <c:axId val="530595840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7272,12 +7426,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="591431936"/>
+        <c:crossAx val="530589952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="591435648"/>
+        <c:axId val="530597376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7314,12 +7468,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="591450112"/>
+        <c:crossAx val="530604416"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="591450112"/>
+        <c:axId val="530604416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7328,7 +7482,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="591435648"/>
+        <c:crossAx val="530597376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7507,7 +7661,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7639,6 +7793,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7648,7 +7805,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7779,6 +7936,9 @@
                   <c:v>10880000.025811484</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>10881027.242915587</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>10881027.242915587</c:v>
                 </c:pt>
               </c:numCache>
@@ -7822,7 +7982,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7954,6 +8114,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7963,7 +8126,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8095,6 +8258,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>12001371.920472054</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>12708238.938801141</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8137,7 +8303,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8269,6 +8435,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8278,7 +8447,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8410,6 +8579,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>1120344.6775564663</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1827211.695885554</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8431,11 +8603,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="591488128"/>
-        <c:axId val="591489664"/>
+        <c:axId val="543677824"/>
+        <c:axId val="543679616"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="591488128"/>
+        <c:axId val="543677824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8478,14 +8650,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="591489664"/>
+        <c:crossAx val="543679616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="591489664"/>
+        <c:axId val="543679616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8536,7 +8708,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="591488128"/>
+        <c:crossAx val="543677824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8736,7 +8908,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8868,6 +9040,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>1027.2171041041865</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-210.90834862773511</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8882,8 +9057,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="591641984"/>
-        <c:axId val="591640448"/>
+        <c:axId val="543923200"/>
+        <c:axId val="543921664"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8908,7 +9083,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9040,6 +9215,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9049,7 +9227,7 @@
               <c:f>'模型四 (1)PE副本计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -9181,6 +9359,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>0.78100001811981201</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.82700002193450928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9197,11 +9378,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="591595392"/>
-        <c:axId val="591638912"/>
+        <c:axId val="543906048"/>
+        <c:axId val="543920128"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="591595392"/>
+        <c:axId val="543906048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9244,14 +9425,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="591638912"/>
+        <c:crossAx val="543920128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="591638912"/>
+        <c:axId val="543920128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9302,12 +9483,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="591595392"/>
+        <c:crossAx val="543906048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="591640448"/>
+        <c:axId val="543921664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9344,12 +9525,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="591641984"/>
+        <c:crossAx val="543923200"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="591641984"/>
+        <c:axId val="543923200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9358,7 +9539,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="591640448"/>
+        <c:crossAx val="543921664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9537,7 +9718,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9669,6 +9850,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9678,7 +9862,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9809,6 +9993,9 @@
                   <c:v>96134708.338871494</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>96135879.670357838</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>96135879.670357838</c:v>
                 </c:pt>
               </c:numCache>
@@ -9852,7 +10039,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9984,6 +10171,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9993,7 +10183,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10125,6 +10315,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>107753831.87597658</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>114100408.78038681</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10167,7 +10360,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10299,6 +10492,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10308,7 +10504,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10440,6 +10636,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>11617952.205618739</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>17964529.110028967</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10461,11 +10660,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="591903360"/>
-        <c:axId val="591921920"/>
+        <c:axId val="544232192"/>
+        <c:axId val="544233728"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="591903360"/>
+        <c:axId val="544232192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10508,14 +10707,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="591921920"/>
+        <c:crossAx val="544233728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="591921920"/>
+        <c:axId val="544233728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10566,7 +10765,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="591903360"/>
+        <c:crossAx val="544232192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10766,7 +10965,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10898,6 +11097,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>1171.3314863456887</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-108.97505860377433</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10912,8 +11114,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="592087680"/>
-        <c:axId val="592084352"/>
+        <c:axId val="544492544"/>
+        <c:axId val="544476544"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -10938,7 +11140,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11070,6 +11272,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11079,7 +11284,7 @@
               <c:f>'模型四 (3)PE副本计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -11211,6 +11416,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>0.78100001811981201</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.82700002193450928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11227,11 +11435,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="592073472"/>
-        <c:axId val="592075008"/>
+        <c:axId val="544267648"/>
+        <c:axId val="544474624"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="592073472"/>
+        <c:axId val="544267648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11274,14 +11482,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="592075008"/>
+        <c:crossAx val="544474624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="592075008"/>
+        <c:axId val="544474624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11332,12 +11540,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="592073472"/>
+        <c:crossAx val="544267648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="592084352"/>
+        <c:axId val="544476544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11374,12 +11582,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="592087680"/>
+        <c:crossAx val="544492544"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="592087680"/>
+        <c:axId val="544492544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11388,7 +11596,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="592084352"/>
+        <c:crossAx val="544476544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11567,7 +11775,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11699,6 +11907,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11708,7 +11919,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11839,6 +12050,9 @@
                   <c:v>12401503.309438867</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>12401533.352861036</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>12401533.352861036</c:v>
                 </c:pt>
               </c:numCache>
@@ -11882,7 +12096,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -12014,6 +12228,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12023,7 +12240,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12155,6 +12372,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>15069560.747103129</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>15957140.562429346</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12197,7 +12417,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -12329,6 +12549,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12338,7 +12561,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12470,6 +12693,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>2668027.394242093</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3555607.2095683105</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12491,11 +12717,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="592140160"/>
-        <c:axId val="592141696"/>
+        <c:axId val="545364992"/>
+        <c:axId val="545560064"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="592140160"/>
+        <c:axId val="545364992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12538,14 +12764,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="592141696"/>
+        <c:crossAx val="545560064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="592141696"/>
+        <c:axId val="545560064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12596,7 +12822,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="592140160"/>
+        <c:crossAx val="545364992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12787,7 +13013,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12919,6 +13145,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>30.043422168031928</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-4.2496690565315847</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12933,8 +13162,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="600674304"/>
-        <c:axId val="595224832"/>
+        <c:axId val="638476288"/>
+        <c:axId val="638472192"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -12959,7 +13188,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -13091,6 +13320,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13100,7 +13332,7 @@
               <c:f>'模型四 (3)PE副本成交量计算RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -13232,6 +13464,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>0.78100001811981201</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.82700002193450928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13248,11 +13483,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="593113088"/>
-        <c:axId val="593114624"/>
+        <c:axId val="638347136"/>
+        <c:axId val="638430208"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="593113088"/>
+        <c:axId val="638347136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13295,14 +13530,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="593114624"/>
+        <c:crossAx val="638430208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="593114624"/>
+        <c:axId val="638430208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13353,12 +13588,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="593113088"/>
+        <c:crossAx val="638347136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="595224832"/>
+        <c:axId val="638472192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13395,12 +13630,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="600674304"/>
+        <c:crossAx val="638476288"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="600674304"/>
+        <c:axId val="638476288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13409,7 +13644,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="595224832"/>
+        <c:crossAx val="638472192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13588,7 +13823,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -13720,6 +13955,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13729,7 +13967,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13860,6 +14098,9 @@
                   <c:v>9494890.8402234986</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>9500026.9257440194</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>9500026.9257440194</c:v>
                 </c:pt>
               </c:numCache>
@@ -13903,7 +14144,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -14035,6 +14276,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14044,7 +14288,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14176,6 +14420,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>10625685.132123733</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>11251525.779078085</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14218,7 +14465,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -14350,6 +14597,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14359,7 +14609,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14491,6 +14741,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>1125658.2063797135</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1751498.8533340655</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14512,11 +14765,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="610892032"/>
-        <c:axId val="610899072"/>
+        <c:axId val="640994688"/>
+        <c:axId val="641172992"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="610892032"/>
+        <c:axId val="640994688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14559,14 +14812,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="610899072"/>
+        <c:crossAx val="641172992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="610899072"/>
+        <c:axId val="641172992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14617,7 +14870,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="610892032"/>
+        <c:crossAx val="640994688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15469,7 +15722,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG46"/>
+  <dimension ref="A1:AG47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17510,6 +17763,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="47" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="32">
+        <v>45716</v>
+      </c>
+      <c r="B47" s="31">
+        <v>0.82700002193450928</v>
+      </c>
+      <c r="C47" s="31">
+        <v>26.079999923706055</v>
+      </c>
+      <c r="D47" s="29">
+        <v>25.563306017026612</v>
+      </c>
+      <c r="E47" s="29">
+        <v>-1054.5417431386754</v>
+      </c>
+      <c r="F47" s="30">
+        <v>-1275.1411307969533</v>
+      </c>
+      <c r="G47" s="30">
+        <v>13327138.150564605</v>
+      </c>
+      <c r="H47" s="30">
+        <v>11021543.542841164</v>
+      </c>
+      <c r="I47" s="30">
+        <v>9327292.1649004761</v>
+      </c>
+      <c r="J47" s="30">
+        <v>11022598.084584303</v>
+      </c>
+      <c r="K47" s="30">
+        <v>1695305.9196838271</v>
+      </c>
+      <c r="L47" s="29">
+        <v>1054.5417431386754</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -17526,7 +17817,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH46"/>
+  <dimension ref="A1:AH47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17603,16 +17894,16 @@
         <v>12</v>
       </c>
       <c r="M1" s="44" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="N1" s="44" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="O1" s="48" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -17677,7 +17968,7 @@
         <v>1</v>
       </c>
       <c r="R3" s="46" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="S3" s="46" t="s">
         <v>14</v>
@@ -20073,6 +20364,56 @@
         <v>71.01149881830726</v>
       </c>
       <c r="P46" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="15">
+        <v>45716</v>
+      </c>
+      <c r="B47" s="31">
+        <v>0.82700002193450928</v>
+      </c>
+      <c r="C47" s="16">
+        <v>26.079999923706055</v>
+      </c>
+      <c r="D47" s="17">
+        <v>25.563306017026612</v>
+      </c>
+      <c r="E47" s="17">
+        <v>-210.90834862773511</v>
+      </c>
+      <c r="F47" s="18">
+        <v>-255.0282261593907</v>
+      </c>
+      <c r="G47" s="18">
+        <v>15366418.008945195</v>
+      </c>
+      <c r="H47" s="18">
+        <v>12708028.030452514</v>
+      </c>
+      <c r="I47" s="18">
+        <v>10881027.242915587</v>
+      </c>
+      <c r="J47" s="18">
+        <v>12708238.938801141</v>
+      </c>
+      <c r="K47" s="18">
+        <v>1827211.695885554</v>
+      </c>
+      <c r="L47" s="17">
+        <v>210.90834862773511</v>
+      </c>
+      <c r="M47" s="22">
+        <v>2.2829789527810906E-2</v>
+      </c>
+      <c r="N47" s="22">
+        <v>2.9019719241485931E-2</v>
+      </c>
+      <c r="O47" s="22">
+        <v>78.66991867782771</v>
+      </c>
+      <c r="P47" s="1">
         <v>0.2</v>
       </c>
     </row>
@@ -20092,7 +20433,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:AH46"/>
+  <dimension ref="A1:AH47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -20169,16 +20510,16 @@
         <v>12</v>
       </c>
       <c r="M1" s="44" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="N1" s="44" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="O1" s="48" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -20243,7 +20584,7 @@
         <v>1</v>
       </c>
       <c r="R3" s="46" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="S3" s="46" t="s">
         <v>14</v>
@@ -22639,6 +22980,56 @@
         <v>71.01149881830726</v>
       </c>
       <c r="P46" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="15">
+        <v>45716</v>
+      </c>
+      <c r="B47" s="31">
+        <v>0.82700002193450928</v>
+      </c>
+      <c r="C47" s="16">
+        <v>26.079999923706055</v>
+      </c>
+      <c r="D47" s="17">
+        <v>25.563306017026612</v>
+      </c>
+      <c r="E47" s="17">
+        <v>-108.97505860377433</v>
+      </c>
+      <c r="F47" s="18">
+        <v>-131.77153048782404</v>
+      </c>
+      <c r="G47" s="18">
+        <v>137968919.92629704</v>
+      </c>
+      <c r="H47" s="18">
+        <v>114100299.80532821</v>
+      </c>
+      <c r="I47" s="18">
+        <v>96135879.670357838</v>
+      </c>
+      <c r="J47" s="18">
+        <v>114100408.78038681</v>
+      </c>
+      <c r="K47" s="18">
+        <v>17964529.110028967</v>
+      </c>
+      <c r="L47" s="17">
+        <v>108.97505860377433</v>
+      </c>
+      <c r="M47" s="22">
+        <v>2.2829789527810906E-2</v>
+      </c>
+      <c r="N47" s="22">
+        <v>2.9019719241485931E-2</v>
+      </c>
+      <c r="O47" s="22">
+        <v>78.66991867782771</v>
+      </c>
+      <c r="P47" s="1">
         <v>0.2</v>
       </c>
     </row>
@@ -22658,7 +23049,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AJ46"/>
+  <dimension ref="A1:AJ47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -22699,22 +23090,22 @@
   <sheetData>
     <row r="1" spans="1:36" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="G1" s="40" t="s">
         <v>5</v>
@@ -22741,16 +23132,16 @@
         <v>12</v>
       </c>
       <c r="O1" s="44" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="P1" s="44" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="Q1" s="48" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="R1" s="11" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -22827,7 +23218,7 @@
         <v>1</v>
       </c>
       <c r="T3" s="46" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="U3" s="46" t="s">
         <v>14</v>
@@ -25481,6 +25872,62 @@
         <v>71.01149881830726</v>
       </c>
       <c r="R46" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="15">
+        <v>45716</v>
+      </c>
+      <c r="B47" s="31">
+        <v>0.82700002193450928</v>
+      </c>
+      <c r="C47" s="16">
+        <v>26.079999923706055</v>
+      </c>
+      <c r="D47" s="17">
+        <v>25.563306017026612</v>
+      </c>
+      <c r="E47" s="17">
+        <v>1283704</v>
+      </c>
+      <c r="F47" s="17">
+        <v>4583555.4425912919</v>
+      </c>
+      <c r="G47" s="17">
+        <v>-4.2496690565315847</v>
+      </c>
+      <c r="H47" s="18">
+        <v>-5.1386565221495468</v>
+      </c>
+      <c r="I47" s="18">
+        <v>19295206.637883194</v>
+      </c>
+      <c r="J47" s="18">
+        <v>15957136.31276029</v>
+      </c>
+      <c r="K47" s="18">
+        <v>12401533.352861036</v>
+      </c>
+      <c r="L47" s="18">
+        <v>15957140.562429346</v>
+      </c>
+      <c r="M47" s="18">
+        <v>3555607.2095683105</v>
+      </c>
+      <c r="N47" s="17">
+        <v>4.2496690565315847</v>
+      </c>
+      <c r="O47" s="22">
+        <v>2.2829789527810906E-2</v>
+      </c>
+      <c r="P47" s="22">
+        <v>2.9019719241485931E-2</v>
+      </c>
+      <c r="Q47" s="22">
+        <v>78.66991867782771</v>
+      </c>
+      <c r="R47" s="1">
         <v>0.2</v>
       </c>
     </row>
@@ -25500,7 +25947,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AJ46"/>
+  <dimension ref="A1:AJ47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -25577,19 +26024,19 @@
         <v>12</v>
       </c>
       <c r="M1" s="48" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="N1" s="48" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="O1" s="48" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="P1" s="48" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="Q1" s="11" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -25670,7 +26117,7 @@
         <v>1</v>
       </c>
       <c r="T3" s="46" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="U3" s="46" t="s">
         <v>14</v>
@@ -28198,6 +28645,59 @@
         <v>73.990202948409177</v>
       </c>
       <c r="Q46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="15">
+        <v>45716</v>
+      </c>
+      <c r="B47" s="31">
+        <v>0.82700002193450928</v>
+      </c>
+      <c r="C47" s="16">
+        <v>26.079999923706055</v>
+      </c>
+      <c r="D47" s="17">
+        <v>25.563306017026612</v>
+      </c>
+      <c r="E47" s="17">
+        <v>-1054.5417431386754</v>
+      </c>
+      <c r="F47" s="18">
+        <v>-1275.1411307969533</v>
+      </c>
+      <c r="G47" s="18">
+        <v>13603955.186141312</v>
+      </c>
+      <c r="H47" s="18">
+        <v>11250471.237334946</v>
+      </c>
+      <c r="I47" s="18">
+        <v>9500026.9257440194</v>
+      </c>
+      <c r="J47" s="18">
+        <v>11251525.779078085</v>
+      </c>
+      <c r="K47" s="18">
+        <v>1751498.8533340655</v>
+      </c>
+      <c r="L47" s="17">
+        <v>1054.5417431386754</v>
+      </c>
+      <c r="M47" s="21">
+        <v>83.79310777156131</v>
+      </c>
+      <c r="N47" s="21">
+        <v>74.068612863656881</v>
+      </c>
+      <c r="O47" s="21">
+        <v>69.232502048120566</v>
+      </c>
+      <c r="P47" s="21">
+        <v>83.740834494729512</v>
+      </c>
+      <c r="Q47" s="1">
         <v>1</v>
       </c>
     </row>
@@ -28217,7 +28717,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AJ46"/>
+  <dimension ref="A1:AJ47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -28258,22 +28758,22 @@
   <sheetData>
     <row r="1" spans="1:36" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="G1" s="40" t="s">
         <v>5</v>
@@ -28372,7 +28872,7 @@
         <v>1</v>
       </c>
       <c r="T3" s="46" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="U3" s="46" t="s">
         <v>14</v>
@@ -30529,6 +31029,50 @@
       </c>
       <c r="N46" s="17">
         <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="15">
+        <v>45716</v>
+      </c>
+      <c r="B47" s="31">
+        <v>0.82700002193450928</v>
+      </c>
+      <c r="C47" s="16">
+        <v>26.079999923706055</v>
+      </c>
+      <c r="D47" s="17">
+        <v>25.563306017026612</v>
+      </c>
+      <c r="E47" s="17">
+        <v>1283704</v>
+      </c>
+      <c r="F47" s="17">
+        <v>4583555.4425912919</v>
+      </c>
+      <c r="G47" s="17">
+        <v>-152.60175248454331</v>
+      </c>
+      <c r="H47" s="18">
+        <v>-184.52448420446106</v>
+      </c>
+      <c r="I47" s="18">
+        <v>120974889.19323789</v>
+      </c>
+      <c r="J47" s="18">
+        <v>100046236.01633257</v>
+      </c>
+      <c r="K47" s="18">
+        <v>77387302.951601744</v>
+      </c>
+      <c r="L47" s="18">
+        <v>100046388.61808506</v>
+      </c>
+      <c r="M47" s="18">
+        <v>22659085.666483313</v>
+      </c>
+      <c r="N47" s="17">
+        <v>152.60175248454331</v>
       </c>
     </row>
   </sheetData>
@@ -30547,7 +31091,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AG46"/>
+  <dimension ref="A1:AG47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -30588,40 +31132,40 @@
   <sheetData>
     <row r="1" spans="1:33" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="H1" s="40" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="I1" s="41" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="J1" s="39" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="K1" s="43" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="L1" s="44" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="N1" s="12"/>
     </row>
@@ -30684,28 +31228,28 @@
       </c>
       <c r="M3" s="7"/>
       <c r="P3" s="45" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="Q3" s="46" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="R3" s="46" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="S3" s="46" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="T3" s="46" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="U3" s="47" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="V3" s="46" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="W3" s="46" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="Y3" s="42">
         <v>44561</v>
@@ -32586,6 +33130,44 @@
       </c>
       <c r="L46" s="17">
         <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="15">
+        <v>45716</v>
+      </c>
+      <c r="B47" s="31">
+        <v>0.82700002193450928</v>
+      </c>
+      <c r="C47" s="16">
+        <v>26.079999923706055</v>
+      </c>
+      <c r="D47" s="17">
+        <v>25.563306017026612</v>
+      </c>
+      <c r="E47" s="17">
+        <v>-544.87529301887162</v>
+      </c>
+      <c r="F47" s="18">
+        <v>-658.8576524391201</v>
+      </c>
+      <c r="G47" s="18">
+        <v>118579884.42517696</v>
+      </c>
+      <c r="H47" s="18">
+        <v>98065567.020612925</v>
+      </c>
+      <c r="I47" s="18">
+        <v>81708931.685000867</v>
+      </c>
+      <c r="J47" s="18">
+        <v>98066111.895905942</v>
+      </c>
+      <c r="K47" s="18">
+        <v>16357180.210905075</v>
+      </c>
+      <c r="L47" s="17">
+        <v>544.87529301887162</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(RSI&KDJ)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(RSI&KDJ)cn.xlsx
@@ -71,77 +71,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="32">
   <si>
     <t>in practice</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>深创100ETF</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PE均值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>买卖金额</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>买卖份数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>持有份数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>市值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计投入资金</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>总资产</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>利润</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>回收资金</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>每年投入本金</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计投入本金</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>盈利金额</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>绝对收益率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>年化收益率</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -233,19 +165,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>成交量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成交均量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>深创100ETF</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>PE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>成交量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>成交均量</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -724,7 +656,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -859,6 +791,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -868,7 +803,7 @@
               <c:f>'模型四 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1002,6 +937,9 @@
                   <c:v>9327292.1649004761</c:v>
                 </c:pt>
                 <c:pt idx="44">
+                  <c:v>9327292.1649004761</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>9327292.1649004761</c:v>
                 </c:pt>
               </c:numCache>
@@ -1045,7 +983,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1180,6 +1118,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1189,7 +1130,7 @@
               <c:f>'模型四 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1324,6 +1265,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>11022598.084584303</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>10849345.136109971</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1366,7 +1310,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1501,6 +1445,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1510,7 +1457,7 @@
               <c:f>'模型四 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1645,6 +1592,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>1695305.9196838271</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1522052.9712094944</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1666,11 +1616,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="439217152"/>
-        <c:axId val="455020544"/>
+        <c:axId val="468385792"/>
+        <c:axId val="474260608"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="439217152"/>
+        <c:axId val="468385792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1713,14 +1663,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="455020544"/>
+        <c:crossAx val="474260608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="455020544"/>
+        <c:axId val="474260608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1771,7 +1721,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439217152"/>
+        <c:crossAx val="468385792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1962,7 +1912,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2097,6 +2047,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>-1054.5417431386754</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-11.050952879581011</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2111,8 +2064,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="641655552"/>
-        <c:axId val="641399808"/>
+        <c:axId val="753904256"/>
+        <c:axId val="753902336"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2137,7 +2090,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2272,6 +2225,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2281,7 +2237,7 @@
               <c:f>'模型四 (1)PE副本计算KDJ'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2416,6 +2372,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>0.82700002193450928</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.81400001049041748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2432,11 +2391,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="641383808"/>
-        <c:axId val="641397888"/>
+        <c:axId val="753775360"/>
+        <c:axId val="753777664"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="641383808"/>
+        <c:axId val="753775360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2479,14 +2438,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="641397888"/>
+        <c:crossAx val="753777664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="641397888"/>
+        <c:axId val="753777664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2537,12 +2496,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="641383808"/>
+        <c:crossAx val="753775360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="641399808"/>
+        <c:axId val="753902336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2579,12 +2538,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="641655552"/>
+        <c:crossAx val="753904256"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="641655552"/>
+        <c:axId val="753904256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2593,7 +2552,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="641399808"/>
+        <c:crossAx val="753902336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2772,7 +2731,7 @@
               <c:f>'模型四 (3)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2907,6 +2866,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2916,7 +2878,7 @@
               <c:f>'模型四 (3)PE副本成交量'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3050,6 +3012,9 @@
                   <c:v>77387302.951601744</c:v>
                 </c:pt>
                 <c:pt idx="44">
+                  <c:v>77387302.951601744</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>77387302.951601744</c:v>
                 </c:pt>
               </c:numCache>
@@ -3093,7 +3058,7 @@
               <c:f>'模型四 (3)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3228,6 +3193,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3237,7 +3205,7 @@
               <c:f>'模型四 (3)PE副本成交量'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3372,6 +3340,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>100046388.61808506</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>98473713.674125224</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3414,7 +3385,7 @@
               <c:f>'模型四 (3)PE副本成交量'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3549,6 +3520,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3558,7 +3532,7 @@
               <c:f>'模型四 (3)PE副本成交量'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3693,6 +3667,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>22659085.666483313</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>21086410.722523481</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3714,11 +3691,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="507806080"/>
-        <c:axId val="507807616"/>
+        <c:axId val="754320512"/>
+        <c:axId val="754322048"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="507806080"/>
+        <c:axId val="754320512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3761,14 +3738,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="507807616"/>
+        <c:crossAx val="754322048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="507807616"/>
+        <c:axId val="754322048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3819,7 +3796,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="507806080"/>
+        <c:crossAx val="754320512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4010,7 +3987,7 @@
               <c:f>'模型四 (3)PE副本成交量'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"